--- a/programs/autoencoder/data/real_enc.xlsx
+++ b/programs/autoencoder/data/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.08259484171867371</v>
+        <v>1.666172385215759</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09749629348516464</v>
+        <v>-0.8386040329933167</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07615397870540619</v>
+        <v>-1.325494050979614</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.08525428175926208</v>
+        <v>1.579620957374573</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1090613305568695</v>
+        <v>-0.7888601422309875</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07802747189998627</v>
+        <v>-1.255653738975525</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.08962465822696686</v>
+        <v>1.604697346687317</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1094549894332886</v>
+        <v>-0.8405964970588684</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.05830514803528786</v>
+        <v>-1.263428807258606</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.08415804803371429</v>
+        <v>1.472783446311951</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1064936071634293</v>
+        <v>-0.8040102124214172</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.05706637352705002</v>
+        <v>-1.159202814102173</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.08620517700910568</v>
+        <v>1.321946978569031</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1153478771448135</v>
+        <v>-0.7449619174003601</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05800501257181168</v>
+        <v>-1.037088751792908</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08145324885845184</v>
+        <v>0.9757893681526184</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1020597964525223</v>
+        <v>-0.6312263607978821</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04513449221849442</v>
+        <v>-0.6988076567649841</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0693831592798233</v>
+        <v>1.01624071598053</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09273526072502136</v>
+        <v>-0.6695438027381897</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.05165219306945801</v>
+        <v>-0.7200965285301208</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.05796525627374649</v>
+        <v>0.978739321231842</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.08735266327857971</v>
+        <v>-0.66311115026474</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.05215872824192047</v>
+        <v>-0.6636751890182495</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.05644373223185539</v>
+        <v>0.9413461685180664</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.082667276263237</v>
+        <v>-0.6386693716049194</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04762433469295502</v>
+        <v>-0.6265656352043152</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.06046635285019875</v>
+        <v>0.6224927306175232</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0622573085129261</v>
+        <v>-0.3278074860572815</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0260174386203289</v>
+        <v>-0.3343190550804138</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.07629895955324173</v>
+        <v>0.8799071907997131</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.07913040369749069</v>
+        <v>-0.4895815551280975</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.03910509124398232</v>
+        <v>-0.6197826266288757</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1028290241956711</v>
+        <v>0.827781617641449</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1023168414831161</v>
+        <v>-0.3021881878376007</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02809171937406063</v>
+        <v>-0.6592479944229126</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.07962373644113541</v>
+        <v>0.5943611860275269</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.08566246926784515</v>
+        <v>-0.2596175074577332</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.03133349865674973</v>
+        <v>-0.1814135760068893</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.09067047387361526</v>
+        <v>0.4613458514213562</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.100978672504425</v>
+        <v>-0.1670266836881638</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03218608722090721</v>
+        <v>-0.08706451952457428</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.09292696416378021</v>
+        <v>0.4668450355529785</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0826028436422348</v>
+        <v>-0.236128106713295</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.01797919906675816</v>
+        <v>-0.3314445614814758</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.09584430605173111</v>
+        <v>0.5187592506408691</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.09715282917022705</v>
+        <v>-0.2638180255889893</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.02977420389652252</v>
+        <v>-0.3250457346439362</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.0940433070063591</v>
+        <v>0.7304919362068176</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1102446317672729</v>
+        <v>-0.428670734167099</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.04542706161737442</v>
+        <v>-0.4363038539886475</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.08463294059038162</v>
+        <v>0.8337307572364807</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1173774302005768</v>
+        <v>-0.5572360157966614</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.05810562521219254</v>
+        <v>-0.4886959195137024</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.07028432935476303</v>
+        <v>0.7871652245521545</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1032466441392899</v>
+        <v>-0.509131908416748</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.05855577811598778</v>
+        <v>-0.4116405546665192</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.04917338117957115</v>
+        <v>1.258755922317505</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.09537732601165771</v>
+        <v>-0.8444080948829651</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.07117098569869995</v>
+        <v>-0.7664071917533875</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.04094846919178963</v>
+        <v>1.310092806816101</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.08737869560718536</v>
+        <v>-0.8768923282623291</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.07139047980308533</v>
+        <v>-0.7929472327232361</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.04720431938767433</v>
+        <v>1.678835391998291</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.09236626327037811</v>
+        <v>-1.079766988754272</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.07689663022756577</v>
+        <v>-1.214559435844421</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.09212060272693634</v>
+        <v>1.856663584709167</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1422760188579559</v>
+        <v>-0.9955386519432068</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.08026286959648132</v>
+        <v>-1.449167728424072</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.1129670739173889</v>
+        <v>2.469155311584473</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1689354330301285</v>
+        <v>-1.180536985397339</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.08831200003623962</v>
+        <v>-2.127702713012695</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.1181748583912849</v>
+        <v>2.694004058837891</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1746687293052673</v>
+        <v>-1.365441203117371</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.100817546248436</v>
+        <v>-2.164628744125366</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.1113710254430771</v>
+        <v>3.049788951873779</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1663183271884918</v>
+        <v>-1.670604109764099</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1092831343412399</v>
+        <v>-2.395463705062866</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1389084905385971</v>
+        <v>3.448301076889038</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.215118408203125</v>
+        <v>-1.828025102615356</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.09832143783569336</v>
+        <v>-2.820110082626343</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1312703639268875</v>
+        <v>3.107959270477295</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.1844262629747391</v>
+        <v>-1.852882266044617</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.07358488440513611</v>
+        <v>-2.394967555999756</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1355678737163544</v>
+        <v>2.833871126174927</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.182823657989502</v>
+        <v>-1.752765417098999</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0650545135140419</v>
+        <v>-2.144891738891602</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1391807496547699</v>
+        <v>2.897002696990967</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1767939478158951</v>
+        <v>-1.835398554801941</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.05804695188999176</v>
+        <v>-2.19837474822998</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1247519180178642</v>
+        <v>2.881334543228149</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1563532054424286</v>
+        <v>-1.862618088722229</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.05501527339220047</v>
+        <v>-2.098780155181885</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1205770596861839</v>
+        <v>2.434206962585449</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1391146779060364</v>
+        <v>-1.676748752593994</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04128021746873856</v>
+        <v>-1.685098528862</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.1065088585019112</v>
+        <v>2.149827003479004</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1133992448449135</v>
+        <v>-1.534927010536194</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0341232530772686</v>
+        <v>-1.492814540863037</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1206268891692162</v>
+        <v>2.228676557540894</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1354012042284012</v>
+        <v>-1.536117434501648</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.04015074670314789</v>
+        <v>-1.508884906768799</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.1429156512022018</v>
+        <v>2.946717023849487</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1874243021011353</v>
+        <v>-1.865277051925659</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.06755231320858002</v>
+        <v>-2.180771589279175</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1698042750358582</v>
+        <v>3.551130294799805</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.2389051616191864</v>
+        <v>-2.015626192092896</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.08499898016452789</v>
+        <v>-2.828210115432739</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.1465900540351868</v>
+        <v>3.574233770370483</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2116664797067642</v>
+        <v>-2.216721773147583</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.09207995980978012</v>
+        <v>-2.305005788803101</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.1349496841430664</v>
+        <v>3.226761341094971</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2017730474472046</v>
+        <v>-1.996878981590271</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.09450632333755493</v>
+        <v>-1.914482474327087</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.1619351655244827</v>
+        <v>2.953240394592285</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2076588571071625</v>
+        <v>-1.823284268379211</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.05572123825550079</v>
+        <v>-1.838273882865906</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.1559295803308487</v>
+        <v>2.802772045135498</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2019001990556717</v>
+        <v>-1.771480560302734</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.06155292689800262</v>
+        <v>-1.723855972290039</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.1624395549297333</v>
+        <v>3.126173496246338</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2256587743759155</v>
+        <v>-1.984047174453735</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.07861080020666122</v>
+        <v>-2.003350973129272</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.1577184349298477</v>
+        <v>2.812524318695068</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2073532342910767</v>
+        <v>-1.808788657188416</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.06515942513942719</v>
+        <v>-1.743697166442871</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.1568968296051025</v>
+        <v>2.425283908843994</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1729444861412048</v>
+        <v>-1.556954979896545</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.05488642305135727</v>
+        <v>-1.336770534515381</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1445654183626175</v>
+        <v>2.340116262435913</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1630492359399796</v>
+        <v>-1.532019734382629</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.05997002124786377</v>
+        <v>-1.268413782119751</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.1271520107984543</v>
+        <v>2.359581708908081</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1448767185211182</v>
+        <v>-1.601268172264099</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.06642945855855942</v>
+        <v>-1.294244289398193</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.1348942965269089</v>
+        <v>2.815599679946899</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1721268445253372</v>
+        <v>-1.821025609970093</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.07425812631845474</v>
+        <v>-1.632016897201538</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.1505103558301926</v>
+        <v>3.063914775848389</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1971642673015594</v>
+        <v>-1.921774983406067</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.07026494294404984</v>
+        <v>-1.819397807121277</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.1607463806867599</v>
+        <v>3.238135814666748</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.2083510160446167</v>
+        <v>-1.945074319839478</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.06027225032448769</v>
+        <v>-1.862878203392029</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1531964391469955</v>
+        <v>3.810358285903931</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1936737596988678</v>
+        <v>-2.315539121627808</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.07555679976940155</v>
+        <v>-2.082428216934204</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.147892490029335</v>
+        <v>3.93769645690918</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.2048825174570084</v>
+        <v>-2.422654390335083</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.09478438645601273</v>
+        <v>-2.14781379699707</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-0.1743121743202209</v>
+        <v>4.251649856567383</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.1881284117698669</v>
+        <v>-2.609867334365845</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.04254176840186119</v>
+        <v>-2.383008003234863</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1733533442020416</v>
+        <v>4.380409717559814</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.1989827156066895</v>
+        <v>-2.734341144561768</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.05707536637783051</v>
+        <v>-2.655999898910522</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.1837325245141983</v>
+        <v>4.415055274963379</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2187162935733795</v>
+        <v>-2.767891883850098</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0606204941868782</v>
+        <v>-3.18035888671875</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.1839994490146637</v>
+        <v>4.395920753479004</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.2095949649810791</v>
+        <v>-2.788234949111938</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.05390072613954544</v>
+        <v>-3.136949300765991</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.1749400943517685</v>
+        <v>4.465162754058838</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2004886716604233</v>
+        <v>-2.804270029067993</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.06262081116437912</v>
+        <v>-3.111676454544067</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.1703875511884689</v>
+        <v>4.344098567962646</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1860336065292358</v>
+        <v>-2.757089614868164</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.05301633849740028</v>
+        <v>-2.906599998474121</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1557943671941757</v>
+        <v>4.228642463684082</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1571178436279297</v>
+        <v>-2.717795610427856</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.044195506721735</v>
+        <v>-2.647144556045532</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.1726656556129456</v>
+        <v>4.446661949157715</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1889908313751221</v>
+        <v>-2.810993194580078</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.05340555682778358</v>
+        <v>-3.01325798034668</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.1958163976669312</v>
+        <v>4.631392955780029</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.2258194386959076</v>
+        <v>-2.892600774765015</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.05728770047426224</v>
+        <v>-3.350822448730469</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.210601270198822</v>
+        <v>5.006638050079346</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2554750144481659</v>
+        <v>-3.021517038345337</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.06915660202503204</v>
+        <v>-3.770941019058228</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2142734080553055</v>
+        <v>5.87112283706665</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2643656730651855</v>
+        <v>-3.487551927566528</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.08978134393692017</v>
+        <v>-3.936017274856567</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.1948511004447937</v>
+        <v>5.624721050262451</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2392727136611938</v>
+        <v>-3.426885366439819</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.09991892427206039</v>
+        <v>-3.815600633621216</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.2225220054388046</v>
+        <v>5.838692188262939</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.2613680064678192</v>
+        <v>-3.505943536758423</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.07648815214633942</v>
+        <v>-4.084622859954834</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2182914912700653</v>
+        <v>5.533600330352783</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.2490845024585724</v>
+        <v>-3.366531372070312</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.07082559168338776</v>
+        <v>-3.812634706497192</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.2175363749265671</v>
+        <v>5.200214385986328</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.2443867623806</v>
+        <v>-3.197112560272217</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.06268766522407532</v>
+        <v>-3.489281177520752</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.2183923125267029</v>
+        <v>4.927376270294189</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.224767804145813</v>
+        <v>-3.078434228897095</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0578123964369297</v>
+        <v>-3.24164891242981</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2104851901531219</v>
+        <v>5.360067367553711</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.2006849050521851</v>
+        <v>-3.29372763633728</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.04431096836924553</v>
+        <v>-3.09368371963501</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.2021104246377945</v>
+        <v>5.644144058227539</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1936100721359253</v>
+        <v>-3.452761888504028</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.04767338559031487</v>
+        <v>-3.135818004608154</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.1913671344518661</v>
+        <v>5.604917049407959</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1791304051876068</v>
+        <v>-3.488161325454712</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.04689837992191315</v>
+        <v>-2.990871429443359</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.1934630125761032</v>
+        <v>5.771903038024902</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.2019590139389038</v>
+        <v>-3.491925239562988</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.05993441119790077</v>
+        <v>-3.174073219299316</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.1956144124269485</v>
+        <v>5.918871879577637</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.2244978398084641</v>
+        <v>-3.570188760757446</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.06571999937295914</v>
+        <v>-3.532357692718506</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.197294294834137</v>
+        <v>5.901286125183105</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.2378458082675934</v>
+        <v>-3.516821622848511</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.071760393679142</v>
+        <v>-3.650457382202148</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.1835459768772125</v>
+        <v>5.084353923797607</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.232075572013855</v>
+        <v>-2.982737064361572</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.0846978947520256</v>
+        <v>-2.65780234336853</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.1857018917798996</v>
+        <v>4.548582553863525</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.2202157378196716</v>
+        <v>-2.66201639175415</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.08092483133077621</v>
+        <v>-2.253105640411377</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.1987071335315704</v>
+        <v>4.043278217315674</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1980473101139069</v>
+        <v>-2.308488607406616</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.04449449479579926</v>
+        <v>-1.951963901519775</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.2014181017875671</v>
+        <v>4.098504543304443</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1990146934986115</v>
+        <v>-2.35655665397644</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.04572895541787148</v>
+        <v>-1.992159843444824</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.1907930076122284</v>
+        <v>4.409794330596924</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.2053555250167847</v>
+        <v>-2.531372547149658</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.05282197892665863</v>
+        <v>-2.115573406219482</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.1889698803424835</v>
+        <v>4.235554218292236</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.1974764466285706</v>
+        <v>-2.410306215286255</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.04890785738825798</v>
+        <v>-2.000656843185425</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.1822460144758224</v>
+        <v>3.920336961746216</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.189955472946167</v>
+        <v>-2.299479246139526</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.06653629243373871</v>
+        <v>-1.844783425331116</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.1849298626184464</v>
+        <v>3.474984884262085</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1790488660335541</v>
+        <v>-2.028709650039673</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.06130265444517136</v>
+        <v>-1.570595741271973</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.1763722747564316</v>
+        <v>3.157143592834473</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1715092360973358</v>
+        <v>-1.888168931007385</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.06625834107398987</v>
+        <v>-1.428668141365051</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.1806302517652512</v>
+        <v>3.40343713760376</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1848553419113159</v>
+        <v>-1.909847259521484</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.073770672082901</v>
+        <v>-1.487408995628357</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.182432159781456</v>
+        <v>3.163731336593628</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1901206821203232</v>
+        <v>-1.727392554283142</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.05172174423933029</v>
+        <v>-1.263284206390381</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.1762412190437317</v>
+        <v>3.311867713928223</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.1992037743330002</v>
+        <v>-1.79802417755127</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.04543137922883034</v>
+        <v>-1.217001676559448</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1713999211788177</v>
+        <v>3.341452360153198</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1847092807292938</v>
+        <v>-1.80756688117981</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.06205634027719498</v>
+        <v>-1.266951680183411</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.176981508731842</v>
+        <v>3.274683952331543</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1874582171440125</v>
+        <v>-1.786130309104919</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.05716351047158241</v>
+        <v>-1.267229795455933</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1743825674057007</v>
+        <v>3.316680192947388</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1813233643770218</v>
+        <v>-1.780035853385925</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.05313804745674133</v>
+        <v>-1.21556830406189</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.177160382270813</v>
+        <v>3.286337375640869</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1868796646595001</v>
+        <v>-1.770892262458801</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.05324423313140869</v>
+        <v>-1.196136116981506</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.1771569550037384</v>
+        <v>3.088532686233521</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1827921718358994</v>
+        <v>-1.666839122772217</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.05503335222601891</v>
+        <v>-1.12877881526947</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.176836296916008</v>
+        <v>3.069653511047363</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1804453134536743</v>
+        <v>-1.675464630126953</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.05742176994681358</v>
+        <v>-1.147608160972595</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1792493909597397</v>
+        <v>2.786397218704224</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1708653718233109</v>
+        <v>-1.522781133651733</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.05528676509857178</v>
+        <v>-1.095965385437012</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.1752147376537323</v>
+        <v>2.645704984664917</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1686051487922668</v>
+        <v>-1.453255772590637</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.06078942865133286</v>
+        <v>-1.0361647605896</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.1604585647583008</v>
+        <v>2.539889812469482</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1564158499240875</v>
+        <v>-1.465482473373413</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.06137147545814514</v>
+        <v>-1.038749098777771</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1521169543266296</v>
+        <v>3.268928527832031</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1769720315933228</v>
+        <v>-1.841965198516846</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.08306986838579178</v>
+        <v>-1.333827137947083</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1512949168682098</v>
+        <v>3.73111891746521</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.2016113698482513</v>
+        <v>-2.132112264633179</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.08837331831455231</v>
+        <v>-1.382088661193848</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.1493643671274185</v>
+        <v>4.110556602478027</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.2206377685070038</v>
+        <v>-2.347647190093994</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.09734071791172028</v>
+        <v>-1.40390932559967</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.1252143234014511</v>
+        <v>4.511148452758789</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1900000423192978</v>
+        <v>-2.623209953308105</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1289483904838562</v>
+        <v>-1.604497194290161</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.101824551820755</v>
+        <v>4.60829496383667</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1717087626457214</v>
+        <v>-2.695591926574707</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.1207337528467178</v>
+        <v>-1.752093076705933</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.1134521812200546</v>
+        <v>4.731024742126465</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.1802736520767212</v>
+        <v>-2.70695161819458</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.1229968369007111</v>
+        <v>-1.659084320068359</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.1095098704099655</v>
+        <v>4.405885219573975</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1748957931995392</v>
+        <v>-2.569274425506592</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1128172129392624</v>
+        <v>-1.622029781341553</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1188415065407753</v>
+        <v>4.394345760345459</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1852687001228333</v>
+        <v>-2.569368839263916</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.1125292181968689</v>
+        <v>-1.573646426200867</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1258922219276428</v>
+        <v>4.221660614013672</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1893911212682724</v>
+        <v>-2.459342002868652</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.09735148400068283</v>
+        <v>-1.592790484428406</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.1032368838787079</v>
+        <v>4.877276420593262</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1735269129276276</v>
+        <v>-2.834742546081543</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1117999255657196</v>
+        <v>-1.899732708930969</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1000957563519478</v>
+        <v>5.098062992095947</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1769605129957199</v>
+        <v>-2.989372730255127</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.1082239151000977</v>
+        <v>-2.036887407302856</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.1041889935731888</v>
+        <v>4.646664619445801</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.1632325202226639</v>
+        <v>-2.763470888137817</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.08862258493900299</v>
+        <v>-1.938254833221436</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-0.1113839447498322</v>
+        <v>4.270695209503174</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1744307279586792</v>
+        <v>-2.474688053131104</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.09462130814790726</v>
+        <v>-1.722965359687805</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1329669803380966</v>
+        <v>4.327306270599365</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2060768455266953</v>
+        <v>-2.467632055282593</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.1112809553742409</v>
+        <v>-1.560166835784912</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.1428339928388596</v>
+        <v>4.12667989730835</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2120333462953568</v>
+        <v>-2.281315088272095</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.1037530153989792</v>
+        <v>-1.320516109466553</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.1030525788664818</v>
+        <v>4.100855350494385</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.16437928378582</v>
+        <v>-2.322493076324463</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.1187804788351059</v>
+        <v>-1.447253584861755</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.1020515710115433</v>
+        <v>3.727065801620483</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1588156819343567</v>
+        <v>-2.099693536758423</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.115946389734745</v>
+        <v>-1.208165764808655</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.1040686368942261</v>
+        <v>3.841452598571777</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.1547615081071854</v>
+        <v>-2.135777235031128</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.1257072687149048</v>
+        <v>-1.1007479429245</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.1053541153669357</v>
+        <v>3.94611930847168</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.1660050451755524</v>
+        <v>-2.197150707244873</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1113927140831947</v>
+        <v>-1.239737510681152</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.1205764338374138</v>
+        <v>3.948562145233154</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1839265823364258</v>
+        <v>-2.190428972244263</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1128809377551079</v>
+        <v>-1.180641412734985</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.1077985614538193</v>
+        <v>3.340017318725586</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.1663009822368622</v>
+        <v>-1.836976647377014</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.09664268791675568</v>
+        <v>-0.9661517143249512</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.1161838844418526</v>
+        <v>2.870054721832275</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.1480878591537476</v>
+        <v>-1.533390760421753</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.07670705020427704</v>
+        <v>-0.7758861184120178</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.1136160790920258</v>
+        <v>2.609902858734131</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.1384347081184387</v>
+        <v>-1.380163192749023</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.07595068961381912</v>
+        <v>-0.653589129447937</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.09821603447198868</v>
+        <v>2.905940771102905</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.1491238325834274</v>
+        <v>-1.539428949356079</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.09972825646400452</v>
+        <v>-0.7715815305709839</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.1111107170581818</v>
+        <v>2.889653444290161</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.1595589965581894</v>
+        <v>-1.524533033370972</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.099786177277565</v>
+        <v>-0.7309647798538208</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.122678279876709</v>
+        <v>3.250435590744019</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1664283126592636</v>
+        <v>-1.758850455284119</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.08233916759490967</v>
+        <v>-0.9037649035453796</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.1367101520299911</v>
+        <v>3.825292110443115</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.1803880035877228</v>
+        <v>-2.089977979660034</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.08852580934762955</v>
+        <v>-1.081402659416199</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1204950660467148</v>
+        <v>3.876035213470459</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1664315760135651</v>
+        <v>-2.1316978931427</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.110660158097744</v>
+        <v>-1.058667778968811</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.1085827648639679</v>
+        <v>3.350954294204712</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1588985025882721</v>
+        <v>-1.794415831565857</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1029789745807648</v>
+        <v>-0.8292452096939087</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1085443943738937</v>
+        <v>3.470432996749878</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.1523667871952057</v>
+        <v>-1.868865132331848</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.1001928448677063</v>
+        <v>-0.8452160954475403</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.1042776852846146</v>
+        <v>3.509129047393799</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.1503200680017471</v>
+        <v>-1.91847825050354</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.103113129734993</v>
+        <v>-0.8532739877700806</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.1089879721403122</v>
+        <v>3.871549606323242</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.1588626652956009</v>
+        <v>-2.162623167037964</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1089020073413849</v>
+        <v>-0.9829640984535217</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.09898237884044647</v>
+        <v>3.797960042953491</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.1517950892448425</v>
+        <v>-2.109923124313354</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1049028933048248</v>
+        <v>-0.9195156097412109</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.09681125730276108</v>
+        <v>3.545674324035645</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.1470452845096588</v>
+        <v>-1.913207650184631</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1051052510738373</v>
+        <v>-0.7738580107688904</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.09095229953527451</v>
+        <v>3.276405572891235</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.1404991000890732</v>
+        <v>-1.736178517341614</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.1015076786279678</v>
+        <v>-0.6514204740524292</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.09687381982803345</v>
+        <v>2.919491767883301</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.140463575720787</v>
+        <v>-1.534371137619019</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.09944872558116913</v>
+        <v>-0.5685888528823853</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.09570859372615814</v>
+        <v>3.559019804000854</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.1404939591884613</v>
+        <v>-1.940827131271362</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.1142418459057808</v>
+        <v>-0.7982615828514099</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.1145797222852707</v>
+        <v>4.226936340332031</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.1625645160675049</v>
+        <v>-2.421595811843872</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1211581453680992</v>
+        <v>-1.128766179084778</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.1170565038919449</v>
+        <v>4.44885778427124</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.1672123670578003</v>
+        <v>-2.601360321044922</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1230570822954178</v>
+        <v>-1.204172015190125</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.09531451761722565</v>
+        <v>3.983592987060547</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1207266300916672</v>
+        <v>-2.230537176132202</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1307523846626282</v>
+        <v>-0.8657724857330322</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.08029268682003021</v>
+        <v>3.559283018112183</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1208878755569458</v>
+        <v>-1.966190814971924</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1135500818490982</v>
+        <v>-0.7150589823722839</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.08829988539218903</v>
+        <v>3.785638570785522</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.122327521443367</v>
+        <v>-2.134267330169678</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.1226708069443703</v>
+        <v>-0.7900569438934326</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.08658125251531601</v>
+        <v>3.798470497131348</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1251294016838074</v>
+        <v>-2.153116226196289</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1170341074466705</v>
+        <v>-0.8165642619132996</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.09925221651792526</v>
+        <v>3.955843210220337</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1337286531925201</v>
+        <v>-2.259200096130371</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1149150431156158</v>
+        <v>-0.9234672784805298</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.08841089904308319</v>
+        <v>3.704511404037476</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1271259337663651</v>
+        <v>-2.081857204437256</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1034885048866272</v>
+        <v>-0.7728326916694641</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.06909435987472534</v>
+        <v>3.386775493621826</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1087623834609985</v>
+        <v>-1.878173828125</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.09298735111951828</v>
+        <v>-0.6325079798698425</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.05866678431630135</v>
+        <v>3.367334604263306</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1002165600657463</v>
+        <v>-1.849265217781067</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.09232191741466522</v>
+        <v>-0.5842193961143494</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.05565200746059418</v>
+        <v>3.608884811401367</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.09893240034580231</v>
+        <v>-1.991869211196899</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.09260044991970062</v>
+        <v>-0.7205753922462463</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.08471792936325073</v>
+        <v>3.888918876647949</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1175753027200699</v>
+        <v>-2.158332586288452</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1153837889432907</v>
+        <v>-0.798555850982666</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.1025876104831696</v>
+        <v>4.174226760864258</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.1368034482002258</v>
+        <v>-2.354201316833496</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.116293653845787</v>
+        <v>-0.9880576729774475</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.1168175488710403</v>
+        <v>5.719052791595459</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.1610861867666245</v>
+        <v>-3.281042098999023</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.127572774887085</v>
+        <v>-1.282541155815125</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.1086935847997665</v>
+        <v>6.928860664367676</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.1599676907062531</v>
+        <v>-4.103239059448242</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1352955996990204</v>
+        <v>-1.325344443321228</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.1075579449534416</v>
+        <v>7.238844871520996</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1589734852313995</v>
+        <v>-4.304168701171875</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1403688490390778</v>
+        <v>-1.264744877815247</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.1144945621490479</v>
+        <v>7.121654033660889</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1542687714099884</v>
+        <v>-4.203839778900146</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.1402237862348557</v>
+        <v>-1.32015073299408</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.1131570637226105</v>
+        <v>6.865321159362793</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.154412254691124</v>
+        <v>-4.013568878173828</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1378974318504333</v>
+        <v>-1.27438497543335</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1104352176189423</v>
+        <v>6.751273632049561</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.1473949551582336</v>
+        <v>-3.94370698928833</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1327289789915085</v>
+        <v>-1.310516595840454</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.0979853942990303</v>
+        <v>6.281078815460205</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.1340296566486359</v>
+        <v>-3.679192304611206</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1248872131109238</v>
+        <v>-1.064034819602966</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.08401792496442795</v>
+        <v>5.931494235992432</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.1194938570261002</v>
+        <v>-3.486083507537842</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1188015788793564</v>
+        <v>-0.8420608639717102</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.06887346506118774</v>
+        <v>5.832302093505859</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.1018444299697876</v>
+        <v>-3.441953182220459</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.1143280416727066</v>
+        <v>-0.7665461897850037</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.07407102733850479</v>
+        <v>5.66500997543335</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.1007947474718094</v>
+        <v>-3.333913087844849</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1280479729175568</v>
+        <v>-0.7531784176826477</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.08183345198631287</v>
+        <v>5.902894973754883</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.1021387130022049</v>
+        <v>-3.438719987869263</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1318882703781128</v>
+        <v>-0.8892760872840881</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.09102439880371094</v>
+        <v>5.852488040924072</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.1046396642923355</v>
+        <v>-3.385326147079468</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1284337341785431</v>
+        <v>-1.059674859046936</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.09651768207550049</v>
+        <v>4.78148078918457</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.0941561684012413</v>
+        <v>-2.715133905410767</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1288487017154694</v>
+        <v>-0.9439614415168762</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.08621250092983246</v>
+        <v>2.235879421234131</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.09175368398427963</v>
+        <v>-1.193310499191284</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1041935905814171</v>
+        <v>-0.01244403142482042</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.06268895417451859</v>
+        <v>2.14484429359436</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.0916411429643631</v>
+        <v>-1.167948365211487</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.08569975197315216</v>
+        <v>0.06013072282075882</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.08463159203529358</v>
+        <v>1.864674806594849</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.1011730208992958</v>
+        <v>-1.004547595977783</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.1018601953983307</v>
+        <v>0.08162558823823929</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.07606485486030579</v>
+        <v>1.890844225883484</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.09493179619312286</v>
+        <v>-1.021077513694763</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.09682755172252655</v>
+        <v>0.1089448779821396</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.08638311922550201</v>
+        <v>1.751670837402344</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1020893007516861</v>
+        <v>-0.9514599442481995</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.1005619466304779</v>
+        <v>0.07395117729902267</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.0849468857049942</v>
+        <v>1.757463455200195</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1051270216703415</v>
+        <v>-0.9810481667518616</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.09241677075624466</v>
+        <v>0.08571658283472061</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.05011226236820221</v>
+        <v>2.015510320663452</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.08193720877170563</v>
+        <v>-1.145792126655579</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.07573853433132172</v>
+        <v>0.1399006694555283</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.02802813425660133</v>
+        <v>2.261103391647339</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.06282167136669159</v>
+        <v>-1.278841495513916</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.07909227907657623</v>
+        <v>0.136221632361412</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.03279975056648254</v>
+        <v>2.264908075332642</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.06914407759904861</v>
+        <v>-1.266939997673035</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.08247627317905426</v>
+        <v>0.1448316276073456</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.05739570036530495</v>
+        <v>2.112883567810059</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.08310189843177795</v>
+        <v>-1.16271710395813</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.09200726449489594</v>
+        <v>0.1308191269636154</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.08721034228801727</v>
+        <v>2.111999988555908</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.1033272370696068</v>
+        <v>-1.157803893089294</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.09904986619949341</v>
+        <v>0.007865525782108307</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.09894797950983047</v>
+        <v>1.981435298919678</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.1108051761984825</v>
+        <v>-1.073390364646912</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.10295719653368</v>
+        <v>0.05243844538927078</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.08810803294181824</v>
+        <v>2.550639867782593</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.0896858274936676</v>
+        <v>-1.36439037322998</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1171920523047447</v>
+        <v>0.02177039720118046</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.09019039571285248</v>
+        <v>2.973767757415771</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.1138667315244675</v>
+        <v>-1.691300988197327</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.09942605346441269</v>
+        <v>-0.09907638281583786</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.0975908562541008</v>
+        <v>2.915078163146973</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.1201569885015488</v>
+        <v>-1.646094083786011</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1021464616060257</v>
+        <v>-0.1426922678947449</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.09338988363742828</v>
+        <v>2.946033000946045</v>
       </c>
       <c r="C173" t="n">
-        <v>-0.1208024621009827</v>
+        <v>-1.676162481307983</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.08575224876403809</v>
+        <v>-0.199443057179451</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.09907753020524979</v>
+        <v>2.659106254577637</v>
       </c>
       <c r="C174" t="n">
-        <v>-0.1307746767997742</v>
+        <v>-1.512054800987244</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.08822524547576904</v>
+        <v>-0.1686190217733383</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.08244794607162476</v>
+        <v>3.016050100326538</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.122831329703331</v>
+        <v>-1.731152176856995</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.08944220840930939</v>
+        <v>-0.1325451135635376</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.05153931677341461</v>
+        <v>3.427329301834106</v>
       </c>
       <c r="C176" t="n">
-        <v>-0.09729047119617462</v>
+        <v>-1.967290997505188</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.0833621472120285</v>
+        <v>-0.1412893384695053</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.04851950705051422</v>
+        <v>3.589907646179199</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.083851657807827</v>
+        <v>-2.085845947265625</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.07403504848480225</v>
+        <v>-0.2086053490638733</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.05261450633406639</v>
+        <v>3.844342470169067</v>
       </c>
       <c r="C178" t="n">
-        <v>-0.09565741568803787</v>
+        <v>-2.195477724075317</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.08911339938640594</v>
+        <v>-0.1918708235025406</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.09086628258228302</v>
+        <v>3.565576553344727</v>
       </c>
       <c r="C179" t="n">
-        <v>-0.1241093426942825</v>
+        <v>-2.001328945159912</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.09896678477525711</v>
+        <v>-0.2800903916358948</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.1052253618836403</v>
+        <v>3.33072566986084</v>
       </c>
       <c r="C180" t="n">
-        <v>-0.1425716280937195</v>
+        <v>-1.857031941413879</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.09317460656166077</v>
+        <v>-0.295042097568512</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.1140579134225845</v>
+        <v>3.38538384437561</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.1502588242292404</v>
+        <v>-1.853819370269775</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.0963703840970993</v>
+        <v>-0.3274405002593994</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.09782340377569199</v>
+        <v>4.031567573547363</v>
       </c>
       <c r="C182" t="n">
-        <v>-0.1309729963541031</v>
+        <v>-2.249699354171753</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.1066727042198181</v>
+        <v>-0.3747493624687195</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.08237989991903305</v>
+        <v>4.190791606903076</v>
       </c>
       <c r="C183" t="n">
-        <v>-0.1114301681518555</v>
+        <v>-2.383355855941772</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.09092660993337631</v>
+        <v>-0.3361993134021759</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.09256179630756378</v>
+        <v>4.238746166229248</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.1305544376373291</v>
+        <v>-2.393868684768677</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.1103572398424149</v>
+        <v>-0.2540977299213409</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.09064316749572754</v>
+        <v>4.408460140228271</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.1350771486759186</v>
+        <v>-2.472903251647949</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1114538460969925</v>
+        <v>-0.2085373848676682</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.104566402733326</v>
+        <v>4.850450038909912</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.1500145047903061</v>
+        <v>-2.72533655166626</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1116769090294838</v>
+        <v>-0.2955428957939148</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>-0.08023384213447571</v>
+        <v>4.732569217681885</v>
       </c>
       <c r="C187" t="n">
-        <v>-0.1222543939948082</v>
+        <v>-2.697482347488403</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.09035243839025497</v>
+        <v>-0.2485465705394745</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.05133286863565445</v>
+        <v>4.349600315093994</v>
       </c>
       <c r="C188" t="n">
-        <v>-0.086837038397789</v>
+        <v>-2.493929147720337</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.07560744881629944</v>
+        <v>-0.1343215107917786</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.04386555776000023</v>
+        <v>4.147062301635742</v>
       </c>
       <c r="C189" t="n">
-        <v>-0.08272765576839447</v>
+        <v>-2.367421865463257</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.07365327328443527</v>
+        <v>-0.09110815823078156</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.05876468122005463</v>
+        <v>3.534423351287842</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.06147036701440811</v>
+        <v>-2.02481746673584</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.05694704130291939</v>
+        <v>-0.04106342047452927</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.06133078038692474</v>
+        <v>3.50494384765625</v>
       </c>
       <c r="C191" t="n">
-        <v>-0.079255610704422</v>
+        <v>-1.982642531394958</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.06606063991785049</v>
+        <v>-0.007190912030637264</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.08350436389446259</v>
+        <v>3.339082717895508</v>
       </c>
       <c r="C192" t="n">
-        <v>-0.1209230124950409</v>
+        <v>-1.840253472328186</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.08558513224124908</v>
+        <v>0.04615209251642227</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.09235244989395142</v>
+        <v>3.230208158493042</v>
       </c>
       <c r="C193" t="n">
-        <v>-0.146393895149231</v>
+        <v>-1.751607656478882</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.09489762783050537</v>
+        <v>0.08983983099460602</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.05812663212418556</v>
+        <v>2.905427217483521</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.1062150523066521</v>
+        <v>-1.572048425674438</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.09633499383926392</v>
+        <v>0.1714514493942261</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.02279778197407722</v>
+        <v>2.586223840713501</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.06586594879627228</v>
+        <v>-1.400077939033508</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.08401826024055481</v>
+        <v>0.2514599561691284</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.04485486820340157</v>
+        <v>2.507559299468994</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.090320885181427</v>
+        <v>-1.337547421455383</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.0979706346988678</v>
+        <v>0.3215590119361877</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.04549778625369072</v>
+        <v>2.483641386032104</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.08464077115058899</v>
+        <v>-1.327454209327698</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.09197382628917694</v>
+        <v>0.3557024896144867</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.04526283591985703</v>
+        <v>2.693473339080811</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.1016459688544273</v>
+        <v>-1.45539379119873</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1028745546936989</v>
+        <v>0.3142323791980743</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.02723097428679466</v>
+        <v>2.49888277053833</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.06564806401729584</v>
+        <v>-1.362587690353394</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.08765795826911926</v>
+        <v>0.3867900967597961</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>-0.02734054252505302</v>
+        <v>2.556503772735596</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.04804370924830437</v>
+        <v>-1.423413872718811</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.07808638364076614</v>
+        <v>0.3998300135135651</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.02071375399827957</v>
+        <v>2.593593597412109</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.03438988327980042</v>
+        <v>-1.448143362998962</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.07230082899332047</v>
+        <v>0.3963598906993866</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.007515706121921539</v>
+        <v>2.73472785949707</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.02639023214578629</v>
+        <v>-1.502979397773743</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.07957194000482559</v>
+        <v>0.3357998728752136</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.04161589592695236</v>
+        <v>2.517168045043945</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.04857984930276871</v>
+        <v>-1.373083710670471</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.07622097432613373</v>
+        <v>0.409490704536438</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>-0.05360311269760132</v>
+        <v>2.689368486404419</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.09265483170747757</v>
+        <v>-1.453255653381348</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.1020797044038773</v>
+        <v>0.3909091055393219</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.07223759591579437</v>
+        <v>2.955781221389771</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.1177177578210831</v>
+        <v>-1.603161573410034</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.1122777312994003</v>
+        <v>0.3728390634059906</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.03546682000160217</v>
+        <v>3.104829549789429</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.08021005988121033</v>
+        <v>-1.689359545707703</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.1187517791986465</v>
+        <v>0.2913309633731842</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.03403028845787048</v>
+        <v>3.332211017608643</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.06036930158734322</v>
+        <v>-1.867337584495544</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.09716247022151947</v>
+        <v>0.247262254357338</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.04605972021818161</v>
+        <v>3.50640344619751</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.08870901167392731</v>
+        <v>-1.941951394081116</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1133969277143478</v>
+        <v>0.1736374199390411</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>-0.05095870047807693</v>
+        <v>3.423020124435425</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.0883399024605751</v>
+        <v>-1.921803712844849</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.09736223518848419</v>
+        <v>0.1671453714370728</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.06005482748150826</v>
+        <v>3.309931516647339</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.09777037799358368</v>
+        <v>-1.860658645629883</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.09709899872541428</v>
+        <v>0.2432243525981903</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.05299713462591171</v>
+        <v>3.45810341835022</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.07470434159040451</v>
+        <v>-1.992347121238708</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.0725131630897522</v>
+        <v>0.1987897753715515</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.03673550859093666</v>
+        <v>3.550091028213501</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.06605758517980576</v>
+        <v>-2.04733681678772</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.07255629450082779</v>
+        <v>0.1484284996986389</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.03042992204427719</v>
+        <v>3.583729982376099</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.05169859528541565</v>
+        <v>-2.074254035949707</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.06897968798875809</v>
+        <v>0.1649946421384811</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.0154748372733593</v>
+        <v>3.614855051040649</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.04671787098050117</v>
+        <v>-2.078777551651001</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.08018520474433899</v>
+        <v>0.1306816637516022</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.03212383016943932</v>
+        <v>3.469730854034424</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.08171267807483673</v>
+        <v>-1.912395238876343</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.09922921657562256</v>
+        <v>0.1522749215364456</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.04652105271816254</v>
+        <v>3.401837587356567</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.09250596165657043</v>
+        <v>-1.869781017303467</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.0967683345079422</v>
+        <v>0.1945811212062836</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.08119317889213562</v>
+        <v>3.287984848022461</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.1268810033798218</v>
+        <v>-1.822697877883911</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.1073376759886742</v>
+        <v>0.2908624112606049</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.05023674294352531</v>
+        <v>3.435100793838501</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.08975861966609955</v>
+        <v>-1.888423204421997</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.1090908646583557</v>
+        <v>0.2325839102268219</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.02763779833912849</v>
+        <v>3.670310735702515</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.07609646767377853</v>
+        <v>-2.058858156204224</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.09897772967815399</v>
+        <v>0.2008222341537476</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.04687206819653511</v>
+        <v>3.349062919616699</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.08953064680099487</v>
+        <v>-1.844618678092957</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.1070311814546585</v>
+        <v>0.2500460147857666</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.02055103704333305</v>
+        <v>3.404257774353027</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.06503430008888245</v>
+        <v>-1.887698531150818</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1045431047677994</v>
+        <v>0.2445008307695389</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.04211412370204926</v>
+        <v>3.360825061798096</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.08580207079648972</v>
+        <v>-1.861151337623596</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1056914180517197</v>
+        <v>0.2697401642799377</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.03265456482768059</v>
+        <v>3.369625806808472</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.08303715288639069</v>
+        <v>-1.88773787021637</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1037483885884285</v>
+        <v>0.250127911567688</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.01120422035455704</v>
+        <v>3.836655616760254</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.06131428480148315</v>
+        <v>-2.130571365356445</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.1025092303752899</v>
+        <v>0.1466303169727325</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.0151391476392746</v>
+        <v>3.910122156143188</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.06680640578269958</v>
+        <v>-2.173111200332642</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.1030552759766579</v>
+        <v>0.1406219303607941</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.008384671062231064</v>
+        <v>3.940750122070312</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.05519075319170952</v>
+        <v>-2.239583015441895</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.1020015031099319</v>
+        <v>0.1949919313192368</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.03928368911147118</v>
+        <v>3.964326858520508</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.08355602622032166</v>
+        <v>-2.241311073303223</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1084621027112007</v>
+        <v>0.2063000202178955</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.06752120703458786</v>
+        <v>3.80781626701355</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.1090279370546341</v>
+        <v>-2.156829833984375</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1085246950387955</v>
+        <v>0.3003729581832886</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.1079071834683418</v>
+        <v>3.648414611816406</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.1409951448440552</v>
+        <v>-2.069001436233521</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.1087828949093819</v>
+        <v>0.4081978499889374</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.05987038463354111</v>
+        <v>4.071146011352539</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.09620250761508942</v>
+        <v>-2.313264131546021</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1114809140563011</v>
+        <v>0.2756158411502838</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.02830502390861511</v>
+        <v>4.154508113861084</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.07422006130218506</v>
+        <v>-2.385724067687988</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1047766655683517</v>
+        <v>0.2688651382923126</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.05453814193606377</v>
+        <v>4.030894756317139</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.09204065799713135</v>
+        <v>-2.295615434646606</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.1118545606732368</v>
+        <v>0.329430490732193</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.05468816682696342</v>
+        <v>3.923839807510376</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.09222926199436188</v>
+        <v>-2.24254035949707</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.10831518471241</v>
+        <v>0.3478130698204041</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.06389591097831726</v>
+        <v>3.733004570007324</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.1009887009859085</v>
+        <v>-2.113163948059082</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.1151555180549622</v>
+        <v>0.3803726434707642</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.04765944927930832</v>
+        <v>3.902478456497192</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.09167410433292389</v>
+        <v>-2.235302209854126</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.1077651381492615</v>
+        <v>0.3668362498283386</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.02727037668228149</v>
+        <v>4.211502552032471</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.06947177648544312</v>
+        <v>-2.450538158416748</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.09966637194156647</v>
+        <v>0.366041362285614</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.02498513460159302</v>
+        <v>4.280468940734863</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.0674683153629303</v>
+        <v>-2.502880334854126</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.0998658612370491</v>
+        <v>0.4010517299175262</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.03140474110841751</v>
+        <v>4.2015700340271</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.06830042600631714</v>
+        <v>-2.47394061088562</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.09322910010814667</v>
+        <v>0.4447005689144135</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.04219445958733559</v>
+        <v>4.057651996612549</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.07708463072776794</v>
+        <v>-2.342789649963379</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.1036120355129242</v>
+        <v>0.4015204310417175</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.0724346861243248</v>
+        <v>3.673846960067749</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.1063199788331985</v>
+        <v>-2.089482307434082</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.1061394661664963</v>
+        <v>0.4831307232379913</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.1099469661712646</v>
+        <v>3.750413656234741</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.1410111486911774</v>
+        <v>-2.131817579269409</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.1095879822969437</v>
+        <v>0.5456874966621399</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.04766995459794998</v>
+        <v>4.156784534454346</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.08095450699329376</v>
+        <v>-2.389520168304443</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.1095806062221527</v>
+        <v>0.4984794855117798</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.02248989045619965</v>
+        <v>4.197221755981445</v>
       </c>
       <c r="C243" t="n">
-        <v>-0.06271547079086304</v>
+        <v>-2.456559658050537</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.1029034629464149</v>
+        <v>0.4422835111618042</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.04878890141844749</v>
+        <v>4.451022624969482</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.08103565126657486</v>
+        <v>-2.591970682144165</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.09968683868646622</v>
+        <v>0.5038334131240845</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.04065906256437302</v>
+        <v>4.548670768737793</v>
       </c>
       <c r="C245" t="n">
-        <v>-0.07468321174383163</v>
+        <v>-2.665315866470337</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.09494730085134506</v>
+        <v>0.5705378651618958</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.07110482454299927</v>
+        <v>4.753091335296631</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.09920890629291534</v>
+        <v>-2.786224842071533</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.09770410507917404</v>
+        <v>0.5366253852844238</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.05380705744028091</v>
+        <v>5.00492000579834</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.08781516551971436</v>
+        <v>-2.950860261917114</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.09065421670675278</v>
+        <v>0.5063648223876953</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.02882916107773781</v>
+        <v>5.071163654327393</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.06471017003059387</v>
+        <v>-2.994187355041504</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.08772223442792892</v>
+        <v>0.509880006313324</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.04319515079259872</v>
+        <v>5.225358009338379</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.07523736357688904</v>
+        <v>-3.082286834716797</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.089028000831604</v>
+        <v>0.4640321731567383</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.01760305836796761</v>
+        <v>5.063560962677002</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.05335656180977821</v>
+        <v>-2.97280740737915</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.09386354684829712</v>
+        <v>0.4256828427314758</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.04474600404500961</v>
+        <v>5.137636661529541</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.07230100035667419</v>
+        <v>-3.014936208724976</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.09340453147888184</v>
+        <v>0.4112429320812225</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.08588653057813644</v>
+        <v>5.128462314605713</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.1073960959911346</v>
+        <v>-3.009122133255005</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.09983373433351517</v>
+        <v>0.4727123975753784</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.1246936619281769</v>
+        <v>4.796519756317139</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.1455084830522537</v>
+        <v>-2.788823843002319</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.1093984991312027</v>
+        <v>0.545783519744873</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.08550794422626495</v>
+        <v>4.834710121154785</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.1046758219599724</v>
+        <v>-2.81418776512146</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.1076706796884537</v>
+        <v>0.5066099762916565</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.06284703314304352</v>
+        <v>4.176712036132812</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.1022388860583305</v>
+        <v>-2.427304029464722</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.1076131016016006</v>
+        <v>0.5347402691841125</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.06304448843002319</v>
+        <v>3.921149969100952</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.09799157083034515</v>
+        <v>-2.275707483291626</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.1113666221499443</v>
+        <v>0.6738013625144958</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.0601419061422348</v>
+        <v>3.893259048461914</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.09485937654972076</v>
+        <v>-2.268057584762573</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.1131999641656876</v>
+        <v>0.7088977694511414</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.07538898289203644</v>
+        <v>3.835623741149902</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.1107260212302208</v>
+        <v>-2.236191272735596</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.11008270829916</v>
+        <v>0.6979047656059265</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.06372211873531342</v>
+        <v>3.923466205596924</v>
       </c>
       <c r="C259" t="n">
-        <v>-0.1039390563964844</v>
+        <v>-2.303910493850708</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.1101599782705307</v>
+        <v>0.7654111981391907</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.04083778336644173</v>
+        <v>4.144484996795654</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.08087509870529175</v>
+        <v>-2.432148456573486</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.1107722073793411</v>
+        <v>0.7772665619850159</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.04843993484973907</v>
+        <v>4.001172065734863</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.08721528947353363</v>
+        <v>-2.342752456665039</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.1137329265475273</v>
+        <v>0.7671706676483154</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.03633229434490204</v>
+        <v>4.215390682220459</v>
       </c>
       <c r="C262" t="n">
-        <v>-0.07414098829030991</v>
+        <v>-2.464383602142334</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.1143121942877769</v>
+        <v>0.8497811555862427</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.05351503193378448</v>
+        <v>4.490358829498291</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.0886903703212738</v>
+        <v>-2.620857238769531</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.1147244721651077</v>
+        <v>0.8767437338829041</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.09085696935653687</v>
+        <v>4.46785831451416</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.1238440871238708</v>
+        <v>-2.617729425430298</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1134076416492462</v>
+        <v>0.8014006018638611</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.116298533976078</v>
+        <v>4.586571216583252</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.1494991183280945</v>
+        <v>-2.693842172622681</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.1256885528564453</v>
+        <v>0.8686869740486145</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.07847749441862106</v>
+        <v>4.530998706817627</v>
       </c>
       <c r="C266" t="n">
-        <v>-0.103159561753273</v>
+        <v>-2.627142906188965</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.120127260684967</v>
+        <v>0.8986440300941467</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.05357664823532104</v>
+        <v>4.728871822357178</v>
       </c>
       <c r="C267" t="n">
-        <v>-0.083940289914608</v>
+        <v>-2.769115686416626</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.1074625924229622</v>
+        <v>0.9961859583854675</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.06490334868431091</v>
+        <v>4.782046318054199</v>
       </c>
       <c r="C268" t="n">
-        <v>-0.09407447278499603</v>
+        <v>-2.782935619354248</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.1091943308711052</v>
+        <v>0.9246243238449097</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.05008457601070404</v>
+        <v>4.929316997528076</v>
       </c>
       <c r="C269" t="n">
-        <v>-0.0821390300989151</v>
+        <v>-2.90072774887085</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.1082600429654121</v>
+        <v>1.025935173034668</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.07360818982124329</v>
+        <v>5.181435585021973</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.102933332324028</v>
+        <v>-3.052408933639526</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.1137845069169998</v>
+        <v>1.080645203590393</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.05367349833250046</v>
+        <v>5.48134183883667</v>
       </c>
       <c r="C271" t="n">
-        <v>-0.09017059206962585</v>
+        <v>-3.255232334136963</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.1053557395935059</v>
+        <v>1.134166121482849</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.07588961720466614</v>
+        <v>5.278213500976562</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.107591949403286</v>
+        <v>-3.114915370941162</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.1151902675628662</v>
+        <v>1.072377562522888</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.09688436985015869</v>
+        <v>5.139290332794189</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.1299357563257217</v>
+        <v>-3.036271095275879</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.1135209947824478</v>
+        <v>1.081054925918579</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.08377882838249207</v>
+        <v>4.639603137969971</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.1195587515830994</v>
+        <v>-2.720978498458862</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.1097866222262383</v>
+        <v>1.011653304100037</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.09877809882164001</v>
+        <v>3.376027822494507</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.1336274743080139</v>
+        <v>-1.932170510292053</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.1094527170062065</v>
+        <v>0.8710212111473083</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.09557324647903442</v>
+        <v>2.98203706741333</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.1389824002981186</v>
+        <v>-1.706263422966003</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.1061059385538101</v>
+        <v>0.8403488993644714</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.1241356506943703</v>
+        <v>2.638511657714844</v>
       </c>
       <c r="C277" t="n">
-        <v>-0.1738869398832321</v>
+        <v>-1.48572564125061</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.1106565818190575</v>
+        <v>0.7776612639427185</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.1001180112361908</v>
+        <v>2.48220682144165</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.136577695608139</v>
+        <v>-1.394510984420776</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.1144130975008011</v>
+        <v>0.878415048122406</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.08458779007196426</v>
+        <v>2.640727043151855</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.1203685700893402</v>
+        <v>-1.49622118473053</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.1085771918296814</v>
+        <v>0.8323546051979065</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.08430293947458267</v>
+        <v>2.648828506469727</v>
       </c>
       <c r="C280" t="n">
-        <v>-0.1285162717103958</v>
+        <v>-1.500990867614746</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.1110348552465439</v>
+        <v>0.8296865820884705</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.07094316184520721</v>
+        <v>2.764918804168701</v>
       </c>
       <c r="C281" t="n">
-        <v>-0.1163407266139984</v>
+        <v>-1.593041181564331</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.1078228652477264</v>
+        <v>0.8769369125366211</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>-0.0845349058508873</v>
+        <v>3.177503108978271</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.12753626704216</v>
+        <v>-1.842628359794617</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.1054751500487328</v>
+        <v>0.9631521105766296</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.07479652017354965</v>
+        <v>3.325035333633423</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.1130374670028687</v>
+        <v>-1.940476179122925</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.0980256050825119</v>
+        <v>1.013698935508728</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.03822025284171104</v>
+        <v>3.280093908309937</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.08643200248479843</v>
+        <v>-1.91755473613739</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.1005654409527779</v>
+        <v>0.9894813299179077</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.04977083206176758</v>
+        <v>3.310427188873291</v>
       </c>
       <c r="C285" t="n">
-        <v>-0.09703986346721649</v>
+        <v>-1.934878468513489</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.1030677855014801</v>
+        <v>0.9812665581703186</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.04699243232607841</v>
+        <v>3.354347229003906</v>
       </c>
       <c r="C286" t="n">
-        <v>-0.09291099011898041</v>
+        <v>-1.965633273124695</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.1032013297080994</v>
+        <v>0.9994120597839355</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.05672033876180649</v>
+        <v>3.588872909545898</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.09990794956684113</v>
+        <v>-2.105696201324463</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.1018898412585258</v>
+        <v>1.052644491195679</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.07588967680931091</v>
+        <v>3.603749752044678</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.1157405376434326</v>
+        <v>-2.100617408752441</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.1026685461401939</v>
+        <v>1.0394047498703</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>-0.09804768860340118</v>
+        <v>3.711792707443237</v>
       </c>
       <c r="C289" t="n">
-        <v>-0.1364638805389404</v>
+        <v>-2.165503263473511</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1142966002225876</v>
+        <v>0.994510293006897</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.08626855909824371</v>
+        <v>3.605310678482056</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.1221039369702339</v>
+        <v>-2.085062026977539</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.1208609044551849</v>
+        <v>0.9741960167884827</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.07068341225385666</v>
+        <v>3.683031320571899</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.117440328001976</v>
+        <v>-2.163890838623047</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.1072476208209991</v>
+        <v>1.029138326644897</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.07707192003726959</v>
+        <v>3.774449586868286</v>
       </c>
       <c r="C292" t="n">
-        <v>-0.1172464862465858</v>
+        <v>-2.207314252853394</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.1129456982016563</v>
+        <v>1.059742093086243</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>-0.0770380049943924</v>
+        <v>3.87202787399292</v>
       </c>
       <c r="C293" t="n">
-        <v>-0.1163659319281578</v>
+        <v>-2.270040512084961</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.1129761934280396</v>
+        <v>1.072393894195557</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.09243112802505493</v>
+        <v>3.566496849060059</v>
       </c>
       <c r="C294" t="n">
-        <v>-0.1348559856414795</v>
+        <v>-2.076308727264404</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.1085564792156219</v>
+        <v>1.046295285224915</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.08645725250244141</v>
+        <v>3.45868182182312</v>
       </c>
       <c r="C295" t="n">
-        <v>-0.131139412522316</v>
+        <v>-2.030310392379761</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.1062430292367935</v>
+        <v>1.056089639663696</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.06400074064731598</v>
+        <v>3.596830368041992</v>
       </c>
       <c r="C296" t="n">
-        <v>-0.10908043384552</v>
+        <v>-2.109354019165039</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.1061132773756981</v>
+        <v>1.058404207229614</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>-0.06864379346370697</v>
+        <v>3.494987487792969</v>
       </c>
       <c r="C297" t="n">
-        <v>-0.1115273684263229</v>
+        <v>-2.038167715072632</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.1138890758156776</v>
+        <v>1.002612352371216</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.06065742298960686</v>
+        <v>3.718652963638306</v>
       </c>
       <c r="C298" t="n">
-        <v>-0.1029358580708504</v>
+        <v>-2.184676885604858</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.1167126223444939</v>
+        <v>1.007927894592285</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.0826205313205719</v>
+        <v>4.021603584289551</v>
       </c>
       <c r="C299" t="n">
-        <v>-0.1239206939935684</v>
+        <v>-2.334217309951782</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.1196040585637093</v>
+        <v>1.052394151687622</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.1035388484597206</v>
+        <v>4.049710750579834</v>
       </c>
       <c r="C300" t="n">
-        <v>-0.1432454586029053</v>
+        <v>-2.350826978683472</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.1139550060033798</v>
+        <v>1.080588579177856</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.1173664182424545</v>
+        <v>4.230868339538574</v>
       </c>
       <c r="C301" t="n">
-        <v>-0.1669024378061295</v>
+        <v>-2.461012363433838</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.1251203715801239</v>
+        <v>1.064816951751709</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.09699499607086182</v>
+        <v>4.332870960235596</v>
       </c>
       <c r="C302" t="n">
-        <v>-0.1293132603168488</v>
+        <v>-2.499896764755249</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.1339256465435028</v>
+        <v>1.07356595993042</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.08243948221206665</v>
+        <v>4.452090263366699</v>
       </c>
       <c r="C303" t="n">
-        <v>-0.1271497309207916</v>
+        <v>-2.608025789260864</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.1175136566162109</v>
+        <v>1.11270546913147</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.1002601906657219</v>
+        <v>4.655879020690918</v>
       </c>
       <c r="C304" t="n">
-        <v>-0.1381085515022278</v>
+        <v>-2.72689414024353</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.1208543255925179</v>
+        <v>1.1604984998703</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.1029406040906906</v>
+        <v>4.855213165283203</v>
       </c>
       <c r="C305" t="n">
-        <v>-0.1414413005113602</v>
+        <v>-2.868758201599121</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.1150582134723663</v>
+        <v>1.236571669578552</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.1090487465262413</v>
+        <v>4.628878116607666</v>
       </c>
       <c r="C306" t="n">
-        <v>-0.1486475467681885</v>
+        <v>-2.714576482772827</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.116920605301857</v>
+        <v>1.17983615398407</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.0874103382229805</v>
+        <v>4.497613906860352</v>
       </c>
       <c r="C307" t="n">
-        <v>-0.1331903636455536</v>
+        <v>-2.640124320983887</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.117778442800045</v>
+        <v>1.129590749740601</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.07195761799812317</v>
+        <v>4.581659317016602</v>
       </c>
       <c r="C308" t="n">
-        <v>-0.1168755665421486</v>
+        <v>-2.681440591812134</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.1192423403263092</v>
+        <v>1.103469371795654</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.0819258987903595</v>
+        <v>4.441387176513672</v>
       </c>
       <c r="C309" t="n">
-        <v>-0.1245502606034279</v>
+        <v>-2.589845657348633</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.1270887106657028</v>
+        <v>1.061123967170715</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.06863139569759369</v>
+        <v>4.019296646118164</v>
       </c>
       <c r="C310" t="n">
-        <v>-0.1134793609380722</v>
+        <v>-2.357074022293091</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.1181430369615555</v>
+        <v>1.099921584129333</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.09797925502061844</v>
+        <v>4.359656810760498</v>
       </c>
       <c r="C311" t="n">
-        <v>-0.1384711116552353</v>
+        <v>-2.558254241943359</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.1145139932632446</v>
+        <v>1.183538556098938</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.1027216762304306</v>
+        <v>4.539140701293945</v>
       </c>
       <c r="C312" t="n">
-        <v>-0.1440390050411224</v>
+        <v>-2.669516086578369</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.1195944100618362</v>
+        <v>1.168099641799927</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.1280815452337265</v>
+        <v>4.524210929870605</v>
       </c>
       <c r="C313" t="n">
-        <v>-0.1666860580444336</v>
+        <v>-2.65664529800415</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1297037303447723</v>
+        <v>1.14957332611084</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.1180871278047562</v>
+        <v>4.482752799987793</v>
       </c>
       <c r="C314" t="n">
-        <v>-0.1485054641962051</v>
+        <v>-2.611061573028564</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.1332574188709259</v>
+        <v>1.176467895507812</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.09962823987007141</v>
+        <v>4.636967182159424</v>
       </c>
       <c r="C315" t="n">
-        <v>-0.1331203877925873</v>
+        <v>-2.721173763275146</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.1212951317429543</v>
+        <v>1.275326609611511</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.1057007610797882</v>
+        <v>4.487773895263672</v>
       </c>
       <c r="C316" t="n">
-        <v>-0.1368134319782257</v>
+        <v>-2.639192819595337</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.1288607865571976</v>
+        <v>1.259036183357239</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.109904944896698</v>
+        <v>4.526338577270508</v>
       </c>
       <c r="C317" t="n">
-        <v>-0.1473024487495422</v>
+        <v>-2.675550937652588</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.1190448552370071</v>
+        <v>1.276163458824158</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.08735173940658569</v>
+        <v>4.086636543273926</v>
       </c>
       <c r="C318" t="n">
-        <v>-0.1310443133115768</v>
+        <v>-2.392553091049194</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.1180373355746269</v>
+        <v>1.172779440879822</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.08354045450687408</v>
+        <v>4.033386707305908</v>
       </c>
       <c r="C319" t="n">
-        <v>-0.1299842596054077</v>
+        <v>-2.375601768493652</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.112309493124485</v>
+        <v>1.191937446594238</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.07211573421955109</v>
+        <v>4.053616523742676</v>
       </c>
       <c r="C320" t="n">
-        <v>-0.1187220066785812</v>
+        <v>-2.398895740509033</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.1100451275706291</v>
+        <v>1.235167384147644</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>-0.06843644380569458</v>
+        <v>4.232053279876709</v>
       </c>
       <c r="C321" t="n">
-        <v>-0.1092366725206375</v>
+        <v>-2.500292778015137</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.1186969727277756</v>
+        <v>1.255608439445496</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.05437199026346207</v>
+        <v>4.21598482131958</v>
       </c>
       <c r="C322" t="n">
-        <v>-0.09805179387331009</v>
+        <v>-2.489721775054932</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.1201402693986893</v>
+        <v>1.205532670021057</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.1005612388253212</v>
+        <v>4.126639366149902</v>
       </c>
       <c r="C323" t="n">
-        <v>-0.1398988962173462</v>
+        <v>-2.416591882705688</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.1181587427854538</v>
+        <v>1.236742258071899</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.1065426468849182</v>
+        <v>4.12129545211792</v>
       </c>
       <c r="C324" t="n">
-        <v>-0.1462590843439102</v>
+        <v>-2.427168846130371</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.114850752055645</v>
+        <v>1.266743540763855</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>-0.1331891417503357</v>
+        <v>4.178332328796387</v>
       </c>
       <c r="C325" t="n">
-        <v>-0.1674293577671051</v>
+        <v>-2.458707809448242</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.1239011436700821</v>
+        <v>1.275485157966614</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.1044605821371078</v>
+        <v>4.498958110809326</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.1306088119745255</v>
+        <v>-2.638598442077637</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.1312771588563919</v>
+        <v>1.309786677360535</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.08622246980667114</v>
+        <v>4.355799198150635</v>
       </c>
       <c r="C327" t="n">
-        <v>-0.1246410310268402</v>
+        <v>-2.570347309112549</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.1158012896776199</v>
+        <v>1.328422784805298</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.100996620953083</v>
+        <v>4.410078525543213</v>
       </c>
       <c r="C328" t="n">
-        <v>-0.13357213139534</v>
+        <v>-2.614573240280151</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.1156202331185341</v>
+        <v>1.407579898834229</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.08260390162467957</v>
+        <v>4.312640190124512</v>
       </c>
       <c r="C329" t="n">
-        <v>-0.1213793456554413</v>
+        <v>-2.557309865951538</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.1129313707351685</v>
+        <v>1.356622815132141</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.09659211337566376</v>
+        <v>4.225373268127441</v>
       </c>
       <c r="C330" t="n">
-        <v>-0.1359436511993408</v>
+        <v>-2.496103048324585</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.1137988716363907</v>
+        <v>1.326823830604553</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.08497796952724457</v>
+        <v>4.31866455078125</v>
       </c>
       <c r="C331" t="n">
-        <v>-0.1274771988391876</v>
+        <v>-2.566074848175049</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.1064802706241608</v>
+        <v>1.366901874542236</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.06836581230163574</v>
+        <v>4.464283466339111</v>
       </c>
       <c r="C332" t="n">
-        <v>-0.110798604786396</v>
+        <v>-2.662000894546509</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.1141373515129089</v>
+        <v>1.344549536705017</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.07249978929758072</v>
+        <v>4.576661586761475</v>
       </c>
       <c r="C333" t="n">
-        <v>-0.1100138649344444</v>
+        <v>-2.730108499526978</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.1172381639480591</v>
+        <v>1.371008634567261</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.05994952842593193</v>
+        <v>4.518545627593994</v>
       </c>
       <c r="C334" t="n">
-        <v>-0.09815680235624313</v>
+        <v>-2.682812690734863</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.1090836748480797</v>
+        <v>1.403982043266296</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.08719712495803833</v>
+        <v>4.397915363311768</v>
       </c>
       <c r="C335" t="n">
-        <v>-0.1247575134038925</v>
+        <v>-2.605187892913818</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.1079149171710014</v>
+        <v>1.40220057964325</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.09585168957710266</v>
+        <v>4.332465171813965</v>
       </c>
       <c r="C336" t="n">
-        <v>-0.1323060393333435</v>
+        <v>-2.563486099243164</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.1125445142388344</v>
+        <v>1.385664224624634</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.1249365881085396</v>
+        <v>4.43333101272583</v>
       </c>
       <c r="C337" t="n">
-        <v>-0.153736799955368</v>
+        <v>-2.626163005828857</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.1225383505225182</v>
+        <v>1.384939789772034</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.1019062846899033</v>
+        <v>4.431226253509521</v>
       </c>
       <c r="C338" t="n">
-        <v>-0.1300278007984161</v>
+        <v>-2.619801759719849</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.1257534474134445</v>
+        <v>1.393419981002808</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.08618064969778061</v>
+        <v>4.511823654174805</v>
       </c>
       <c r="C339" t="n">
-        <v>-0.1186790019273758</v>
+        <v>-2.682987213134766</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.1175080090761185</v>
+        <v>1.437248349189758</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.09252524375915527</v>
+        <v>4.511966228485107</v>
       </c>
       <c r="C340" t="n">
-        <v>-0.1235151365399361</v>
+        <v>-2.67927098274231</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.1186042577028275</v>
+        <v>1.441916704177856</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.0796876847743988</v>
+        <v>4.551568508148193</v>
       </c>
       <c r="C341" t="n">
-        <v>-0.1162721812725067</v>
+        <v>-2.701614618301392</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.1138582527637482</v>
+        <v>1.408658981323242</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.09427722543478012</v>
+        <v>4.615576267242432</v>
       </c>
       <c r="C342" t="n">
-        <v>-0.1279745995998383</v>
+        <v>-2.739303588867188</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.1178729385137558</v>
+        <v>1.416733264923096</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.08071602880954742</v>
+        <v>4.673373699188232</v>
       </c>
       <c r="C343" t="n">
-        <v>-0.1194873601198196</v>
+        <v>-2.790101766586304</v>
       </c>
       <c r="D343" t="n">
-        <v>-0.11023860424757</v>
+        <v>1.438848376274109</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.07216329872608185</v>
+        <v>4.518569469451904</v>
       </c>
       <c r="C344" t="n">
-        <v>-0.1110396757721901</v>
+        <v>-2.682151556015015</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.1139776408672333</v>
+        <v>1.384451627731323</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.07313559949398041</v>
+        <v>4.419882774353027</v>
       </c>
       <c r="C345" t="n">
-        <v>-0.110696479678154</v>
+        <v>-2.633488178253174</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.1151295229792595</v>
+        <v>1.404945015907288</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.05587869137525558</v>
+        <v>4.274531841278076</v>
       </c>
       <c r="C346" t="n">
-        <v>-0.09601926058530807</v>
+        <v>-2.552566766738892</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.1131080463528633</v>
+        <v>1.40705931186676</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.09681134670972824</v>
+        <v>4.054911613464355</v>
       </c>
       <c r="C347" t="n">
-        <v>-0.1349647641181946</v>
+        <v>-2.399170160293579</v>
       </c>
       <c r="D347" t="n">
-        <v>-0.1132862716913223</v>
+        <v>1.379398941993713</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.08037500083446503</v>
+        <v>3.683018207550049</v>
       </c>
       <c r="C348" t="n">
-        <v>-0.1216965690255165</v>
+        <v>-2.184278964996338</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.112776555120945</v>
+        <v>1.334145545959473</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.116174578666687</v>
+        <v>3.273468017578125</v>
       </c>
       <c r="C349" t="n">
-        <v>-0.1533611416816711</v>
+        <v>-1.914157509803772</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.1235248148441315</v>
+        <v>1.308234572410583</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.1107787564396858</v>
+        <v>3.135288953781128</v>
       </c>
       <c r="C350" t="n">
-        <v>-0.145162045955658</v>
+        <v>-1.835545659065247</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.1309372037649155</v>
+        <v>1.33262574672699</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.09511163085699081</v>
+        <v>3.214977025985718</v>
       </c>
       <c r="C351" t="n">
-        <v>-0.1349100768566132</v>
+        <v>-1.902145624160767</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.1163637787103653</v>
+        <v>1.358849287033081</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1223109662532806</v>
+        <v>3.195172786712646</v>
       </c>
       <c r="C352" t="n">
-        <v>-0.156358614563942</v>
+        <v>-1.882557511329651</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.1235042288899422</v>
+        <v>1.341182708740234</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.1014792919158936</v>
+        <v>3.453985452651978</v>
       </c>
       <c r="C353" t="n">
-        <v>-0.1391205787658691</v>
+        <v>-2.040075778961182</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.118934378027916</v>
+        <v>1.35060453414917</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.116366021335125</v>
+        <v>3.399507761001587</v>
       </c>
       <c r="C354" t="n">
-        <v>-0.1514095366001129</v>
+        <v>-1.99348247051239</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.1242009699344635</v>
+        <v>1.361547112464905</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.08743223547935486</v>
+        <v>3.485773086547852</v>
       </c>
       <c r="C355" t="n">
-        <v>-0.131168395280838</v>
+        <v>-2.057707548141479</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.1161695122718811</v>
+        <v>1.295682907104492</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.09109123051166534</v>
+        <v>3.289303064346313</v>
       </c>
       <c r="C356" t="n">
-        <v>-0.1332386881113052</v>
+        <v>-1.929566025733948</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.1144806891679764</v>
+        <v>1.31036376953125</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.08709444105625153</v>
+        <v>3.140789031982422</v>
       </c>
       <c r="C357" t="n">
-        <v>-0.1305185556411743</v>
+        <v>-1.855540752410889</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.1141574084758759</v>
+        <v>1.343655824661255</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.07938413321971893</v>
+        <v>3.075651168823242</v>
       </c>
       <c r="C358" t="n">
-        <v>-0.1227252557873726</v>
+        <v>-1.826401829719543</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.1130012273788452</v>
+        <v>1.338690757751465</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.09431754797697067</v>
+        <v>3.233554363250732</v>
       </c>
       <c r="C359" t="n">
-        <v>-0.1340725719928741</v>
+        <v>-1.90980327129364</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.1172436997294426</v>
+        <v>1.329392910003662</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.1107019782066345</v>
+        <v>3.152425527572632</v>
       </c>
       <c r="C360" t="n">
-        <v>-0.1494747847318649</v>
+        <v>-1.864285707473755</v>
       </c>
       <c r="D360" t="n">
-        <v>-0.117514967918396</v>
+        <v>1.335472226142883</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.1148688420653343</v>
+        <v>2.762199878692627</v>
       </c>
       <c r="C361" t="n">
-        <v>-0.1543658673763275</v>
+        <v>-1.649749040603638</v>
       </c>
       <c r="D361" t="n">
-        <v>-0.1188920140266418</v>
+        <v>1.35477888584137</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.1151153072714806</v>
+        <v>2.73195481300354</v>
       </c>
       <c r="C362" t="n">
-        <v>-0.1512214541435242</v>
+        <v>-1.632476568222046</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.1171833574771881</v>
+        <v>1.440407991409302</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.1006997302174568</v>
+        <v>2.622284650802612</v>
       </c>
       <c r="C363" t="n">
-        <v>-0.1392624080181122</v>
+        <v>-1.565763473510742</v>
       </c>
       <c r="D363" t="n">
-        <v>-0.1162140294909477</v>
+        <v>1.482474327087402</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.1197282075881958</v>
+        <v>2.936951637268066</v>
       </c>
       <c r="C364" t="n">
-        <v>-0.1543982326984406</v>
+        <v>-1.754604578018188</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.1195126846432686</v>
+        <v>1.425478339195251</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.106210395693779</v>
+        <v>3.13114333152771</v>
       </c>
       <c r="C365" t="n">
-        <v>-0.1440606713294983</v>
+        <v>-1.858210921287537</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.1174162328243256</v>
+        <v>1.445826053619385</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.109556645154953</v>
+        <v>3.265722990036011</v>
       </c>
       <c r="C366" t="n">
-        <v>-0.1469359397888184</v>
+        <v>-1.9310542345047</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.1155170947313309</v>
+        <v>1.424756765365601</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.102355845272541</v>
+        <v>3.316958904266357</v>
       </c>
       <c r="C367" t="n">
-        <v>-0.139531597495079</v>
+        <v>-1.959421277046204</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.1167119443416595</v>
+        <v>1.412550449371338</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.09074693918228149</v>
+        <v>3.07400918006897</v>
       </c>
       <c r="C368" t="n">
-        <v>-0.1309349834918976</v>
+        <v>-1.831932187080383</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.1119616776704788</v>
+        <v>1.449220061302185</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.08480426669120789</v>
+        <v>3.092355012893677</v>
       </c>
       <c r="C369" t="n">
-        <v>-0.124550074338913</v>
+        <v>-1.84868597984314</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.1143417730927467</v>
+        <v>1.454357862472534</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.04987537860870361</v>
+        <v>2.867685317993164</v>
       </c>
       <c r="C370" t="n">
-        <v>-0.09142498672008514</v>
+        <v>-1.728419661521912</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.1179304569959641</v>
+        <v>1.533765435218811</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.1050618588924408</v>
+        <v>3.266974210739136</v>
       </c>
       <c r="C371" t="n">
-        <v>-0.1393102705478668</v>
+        <v>-1.94335925579071</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.1165206730365753</v>
+        <v>1.491428375244141</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1005619093775749</v>
+        <v>3.240418672561646</v>
       </c>
       <c r="C372" t="n">
-        <v>-0.1380072087049484</v>
+        <v>-1.929486632347107</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.1156989932060242</v>
+        <v>1.483141541481018</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.1133337765932083</v>
+        <v>3.104553699493408</v>
       </c>
       <c r="C373" t="n">
-        <v>-0.1460559070110321</v>
+        <v>-1.858978271484375</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.118694394826889</v>
+        <v>1.543145060539246</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.1213218420743942</v>
+        <v>2.951699018478394</v>
       </c>
       <c r="C374" t="n">
-        <v>-0.1447018831968307</v>
+        <v>-1.76616895198822</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.1269632279872894</v>
+        <v>1.669258594512939</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.09306123852729797</v>
+        <v>3.236230134963989</v>
       </c>
       <c r="C375" t="n">
-        <v>-0.1300399452447891</v>
+        <v>-1.930425763130188</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.1164569035172462</v>
+        <v>1.623072862625122</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.09954851865768433</v>
+        <v>3.154654264450073</v>
       </c>
       <c r="C376" t="n">
-        <v>-0.1344020962715149</v>
+        <v>-1.889818072319031</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.1176431179046631</v>
+        <v>1.616766095161438</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.1035270467400551</v>
+        <v>3.187680721282959</v>
       </c>
       <c r="C377" t="n">
-        <v>-0.138287365436554</v>
+        <v>-1.909088253974915</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.1130912080407143</v>
+        <v>1.639232158660889</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.1083531901240349</v>
+        <v>3.161727428436279</v>
       </c>
       <c r="C378" t="n">
-        <v>-0.1413908749818802</v>
+        <v>-1.890814661979675</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.1170586869120598</v>
+        <v>1.610732674598694</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.09284508228302002</v>
+        <v>3.205743074417114</v>
       </c>
       <c r="C379" t="n">
-        <v>-0.1298869550228119</v>
+        <v>-1.917272925376892</v>
       </c>
       <c r="D379" t="n">
-        <v>-0.1132586896419525</v>
+        <v>1.602512121200562</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.08583801984786987</v>
+        <v>3.109955072402954</v>
       </c>
       <c r="C380" t="n">
-        <v>-0.1241500899195671</v>
+        <v>-1.865866184234619</v>
       </c>
       <c r="D380" t="n">
-        <v>-0.1144317388534546</v>
+        <v>1.662246704101562</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.06804040819406509</v>
+        <v>2.914897918701172</v>
       </c>
       <c r="C381" t="n">
-        <v>-0.1075455993413925</v>
+        <v>-1.750745415687561</v>
       </c>
       <c r="D381" t="n">
-        <v>-0.1187081933021545</v>
+        <v>1.669219613075256</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.07370529323816299</v>
+        <v>3.177801847457886</v>
       </c>
       <c r="C382" t="n">
-        <v>-0.1101863384246826</v>
+        <v>-1.911357641220093</v>
       </c>
       <c r="D382" t="n">
-        <v>-0.1167397201061249</v>
+        <v>1.651805400848389</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.1117399707436562</v>
+        <v>3.499724864959717</v>
       </c>
       <c r="C383" t="n">
-        <v>-0.1378784030675888</v>
+        <v>-2.086565017700195</v>
       </c>
       <c r="D383" t="n">
-        <v>-0.110933244228363</v>
+        <v>1.655923843383789</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.1141897439956665</v>
+        <v>3.622281074523926</v>
       </c>
       <c r="C384" t="n">
-        <v>-0.141785591840744</v>
+        <v>-2.156018495559692</v>
       </c>
       <c r="D384" t="n">
-        <v>-0.1109166517853737</v>
+        <v>1.617351412773132</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1204447373747826</v>
+        <v>3.396315574645996</v>
       </c>
       <c r="C385" t="n">
-        <v>-0.1442044973373413</v>
+        <v>-2.0354905128479</v>
       </c>
       <c r="D385" t="n">
-        <v>-0.1232532635331154</v>
+        <v>1.695704817771912</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.1341697424650192</v>
+        <v>3.429543733596802</v>
       </c>
       <c r="C386" t="n">
-        <v>-0.148935079574585</v>
+        <v>-2.064020156860352</v>
       </c>
       <c r="D386" t="n">
-        <v>-0.1367829442024231</v>
+        <v>1.797786593437195</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.09660805761814117</v>
+        <v>3.338250875473022</v>
       </c>
       <c r="C387" t="n">
-        <v>-0.1237968653440475</v>
+        <v>-2.012247085571289</v>
       </c>
       <c r="D387" t="n">
-        <v>-0.1223780512809753</v>
+        <v>1.784995555877686</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.1106481552124023</v>
+        <v>3.712403535842896</v>
       </c>
       <c r="C388" t="n">
-        <v>-0.1353131085634232</v>
+        <v>-2.214800834655762</v>
       </c>
       <c r="D388" t="n">
-        <v>-0.1137163639068604</v>
+        <v>1.706710338592529</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.09439386427402496</v>
+        <v>3.69651198387146</v>
       </c>
       <c r="C389" t="n">
-        <v>-0.1235240995883942</v>
+        <v>-2.206376791000366</v>
       </c>
       <c r="D389" t="n">
-        <v>-0.1142508015036583</v>
+        <v>1.745042324066162</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.1003645658493042</v>
+        <v>3.79367995262146</v>
       </c>
       <c r="C390" t="n">
-        <v>-0.1261432021856308</v>
+        <v>-2.252368688583374</v>
       </c>
       <c r="D390" t="n">
-        <v>-0.1132612824440002</v>
+        <v>1.705848336219788</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.09311912953853607</v>
+        <v>3.967247486114502</v>
       </c>
       <c r="C391" t="n">
-        <v>-0.1237745434045792</v>
+        <v>-2.374396324157715</v>
       </c>
       <c r="D391" t="n">
-        <v>-0.1085574626922607</v>
+        <v>1.72307288646698</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.08237861096858978</v>
+        <v>3.6393141746521</v>
       </c>
       <c r="C392" t="n">
-        <v>-0.1122248023748398</v>
+        <v>-2.179275035858154</v>
       </c>
       <c r="D392" t="n">
-        <v>-0.1145736575126648</v>
+        <v>1.75094199180603</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.06862995773553848</v>
+        <v>3.405490636825562</v>
       </c>
       <c r="C393" t="n">
-        <v>-0.09411738812923431</v>
+        <v>-2.053632020950317</v>
       </c>
       <c r="D393" t="n">
-        <v>-0.1255767494440079</v>
+        <v>1.806840300559998</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.0723770409822464</v>
+        <v>3.500889778137207</v>
       </c>
       <c r="C394" t="n">
-        <v>-0.104668490588665</v>
+        <v>-2.113373041152954</v>
       </c>
       <c r="D394" t="n">
-        <v>-0.1157514378428459</v>
+        <v>1.847974538803101</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.1008960828185081</v>
+        <v>3.804307222366333</v>
       </c>
       <c r="C395" t="n">
-        <v>-0.1283051669597626</v>
+        <v>-2.264136791229248</v>
       </c>
       <c r="D395" t="n">
-        <v>-0.1097047179937363</v>
+        <v>1.739760398864746</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.1067643538117409</v>
+        <v>3.538192272186279</v>
       </c>
       <c r="C396" t="n">
-        <v>-0.1338175535202026</v>
+        <v>-2.119156837463379</v>
       </c>
       <c r="D396" t="n">
-        <v>-0.109103836119175</v>
+        <v>1.729912877082825</v>
       </c>
     </row>
   </sheetData>

--- a/programs/autoencoder/data/real_enc.xlsx
+++ b/programs/autoencoder/data/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.666172385215759</v>
+        <v>1.326665997505188</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8386040329933167</v>
+        <v>-0.2181716561317444</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.325494050979614</v>
+        <v>-0.8845773339271545</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.579620957374573</v>
+        <v>1.254304528236389</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.7888601422309875</v>
+        <v>-0.1903062164783478</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.255653738975525</v>
+        <v>-0.673676073551178</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.604697346687317</v>
+        <v>1.438600540161133</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.8405964970588684</v>
+        <v>-0.3558098077774048</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.263428807258606</v>
+        <v>-1.197569012641907</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.472783446311951</v>
+        <v>1.425136923789978</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.8040102124214172</v>
+        <v>-0.4257146716117859</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.159202814102173</v>
+        <v>-1.158707141876221</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.321946978569031</v>
+        <v>1.363459348678589</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7449619174003601</v>
+        <v>-0.3681575059890747</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.037088751792908</v>
+        <v>-1.082726001739502</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9757893681526184</v>
+        <v>1.290142416954041</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6312263607978821</v>
+        <v>-0.5256702303886414</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6988076567649841</v>
+        <v>-0.8992646336555481</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.01624071598053</v>
+        <v>1.268958449363708</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.6695438027381897</v>
+        <v>-0.5516098141670227</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7200965285301208</v>
+        <v>-0.7849839925765991</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.978739321231842</v>
+        <v>1.259321212768555</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.66311115026474</v>
+        <v>-0.6246431469917297</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6636751890182495</v>
+        <v>-0.5868747234344482</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9413461685180664</v>
+        <v>1.186877846717834</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6386693716049194</v>
+        <v>-0.6119967103004456</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6265656352043152</v>
+        <v>-0.3953985869884491</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6224927306175232</v>
+        <v>0.8222071528434753</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3278074860572815</v>
+        <v>-0.1839177906513214</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3343190550804138</v>
+        <v>-0.2774776816368103</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8799071907997131</v>
+        <v>1.069043755531311</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4895815551280975</v>
+        <v>-0.2465073466300964</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6197826266288757</v>
+        <v>-0.7271542549133301</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.827781617641449</v>
+        <v>0.979723334312439</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3021881878376007</v>
+        <v>-0.04512970894575119</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.6592479944229126</v>
+        <v>-1.105822920799255</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5943611860275269</v>
+        <v>0.7685496807098389</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2596175074577332</v>
+        <v>0.1027641668915749</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1814135760068893</v>
+        <v>-0.4719686806201935</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4613458514213562</v>
+        <v>0.6581071615219116</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1670266836881638</v>
+        <v>0.2372205853462219</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.08706451952457428</v>
+        <v>-0.4800971150398254</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4668450355529785</v>
+        <v>0.8231146335601807</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.236128106713295</v>
+        <v>0.03720254451036453</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3314445614814758</v>
+        <v>-0.951778769493103</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5187592506408691</v>
+        <v>0.9880472421646118</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2638180255889893</v>
+        <v>-0.06226258724927902</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3250457346439362</v>
+        <v>-1.031474828720093</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7304919362068176</v>
+        <v>1.195304989814758</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.428670734167099</v>
+        <v>-0.3101193904876709</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.4363038539886475</v>
+        <v>-1.052638411521912</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8337307572364807</v>
+        <v>1.276117920875549</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5572360157966614</v>
+        <v>-0.401623547077179</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4886959195137024</v>
+        <v>-1.072839260101318</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7871652245521545</v>
+        <v>1.128426432609558</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.509131908416748</v>
+        <v>-0.3889287710189819</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4116405546665192</v>
+        <v>-0.7895153760910034</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.258755922317505</v>
+        <v>1.686510443687439</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.8444080948829651</v>
+        <v>-0.9365425705909729</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.7664071917533875</v>
+        <v>-1.057673335075378</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.310092806816101</v>
+        <v>1.723169922828674</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.8768923282623291</v>
+        <v>-0.9962723851203918</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.7929472327232361</v>
+        <v>-0.9969322681427002</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.678835391998291</v>
+        <v>2.039656400680542</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.079766988754272</v>
+        <v>-1.182177782058716</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.214559435844421</v>
+        <v>-1.03248655796051</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.856663584709167</v>
+        <v>1.872512221336365</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.9955386519432068</v>
+        <v>-0.7028617262840271</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.449167728424072</v>
+        <v>-1.363655924797058</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.469155311584473</v>
+        <v>1.988313794136047</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.180536985397339</v>
+        <v>-0.5559864044189453</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.127702713012695</v>
+        <v>-1.620004415512085</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2.694004058837891</v>
+        <v>1.835629940032959</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.365441203117371</v>
+        <v>-0.2395597100257874</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.164628744125366</v>
+        <v>-1.412861466407776</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.049788951873779</v>
+        <v>2.460793018341064</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.670604109764099</v>
+        <v>-0.7774384617805481</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.395463705062866</v>
+        <v>-1.271386504173279</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.448301076889038</v>
+        <v>2.884080410003662</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.828025102615356</v>
+        <v>-1.07270359992981</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.820110082626343</v>
+        <v>-1.899349927902222</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.107959270477295</v>
+        <v>2.953015804290771</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.852882266044617</v>
+        <v>-1.089671969413757</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.394967555999756</v>
+        <v>-1.426026701927185</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.833871126174927</v>
+        <v>2.440074443817139</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.752765417098999</v>
+        <v>-0.595224916934967</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.144891738891602</v>
+        <v>-1.582963228225708</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.897002696990967</v>
+        <v>2.85817813873291</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.835398554801941</v>
+        <v>-0.9239532351493835</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.19837474822998</v>
+        <v>-1.379825353622437</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.881334543228149</v>
+        <v>3.189555644989014</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.862618088722229</v>
+        <v>-1.193951010704041</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.098780155181885</v>
+        <v>-1.132213473320007</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.434206962585449</v>
+        <v>2.721827983856201</v>
       </c>
       <c r="C33" t="n">
-        <v>-1.676748752593994</v>
+        <v>-0.8556281328201294</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.685098528862</v>
+        <v>-1.132513284683228</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.149827003479004</v>
+        <v>2.770579099655151</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.534927010536194</v>
+        <v>-0.8832936882972717</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.492814540863037</v>
+        <v>-0.8213178515434265</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.228676557540894</v>
+        <v>2.410123109817505</v>
       </c>
       <c r="C35" t="n">
-        <v>-1.536117434501648</v>
+        <v>-0.6744357943534851</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.508884906768799</v>
+        <v>-0.9525096416473389</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.946717023849487</v>
+        <v>2.561796188354492</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.865277051925659</v>
+        <v>-0.6279675364494324</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.180771589279175</v>
+        <v>-1.47790253162384</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.551130294799805</v>
+        <v>2.358941078186035</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.015626192092896</v>
+        <v>-0.3693177402019501</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.828210115432739</v>
+        <v>-2.268476724624634</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.574233770370483</v>
+        <v>2.14059853553772</v>
       </c>
       <c r="C38" t="n">
-        <v>-2.216721773147583</v>
+        <v>-0.04189973324537277</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.305005788803101</v>
+        <v>-1.954802870750427</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.226761341094971</v>
+        <v>1.878972172737122</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.996878981590271</v>
+        <v>0.1543592214584351</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.914482474327087</v>
+        <v>-1.705938458442688</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.953240394592285</v>
+        <v>1.748725771903992</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.823284268379211</v>
+        <v>0.11223254352808</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.838273882865906</v>
+        <v>-2.143620014190674</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2.802772045135498</v>
+        <v>1.929449677467346</v>
       </c>
       <c r="C41" t="n">
-        <v>-1.771480560302734</v>
+        <v>-0.00838305801153183</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.723855972290039</v>
+        <v>-1.989291548728943</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.126173496246338</v>
+        <v>2.012784957885742</v>
       </c>
       <c r="C42" t="n">
-        <v>-1.984047174453735</v>
+        <v>0.007792152464389801</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.003350973129272</v>
+        <v>-2.209195375442505</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.812524318695068</v>
+        <v>1.95629608631134</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.808788657188416</v>
+        <v>0.02280978113412857</v>
       </c>
       <c r="D43" t="n">
-        <v>-1.743697166442871</v>
+        <v>-2.113549947738647</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.425283908843994</v>
+        <v>2.055194854736328</v>
       </c>
       <c r="C44" t="n">
-        <v>-1.556954979896545</v>
+        <v>-0.0903003141283989</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.336770534515381</v>
+        <v>-1.475062966346741</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.340116262435913</v>
+        <v>2.129763841629028</v>
       </c>
       <c r="C45" t="n">
-        <v>-1.532019734382629</v>
+        <v>-0.1489431262016296</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.268413782119751</v>
+        <v>-1.3294997215271</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.359581708908081</v>
+        <v>2.362149715423584</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.601268172264099</v>
+        <v>-0.3622729778289795</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.294244289398193</v>
+        <v>-1.072200417518616</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.815599679946899</v>
+        <v>2.431584358215332</v>
       </c>
       <c r="C47" t="n">
-        <v>-1.821025609970093</v>
+        <v>-0.3113067746162415</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.632016897201538</v>
+        <v>-1.472052931785583</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.063914775848389</v>
+        <v>2.163822174072266</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.921774983406067</v>
+        <v>-0.006855182349681854</v>
       </c>
       <c r="D48" t="n">
-        <v>-1.819397807121277</v>
+        <v>-2.032499551773071</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.238135814666748</v>
+        <v>1.792897582054138</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.945074319839478</v>
+        <v>0.2055622339248657</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.862878203392029</v>
+        <v>-2.225468158721924</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.810358285903931</v>
+        <v>2.240225076675415</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.315539121627808</v>
+        <v>0.1200535371899605</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.082428216934204</v>
+        <v>-2.102511405944824</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.93769645690918</v>
+        <v>2.144065856933594</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.422654390335083</v>
+        <v>0.2148488163948059</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.14781379699707</v>
+        <v>-2.17268705368042</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.251649856567383</v>
+        <v>2.470767498016357</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.609867334365845</v>
+        <v>0.08190561085939407</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.383008003234863</v>
+        <v>-2.403092622756958</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.380409717559814</v>
+        <v>2.759131908416748</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.734341144561768</v>
+        <v>-0.2756837010383606</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.655999898910522</v>
+        <v>-2.188996076583862</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.415055274963379</v>
+        <v>2.84873628616333</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.767891883850098</v>
+        <v>-0.2807891368865967</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.18035888671875</v>
+        <v>-2.443051099777222</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.395920753479004</v>
+        <v>3.18235445022583</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.788234949111938</v>
+        <v>-0.4953651428222656</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.136949300765991</v>
+        <v>-2.186797380447388</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.465162754058838</v>
+        <v>3.630743026733398</v>
       </c>
       <c r="C56" t="n">
-        <v>-2.804270029067993</v>
+        <v>-0.7139370441436768</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.111676454544067</v>
+        <v>-1.985458850860596</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.344098567962646</v>
+        <v>3.553377866744995</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.757089614868164</v>
+        <v>-0.6384239792823792</v>
       </c>
       <c r="D57" t="n">
-        <v>-2.906599998474121</v>
+        <v>-1.900834918022156</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.228642463684082</v>
+        <v>3.638672828674316</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.717795610427856</v>
+        <v>-0.6622406244277954</v>
       </c>
       <c r="D58" t="n">
-        <v>-2.647144556045532</v>
+        <v>-1.700286149978638</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.446661949157715</v>
+        <v>3.567394256591797</v>
       </c>
       <c r="C59" t="n">
-        <v>-2.810993194580078</v>
+        <v>-0.5916351079940796</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.01325798034668</v>
+        <v>-1.946450352668762</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.631392955780029</v>
+        <v>3.299581289291382</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.892600774765015</v>
+        <v>-0.4355118274688721</v>
       </c>
       <c r="D60" t="n">
-        <v>-3.350822448730469</v>
+        <v>-2.374635457992554</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.006638050079346</v>
+        <v>3.388205051422119</v>
       </c>
       <c r="C61" t="n">
-        <v>-3.021517038345337</v>
+        <v>-0.4522029161453247</v>
       </c>
       <c r="D61" t="n">
-        <v>-3.770941019058228</v>
+        <v>-2.689416885375977</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.87112283706665</v>
+        <v>3.52861213684082</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.487551927566528</v>
+        <v>-0.05261468142271042</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.936017274856567</v>
+        <v>-3.038354158401489</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5.624721050262451</v>
+        <v>3.760618448257446</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.426885366439819</v>
+        <v>-0.1599887013435364</v>
       </c>
       <c r="D63" t="n">
-        <v>-3.815600633621216</v>
+        <v>-2.666895866394043</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.838692188262939</v>
+        <v>3.905805826187134</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.505943536758423</v>
+        <v>-0.3889060020446777</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.084622859954834</v>
+        <v>-2.953438282012939</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5.533600330352783</v>
+        <v>3.63949728012085</v>
       </c>
       <c r="C65" t="n">
-        <v>-3.366531372070312</v>
+        <v>-0.272311270236969</v>
       </c>
       <c r="D65" t="n">
-        <v>-3.812634706497192</v>
+        <v>-2.848489046096802</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.200214385986328</v>
+        <v>3.178189992904663</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.197112560272217</v>
+        <v>-0.05613040179014206</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.489281177520752</v>
+        <v>-2.850760459899902</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.927376270294189</v>
+        <v>3.195862770080566</v>
       </c>
       <c r="C67" t="n">
-        <v>-3.078434228897095</v>
+        <v>-0.1152874156832695</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.24164891242981</v>
+        <v>-2.554033756256104</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.360067367553711</v>
+        <v>3.10632848739624</v>
       </c>
       <c r="C68" t="n">
-        <v>-3.29372763633728</v>
+        <v>0.209889829158783</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.09368371963501</v>
+        <v>-2.662858486175537</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.644144058227539</v>
+        <v>3.377062797546387</v>
       </c>
       <c r="C69" t="n">
-        <v>-3.452761888504028</v>
+        <v>0.1875974535942078</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.135818004608154</v>
+        <v>-2.70701003074646</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.604917049407959</v>
+        <v>3.344069957733154</v>
       </c>
       <c r="C70" t="n">
-        <v>-3.488161325454712</v>
+        <v>0.2377156019210815</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.990871429443359</v>
+        <v>-2.531809091567993</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.771903038024902</v>
+        <v>3.188438653945923</v>
       </c>
       <c r="C71" t="n">
-        <v>-3.491925239562988</v>
+        <v>0.3011404871940613</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.174073219299316</v>
+        <v>-2.811765909194946</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5.918871879577637</v>
+        <v>3.160399675369263</v>
       </c>
       <c r="C72" t="n">
-        <v>-3.570188760757446</v>
+        <v>0.3797140717506409</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.532357692718506</v>
+        <v>-3.197650194168091</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5.901286125183105</v>
+        <v>3.0272536277771</v>
       </c>
       <c r="C73" t="n">
-        <v>-3.516821622848511</v>
+        <v>0.4252687096595764</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.650457382202148</v>
+        <v>-3.373151540756226</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.084353923797607</v>
+        <v>2.59674072265625</v>
       </c>
       <c r="C74" t="n">
-        <v>-2.982737064361572</v>
+        <v>0.6907966732978821</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.65780234336853</v>
+        <v>-3.091398477554321</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.548582553863525</v>
+        <v>2.408820152282715</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.66201639175415</v>
+        <v>0.6337748765945435</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.253105640411377</v>
+        <v>-2.710913419723511</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.043278217315674</v>
+        <v>2.364626884460449</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.308488607406616</v>
+        <v>0.59818035364151</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.951963901519775</v>
+        <v>-2.654320240020752</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.098504543304443</v>
+        <v>2.386323928833008</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.35655665397644</v>
+        <v>0.5948572754859924</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.992159843444824</v>
+        <v>-2.632539987564087</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.409794330596924</v>
+        <v>2.470307350158691</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.531372547149658</v>
+        <v>0.684570848941803</v>
       </c>
       <c r="D78" t="n">
-        <v>-2.115573406219482</v>
+        <v>-2.894650459289551</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.235554218292236</v>
+        <v>2.377669811248779</v>
       </c>
       <c r="C79" t="n">
-        <v>-2.410306215286255</v>
+        <v>0.6811214089393616</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.000656843185425</v>
+        <v>-2.744755029678345</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.920336961746216</v>
+        <v>2.446105003356934</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.299479246139526</v>
+        <v>0.611936628818512</v>
       </c>
       <c r="D80" t="n">
-        <v>-1.844783425331116</v>
+        <v>-2.473236799240112</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.474984884262085</v>
+        <v>2.316569566726685</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.028709650039673</v>
+        <v>0.5511059165000916</v>
       </c>
       <c r="D81" t="n">
-        <v>-1.570595741271973</v>
+        <v>-2.149172067642212</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.157143592834473</v>
+        <v>2.3119215965271</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.888168931007385</v>
+        <v>0.4795517027378082</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.428668141365051</v>
+        <v>-1.932048201560974</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.40343713760376</v>
+        <v>2.114508628845215</v>
       </c>
       <c r="C83" t="n">
-        <v>-1.909847259521484</v>
+        <v>0.6244542598724365</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.487408995628357</v>
+        <v>-2.169260263442993</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.163731336593628</v>
+        <v>1.701571583747864</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.727392554283142</v>
+        <v>0.6478341221809387</v>
       </c>
       <c r="D84" t="n">
-        <v>-1.263284206390381</v>
+        <v>-2.016654491424561</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.311867713928223</v>
+        <v>1.709283590316772</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.79802417755127</v>
+        <v>0.6876773834228516</v>
       </c>
       <c r="D85" t="n">
-        <v>-1.217001676559448</v>
+        <v>-2.255055665969849</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.341452360153198</v>
+        <v>1.85911762714386</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.80756688117981</v>
+        <v>0.7349326610565186</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.266951680183411</v>
+        <v>-2.076471090316772</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.274683952331543</v>
+        <v>1.825536489486694</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.786130309104919</v>
+        <v>0.7557632327079773</v>
       </c>
       <c r="D87" t="n">
-        <v>-1.267229795455933</v>
+        <v>-2.124848127365112</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.316680192947388</v>
+        <v>1.872267723083496</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.780035853385925</v>
+        <v>0.7737858891487122</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.21556830406189</v>
+        <v>-2.209833860397339</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.286337375640869</v>
+        <v>1.841177940368652</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.770892262458801</v>
+        <v>0.7793708443641663</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.196136116981506</v>
+        <v>-2.208344697952271</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.088532686233521</v>
+        <v>1.787107348442078</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.666839122772217</v>
+        <v>0.7612666487693787</v>
       </c>
       <c r="D90" t="n">
-        <v>-1.12877881526947</v>
+        <v>-2.048437595367432</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.069653511047363</v>
+        <v>1.874704480171204</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.675464630126953</v>
+        <v>0.768671989440918</v>
       </c>
       <c r="D91" t="n">
-        <v>-1.147608160972595</v>
+        <v>-2.092360734939575</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.786397218704224</v>
+        <v>1.878626585006714</v>
       </c>
       <c r="C92" t="n">
-        <v>-1.522781133651733</v>
+        <v>0.7167665362358093</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.095965385437012</v>
+        <v>-1.856204390525818</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.645704984664917</v>
+        <v>1.954413056373596</v>
       </c>
       <c r="C93" t="n">
-        <v>-1.453255772590637</v>
+        <v>0.7000842690467834</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.0361647605896</v>
+        <v>-1.816033720970154</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.539889812469482</v>
+        <v>2.107645034790039</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.465482473373413</v>
+        <v>0.6437509655952454</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.038749098777771</v>
+        <v>-1.759759306907654</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.268928527832031</v>
+        <v>2.159834384918213</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.841965198516846</v>
+        <v>0.7708047032356262</v>
       </c>
       <c r="D95" t="n">
-        <v>-1.333827137947083</v>
+        <v>-2.193394899368286</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.73111891746521</v>
+        <v>2.127408742904663</v>
       </c>
       <c r="C96" t="n">
-        <v>-2.132112264633179</v>
+        <v>0.9753631353378296</v>
       </c>
       <c r="D96" t="n">
-        <v>-1.382088661193848</v>
+        <v>-2.7696213722229</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.110556602478027</v>
+        <v>2.185898780822754</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.347647190093994</v>
+        <v>1.08999228477478</v>
       </c>
       <c r="D97" t="n">
-        <v>-1.40390932559967</v>
+        <v>-3.219070911407471</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.511148452758789</v>
+        <v>2.313758373260498</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.623209953308105</v>
+        <v>1.15447473526001</v>
       </c>
       <c r="D98" t="n">
-        <v>-1.604497194290161</v>
+        <v>-2.992722749710083</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.60829496383667</v>
+        <v>2.587104082107544</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.695591926574707</v>
+        <v>1.136559844017029</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.752093076705933</v>
+        <v>-2.932995080947876</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.731024742126465</v>
+        <v>2.453116655349731</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.70695161819458</v>
+        <v>1.272495746612549</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.659084320068359</v>
+        <v>-3.196369886398315</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.405885219573975</v>
+        <v>2.378274440765381</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.569274425506592</v>
+        <v>1.135413885116577</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.622029781341553</v>
+        <v>-2.915740728378296</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.394345760345459</v>
+        <v>2.316261529922485</v>
       </c>
       <c r="C102" t="n">
-        <v>-2.569368839263916</v>
+        <v>1.129762887954712</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.573646426200867</v>
+        <v>-2.933920860290527</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.221660614013672</v>
+        <v>2.338767290115356</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.459342002868652</v>
+        <v>1.059094667434692</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.592790484428406</v>
+        <v>-2.85090708732605</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.877276420593262</v>
+        <v>2.776427268981934</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.834742546081543</v>
+        <v>1.061690807342529</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.899732708930969</v>
+        <v>-2.981495141983032</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>5.098062992095947</v>
+        <v>2.928706407546997</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.989372730255127</v>
+        <v>1.038762211799622</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.036887407302856</v>
+        <v>-3.001468420028687</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.646664619445801</v>
+        <v>2.741600036621094</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.763470888137817</v>
+        <v>0.9212839007377625</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.938254833221436</v>
+        <v>-2.577976942062378</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.270695209503174</v>
+        <v>2.469999313354492</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.474688053131104</v>
+        <v>0.9415327310562134</v>
       </c>
       <c r="D107" t="n">
-        <v>-1.722965359687805</v>
+        <v>-2.605920314788818</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.327306270599365</v>
+        <v>2.319185733795166</v>
       </c>
       <c r="C108" t="n">
-        <v>-2.467632055282593</v>
+        <v>1.066961169242859</v>
       </c>
       <c r="D108" t="n">
-        <v>-1.560166835784912</v>
+        <v>-3.045044422149658</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.12667989730835</v>
+        <v>2.153338193893433</v>
       </c>
       <c r="C109" t="n">
-        <v>-2.281315088272095</v>
+        <v>1.04927921295166</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.320516109466553</v>
+        <v>-3.102926969528198</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.100855350494385</v>
+        <v>2.242468357086182</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.322493076324463</v>
+        <v>1.027041792869568</v>
       </c>
       <c r="D110" t="n">
-        <v>-1.447253584861755</v>
+        <v>-2.543034553527832</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.727065801620483</v>
+        <v>2.009439706802368</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.099693536758423</v>
+        <v>1.034697294235229</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.208165764808655</v>
+        <v>-2.383430004119873</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.841452598571777</v>
+        <v>2.005227565765381</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.135777235031128</v>
+        <v>1.118623852729797</v>
       </c>
       <c r="D112" t="n">
-        <v>-1.1007479429245</v>
+        <v>-2.539777517318726</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.94611930847168</v>
+        <v>2.141430377960205</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.197150707244873</v>
+        <v>1.070288896560669</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.239737510681152</v>
+        <v>-2.570507526397705</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.948562145233154</v>
+        <v>2.002449035644531</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.190428972244263</v>
+        <v>1.118557453155518</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.180641412734985</v>
+        <v>-2.754291772842407</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.340017318725586</v>
+        <v>1.814708113670349</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.836976647377014</v>
+        <v>1.011052489280701</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.9661517143249512</v>
+        <v>-2.144632816314697</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2.870054721832275</v>
+        <v>1.763163924217224</v>
       </c>
       <c r="C116" t="n">
-        <v>-1.533390760421753</v>
+        <v>0.9203009605407715</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.7758861184120178</v>
+        <v>-1.793602824211121</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.609902858734131</v>
+        <v>1.721834301948547</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.380163192749023</v>
+        <v>0.9250265955924988</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.653589129447937</v>
+        <v>-1.612243175506592</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.905940771102905</v>
+        <v>2.054939270019531</v>
       </c>
       <c r="C118" t="n">
-        <v>-1.539428949356079</v>
+        <v>0.9108251929283142</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.7715815305709839</v>
+        <v>-1.919845581054688</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.889653444290161</v>
+        <v>1.869104862213135</v>
       </c>
       <c r="C119" t="n">
-        <v>-1.524533033370972</v>
+        <v>0.9471160769462585</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.7309647798538208</v>
+        <v>-1.929675936698914</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.250435590744019</v>
+        <v>1.648089647293091</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.758850455284119</v>
+        <v>0.9829037189483643</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.9037649035453796</v>
+        <v>-2.02157998085022</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.825292110443115</v>
+        <v>1.715292453765869</v>
       </c>
       <c r="C121" t="n">
-        <v>-2.089977979660034</v>
+        <v>1.076022386550903</v>
       </c>
       <c r="D121" t="n">
-        <v>-1.081402659416199</v>
+        <v>-2.486287355422974</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.876035213470459</v>
+        <v>1.67249596118927</v>
       </c>
       <c r="C122" t="n">
-        <v>-2.1316978931427</v>
+        <v>1.156113982200623</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.058667778968811</v>
+        <v>-2.458906650543213</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.350954294204712</v>
+        <v>1.788426995277405</v>
       </c>
       <c r="C123" t="n">
-        <v>-1.794415831565857</v>
+        <v>1.038306474685669</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.8292452096939087</v>
+        <v>-2.065443277359009</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.470432996749878</v>
+        <v>1.70542573928833</v>
       </c>
       <c r="C124" t="n">
-        <v>-1.868865132331848</v>
+        <v>1.075285077095032</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.8452160954475403</v>
+        <v>-2.066783428192139</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.509129047393799</v>
+        <v>1.711860537528992</v>
       </c>
       <c r="C125" t="n">
-        <v>-1.91847825050354</v>
+        <v>1.130982995033264</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.8532739877700806</v>
+        <v>-2.079183340072632</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.871549606323242</v>
+        <v>1.81755518913269</v>
       </c>
       <c r="C126" t="n">
-        <v>-2.162623167037964</v>
+        <v>1.224267601966858</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.9829640984535217</v>
+        <v>-2.426558971405029</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.797960042953491</v>
+        <v>1.994885921478271</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.109923124313354</v>
+        <v>1.218152284622192</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.9195156097412109</v>
+        <v>-2.421426057815552</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.545674324035645</v>
+        <v>2.057708978652954</v>
       </c>
       <c r="C128" t="n">
-        <v>-1.913207650184631</v>
+        <v>1.195131421089172</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.7738580107688904</v>
+        <v>-2.319899797439575</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.276405572891235</v>
+        <v>2.065739631652832</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.736178517341614</v>
+        <v>1.150619626045227</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.6514204740524292</v>
+        <v>-2.138082265853882</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.919491767883301</v>
+        <v>1.921497225761414</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.534371137619019</v>
+        <v>1.034315228462219</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.5685888528823853</v>
+        <v>-1.768576502799988</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.559019804000854</v>
+        <v>1.936976909637451</v>
       </c>
       <c r="C131" t="n">
-        <v>-1.940827131271362</v>
+        <v>1.220909357070923</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.7982615828514099</v>
+        <v>-2.26708722114563</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.226936340332031</v>
+        <v>1.883145689964294</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.421595811843872</v>
+        <v>1.377487301826477</v>
       </c>
       <c r="D132" t="n">
-        <v>-1.128766179084778</v>
+        <v>-2.761725187301636</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.44885778427124</v>
+        <v>1.818775057792664</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.601360321044922</v>
+        <v>1.481958866119385</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.204172015190125</v>
+        <v>-2.894220590591431</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.983592987060547</v>
+        <v>1.884631037712097</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.230537176132202</v>
+        <v>1.39021909236908</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.8657724857330322</v>
+        <v>-2.351880788803101</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.559283018112183</v>
+        <v>1.938766598701477</v>
       </c>
       <c r="C135" t="n">
-        <v>-1.966190814971924</v>
+        <v>1.30851674079895</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.7150589823722839</v>
+        <v>-2.168631792068481</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.785638570785522</v>
+        <v>1.873388171195984</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.134267330169678</v>
+        <v>1.422027826309204</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.7900569438934326</v>
+        <v>-2.315573930740356</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.798470497131348</v>
+        <v>1.85751473903656</v>
       </c>
       <c r="C137" t="n">
-        <v>-2.153116226196289</v>
+        <v>1.429834127426147</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.8165642619132996</v>
+        <v>-2.311437368392944</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.955843210220337</v>
+        <v>1.662410497665405</v>
       </c>
       <c r="C138" t="n">
-        <v>-2.259200096130371</v>
+        <v>1.451284408569336</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.9234672784805298</v>
+        <v>-2.344085931777954</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.704511404037476</v>
+        <v>1.759492039680481</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.081857204437256</v>
+        <v>1.376668930053711</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.7728326916694641</v>
+        <v>-2.149970054626465</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.386775493621826</v>
+        <v>1.817118406295776</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.878173828125</v>
+        <v>1.335897445678711</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.6325079798698425</v>
+        <v>-1.967794299125671</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.367334604263306</v>
+        <v>1.976864695549011</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.849265217781067</v>
+        <v>1.300704002380371</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.5842193961143494</v>
+        <v>-1.991651892662048</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.608884811401367</v>
+        <v>2.124669075012207</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.991869211196899</v>
+        <v>1.246852874755859</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.7205753922462463</v>
+        <v>-1.991430163383484</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.888918876647949</v>
+        <v>1.925591707229614</v>
       </c>
       <c r="C143" t="n">
-        <v>-2.158332586288452</v>
+        <v>1.440162777900696</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.798555850982666</v>
+        <v>-2.385297536849976</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.174226760864258</v>
+        <v>1.845173478126526</v>
       </c>
       <c r="C144" t="n">
-        <v>-2.354201316833496</v>
+        <v>1.614192485809326</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.9880576729774475</v>
+        <v>-2.715505838394165</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.719052791595459</v>
+        <v>2.19894003868103</v>
       </c>
       <c r="C145" t="n">
-        <v>-3.281042098999023</v>
+        <v>2.201527118682861</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.282541155815125</v>
+        <v>-3.504971265792847</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6.928860664367676</v>
+        <v>2.78449273109436</v>
       </c>
       <c r="C146" t="n">
-        <v>-4.103239059448242</v>
+        <v>2.219017505645752</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.325344443321228</v>
+        <v>-3.378999710083008</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7.238844871520996</v>
+        <v>3.030651330947876</v>
       </c>
       <c r="C147" t="n">
-        <v>-4.304168701171875</v>
+        <v>2.26765513420105</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.264744877815247</v>
+        <v>-3.549957990646362</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7.121654033660889</v>
+        <v>2.929403305053711</v>
       </c>
       <c r="C148" t="n">
-        <v>-4.203839778900146</v>
+        <v>2.18199610710144</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.32015073299408</v>
+        <v>-3.565536499023438</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6.865321159362793</v>
+        <v>2.814197063446045</v>
       </c>
       <c r="C149" t="n">
-        <v>-4.013568878173828</v>
+        <v>2.115850687026978</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.27438497543335</v>
+        <v>-3.490362405776978</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6.751273632049561</v>
+        <v>2.705564022064209</v>
       </c>
       <c r="C150" t="n">
-        <v>-3.94370698928833</v>
+        <v>2.145619630813599</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.310516595840454</v>
+        <v>-3.479825258255005</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.281078815460205</v>
+        <v>2.60206151008606</v>
       </c>
       <c r="C151" t="n">
-        <v>-3.679192304611206</v>
+        <v>2.084837198257446</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.064034819602966</v>
+        <v>-3.136110067367554</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.931494235992432</v>
+        <v>2.644456148147583</v>
       </c>
       <c r="C152" t="n">
-        <v>-3.486083507537842</v>
+        <v>1.913917303085327</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.8420608639717102</v>
+        <v>-2.807422876358032</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.832302093505859</v>
+        <v>2.677923440933228</v>
       </c>
       <c r="C153" t="n">
-        <v>-3.441953182220459</v>
+        <v>1.873493671417236</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.7665461897850037</v>
+        <v>-2.68235969543457</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.66500997543335</v>
+        <v>2.639910459518433</v>
       </c>
       <c r="C154" t="n">
-        <v>-3.333913087844849</v>
+        <v>1.902062773704529</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.7531784176826477</v>
+        <v>-2.682885408401489</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.902894973754883</v>
+        <v>2.612136840820312</v>
       </c>
       <c r="C155" t="n">
-        <v>-3.438719987869263</v>
+        <v>1.954832434654236</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.8892760872840881</v>
+        <v>-2.955446004867554</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.852488040924072</v>
+        <v>2.364378452301025</v>
       </c>
       <c r="C156" t="n">
-        <v>-3.385326147079468</v>
+        <v>2.083399295806885</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.059674859046936</v>
+        <v>-3.134974718093872</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.78148078918457</v>
+        <v>1.824548244476318</v>
       </c>
       <c r="C157" t="n">
-        <v>-2.715133905410767</v>
+        <v>2.268880844116211</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.9439614415168762</v>
+        <v>-3.185675859451294</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.235879421234131</v>
+        <v>0.6502840518951416</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.193310499191284</v>
+        <v>2.40877628326416</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.01244403142482042</v>
+        <v>-2.168142795562744</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.14484429359436</v>
+        <v>0.1791241466999054</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.167948365211487</v>
+        <v>2.405711889266968</v>
       </c>
       <c r="D159" t="n">
-        <v>0.06013072282075882</v>
+        <v>-1.56656539440155</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.864674806594849</v>
+        <v>0.1200972497463226</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.004547595977783</v>
+        <v>2.709069967269897</v>
       </c>
       <c r="D160" t="n">
-        <v>0.08162558823823929</v>
+        <v>-1.912321209907532</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.890844225883484</v>
+        <v>0.01069620624184608</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.021077513694763</v>
+        <v>2.655628204345703</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1089448779821396</v>
+        <v>-1.725727438926697</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.751670837402344</v>
+        <v>-0.02855941280722618</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.9514599442481995</v>
+        <v>2.785794019699097</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07395117729902267</v>
+        <v>-1.964073300361633</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.757463455200195</v>
+        <v>-0.03337123617529869</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.9810481667518616</v>
+        <v>2.781176567077637</v>
       </c>
       <c r="D163" t="n">
-        <v>0.08571658283472061</v>
+        <v>-1.849065184593201</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.015510320663452</v>
+        <v>0.003378245979547501</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.145792126655579</v>
+        <v>2.472127914428711</v>
       </c>
       <c r="D164" t="n">
-        <v>0.1399006694555283</v>
+        <v>-1.325298070907593</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2.261103391647339</v>
+        <v>0.2502292692661285</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.278841495513916</v>
+        <v>2.40460991859436</v>
       </c>
       <c r="D165" t="n">
-        <v>0.136221632361412</v>
+        <v>-1.277935862541199</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.264908075332642</v>
+        <v>0.2312422692775726</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.266939997673035</v>
+        <v>2.265246152877808</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1448316276073456</v>
+        <v>-1.111976981163025</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.112883567810059</v>
+        <v>0.216821163892746</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.16271710395813</v>
+        <v>2.556647062301636</v>
       </c>
       <c r="D167" t="n">
-        <v>0.1308191269636154</v>
+        <v>-1.553285121917725</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2.111999988555908</v>
+        <v>0.3755507171154022</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.157803893089294</v>
+        <v>2.601048707962036</v>
       </c>
       <c r="D168" t="n">
-        <v>0.007865525782108307</v>
+        <v>-2.035095930099487</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1.981435298919678</v>
+        <v>0.600007951259613</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.073390364646912</v>
+        <v>2.829755067825317</v>
       </c>
       <c r="D169" t="n">
-        <v>0.05243844538927078</v>
+        <v>-2.248390913009644</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.550639867782593</v>
+        <v>0.8780194520950317</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.36439037322998</v>
+        <v>2.433106660842896</v>
       </c>
       <c r="D170" t="n">
-        <v>0.02177039720118046</v>
+        <v>-2.026667833328247</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.973767757415771</v>
+        <v>1.049907803535461</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.691300988197327</v>
+        <v>2.222326278686523</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.09907638281583786</v>
+        <v>-1.794086337089539</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.915078163146973</v>
+        <v>1.183170199394226</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.646094083786011</v>
+        <v>2.291773796081543</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.1426922678947449</v>
+        <v>-1.960667014122009</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.946033000946045</v>
+        <v>1.282256007194519</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.676162481307983</v>
+        <v>2.126453161239624</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.199443057179451</v>
+        <v>-1.679367423057556</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.659106254577637</v>
+        <v>1.33300244808197</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.512054800987244</v>
+        <v>2.264447927474976</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1686190217733383</v>
+        <v>-1.757717251777649</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.016050100326538</v>
+        <v>1.645926952362061</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.731152176856995</v>
+        <v>2.283862352371216</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.1325451135635376</v>
+        <v>-1.747001767158508</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.427329301834106</v>
+        <v>1.94308078289032</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.967290997505188</v>
+        <v>2.178854942321777</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1412893384695053</v>
+        <v>-1.66682243347168</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.589907646179199</v>
+        <v>1.901924729347229</v>
       </c>
       <c r="C177" t="n">
-        <v>-2.085845947265625</v>
+        <v>2.012971878051758</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.2086053490638733</v>
+        <v>-1.573314428329468</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.844342470169067</v>
+        <v>2.305151462554932</v>
       </c>
       <c r="C178" t="n">
-        <v>-2.195477724075317</v>
+        <v>2.083543062210083</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1918708235025406</v>
+        <v>-1.773336291313171</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.565576553344727</v>
+        <v>1.971235632896423</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.001328945159912</v>
+        <v>2.213860750198364</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.2800903916358948</v>
+        <v>-1.977415204048157</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.33072566986084</v>
+        <v>1.726312756538391</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.857031941413879</v>
+        <v>2.25493049621582</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.295042097568512</v>
+        <v>-1.972131609916687</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.38538384437561</v>
+        <v>1.823233485221863</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.853819370269775</v>
+        <v>2.34116005897522</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3274405002593994</v>
+        <v>-2.254787445068359</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.031567573547363</v>
+        <v>2.08447003364563</v>
       </c>
       <c r="C182" t="n">
-        <v>-2.249699354171753</v>
+        <v>2.265759468078613</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.3747493624687195</v>
+        <v>-2.126639604568481</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.190791606903076</v>
+        <v>2.174069166183472</v>
       </c>
       <c r="C183" t="n">
-        <v>-2.383355855941772</v>
+        <v>2.284699678421021</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.3361993134021759</v>
+        <v>-2.000315189361572</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.238746166229248</v>
+        <v>2.253197908401489</v>
       </c>
       <c r="C184" t="n">
-        <v>-2.393868684768677</v>
+        <v>2.534703969955444</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.2540977299213409</v>
+        <v>-2.26460862159729</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.408460140228271</v>
+        <v>2.460413217544556</v>
       </c>
       <c r="C185" t="n">
-        <v>-2.472903251647949</v>
+        <v>2.699748754501343</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.2085373848676682</v>
+        <v>-2.402253866195679</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.850450038909912</v>
+        <v>2.691025733947754</v>
       </c>
       <c r="C186" t="n">
-        <v>-2.72533655166626</v>
+        <v>2.738230466842651</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.2955428957939148</v>
+        <v>-2.665934324264526</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.732569217681885</v>
+        <v>2.699038743972778</v>
       </c>
       <c r="C187" t="n">
-        <v>-2.697482347488403</v>
+        <v>2.65067458152771</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.2485465705394745</v>
+        <v>-2.36790943145752</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.349600315093994</v>
+        <v>2.591028213500977</v>
       </c>
       <c r="C188" t="n">
-        <v>-2.493929147720337</v>
+        <v>2.587770462036133</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1343215107917786</v>
+        <v>-2.115864515304565</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.147062301635742</v>
+        <v>2.573745250701904</v>
       </c>
       <c r="C189" t="n">
-        <v>-2.367421865463257</v>
+        <v>2.646686315536499</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.09110815823078156</v>
+        <v>-2.073178768157959</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>3.534423351287842</v>
+        <v>1.999721527099609</v>
       </c>
       <c r="C190" t="n">
-        <v>-2.02481746673584</v>
+        <v>2.365081071853638</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.04106342047452927</v>
+        <v>-1.649295210838318</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>3.50494384765625</v>
+        <v>1.98747706413269</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.982642531394958</v>
+        <v>2.58616304397583</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.007190912030637264</v>
+        <v>-1.842320322990417</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>3.339082717895508</v>
+        <v>1.839378714561462</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.840253472328186</v>
+        <v>2.872571468353271</v>
       </c>
       <c r="D192" t="n">
-        <v>0.04615209251642227</v>
+        <v>-2.094649076461792</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>3.230208158493042</v>
+        <v>1.71076762676239</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.751607656478882</v>
+        <v>3.121121406555176</v>
       </c>
       <c r="D193" t="n">
-        <v>0.08983983099460602</v>
+        <v>-2.271302938461304</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.905427217483521</v>
+        <v>1.419646620750427</v>
       </c>
       <c r="C194" t="n">
-        <v>-1.572048425674438</v>
+        <v>2.953046083450317</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1714514493942261</v>
+        <v>-1.852096199989319</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2.586223840713501</v>
+        <v>1.270861268043518</v>
       </c>
       <c r="C195" t="n">
-        <v>-1.400077939033508</v>
+        <v>2.816863298416138</v>
       </c>
       <c r="D195" t="n">
-        <v>0.2514599561691284</v>
+        <v>-1.62975811958313</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>2.507559299468994</v>
+        <v>1.062898278236389</v>
       </c>
       <c r="C196" t="n">
-        <v>-1.337547421455383</v>
+        <v>2.953090906143188</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3215590119361877</v>
+        <v>-1.648714423179626</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2.483641386032104</v>
+        <v>1.003441452980042</v>
       </c>
       <c r="C197" t="n">
-        <v>-1.327454209327698</v>
+        <v>2.978215217590332</v>
       </c>
       <c r="D197" t="n">
-        <v>0.3557024896144867</v>
+        <v>-1.621989607810974</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2.693473339080811</v>
+        <v>1.166639685630798</v>
       </c>
       <c r="C198" t="n">
-        <v>-1.45539379119873</v>
+        <v>3.224308729171753</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3142323791980743</v>
+        <v>-1.853071570396423</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2.49888277053833</v>
+        <v>0.9328395128250122</v>
       </c>
       <c r="C199" t="n">
-        <v>-1.362587690353394</v>
+        <v>2.862056970596313</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3867900967597961</v>
+        <v>-1.471599221229553</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2.556503772735596</v>
+        <v>0.8356322050094604</v>
       </c>
       <c r="C200" t="n">
-        <v>-1.423413872718811</v>
+        <v>2.651101112365723</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3998300135135651</v>
+        <v>-1.198142409324646</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2.593593597412109</v>
+        <v>0.8856769800186157</v>
       </c>
       <c r="C201" t="n">
-        <v>-1.448143362998962</v>
+        <v>2.69142484664917</v>
       </c>
       <c r="D201" t="n">
-        <v>0.3963598906993866</v>
+        <v>-1.217085838317871</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2.73472785949707</v>
+        <v>1.323330163955688</v>
       </c>
       <c r="C202" t="n">
-        <v>-1.502979397773743</v>
+        <v>2.687249422073364</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3357998728752136</v>
+        <v>-1.353918433189392</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2.517168045043945</v>
+        <v>0.9118704199790955</v>
       </c>
       <c r="C203" t="n">
-        <v>-1.373083710670471</v>
+        <v>2.937445402145386</v>
       </c>
       <c r="D203" t="n">
-        <v>0.409490704536438</v>
+        <v>-1.404747843742371</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2.689368486404419</v>
+        <v>1.16332471370697</v>
       </c>
       <c r="C204" t="n">
-        <v>-1.453255653381348</v>
+        <v>3.231126070022583</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3909091055393219</v>
+        <v>-1.694085240364075</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2.955781221389771</v>
+        <v>1.278020262718201</v>
       </c>
       <c r="C205" t="n">
-        <v>-1.603161573410034</v>
+        <v>3.517178297042847</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3728390634059906</v>
+        <v>-1.823632001876831</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>3.104829549789429</v>
+        <v>1.519985795021057</v>
       </c>
       <c r="C206" t="n">
-        <v>-1.689359545707703</v>
+        <v>3.004079818725586</v>
       </c>
       <c r="D206" t="n">
-        <v>0.2913309633731842</v>
+        <v>-1.64667272567749</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>3.332211017608643</v>
+        <v>1.650451064109802</v>
       </c>
       <c r="C207" t="n">
-        <v>-1.867337584495544</v>
+        <v>2.82743501663208</v>
       </c>
       <c r="D207" t="n">
-        <v>0.247262254357338</v>
+        <v>-1.530751705169678</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>3.50640344619751</v>
+        <v>1.947956919670105</v>
       </c>
       <c r="C208" t="n">
-        <v>-1.941951394081116</v>
+        <v>3.014446973800659</v>
       </c>
       <c r="D208" t="n">
-        <v>0.1736374199390411</v>
+        <v>-1.879465937614441</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>3.423020124435425</v>
+        <v>1.766550183296204</v>
       </c>
       <c r="C209" t="n">
-        <v>-1.921803712844849</v>
+        <v>2.92750358581543</v>
       </c>
       <c r="D209" t="n">
-        <v>0.1671453714370728</v>
+        <v>-1.73684823513031</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>3.309931516647339</v>
+        <v>1.502615213394165</v>
       </c>
       <c r="C210" t="n">
-        <v>-1.860658645629883</v>
+        <v>3.073413133621216</v>
       </c>
       <c r="D210" t="n">
-        <v>0.2432243525981903</v>
+        <v>-1.498900890350342</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>3.45810341835022</v>
+        <v>1.637123942375183</v>
       </c>
       <c r="C211" t="n">
-        <v>-1.992347121238708</v>
+        <v>2.78944206237793</v>
       </c>
       <c r="D211" t="n">
-        <v>0.1987897753715515</v>
+        <v>-1.407731890678406</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>3.550091028213501</v>
+        <v>1.795913815498352</v>
       </c>
       <c r="C212" t="n">
-        <v>-2.04733681678772</v>
+        <v>2.757691383361816</v>
       </c>
       <c r="D212" t="n">
-        <v>0.1484284996986389</v>
+        <v>-1.511152863502502</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3.583729982376099</v>
+        <v>1.732967019081116</v>
       </c>
       <c r="C213" t="n">
-        <v>-2.074254035949707</v>
+        <v>2.644313097000122</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1649946421384811</v>
+        <v>-1.408355951309204</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>3.614855051040649</v>
+        <v>1.866074323654175</v>
       </c>
       <c r="C214" t="n">
-        <v>-2.078777551651001</v>
+        <v>2.556594133377075</v>
       </c>
       <c r="D214" t="n">
-        <v>0.1306816637516022</v>
+        <v>-1.430936932563782</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3.469730854034424</v>
+        <v>1.980297923088074</v>
       </c>
       <c r="C215" t="n">
-        <v>-1.912395238876343</v>
+        <v>3.11273455619812</v>
       </c>
       <c r="D215" t="n">
-        <v>0.1522749215364456</v>
+        <v>-1.8785240650177</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>3.401837587356567</v>
+        <v>1.858306765556335</v>
       </c>
       <c r="C216" t="n">
-        <v>-1.869781017303467</v>
+        <v>3.180908203125</v>
       </c>
       <c r="D216" t="n">
-        <v>0.1945811212062836</v>
+        <v>-1.795353412628174</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3.287984848022461</v>
+        <v>1.615363359451294</v>
       </c>
       <c r="C217" t="n">
-        <v>-1.822697877883911</v>
+        <v>3.525417566299438</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2908624112606049</v>
+        <v>-1.768654704093933</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3.435100793838501</v>
+        <v>1.710385799407959</v>
       </c>
       <c r="C218" t="n">
-        <v>-1.888423204421997</v>
+        <v>3.020011425018311</v>
       </c>
       <c r="D218" t="n">
-        <v>0.2325839102268219</v>
+        <v>-1.516942501068115</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3.670310735702515</v>
+        <v>1.887484669685364</v>
       </c>
       <c r="C219" t="n">
-        <v>-2.058858156204224</v>
+        <v>2.968713283538818</v>
       </c>
       <c r="D219" t="n">
-        <v>0.2008222341537476</v>
+        <v>-1.51657509803772</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>3.349062919616699</v>
+        <v>1.682933449745178</v>
       </c>
       <c r="C220" t="n">
-        <v>-1.844618678092957</v>
+        <v>3.17692494392395</v>
       </c>
       <c r="D220" t="n">
-        <v>0.2500460147857666</v>
+        <v>-1.622738718986511</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3.404257774353027</v>
+        <v>1.76959216594696</v>
       </c>
       <c r="C221" t="n">
-        <v>-1.887698531150818</v>
+        <v>2.970653533935547</v>
       </c>
       <c r="D221" t="n">
-        <v>0.2445008307695389</v>
+        <v>-1.4833664894104</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>3.360825061798096</v>
+        <v>1.792546033859253</v>
       </c>
       <c r="C222" t="n">
-        <v>-1.861151337623596</v>
+        <v>3.157074213027954</v>
       </c>
       <c r="D222" t="n">
-        <v>0.2697401642799377</v>
+        <v>-1.61454164981842</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>3.369625806808472</v>
+        <v>1.857517957687378</v>
       </c>
       <c r="C223" t="n">
-        <v>-1.88773787021637</v>
+        <v>3.119726181030273</v>
       </c>
       <c r="D223" t="n">
-        <v>0.250127911567688</v>
+        <v>-1.679153800010681</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>3.836655616760254</v>
+        <v>2.16142725944519</v>
       </c>
       <c r="C224" t="n">
-        <v>-2.130571365356445</v>
+        <v>3.002437353134155</v>
       </c>
       <c r="D224" t="n">
-        <v>0.1466303169727325</v>
+        <v>-1.594025015830994</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>3.910122156143188</v>
+        <v>2.209047555923462</v>
       </c>
       <c r="C225" t="n">
-        <v>-2.173111200332642</v>
+        <v>3.120459079742432</v>
       </c>
       <c r="D225" t="n">
-        <v>0.1406219303607941</v>
+        <v>-1.648470640182495</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3.940750122070312</v>
+        <v>2.062849521636963</v>
       </c>
       <c r="C226" t="n">
-        <v>-2.239583015441895</v>
+        <v>2.762208938598633</v>
       </c>
       <c r="D226" t="n">
-        <v>0.1949919313192368</v>
+        <v>-1.222538828849792</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>3.964326858520508</v>
+        <v>2.039846181869507</v>
       </c>
       <c r="C227" t="n">
-        <v>-2.241311073303223</v>
+        <v>2.998293161392212</v>
       </c>
       <c r="D227" t="n">
-        <v>0.2063000202178955</v>
+        <v>-1.331745743751526</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>3.80781626701355</v>
+        <v>1.8196941614151</v>
       </c>
       <c r="C228" t="n">
-        <v>-2.156829833984375</v>
+        <v>3.147716522216797</v>
       </c>
       <c r="D228" t="n">
-        <v>0.3003729581832886</v>
+        <v>-1.218604445457458</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3.648414611816406</v>
+        <v>1.617474794387817</v>
       </c>
       <c r="C229" t="n">
-        <v>-2.069001436233521</v>
+        <v>3.654027223587036</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4081978499889374</v>
+        <v>-1.298422336578369</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4.071146011352539</v>
+        <v>1.925501704216003</v>
       </c>
       <c r="C230" t="n">
-        <v>-2.313264131546021</v>
+        <v>3.042233467102051</v>
       </c>
       <c r="D230" t="n">
-        <v>0.2756158411502838</v>
+        <v>-1.065106511116028</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4.154508113861084</v>
+        <v>2.036807060241699</v>
       </c>
       <c r="C231" t="n">
-        <v>-2.385724067687988</v>
+        <v>2.840479135513306</v>
       </c>
       <c r="D231" t="n">
-        <v>0.2688651382923126</v>
+        <v>-0.971554160118103</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4.030894756317139</v>
+        <v>1.833886623382568</v>
       </c>
       <c r="C232" t="n">
-        <v>-2.295615434646606</v>
+        <v>3.119466066360474</v>
       </c>
       <c r="D232" t="n">
-        <v>0.329430490732193</v>
+        <v>-1.062421441078186</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3.923839807510376</v>
+        <v>1.801120162010193</v>
       </c>
       <c r="C233" t="n">
-        <v>-2.24254035949707</v>
+        <v>3.040903091430664</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3478130698204041</v>
+        <v>-0.9955471754074097</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3.733004570007324</v>
+        <v>1.786136865615845</v>
       </c>
       <c r="C234" t="n">
-        <v>-2.113163948059082</v>
+        <v>3.223419427871704</v>
       </c>
       <c r="D234" t="n">
-        <v>0.3803726434707642</v>
+        <v>-1.105258107185364</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3.902478456497192</v>
+        <v>1.873826384544373</v>
       </c>
       <c r="C235" t="n">
-        <v>-2.235302209854126</v>
+        <v>3.06924033164978</v>
       </c>
       <c r="D235" t="n">
-        <v>0.3668362498283386</v>
+        <v>-1.032387375831604</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>4.211502552032471</v>
+        <v>1.851921677589417</v>
       </c>
       <c r="C236" t="n">
-        <v>-2.450538158416748</v>
+        <v>2.894885778427124</v>
       </c>
       <c r="D236" t="n">
-        <v>0.366041362285614</v>
+        <v>-0.8168039321899414</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4.280468940734863</v>
+        <v>1.790888667106628</v>
       </c>
       <c r="C237" t="n">
-        <v>-2.502880334854126</v>
+        <v>2.966058492660522</v>
       </c>
       <c r="D237" t="n">
-        <v>0.4010517299175262</v>
+        <v>-0.7793862223625183</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4.2015700340271</v>
+        <v>1.555265545845032</v>
       </c>
       <c r="C238" t="n">
-        <v>-2.47394061088562</v>
+        <v>2.705284595489502</v>
       </c>
       <c r="D238" t="n">
-        <v>0.4447005689144135</v>
+        <v>-0.573838472366333</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4.057651996612549</v>
+        <v>1.683759212493896</v>
       </c>
       <c r="C239" t="n">
-        <v>-2.342789649963379</v>
+        <v>2.993849039077759</v>
       </c>
       <c r="D239" t="n">
-        <v>0.4015204310417175</v>
+        <v>-0.8800362944602966</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3.673846960067749</v>
+        <v>1.48030698299408</v>
       </c>
       <c r="C240" t="n">
-        <v>-2.089482307434082</v>
+        <v>3.271390199661255</v>
       </c>
       <c r="D240" t="n">
-        <v>0.4831307232379913</v>
+        <v>-0.9158267378807068</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3.750413656234741</v>
+        <v>1.395787596702576</v>
       </c>
       <c r="C241" t="n">
-        <v>-2.131817579269409</v>
+        <v>3.705404043197632</v>
       </c>
       <c r="D241" t="n">
-        <v>0.5456874966621399</v>
+        <v>-0.925467312335968</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4.156784534454346</v>
+        <v>1.592136144638062</v>
       </c>
       <c r="C242" t="n">
-        <v>-2.389520168304443</v>
+        <v>3.135589838027954</v>
       </c>
       <c r="D242" t="n">
-        <v>0.4984794855117798</v>
+        <v>-0.7197890281677246</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4.197221755981445</v>
+        <v>1.57266628742218</v>
       </c>
       <c r="C243" t="n">
-        <v>-2.456559658050537</v>
+        <v>2.86384129524231</v>
       </c>
       <c r="D243" t="n">
-        <v>0.4422835111618042</v>
+        <v>-0.6190994381904602</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4.451022624969482</v>
+        <v>1.413415551185608</v>
       </c>
       <c r="C244" t="n">
-        <v>-2.591970682144165</v>
+        <v>3.146433591842651</v>
       </c>
       <c r="D244" t="n">
-        <v>0.5038334131240845</v>
+        <v>-0.5442535877227783</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4.548670768737793</v>
+        <v>1.427008271217346</v>
       </c>
       <c r="C245" t="n">
-        <v>-2.665315866470337</v>
+        <v>3.065685272216797</v>
       </c>
       <c r="D245" t="n">
-        <v>0.5705378651618958</v>
+        <v>-0.3562174439430237</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4.753091335296631</v>
+        <v>1.399335741996765</v>
       </c>
       <c r="C246" t="n">
-        <v>-2.786224842071533</v>
+        <v>3.322019338607788</v>
       </c>
       <c r="D246" t="n">
-        <v>0.5366253852844238</v>
+        <v>-0.3984097540378571</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>5.00492000579834</v>
+        <v>1.475089311599731</v>
       </c>
       <c r="C247" t="n">
-        <v>-2.950860261917114</v>
+        <v>3.220256090164185</v>
       </c>
       <c r="D247" t="n">
-        <v>0.5063648223876953</v>
+        <v>-0.3684132397174835</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>5.071163654327393</v>
+        <v>1.557897210121155</v>
       </c>
       <c r="C248" t="n">
-        <v>-2.994187355041504</v>
+        <v>3.03942608833313</v>
       </c>
       <c r="D248" t="n">
-        <v>0.509880006313324</v>
+        <v>-0.2834596633911133</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>5.225358009338379</v>
+        <v>1.495882987976074</v>
       </c>
       <c r="C249" t="n">
-        <v>-3.082286834716797</v>
+        <v>3.149905920028687</v>
       </c>
       <c r="D249" t="n">
-        <v>0.4640321731567383</v>
+        <v>-0.3175939321517944</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>5.063560962677002</v>
+        <v>1.638254404067993</v>
       </c>
       <c r="C250" t="n">
-        <v>-2.97280740737915</v>
+        <v>2.981710910797119</v>
       </c>
       <c r="D250" t="n">
-        <v>0.4256828427314758</v>
+        <v>-0.3133507966995239</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>5.137636661529541</v>
+        <v>1.611950039863586</v>
       </c>
       <c r="C251" t="n">
-        <v>-3.014936208724976</v>
+        <v>3.107857465744019</v>
       </c>
       <c r="D251" t="n">
-        <v>0.4112429320812225</v>
+        <v>-0.3427340090274811</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5.128462314605713</v>
+        <v>1.496153950691223</v>
       </c>
       <c r="C252" t="n">
-        <v>-3.009122133255005</v>
+        <v>3.474185705184937</v>
       </c>
       <c r="D252" t="n">
-        <v>0.4727123975753784</v>
+        <v>-0.4119701981544495</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4.796519756317139</v>
+        <v>1.343845725059509</v>
       </c>
       <c r="C253" t="n">
-        <v>-2.788823843002319</v>
+        <v>3.952224016189575</v>
       </c>
       <c r="D253" t="n">
-        <v>0.545783519744873</v>
+        <v>-0.6070468425750732</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4.834710121154785</v>
+        <v>1.295635104179382</v>
       </c>
       <c r="C254" t="n">
-        <v>-2.81418776512146</v>
+        <v>3.505253314971924</v>
       </c>
       <c r="D254" t="n">
-        <v>0.5066099762916565</v>
+        <v>-0.4615550935268402</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4.176712036132812</v>
+        <v>1.423241376876831</v>
       </c>
       <c r="C255" t="n">
-        <v>-2.427304029464722</v>
+        <v>3.113232612609863</v>
       </c>
       <c r="D255" t="n">
-        <v>0.5347402691841125</v>
+        <v>-0.5176566243171692</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>3.921149969100952</v>
+        <v>0.9196779727935791</v>
       </c>
       <c r="C256" t="n">
-        <v>-2.275707483291626</v>
+        <v>3.470694065093994</v>
       </c>
       <c r="D256" t="n">
-        <v>0.6738013625144958</v>
+        <v>-0.08855661749839783</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>3.893259048461914</v>
+        <v>0.9877921342849731</v>
       </c>
       <c r="C257" t="n">
-        <v>-2.268057584762573</v>
+        <v>3.44807767868042</v>
       </c>
       <c r="D257" t="n">
-        <v>0.7088977694511414</v>
+        <v>-0.1207446753978729</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>3.835623741149902</v>
+        <v>0.9078296422958374</v>
       </c>
       <c r="C258" t="n">
-        <v>-2.236191272735596</v>
+        <v>3.672220945358276</v>
       </c>
       <c r="D258" t="n">
-        <v>0.6979047656059265</v>
+        <v>-0.138862669467926</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>3.923466205596924</v>
+        <v>0.9627889394760132</v>
       </c>
       <c r="C259" t="n">
-        <v>-2.303910493850708</v>
+        <v>3.482267141342163</v>
       </c>
       <c r="D259" t="n">
-        <v>0.7654111981391907</v>
+        <v>-0.04259588941931725</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>4.144484996795654</v>
+        <v>1.092780113220215</v>
       </c>
       <c r="C260" t="n">
-        <v>-2.432148456573486</v>
+        <v>3.398364305496216</v>
       </c>
       <c r="D260" t="n">
-        <v>0.7772665619850159</v>
+        <v>-0.03392287716269493</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>4.001172065734863</v>
+        <v>0.8900002837181091</v>
       </c>
       <c r="C261" t="n">
-        <v>-2.342752456665039</v>
+        <v>3.427446126937866</v>
       </c>
       <c r="D261" t="n">
-        <v>0.7671706676483154</v>
+        <v>0.008063200861215591</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>4.215390682220459</v>
+        <v>0.9836122989654541</v>
       </c>
       <c r="C262" t="n">
-        <v>-2.464383602142334</v>
+        <v>3.25281810760498</v>
       </c>
       <c r="D262" t="n">
-        <v>0.8497811555862427</v>
+        <v>0.0758422315120697</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>4.490358829498291</v>
+        <v>1.103332757949829</v>
       </c>
       <c r="C263" t="n">
-        <v>-2.620857238769531</v>
+        <v>3.766820669174194</v>
       </c>
       <c r="D263" t="n">
-        <v>0.8767437338829041</v>
+        <v>0.01767489686608315</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>4.46785831451416</v>
+        <v>1.111483216285706</v>
       </c>
       <c r="C264" t="n">
-        <v>-2.617729425430298</v>
+        <v>3.949570894241333</v>
       </c>
       <c r="D264" t="n">
-        <v>0.8014006018638611</v>
+        <v>-0.09558665752410889</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>4.586571216583252</v>
+        <v>1.202991127967834</v>
       </c>
       <c r="C265" t="n">
-        <v>-2.693842172622681</v>
+        <v>4.373762130737305</v>
       </c>
       <c r="D265" t="n">
-        <v>0.8686869740486145</v>
+        <v>-0.2081176936626434</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>4.530998706817627</v>
+        <v>1.093012094497681</v>
       </c>
       <c r="C266" t="n">
-        <v>-2.627142906188965</v>
+        <v>3.995919942855835</v>
       </c>
       <c r="D266" t="n">
-        <v>0.8986440300941467</v>
+        <v>-0.01331400498747826</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>4.728871822357178</v>
+        <v>1.239632964134216</v>
       </c>
       <c r="C267" t="n">
-        <v>-2.769115686416626</v>
+        <v>3.862514734268188</v>
       </c>
       <c r="D267" t="n">
-        <v>0.9961859583854675</v>
+        <v>0.1074584424495697</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>4.782046318054199</v>
+        <v>1.216241478919983</v>
       </c>
       <c r="C268" t="n">
-        <v>-2.782935619354248</v>
+        <v>4.076975345611572</v>
       </c>
       <c r="D268" t="n">
-        <v>0.9246243238449097</v>
+        <v>-0.01551946625113487</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>4.929316997528076</v>
+        <v>1.324114799499512</v>
       </c>
       <c r="C269" t="n">
-        <v>-2.90072774887085</v>
+        <v>4.053634643554688</v>
       </c>
       <c r="D269" t="n">
-        <v>1.025935173034668</v>
+        <v>0.1087751686573029</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5.181435585021973</v>
+        <v>1.356308341026306</v>
       </c>
       <c r="C270" t="n">
-        <v>-3.052408933639526</v>
+        <v>4.478706359863281</v>
       </c>
       <c r="D270" t="n">
-        <v>1.080645203590393</v>
+        <v>0.1365894079208374</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>5.48134183883667</v>
+        <v>1.469265818595886</v>
       </c>
       <c r="C271" t="n">
-        <v>-3.255232334136963</v>
+        <v>4.444155693054199</v>
       </c>
       <c r="D271" t="n">
-        <v>1.134166121482849</v>
+        <v>0.2777249813079834</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>5.278213500976562</v>
+        <v>1.492787480354309</v>
       </c>
       <c r="C272" t="n">
-        <v>-3.114915370941162</v>
+        <v>4.337597846984863</v>
       </c>
       <c r="D272" t="n">
-        <v>1.072377562522888</v>
+        <v>0.2218917906284332</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>5.139290332794189</v>
+        <v>1.272626280784607</v>
       </c>
       <c r="C273" t="n">
-        <v>-3.036271095275879</v>
+        <v>4.217145919799805</v>
       </c>
       <c r="D273" t="n">
-        <v>1.081054925918579</v>
+        <v>0.2316827476024628</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>4.639603137969971</v>
+        <v>0.8793596029281616</v>
       </c>
       <c r="C274" t="n">
-        <v>-2.720978498458862</v>
+        <v>3.871769666671753</v>
       </c>
       <c r="D274" t="n">
-        <v>1.011653304100037</v>
+        <v>0.1288323104381561</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3.376027822494507</v>
+        <v>0.2598104178905487</v>
       </c>
       <c r="C275" t="n">
-        <v>-1.932170510292053</v>
+        <v>3.992499113082886</v>
       </c>
       <c r="D275" t="n">
-        <v>0.8710212111473083</v>
+        <v>-0.5469282865524292</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2.98203706741333</v>
+        <v>0.05378172174096107</v>
       </c>
       <c r="C276" t="n">
-        <v>-1.706263422966003</v>
+        <v>4.009710311889648</v>
       </c>
       <c r="D276" t="n">
-        <v>0.8403488993644714</v>
+        <v>-0.6613366603851318</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2.638511657714844</v>
+        <v>0.05992564931511879</v>
       </c>
       <c r="C277" t="n">
-        <v>-1.48572564125061</v>
+        <v>4.48635721206665</v>
       </c>
       <c r="D277" t="n">
-        <v>0.7776612639427185</v>
+        <v>-1.014119386672974</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2.48220682144165</v>
+        <v>-0.2783147394657135</v>
       </c>
       <c r="C278" t="n">
-        <v>-1.394510984420776</v>
+        <v>4.046375751495361</v>
       </c>
       <c r="D278" t="n">
-        <v>0.878415048122406</v>
+        <v>-0.6305583715438843</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.640727043151855</v>
+        <v>-0.1209994852542877</v>
       </c>
       <c r="C279" t="n">
-        <v>-1.49622118473053</v>
+        <v>3.73443865776062</v>
       </c>
       <c r="D279" t="n">
-        <v>0.8323546051979065</v>
+        <v>-0.5215125679969788</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2.648828506469727</v>
+        <v>-0.1123957931995392</v>
       </c>
       <c r="C280" t="n">
-        <v>-1.500990867614746</v>
+        <v>3.981863498687744</v>
       </c>
       <c r="D280" t="n">
-        <v>0.8296865820884705</v>
+        <v>-0.6855915784835815</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2.764918804168701</v>
+        <v>-0.05724802240729332</v>
       </c>
       <c r="C281" t="n">
-        <v>-1.593041181564331</v>
+        <v>3.852303028106689</v>
       </c>
       <c r="D281" t="n">
-        <v>0.8769369125366211</v>
+        <v>-0.479523628950119</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>3.177503108978271</v>
+        <v>0.2195309102535248</v>
       </c>
       <c r="C282" t="n">
-        <v>-1.842628359794617</v>
+        <v>3.952205896377563</v>
       </c>
       <c r="D282" t="n">
-        <v>0.9631521105766296</v>
+        <v>-0.4436604678630829</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>3.325035333633423</v>
+        <v>0.4297257959842682</v>
       </c>
       <c r="C283" t="n">
-        <v>-1.940476179122925</v>
+        <v>3.654820680618286</v>
       </c>
       <c r="D283" t="n">
-        <v>1.013698935508728</v>
+        <v>-0.3716345727443695</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>3.280093908309937</v>
+        <v>0.3366279304027557</v>
       </c>
       <c r="C284" t="n">
-        <v>-1.91755473613739</v>
+        <v>3.550386190414429</v>
       </c>
       <c r="D284" t="n">
-        <v>0.9894813299179077</v>
+        <v>-0.3243896663188934</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>3.310427188873291</v>
+        <v>0.2658897340297699</v>
       </c>
       <c r="C285" t="n">
-        <v>-1.934878468513489</v>
+        <v>3.630714654922485</v>
       </c>
       <c r="D285" t="n">
-        <v>0.9812665581703186</v>
+        <v>-0.2721163034439087</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>3.354347229003906</v>
+        <v>0.3288931548595428</v>
       </c>
       <c r="C286" t="n">
-        <v>-1.965633273124695</v>
+        <v>3.45676064491272</v>
       </c>
       <c r="D286" t="n">
-        <v>0.9994120597839355</v>
+        <v>-0.19512078166008</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>3.588872909545898</v>
+        <v>0.3635348379611969</v>
       </c>
       <c r="C287" t="n">
-        <v>-2.105696201324463</v>
+        <v>3.691951274871826</v>
       </c>
       <c r="D287" t="n">
-        <v>1.052644491195679</v>
+        <v>-0.06735493242740631</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>3.603749752044678</v>
+        <v>0.4931538999080658</v>
       </c>
       <c r="C288" t="n">
-        <v>-2.100617408752441</v>
+        <v>3.876780271530151</v>
       </c>
       <c r="D288" t="n">
-        <v>1.0394047498703</v>
+        <v>-0.2310561090707779</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>3.711792707443237</v>
+        <v>0.539142370223999</v>
       </c>
       <c r="C289" t="n">
-        <v>-2.165503263473511</v>
+        <v>4.42135763168335</v>
       </c>
       <c r="D289" t="n">
-        <v>0.994510293006897</v>
+        <v>-0.4597720205783844</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>3.605310678482056</v>
+        <v>0.1670943200588226</v>
       </c>
       <c r="C290" t="n">
-        <v>-2.085062026977539</v>
+        <v>4.00518798828125</v>
       </c>
       <c r="D290" t="n">
-        <v>0.9741960167884827</v>
+        <v>-0.1221792101860046</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>3.683031320571899</v>
+        <v>0.378023236989975</v>
       </c>
       <c r="C291" t="n">
-        <v>-2.163890838623047</v>
+        <v>3.805351734161377</v>
       </c>
       <c r="D291" t="n">
-        <v>1.029138326644897</v>
+        <v>-0.05889527127146721</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>3.774449586868286</v>
+        <v>0.3429678976535797</v>
       </c>
       <c r="C292" t="n">
-        <v>-2.207314252853394</v>
+        <v>4.022342681884766</v>
       </c>
       <c r="D292" t="n">
-        <v>1.059742093086243</v>
+        <v>-0.07026296854019165</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>3.87202787399292</v>
+        <v>0.4073669612407684</v>
       </c>
       <c r="C293" t="n">
-        <v>-2.270040512084961</v>
+        <v>4.033419132232666</v>
       </c>
       <c r="D293" t="n">
-        <v>1.072393894195557</v>
+        <v>-0.02632513269782066</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>3.566496849060059</v>
+        <v>0.2933342158794403</v>
       </c>
       <c r="C294" t="n">
-        <v>-2.076308727264404</v>
+        <v>4.051482200622559</v>
       </c>
       <c r="D294" t="n">
-        <v>1.046295285224915</v>
+        <v>-0.2010012567043304</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>3.45868182182312</v>
+        <v>0.3529607951641083</v>
       </c>
       <c r="C295" t="n">
-        <v>-2.030310392379761</v>
+        <v>4.010195732116699</v>
       </c>
       <c r="D295" t="n">
-        <v>1.056089639663696</v>
+        <v>-0.2863031923770905</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>3.596830368041992</v>
+        <v>0.31800577044487</v>
       </c>
       <c r="C296" t="n">
-        <v>-2.109354019165039</v>
+        <v>3.89604663848877</v>
       </c>
       <c r="D296" t="n">
-        <v>1.058404207229614</v>
+        <v>-0.1600401252508163</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>3.494987487792969</v>
+        <v>0.175410121679306</v>
       </c>
       <c r="C297" t="n">
-        <v>-2.038167715072632</v>
+        <v>3.943461418151855</v>
       </c>
       <c r="D297" t="n">
-        <v>1.002612352371216</v>
+        <v>-0.1796227246522903</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>3.718652963638306</v>
+        <v>0.1937459409236908</v>
       </c>
       <c r="C298" t="n">
-        <v>-2.184676885604858</v>
+        <v>3.911705732345581</v>
       </c>
       <c r="D298" t="n">
-        <v>1.007927894592285</v>
+        <v>-0.01128874346613884</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>4.021603584289551</v>
+        <v>0.416630893945694</v>
       </c>
       <c r="C299" t="n">
-        <v>-2.334217309951782</v>
+        <v>4.101725578308105</v>
       </c>
       <c r="D299" t="n">
-        <v>1.052394151687622</v>
+        <v>0.01629576459527016</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>4.049710750579834</v>
+        <v>0.6267043352127075</v>
       </c>
       <c r="C300" t="n">
-        <v>-2.350826978683472</v>
+        <v>4.218149185180664</v>
       </c>
       <c r="D300" t="n">
-        <v>1.080588579177856</v>
+        <v>0.06405618786811829</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>4.230868339538574</v>
+        <v>0.7380934953689575</v>
       </c>
       <c r="C301" t="n">
-        <v>-2.461012363433838</v>
+        <v>4.686572551727295</v>
       </c>
       <c r="D301" t="n">
-        <v>1.064816951751709</v>
+        <v>-0.2578174769878387</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4.332870960235596</v>
+        <v>0.3592012822628021</v>
       </c>
       <c r="C302" t="n">
-        <v>-2.499896764755249</v>
+        <v>4.314164638519287</v>
       </c>
       <c r="D302" t="n">
-        <v>1.07356595993042</v>
+        <v>-0.0131770633161068</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>4.452090263366699</v>
+        <v>0.6716975569725037</v>
       </c>
       <c r="C303" t="n">
-        <v>-2.608025789260864</v>
+        <v>4.142433166503906</v>
       </c>
       <c r="D303" t="n">
-        <v>1.11270546913147</v>
+        <v>0.1539222002029419</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>4.655879020690918</v>
+        <v>0.7191015481948853</v>
       </c>
       <c r="C304" t="n">
-        <v>-2.72689414024353</v>
+        <v>4.412853717803955</v>
       </c>
       <c r="D304" t="n">
-        <v>1.1604984998703</v>
+        <v>0.1736792623996735</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>4.855213165283203</v>
+        <v>0.8637272715568542</v>
       </c>
       <c r="C305" t="n">
-        <v>-2.868758201599121</v>
+        <v>4.354403972625732</v>
       </c>
       <c r="D305" t="n">
-        <v>1.236571669578552</v>
+        <v>0.2705057859420776</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>4.628878116607666</v>
+        <v>0.8064648509025574</v>
       </c>
       <c r="C306" t="n">
-        <v>-2.714576482772827</v>
+        <v>4.450029850006104</v>
       </c>
       <c r="D306" t="n">
-        <v>1.17983615398407</v>
+        <v>0.142259806394577</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>4.497613906860352</v>
+        <v>0.7614005208015442</v>
       </c>
       <c r="C307" t="n">
-        <v>-2.640124320983887</v>
+        <v>4.335147857666016</v>
       </c>
       <c r="D307" t="n">
-        <v>1.129590749740601</v>
+        <v>0.1312075257301331</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>4.581659317016602</v>
+        <v>0.8341580629348755</v>
       </c>
       <c r="C308" t="n">
-        <v>-2.681440591812134</v>
+        <v>4.183346271514893</v>
       </c>
       <c r="D308" t="n">
-        <v>1.103469371795654</v>
+        <v>0.1806591153144836</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>4.441387176513672</v>
+        <v>0.6471496820449829</v>
       </c>
       <c r="C309" t="n">
-        <v>-2.589845657348633</v>
+        <v>4.339677333831787</v>
       </c>
       <c r="D309" t="n">
-        <v>1.061123967170715</v>
+        <v>0.05804095044732094</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>4.019296646118164</v>
+        <v>0.5175545215606689</v>
       </c>
       <c r="C310" t="n">
-        <v>-2.357074022293091</v>
+        <v>3.922494173049927</v>
       </c>
       <c r="D310" t="n">
-        <v>1.099921584129333</v>
+        <v>0.1640487760305405</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>4.359656810760498</v>
+        <v>0.6269934177398682</v>
       </c>
       <c r="C311" t="n">
-        <v>-2.558254241943359</v>
+        <v>4.284389972686768</v>
       </c>
       <c r="D311" t="n">
-        <v>1.183538556098938</v>
+        <v>0.158648356795311</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>4.539140701293945</v>
+        <v>0.7485565543174744</v>
       </c>
       <c r="C312" t="n">
-        <v>-2.669516086578369</v>
+        <v>4.589757919311523</v>
       </c>
       <c r="D312" t="n">
-        <v>1.168099641799927</v>
+        <v>0.01148814335465431</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>4.524210929870605</v>
+        <v>0.7094748020172119</v>
       </c>
       <c r="C313" t="n">
-        <v>-2.65664529800415</v>
+        <v>5.039476871490479</v>
       </c>
       <c r="D313" t="n">
-        <v>1.14957332611084</v>
+        <v>-0.1879531443119049</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>4.482752799987793</v>
+        <v>0.3627171218395233</v>
       </c>
       <c r="C314" t="n">
-        <v>-2.611061573028564</v>
+        <v>4.631879806518555</v>
       </c>
       <c r="D314" t="n">
-        <v>1.176467895507812</v>
+        <v>0.0518772192299366</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4.636967182159424</v>
+        <v>0.5738281011581421</v>
       </c>
       <c r="C315" t="n">
-        <v>-2.721173763275146</v>
+        <v>4.597750663757324</v>
       </c>
       <c r="D315" t="n">
-        <v>1.275326609611511</v>
+        <v>0.2607968151569366</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>4.487773895263672</v>
+        <v>0.4014657437801361</v>
       </c>
       <c r="C316" t="n">
-        <v>-2.639192819595337</v>
+        <v>4.604532241821289</v>
       </c>
       <c r="D316" t="n">
-        <v>1.259036183357239</v>
+        <v>0.1941598504781723</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>4.526338577270508</v>
+        <v>0.5512011051177979</v>
       </c>
       <c r="C317" t="n">
-        <v>-2.675550937652588</v>
+        <v>4.45944356918335</v>
       </c>
       <c r="D317" t="n">
-        <v>1.276163458824158</v>
+        <v>0.3194219768047333</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>4.086636543273926</v>
+        <v>0.3942842781543732</v>
       </c>
       <c r="C318" t="n">
-        <v>-2.392553091049194</v>
+        <v>4.281190395355225</v>
       </c>
       <c r="D318" t="n">
-        <v>1.172779440879822</v>
+        <v>0.09999367594718933</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>4.033386707305908</v>
+        <v>0.4084680378437042</v>
       </c>
       <c r="C319" t="n">
-        <v>-2.375601768493652</v>
+        <v>4.109321594238281</v>
       </c>
       <c r="D319" t="n">
-        <v>1.191937446594238</v>
+        <v>0.1643197387456894</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>4.053616523742676</v>
+        <v>0.442571610212326</v>
       </c>
       <c r="C320" t="n">
-        <v>-2.398895740509033</v>
+        <v>4.005116939544678</v>
       </c>
       <c r="D320" t="n">
-        <v>1.235167384147644</v>
+        <v>0.3662529289722443</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>4.232053279876709</v>
+        <v>0.422148734331131</v>
       </c>
       <c r="C321" t="n">
-        <v>-2.500292778015137</v>
+        <v>4.08587646484375</v>
       </c>
       <c r="D321" t="n">
-        <v>1.255608439445496</v>
+        <v>0.3162508010864258</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>4.21598482131958</v>
+        <v>0.361938863992691</v>
       </c>
       <c r="C322" t="n">
-        <v>-2.489721775054932</v>
+        <v>3.902938365936279</v>
       </c>
       <c r="D322" t="n">
-        <v>1.205532670021057</v>
+        <v>0.2298848330974579</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>4.126639366149902</v>
+        <v>0.4023559391498566</v>
       </c>
       <c r="C323" t="n">
-        <v>-2.416591882705688</v>
+        <v>4.333549022674561</v>
       </c>
       <c r="D323" t="n">
-        <v>1.236742258071899</v>
+        <v>0.2965090572834015</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>4.12129545211792</v>
+        <v>0.468663364648819</v>
       </c>
       <c r="C324" t="n">
-        <v>-2.427168846130371</v>
+        <v>4.400749206542969</v>
       </c>
       <c r="D324" t="n">
-        <v>1.266743540763855</v>
+        <v>0.3334590792655945</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>4.178332328796387</v>
+        <v>0.359981507062912</v>
       </c>
       <c r="C325" t="n">
-        <v>-2.458707809448242</v>
+        <v>4.831425666809082</v>
       </c>
       <c r="D325" t="n">
-        <v>1.275485157966614</v>
+        <v>0.16621333360672</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>4.498958110809326</v>
+        <v>0.3671707808971405</v>
       </c>
       <c r="C326" t="n">
-        <v>-2.638598442077637</v>
+        <v>4.503796100616455</v>
       </c>
       <c r="D326" t="n">
-        <v>1.309786677360535</v>
+        <v>0.3728104829788208</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>4.355799198150635</v>
+        <v>0.4788471758365631</v>
       </c>
       <c r="C327" t="n">
-        <v>-2.570347309112549</v>
+        <v>4.196548461914062</v>
       </c>
       <c r="D327" t="n">
-        <v>1.328422784805298</v>
+        <v>0.501512348651886</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>4.410078525543213</v>
+        <v>0.4489811360836029</v>
       </c>
       <c r="C328" t="n">
-        <v>-2.614573240280151</v>
+        <v>4.392074584960938</v>
       </c>
       <c r="D328" t="n">
-        <v>1.407579898834229</v>
+        <v>0.510830819606781</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>4.312640190124512</v>
+        <v>0.4169522225856781</v>
       </c>
       <c r="C329" t="n">
-        <v>-2.557309865951538</v>
+        <v>4.246670246124268</v>
       </c>
       <c r="D329" t="n">
-        <v>1.356622815132141</v>
+        <v>0.5087152123451233</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>4.225373268127441</v>
+        <v>0.3963524997234344</v>
       </c>
       <c r="C330" t="n">
-        <v>-2.496103048324585</v>
+        <v>4.434875965118408</v>
       </c>
       <c r="D330" t="n">
-        <v>1.326823830604553</v>
+        <v>0.4415802359580994</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>4.31866455078125</v>
+        <v>0.5082293152809143</v>
       </c>
       <c r="C331" t="n">
-        <v>-2.566074848175049</v>
+        <v>4.185842037200928</v>
       </c>
       <c r="D331" t="n">
-        <v>1.366901874542236</v>
+        <v>0.4498237371444702</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>4.464283466339111</v>
+        <v>0.5660791397094727</v>
       </c>
       <c r="C332" t="n">
-        <v>-2.662000894546509</v>
+        <v>4.317960739135742</v>
       </c>
       <c r="D332" t="n">
-        <v>1.344549536705017</v>
+        <v>0.4141878187656403</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>4.576661586761475</v>
+        <v>0.5655616521835327</v>
       </c>
       <c r="C333" t="n">
-        <v>-2.730108499526978</v>
+        <v>4.369365692138672</v>
       </c>
       <c r="D333" t="n">
-        <v>1.371008634567261</v>
+        <v>0.4881291091442108</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>4.518545627593994</v>
+        <v>0.6315886378288269</v>
       </c>
       <c r="C334" t="n">
-        <v>-2.682812690734863</v>
+        <v>3.99472188949585</v>
       </c>
       <c r="D334" t="n">
-        <v>1.403982043266296</v>
+        <v>0.5647308230400085</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>4.397915363311768</v>
+        <v>0.4736529886722565</v>
       </c>
       <c r="C335" t="n">
-        <v>-2.605187892913818</v>
+        <v>4.354616641998291</v>
       </c>
       <c r="D335" t="n">
-        <v>1.40220057964325</v>
+        <v>0.5227676630020142</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>4.332465171813965</v>
+        <v>0.402153342962265</v>
       </c>
       <c r="C336" t="n">
-        <v>-2.563486099243164</v>
+        <v>4.458117485046387</v>
       </c>
       <c r="D336" t="n">
-        <v>1.385664224624634</v>
+        <v>0.5340845584869385</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>4.43333101272583</v>
+        <v>0.3738848865032196</v>
       </c>
       <c r="C337" t="n">
-        <v>-2.626163005828857</v>
+        <v>4.900933265686035</v>
       </c>
       <c r="D337" t="n">
-        <v>1.384939789772034</v>
+        <v>0.4706490933895111</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>4.431226253509521</v>
+        <v>0.3836981356143951</v>
       </c>
       <c r="C338" t="n">
-        <v>-2.619801759719849</v>
+        <v>4.447442531585693</v>
       </c>
       <c r="D338" t="n">
-        <v>1.393419981002808</v>
+        <v>0.5258324146270752</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>4.511823654174805</v>
+        <v>0.4723884761333466</v>
       </c>
       <c r="C339" t="n">
-        <v>-2.682987213134766</v>
+        <v>4.424861907958984</v>
       </c>
       <c r="D339" t="n">
-        <v>1.437248349189758</v>
+        <v>0.5892386436462402</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>4.511966228485107</v>
+        <v>0.4379256665706635</v>
       </c>
       <c r="C340" t="n">
-        <v>-2.67927098274231</v>
+        <v>4.522350788116455</v>
       </c>
       <c r="D340" t="n">
-        <v>1.441916704177856</v>
+        <v>0.584872305393219</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>4.551568508148193</v>
+        <v>0.5596983432769775</v>
       </c>
       <c r="C341" t="n">
-        <v>-2.701614618301392</v>
+        <v>4.290997982025146</v>
       </c>
       <c r="D341" t="n">
-        <v>1.408658981323242</v>
+        <v>0.5656101703643799</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>4.615576267242432</v>
+        <v>0.5484433174133301</v>
       </c>
       <c r="C342" t="n">
-        <v>-2.739303588867188</v>
+        <v>4.532127857208252</v>
       </c>
       <c r="D342" t="n">
-        <v>1.416733264923096</v>
+        <v>0.5397377610206604</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>4.673373699188232</v>
+        <v>0.6632340550422668</v>
       </c>
       <c r="C343" t="n">
-        <v>-2.790101766586304</v>
+        <v>4.332114696502686</v>
       </c>
       <c r="D343" t="n">
-        <v>1.438848376274109</v>
+        <v>0.561335027217865</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>4.518569469451904</v>
+        <v>0.5632758736610413</v>
       </c>
       <c r="C344" t="n">
-        <v>-2.682151556015015</v>
+        <v>4.274450778961182</v>
       </c>
       <c r="D344" t="n">
-        <v>1.384451627731323</v>
+        <v>0.5665920972824097</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>4.419882774353027</v>
+        <v>0.5553476214408875</v>
       </c>
       <c r="C345" t="n">
-        <v>-2.633488178253174</v>
+        <v>4.168838500976562</v>
       </c>
       <c r="D345" t="n">
-        <v>1.404945015907288</v>
+        <v>0.6250960230827332</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>4.274531841278076</v>
+        <v>0.505342960357666</v>
       </c>
       <c r="C346" t="n">
-        <v>-2.552566766738892</v>
+        <v>4.01561450958252</v>
       </c>
       <c r="D346" t="n">
-        <v>1.40705931186676</v>
+        <v>0.6542644500732422</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4.054911613464355</v>
+        <v>0.3059974610805511</v>
       </c>
       <c r="C347" t="n">
-        <v>-2.399170160293579</v>
+        <v>4.358384609222412</v>
       </c>
       <c r="D347" t="n">
-        <v>1.379398941993713</v>
+        <v>0.5710994601249695</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>3.683018207550049</v>
+        <v>0.08692565560340881</v>
       </c>
       <c r="C348" t="n">
-        <v>-2.184278964996338</v>
+        <v>4.155186653137207</v>
       </c>
       <c r="D348" t="n">
-        <v>1.334145545959473</v>
+        <v>0.5964329838752747</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>3.273468017578125</v>
+        <v>-0.3253084719181061</v>
       </c>
       <c r="C349" t="n">
-        <v>-1.914157509803772</v>
+        <v>4.649065494537354</v>
       </c>
       <c r="D349" t="n">
-        <v>1.308234572410583</v>
+        <v>0.4488417506217957</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>3.135288953781128</v>
+        <v>-0.4297427237033844</v>
       </c>
       <c r="C350" t="n">
-        <v>-1.835545659065247</v>
+        <v>4.34825325012207</v>
       </c>
       <c r="D350" t="n">
-        <v>1.33262574672699</v>
+        <v>0.498011440038681</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>3.214977025985718</v>
+        <v>-0.2084071338176727</v>
       </c>
       <c r="C351" t="n">
-        <v>-1.902145624160767</v>
+        <v>3.983620643615723</v>
       </c>
       <c r="D351" t="n">
-        <v>1.358849287033081</v>
+        <v>0.6789281368255615</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>3.195172786712646</v>
+        <v>-0.4045372307300568</v>
       </c>
       <c r="C352" t="n">
-        <v>-1.882557511329651</v>
+        <v>4.415715217590332</v>
       </c>
       <c r="D352" t="n">
-        <v>1.341182708740234</v>
+        <v>0.571377158164978</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>3.453985452651978</v>
+        <v>-0.1105127036571503</v>
       </c>
       <c r="C353" t="n">
-        <v>-2.040075778961182</v>
+        <v>4.184492111206055</v>
       </c>
       <c r="D353" t="n">
-        <v>1.35060453414917</v>
+        <v>0.6207009553909302</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>3.399507761001587</v>
+        <v>-0.1581188142299652</v>
       </c>
       <c r="C354" t="n">
-        <v>-1.99348247051239</v>
+        <v>4.2987961769104</v>
       </c>
       <c r="D354" t="n">
-        <v>1.361547112464905</v>
+        <v>0.5780296921730042</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>3.485773086547852</v>
+        <v>-0.06734958291053772</v>
       </c>
       <c r="C355" t="n">
-        <v>-2.057707548141479</v>
+        <v>4.148004055023193</v>
       </c>
       <c r="D355" t="n">
-        <v>1.295682907104492</v>
+        <v>0.5534874796867371</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>3.289303064346313</v>
+        <v>-0.2076150476932526</v>
       </c>
       <c r="C356" t="n">
-        <v>-1.929566025733948</v>
+        <v>3.935024976730347</v>
       </c>
       <c r="D356" t="n">
-        <v>1.31036376953125</v>
+        <v>0.5696266293525696</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>3.140789031982422</v>
+        <v>-0.2967756688594818</v>
       </c>
       <c r="C357" t="n">
-        <v>-1.855540752410889</v>
+        <v>3.934160470962524</v>
       </c>
       <c r="D357" t="n">
-        <v>1.343655824661255</v>
+        <v>0.6383494138717651</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>3.075651168823242</v>
+        <v>-0.3067891895771027</v>
       </c>
       <c r="C358" t="n">
-        <v>-1.826401829719543</v>
+        <v>3.785960912704468</v>
       </c>
       <c r="D358" t="n">
-        <v>1.338690757751465</v>
+        <v>0.6584254503250122</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>3.233554363250732</v>
+        <v>-0.2905771434307098</v>
       </c>
       <c r="C359" t="n">
-        <v>-1.90980327129364</v>
+        <v>4.09653902053833</v>
       </c>
       <c r="D359" t="n">
-        <v>1.329392910003662</v>
+        <v>0.604952335357666</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>3.152425527572632</v>
+        <v>-0.326326459646225</v>
       </c>
       <c r="C360" t="n">
-        <v>-1.864285707473755</v>
+        <v>4.200911521911621</v>
       </c>
       <c r="D360" t="n">
-        <v>1.335472226142883</v>
+        <v>0.5821559429168701</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>2.762199878692627</v>
+        <v>-0.6413119435310364</v>
       </c>
       <c r="C361" t="n">
-        <v>-1.649749040603638</v>
+        <v>4.595845699310303</v>
       </c>
       <c r="D361" t="n">
-        <v>1.35477888584137</v>
+        <v>0.5308051705360413</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2.73195481300354</v>
+        <v>-0.6236961483955383</v>
       </c>
       <c r="C362" t="n">
-        <v>-1.632476568222046</v>
+        <v>4.144415378570557</v>
       </c>
       <c r="D362" t="n">
-        <v>1.440407991409302</v>
+        <v>0.7462607026100159</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>2.622284650802612</v>
+        <v>-0.7235485911369324</v>
       </c>
       <c r="C363" t="n">
-        <v>-1.565763473510742</v>
+        <v>4.17294454574585</v>
       </c>
       <c r="D363" t="n">
-        <v>1.482474327087402</v>
+        <v>0.8587965369224548</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>2.936951637268066</v>
+        <v>-0.4929909408092499</v>
       </c>
       <c r="C364" t="n">
-        <v>-1.754604578018188</v>
+        <v>4.330981254577637</v>
       </c>
       <c r="D364" t="n">
-        <v>1.425478339195251</v>
+        <v>0.717058539390564</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>3.13114333152771</v>
+        <v>-0.2609731256961823</v>
       </c>
       <c r="C365" t="n">
-        <v>-1.858210921287537</v>
+        <v>4.13016414642334</v>
       </c>
       <c r="D365" t="n">
-        <v>1.445826053619385</v>
+        <v>0.7918833494186401</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>3.265722990036011</v>
+        <v>-0.2560588419437408</v>
       </c>
       <c r="C366" t="n">
-        <v>-1.9310542345047</v>
+        <v>4.268661499023438</v>
       </c>
       <c r="D366" t="n">
-        <v>1.424756765365601</v>
+        <v>0.7343404293060303</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>3.316958904266357</v>
+        <v>-0.1590459644794464</v>
       </c>
       <c r="C367" t="n">
-        <v>-1.959421277046204</v>
+        <v>4.091917037963867</v>
       </c>
       <c r="D367" t="n">
-        <v>1.412550449371338</v>
+        <v>0.7288289070129395</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>3.07400918006897</v>
+        <v>-0.3045216500759125</v>
       </c>
       <c r="C368" t="n">
-        <v>-1.831932187080383</v>
+        <v>3.947402000427246</v>
       </c>
       <c r="D368" t="n">
-        <v>1.449220061302185</v>
+        <v>0.8267378211021423</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>3.092355012893677</v>
+        <v>-0.3361264765262604</v>
       </c>
       <c r="C369" t="n">
-        <v>-1.84868597984314</v>
+        <v>4.105304718017578</v>
       </c>
       <c r="D369" t="n">
-        <v>1.454357862472534</v>
+        <v>0.8348748683929443</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>2.867685317993164</v>
+        <v>-0.4271032512187958</v>
       </c>
       <c r="C370" t="n">
-        <v>-1.728419661521912</v>
+        <v>3.941686391830444</v>
       </c>
       <c r="D370" t="n">
-        <v>1.533765435218811</v>
+        <v>1.056348919868469</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>3.266974210739136</v>
+        <v>-0.1519452035427094</v>
       </c>
       <c r="C371" t="n">
-        <v>-1.94335925579071</v>
+        <v>4.282773494720459</v>
       </c>
       <c r="D371" t="n">
-        <v>1.491428375244141</v>
+        <v>0.8878027200698853</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>3.240418672561646</v>
+        <v>-0.233180969953537</v>
       </c>
       <c r="C372" t="n">
-        <v>-1.929486632347107</v>
+        <v>4.439906597137451</v>
       </c>
       <c r="D372" t="n">
-        <v>1.483141541481018</v>
+        <v>0.8370609283447266</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>3.104553699493408</v>
+        <v>-0.4200097024440765</v>
       </c>
       <c r="C373" t="n">
-        <v>-1.858978271484375</v>
+        <v>4.73139476776123</v>
       </c>
       <c r="D373" t="n">
-        <v>1.543145060539246</v>
+        <v>0.9180390238761902</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>2.951699018478394</v>
+        <v>-0.374917060136795</v>
       </c>
       <c r="C374" t="n">
-        <v>-1.76616895198822</v>
+        <v>4.55217456817627</v>
       </c>
       <c r="D374" t="n">
-        <v>1.669258594512939</v>
+        <v>1.131293773651123</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>3.236230134963989</v>
+        <v>-0.08196195960044861</v>
       </c>
       <c r="C375" t="n">
-        <v>-1.930425763130188</v>
+        <v>4.293095588684082</v>
       </c>
       <c r="D375" t="n">
-        <v>1.623072862625122</v>
+        <v>1.104947209358215</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>3.154654264450073</v>
+        <v>-0.1585827171802521</v>
       </c>
       <c r="C376" t="n">
-        <v>-1.889818072319031</v>
+        <v>4.469695091247559</v>
       </c>
       <c r="D376" t="n">
-        <v>1.616766095161438</v>
+        <v>1.075928568840027</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>3.187680721282959</v>
+        <v>-0.03883412107825279</v>
       </c>
       <c r="C377" t="n">
-        <v>-1.909088253974915</v>
+        <v>4.249650955200195</v>
       </c>
       <c r="D377" t="n">
-        <v>1.639232158660889</v>
+        <v>1.119088768959045</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>3.161727428436279</v>
+        <v>-0.1873290836811066</v>
       </c>
       <c r="C378" t="n">
-        <v>-1.890814661979675</v>
+        <v>4.555559158325195</v>
       </c>
       <c r="D378" t="n">
-        <v>1.610732674598694</v>
+        <v>1.059048295021057</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>3.205743074417114</v>
+        <v>-0.07212260365486145</v>
       </c>
       <c r="C379" t="n">
-        <v>-1.917272925376892</v>
+        <v>4.233296394348145</v>
       </c>
       <c r="D379" t="n">
-        <v>1.602512121200562</v>
+        <v>1.076440930366516</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>3.109955072402954</v>
+        <v>-0.05056056007742882</v>
       </c>
       <c r="C380" t="n">
-        <v>-1.865866184234619</v>
+        <v>4.151390075683594</v>
       </c>
       <c r="D380" t="n">
-        <v>1.662246704101562</v>
+        <v>1.187297582626343</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>2.914897918701172</v>
+        <v>-0.2965074479579926</v>
       </c>
       <c r="C381" t="n">
-        <v>-1.750745415687561</v>
+        <v>4.252000331878662</v>
       </c>
       <c r="D381" t="n">
-        <v>1.669219613075256</v>
+        <v>1.211096525192261</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>3.177801847457886</v>
+        <v>-0.09533849358558655</v>
       </c>
       <c r="C382" t="n">
-        <v>-1.911357641220093</v>
+        <v>4.164609909057617</v>
       </c>
       <c r="D382" t="n">
-        <v>1.651805400848389</v>
+        <v>1.193054556846619</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>3.499724864959717</v>
+        <v>0.05972203984856606</v>
       </c>
       <c r="C383" t="n">
-        <v>-2.086565017700195</v>
+        <v>4.334952354431152</v>
       </c>
       <c r="D383" t="n">
-        <v>1.655923843383789</v>
+        <v>1.188223958015442</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>3.622281074523926</v>
+        <v>0.04619965329766273</v>
       </c>
       <c r="C384" t="n">
-        <v>-2.156018495559692</v>
+        <v>4.609158039093018</v>
       </c>
       <c r="D384" t="n">
-        <v>1.617351412773132</v>
+        <v>1.090375542640686</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>3.396315574645996</v>
+        <v>-0.186125785112381</v>
       </c>
       <c r="C385" t="n">
-        <v>-2.0354905128479</v>
+        <v>4.917951583862305</v>
       </c>
       <c r="D385" t="n">
-        <v>1.695704817771912</v>
+        <v>1.21450936794281</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>3.429543733596802</v>
+        <v>-0.2751213610172272</v>
       </c>
       <c r="C386" t="n">
-        <v>-2.064020156860352</v>
+        <v>5.087001800537109</v>
       </c>
       <c r="D386" t="n">
-        <v>1.797786593437195</v>
+        <v>1.344063878059387</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>3.338250875473022</v>
+        <v>-0.04657682403922081</v>
       </c>
       <c r="C387" t="n">
-        <v>-2.012247085571289</v>
+        <v>4.411712646484375</v>
       </c>
       <c r="D387" t="n">
-        <v>1.784995555877686</v>
+        <v>1.387656927108765</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>3.712403535842896</v>
+        <v>0.09193286299705505</v>
       </c>
       <c r="C388" t="n">
-        <v>-2.214800834655762</v>
+        <v>4.623269081115723</v>
       </c>
       <c r="D388" t="n">
-        <v>1.706710338592529</v>
+        <v>1.230589866638184</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>3.69651198387146</v>
+        <v>0.1435518562793732</v>
       </c>
       <c r="C389" t="n">
-        <v>-2.206376791000366</v>
+        <v>4.49644660949707</v>
       </c>
       <c r="D389" t="n">
-        <v>1.745042324066162</v>
+        <v>1.286105275154114</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>3.79367995262146</v>
+        <v>0.1106760203838348</v>
       </c>
       <c r="C390" t="n">
-        <v>-2.252368688583374</v>
+        <v>4.658229351043701</v>
       </c>
       <c r="D390" t="n">
-        <v>1.705848336219788</v>
+        <v>1.218599438667297</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>3.967247486114502</v>
+        <v>0.2554043829441071</v>
       </c>
       <c r="C391" t="n">
-        <v>-2.374396324157715</v>
+        <v>4.479443550109863</v>
       </c>
       <c r="D391" t="n">
-        <v>1.72307288646698</v>
+        <v>1.233021259307861</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>3.6393141746521</v>
+        <v>0.07077512145042419</v>
       </c>
       <c r="C392" t="n">
-        <v>-2.179275035858154</v>
+        <v>4.468925476074219</v>
       </c>
       <c r="D392" t="n">
-        <v>1.75094199180603</v>
+        <v>1.290470480918884</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>3.405490636825562</v>
+        <v>-0.06168362125754356</v>
       </c>
       <c r="C393" t="n">
-        <v>-2.053632020950317</v>
+        <v>4.470103740692139</v>
       </c>
       <c r="D393" t="n">
-        <v>1.806840300559998</v>
+        <v>1.396754860877991</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>3.500889778137207</v>
+        <v>0.1640327274799347</v>
       </c>
       <c r="C394" t="n">
-        <v>-2.113373041152954</v>
+        <v>4.343245506286621</v>
       </c>
       <c r="D394" t="n">
-        <v>1.847974538803101</v>
+        <v>1.482332587242126</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>3.804307222366333</v>
+        <v>0.08438774943351746</v>
       </c>
       <c r="C395" t="n">
-        <v>-2.264136791229248</v>
+        <v>4.705647945404053</v>
       </c>
       <c r="D395" t="n">
-        <v>1.739760398864746</v>
+        <v>1.286496758460999</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>3.538192272186279</v>
+        <v>0.01384863629937172</v>
       </c>
       <c r="C396" t="n">
-        <v>-2.119156837463379</v>
+        <v>4.639843940734863</v>
       </c>
       <c r="D396" t="n">
-        <v>1.729912877082825</v>
+        <v>1.252374410629272</v>
       </c>
     </row>
   </sheetData>

--- a/programs/autoencoder/data/real_enc.xlsx
+++ b/programs/autoencoder/data/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.326665997505188</v>
+        <v>3.147706508636475</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2181716561317444</v>
+        <v>-4.603872776031494</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8845773339271545</v>
+        <v>-0.06031321734189987</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.254304528236389</v>
+        <v>3.121557474136353</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1903062164783478</v>
+        <v>-4.475371360778809</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.673676073551178</v>
+        <v>-0.1711244285106659</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.438600540161133</v>
+        <v>3.135507106781006</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3558098077774048</v>
+        <v>-4.613218784332275</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.197569012641907</v>
+        <v>0.15240877866745</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.425136923789978</v>
+        <v>2.950749635696411</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4257146716117859</v>
+        <v>-4.335679531097412</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.158707141876221</v>
+        <v>0.1491695046424866</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.363459348678589</v>
+        <v>2.887741804122925</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.3681575059890747</v>
+        <v>-4.241409778594971</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.082726001739502</v>
+        <v>0.09477823227643967</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.290142416954041</v>
+        <v>2.474230051040649</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5256702303886414</v>
+        <v>-3.62239408493042</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8992646336555481</v>
+        <v>0.03603599220514297</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.268958449363708</v>
+        <v>2.348654270172119</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5516098141670227</v>
+        <v>-3.421137571334839</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7849839925765991</v>
+        <v>0.04366200417280197</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.259321212768555</v>
+        <v>2.122882843017578</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6246431469917297</v>
+        <v>-3.072709798812866</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.5868747234344482</v>
+        <v>0.01710767298936844</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.186877846717834</v>
+        <v>1.971092820167542</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6119967103004456</v>
+        <v>-2.825829744338989</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3953985869884491</v>
+        <v>-0.06130382418632507</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8222071528434753</v>
+        <v>2.104092836380005</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1839177906513214</v>
+        <v>-3.563862800598145</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2774776816368103</v>
+        <v>-0.3851172924041748</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.069043755531311</v>
+        <v>2.690444946289062</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2465073466300964</v>
+        <v>-4.085448265075684</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7271542549133301</v>
+        <v>-0.1819713711738586</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.979723334312439</v>
+        <v>3.14408802986145</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04512970894575119</v>
+        <v>-5.006759643554688</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.105822920799255</v>
+        <v>-0.2347276210784912</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7685496807098389</v>
+        <v>2.423821926116943</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1027641668915749</v>
+        <v>-4.263257503509521</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4719686806201935</v>
+        <v>-0.6564164161682129</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6581071615219116</v>
+        <v>2.54426646232605</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2372205853462219</v>
+        <v>-4.67503833770752</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4800971150398254</v>
+        <v>-0.8459214568138123</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8231146335601807</v>
+        <v>2.702072858810425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03720254451036453</v>
+        <v>-4.459207534790039</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.951778769493103</v>
+        <v>-0.2710489928722382</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9880472421646118</v>
+        <v>2.722656488418579</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.06226258724927902</v>
+        <v>-4.356210708618164</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.031474828720093</v>
+        <v>-0.1656821966171265</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.195304989814758</v>
+        <v>2.71439003944397</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3101193904876709</v>
+        <v>-4.154525279998779</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.052638411521912</v>
+        <v>-0.03461793810129166</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.276117920875549</v>
+        <v>2.656933307647705</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.401623547077179</v>
+        <v>-3.720965623855591</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.072839260101318</v>
+        <v>0.07081481069326401</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.128426432609558</v>
+        <v>2.345881938934326</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3889287710189819</v>
+        <v>-3.240196704864502</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.7895153760910034</v>
+        <v>0.02514637261629105</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.686510443687439</v>
+        <v>2.377525091171265</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9365425705909729</v>
+        <v>-3.211501836776733</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.057673335075378</v>
+        <v>0.2437267005443573</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.723169922828674</v>
+        <v>2.314000606536865</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9962723851203918</v>
+        <v>-3.100349187850952</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.9969322681427002</v>
+        <v>0.2451559901237488</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.039656400680542</v>
+        <v>2.562902212142944</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.182177782058716</v>
+        <v>-3.31208348274231</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.03248655796051</v>
+        <v>0.2391917705535889</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.872512221336365</v>
+        <v>3.152296781539917</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7028617262840271</v>
+        <v>-4.233171463012695</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.363655924797058</v>
+        <v>0.1885700523853302</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.988313794136047</v>
+        <v>3.72235894203186</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5559864044189453</v>
+        <v>-4.91300630569458</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.620004415512085</v>
+        <v>0.1704998314380646</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.835629940032959</v>
+        <v>3.836699962615967</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2395597100257874</v>
+        <v>-4.90348482131958</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.412861466407776</v>
+        <v>0.1060822829604149</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.460793018341064</v>
+        <v>3.728066921234131</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.7774384617805481</v>
+        <v>-4.470280170440674</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.271386504173279</v>
+        <v>0.2312619388103485</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.884080410003662</v>
+        <v>4.548831939697266</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.07270359992981</v>
+        <v>-5.24314022064209</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.899349927902222</v>
+        <v>0.2054015100002289</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.953015804290771</v>
+        <v>3.996370792388916</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.089671969413757</v>
+        <v>-4.493866443634033</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.426026701927185</v>
+        <v>0.2905821800231934</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.440074443817139</v>
+        <v>3.984200716018677</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.595224916934967</v>
+        <v>-4.239328861236572</v>
       </c>
       <c r="D30" t="n">
-        <v>-1.582963228225708</v>
+        <v>0.3322066068649292</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.85817813873291</v>
+        <v>3.910208940505981</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.9239532351493835</v>
+        <v>-4.209585189819336</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.379825353622437</v>
+        <v>0.3352434039115906</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.189555644989014</v>
+        <v>3.638012647628784</v>
       </c>
       <c r="C32" t="n">
-        <v>-1.193951010704041</v>
+        <v>-3.921275854110718</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.132213473320007</v>
+        <v>0.3537932336330414</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.721827983856201</v>
+        <v>3.33430027961731</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.8556281328201294</v>
+        <v>-3.530188322067261</v>
       </c>
       <c r="D33" t="n">
-        <v>-1.132513284683228</v>
+        <v>0.3903954029083252</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.770579099655151</v>
+        <v>2.829377889633179</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.8832936882972717</v>
+        <v>-3.00391697883606</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.8213178515434265</v>
+        <v>0.3852825164794922</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.410123109817505</v>
+        <v>3.096951246261597</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.6744357943534851</v>
+        <v>-3.271857023239136</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.9525096416473389</v>
+        <v>0.4083998799324036</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.561796188354492</v>
+        <v>3.887383699417114</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.6279675364494324</v>
+        <v>-4.083470344543457</v>
       </c>
       <c r="D36" t="n">
-        <v>-1.47790253162384</v>
+        <v>0.4004167914390564</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.358941078186035</v>
+        <v>4.8572998046875</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3693177402019501</v>
+        <v>-5.028815746307373</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.268476724624634</v>
+        <v>0.3591353893280029</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.14059853553772</v>
+        <v>4.631610870361328</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.04189973324537277</v>
+        <v>-4.093243598937988</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.954802870750427</v>
+        <v>0.4709399938583374</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.878972172737122</v>
+        <v>4.367865562438965</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1543592214584351</v>
+        <v>-4.016154766082764</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.705938458442688</v>
+        <v>0.3948523998260498</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.748725771903992</v>
+        <v>4.509082794189453</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11223254352808</v>
+        <v>-4.386340618133545</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.143620014190674</v>
+        <v>0.5699848532676697</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.929449677467346</v>
+        <v>4.269436359405518</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.00838305801153183</v>
+        <v>-4.140896320343018</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.989291548728943</v>
+        <v>0.545403778553009</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.012784957885742</v>
+        <v>4.643914222717285</v>
       </c>
       <c r="C42" t="n">
-        <v>0.007792152464389801</v>
+        <v>-4.482358932495117</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.209195375442505</v>
+        <v>0.5425185561180115</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.95629608631134</v>
+        <v>4.313583374023438</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02280978113412857</v>
+        <v>-4.175436496734619</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.113549947738647</v>
+        <v>0.5355095863342285</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.055194854736328</v>
+        <v>3.759830474853516</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0903003141283989</v>
+        <v>-3.515786647796631</v>
       </c>
       <c r="D44" t="n">
-        <v>-1.475062966346741</v>
+        <v>0.4819523394107819</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2.129763841629028</v>
+        <v>3.593552589416504</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1489431262016296</v>
+        <v>-3.371465682983398</v>
       </c>
       <c r="D45" t="n">
-        <v>-1.3294997215271</v>
+        <v>0.498339056968689</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.362149715423584</v>
+        <v>3.423671960830688</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3622729778289795</v>
+        <v>-3.139830589294434</v>
       </c>
       <c r="D46" t="n">
-        <v>-1.072200417518616</v>
+        <v>0.4704945981502533</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.431584358215332</v>
+        <v>3.926132917404175</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3113067746162415</v>
+        <v>-3.60718035697937</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.472052931785583</v>
+        <v>0.4918540716171265</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2.163822174072266</v>
+        <v>4.325619697570801</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.006855182349681854</v>
+        <v>-4.004153251647949</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.032499551773071</v>
+        <v>0.4467136263847351</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.792897582054138</v>
+        <v>4.647868156433105</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2055622339248657</v>
+        <v>-4.334277629852295</v>
       </c>
       <c r="D49" t="n">
-        <v>-2.225468158721924</v>
+        <v>0.3633791208267212</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.240225076675415</v>
+        <v>4.620447158813477</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1200535371899605</v>
+        <v>-3.872306108474731</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.102511405944824</v>
+        <v>0.3883152902126312</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.144065856933594</v>
+        <v>4.757699012756348</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2148488163948059</v>
+        <v>-3.944848299026489</v>
       </c>
       <c r="D51" t="n">
-        <v>-2.17268705368042</v>
+        <v>0.3197968006134033</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.470767498016357</v>
+        <v>4.958064556121826</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08190561085939407</v>
+        <v>-4.125340938568115</v>
       </c>
       <c r="D52" t="n">
-        <v>-2.403092622756958</v>
+        <v>0.4747710525989532</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.759131908416748</v>
+        <v>5.093647956848145</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2756837010383606</v>
+        <v>-4.194613933563232</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.188996076583862</v>
+        <v>0.4615312814712524</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.84873628616333</v>
+        <v>5.472908020019531</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2807891368865967</v>
+        <v>-4.539282321929932</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.443051099777222</v>
+        <v>0.4861047565937042</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.18235445022583</v>
+        <v>5.474499225616455</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.4953651428222656</v>
+        <v>-4.519580841064453</v>
       </c>
       <c r="D55" t="n">
-        <v>-2.186797380447388</v>
+        <v>0.4945939481258392</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.630743026733398</v>
+        <v>5.515267372131348</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.7139370441436768</v>
+        <v>-4.534965991973877</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.985458850860596</v>
+        <v>0.5004094243049622</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.553377866744995</v>
+        <v>5.273197174072266</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.6384239792823792</v>
+        <v>-4.340461254119873</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.900834918022156</v>
+        <v>0.5111182332038879</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.638672828674316</v>
+        <v>4.76198673248291</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.6622406244277954</v>
+        <v>-3.898280620574951</v>
       </c>
       <c r="D58" t="n">
-        <v>-1.700286149978638</v>
+        <v>0.4908295571804047</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.567394256591797</v>
+        <v>5.238216400146484</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.5916351079940796</v>
+        <v>-4.323461532592773</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.946450352668762</v>
+        <v>0.5226828455924988</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.299581289291382</v>
+        <v>5.680439949035645</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.4355118274688721</v>
+        <v>-4.852516651153564</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.374635457992554</v>
+        <v>0.5766989588737488</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.388205051422119</v>
+        <v>6.102163314819336</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.4522029161453247</v>
+        <v>-5.259454727172852</v>
       </c>
       <c r="D61" t="n">
-        <v>-2.689416885375977</v>
+        <v>0.6207291483879089</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.52861213684082</v>
+        <v>6.539768218994141</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.05261468142271042</v>
+        <v>-5.490238189697266</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.038354158401489</v>
+        <v>0.6700232028961182</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.760618448257446</v>
+        <v>6.373807907104492</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1599887013435364</v>
+        <v>-5.172229290008545</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.666895866394043</v>
+        <v>0.6151086688041687</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.905805826187134</v>
+        <v>6.71127986907959</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.3889060020446777</v>
+        <v>-5.588605403900146</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.953438282012939</v>
+        <v>0.6456814408302307</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.63949728012085</v>
+        <v>6.388776779174805</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.272311270236969</v>
+        <v>-5.296590328216553</v>
       </c>
       <c r="D65" t="n">
-        <v>-2.848489046096802</v>
+        <v>0.6214526891708374</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.178189992904663</v>
+        <v>6.10563850402832</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.05613040179014206</v>
+        <v>-5.120019912719727</v>
       </c>
       <c r="D66" t="n">
-        <v>-2.850760459899902</v>
+        <v>0.6368192434310913</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.195862770080566</v>
+        <v>5.836528301239014</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.1152874156832695</v>
+        <v>-4.796921253204346</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.554033756256104</v>
+        <v>0.5960639715194702</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.10632848739624</v>
+        <v>5.684260368347168</v>
       </c>
       <c r="C68" t="n">
-        <v>0.209889829158783</v>
+        <v>-4.427348613739014</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.662858486175537</v>
+        <v>0.5284062027931213</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.377062797546387</v>
+        <v>5.663570880889893</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1875974535942078</v>
+        <v>-4.317715167999268</v>
       </c>
       <c r="D69" t="n">
-        <v>-2.70701003074646</v>
+        <v>0.4867342710494995</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.344069957733154</v>
+        <v>5.313949584960938</v>
       </c>
       <c r="C70" t="n">
-        <v>0.2377156019210815</v>
+        <v>-4.011268615722656</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.531809091567993</v>
+        <v>0.4755460917949677</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.188438653945923</v>
+        <v>5.62650203704834</v>
       </c>
       <c r="C71" t="n">
-        <v>0.3011404871940613</v>
+        <v>-4.21345329284668</v>
       </c>
       <c r="D71" t="n">
-        <v>-2.811765909194946</v>
+        <v>0.4401498138904572</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.160399675369263</v>
+        <v>6.301506996154785</v>
       </c>
       <c r="C72" t="n">
-        <v>0.3797140717506409</v>
+        <v>-4.460352897644043</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.197650194168091</v>
+        <v>0.2814925611019135</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.0272536277771</v>
+        <v>6.68726634979248</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4252687096595764</v>
+        <v>-4.574832916259766</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.373151540756226</v>
+        <v>0.1668471992015839</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.59674072265625</v>
+        <v>5.931079864501953</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6907966732978821</v>
+        <v>-3.887560606002808</v>
       </c>
       <c r="D74" t="n">
-        <v>-3.091398477554321</v>
+        <v>0.0004249140620231628</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.408820152282715</v>
+        <v>5.575915336608887</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6337748765945435</v>
+        <v>-3.714001893997192</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.710913419723511</v>
+        <v>0.03302615135908127</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2.364626884460449</v>
+        <v>5.550135135650635</v>
       </c>
       <c r="C76" t="n">
-        <v>0.59818035364151</v>
+        <v>-3.731164693832397</v>
       </c>
       <c r="D76" t="n">
-        <v>-2.654320240020752</v>
+        <v>0.04141052812337875</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.386323928833008</v>
+        <v>5.504717826843262</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5948572754859924</v>
+        <v>-3.709185361862183</v>
       </c>
       <c r="D77" t="n">
-        <v>-2.632539987564087</v>
+        <v>0.06289946287870407</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2.470307350158691</v>
+        <v>5.771428108215332</v>
       </c>
       <c r="C78" t="n">
-        <v>0.684570848941803</v>
+        <v>-3.679190397262573</v>
       </c>
       <c r="D78" t="n">
-        <v>-2.894650459289551</v>
+        <v>-0.06362027674913406</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.377669811248779</v>
+        <v>5.565049648284912</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6811214089393616</v>
+        <v>-3.5555579662323</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.744755029678345</v>
+        <v>-0.06522030383348465</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.446105003356934</v>
+        <v>4.946017265319824</v>
       </c>
       <c r="C80" t="n">
-        <v>0.611936628818512</v>
+        <v>-3.303722620010376</v>
       </c>
       <c r="D80" t="n">
-        <v>-2.473236799240112</v>
+        <v>0.04320772737264633</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.316569566726685</v>
+        <v>4.526237964630127</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5511059165000916</v>
+        <v>-3.116855382919312</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.149172067642212</v>
+        <v>0.08905451744794846</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.3119215965271</v>
+        <v>4.230927467346191</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4795517027378082</v>
+        <v>-2.952277183532715</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.932048201560974</v>
+        <v>0.1389851868152618</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.114508628845215</v>
+        <v>4.790840148925781</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6244542598724365</v>
+        <v>-3.213566303253174</v>
       </c>
       <c r="D83" t="n">
-        <v>-2.169260263442993</v>
+        <v>-0.0458776131272316</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.701571583747864</v>
+        <v>5.197571754455566</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6478341221809387</v>
+        <v>-3.429219961166382</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.016654491424561</v>
+        <v>-0.2760493159294128</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.709283590316772</v>
+        <v>5.63517951965332</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6876773834228516</v>
+        <v>-3.53489089012146</v>
       </c>
       <c r="D85" t="n">
-        <v>-2.255055665969849</v>
+        <v>-0.4594061076641083</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.85911762714386</v>
+        <v>5.173342704772949</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7349326610565186</v>
+        <v>-3.156453847885132</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.076471090316772</v>
+        <v>-0.4449786841869354</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.825536489486694</v>
+        <v>5.034965515136719</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7557632327079773</v>
+        <v>-3.157159566879272</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.124848127365112</v>
+        <v>-0.4287212193012238</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.872267723083496</v>
+        <v>5.139083862304688</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7737858891487122</v>
+        <v>-3.203649520874023</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.209833860397339</v>
+        <v>-0.3767482042312622</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.841177940368652</v>
+        <v>5.153566360473633</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7793708443641663</v>
+        <v>-3.213996648788452</v>
       </c>
       <c r="D89" t="n">
-        <v>-2.208344697952271</v>
+        <v>-0.3230153024196625</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.787107348442078</v>
+        <v>4.930598258972168</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7612666487693787</v>
+        <v>-3.092352628707886</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.048437595367432</v>
+        <v>-0.2970433831214905</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.874704480171204</v>
+        <v>4.811951637268066</v>
       </c>
       <c r="C91" t="n">
-        <v>0.768671989440918</v>
+        <v>-2.977781057357788</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.092360734939575</v>
+        <v>-0.2193354070186615</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.878626585006714</v>
+        <v>4.423514366149902</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7167665362358093</v>
+        <v>-2.768720388412476</v>
       </c>
       <c r="D92" t="n">
-        <v>-1.856204390525818</v>
+        <v>-0.1867621839046478</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.954413056373596</v>
+        <v>4.226188659667969</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7000842690467834</v>
+        <v>-2.606816530227661</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.816033720970154</v>
+        <v>-0.1582605242729187</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.107645034790039</v>
+        <v>3.898501396179199</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6437509655952454</v>
+        <v>-2.374083757400513</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.759759306907654</v>
+        <v>-0.0777423158288002</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.159834384918213</v>
+        <v>4.556039333343506</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7708047032356262</v>
+        <v>-2.661668300628662</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.193394899368286</v>
+        <v>-0.247549444437027</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.127408742904663</v>
+        <v>5.598237991333008</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9753631353378296</v>
+        <v>-3.013552188873291</v>
       </c>
       <c r="D96" t="n">
-        <v>-2.7696213722229</v>
+        <v>-0.5425996780395508</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2.185898780822754</v>
+        <v>6.203776359558105</v>
       </c>
       <c r="C97" t="n">
-        <v>1.08999228477478</v>
+        <v>-3.169216394424438</v>
       </c>
       <c r="D97" t="n">
-        <v>-3.219070911407471</v>
+        <v>-0.7797495126724243</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2.313758373260498</v>
+        <v>5.57684326171875</v>
       </c>
       <c r="C98" t="n">
-        <v>1.15447473526001</v>
+        <v>-2.91800856590271</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.992722749710083</v>
+        <v>-0.5758618712425232</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.587104082107544</v>
+        <v>5.057243347167969</v>
       </c>
       <c r="C99" t="n">
-        <v>1.136559844017029</v>
+        <v>-2.709270238876343</v>
       </c>
       <c r="D99" t="n">
-        <v>-2.932995080947876</v>
+        <v>-0.2892265319824219</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.453116655349731</v>
+        <v>5.577958106994629</v>
       </c>
       <c r="C100" t="n">
-        <v>1.272495746612549</v>
+        <v>-2.938085794448853</v>
       </c>
       <c r="D100" t="n">
-        <v>-3.196369886398315</v>
+        <v>-0.4532176852226257</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.378274440765381</v>
+        <v>5.216755867004395</v>
       </c>
       <c r="C101" t="n">
-        <v>1.135413885116577</v>
+        <v>-2.733161687850952</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.915740728378296</v>
+        <v>-0.5106350183486938</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.316261529922485</v>
+        <v>5.463545322418213</v>
       </c>
       <c r="C102" t="n">
-        <v>1.129762887954712</v>
+        <v>-2.81733775138855</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.933920860290527</v>
+        <v>-0.606415331363678</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.338767290115356</v>
+        <v>5.348780632019043</v>
       </c>
       <c r="C103" t="n">
-        <v>1.059094667434692</v>
+        <v>-2.815644264221191</v>
       </c>
       <c r="D103" t="n">
-        <v>-2.85090708732605</v>
+        <v>-0.5303090810775757</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.776427268981934</v>
+        <v>4.930773735046387</v>
       </c>
       <c r="C104" t="n">
-        <v>1.061690807342529</v>
+        <v>-2.642966032028198</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.981495141983032</v>
+        <v>-0.356792688369751</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.928706407546997</v>
+        <v>4.848994255065918</v>
       </c>
       <c r="C105" t="n">
-        <v>1.038762211799622</v>
+        <v>-2.585862398147583</v>
       </c>
       <c r="D105" t="n">
-        <v>-3.001468420028687</v>
+        <v>-0.3255934715270996</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2.741600036621094</v>
+        <v>4.412832260131836</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9212839007377625</v>
+        <v>-2.359029054641724</v>
       </c>
       <c r="D106" t="n">
-        <v>-2.577976942062378</v>
+        <v>-0.3159151077270508</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.469999313354492</v>
+        <v>4.809630870819092</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9415327310562134</v>
+        <v>-2.590857267379761</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.605920314788818</v>
+        <v>-0.429974228143692</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.319185733795166</v>
+        <v>5.815292835235596</v>
       </c>
       <c r="C108" t="n">
-        <v>1.066961169242859</v>
+        <v>-3.011654615402222</v>
       </c>
       <c r="D108" t="n">
-        <v>-3.045044422149658</v>
+        <v>-0.6530061960220337</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2.153338193893433</v>
+        <v>6.247417449951172</v>
       </c>
       <c r="C109" t="n">
-        <v>1.04927921295166</v>
+        <v>-3.142303228378296</v>
       </c>
       <c r="D109" t="n">
-        <v>-3.102926969528198</v>
+        <v>-0.8159834742546082</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.242468357086182</v>
+        <v>5.014326095581055</v>
       </c>
       <c r="C110" t="n">
-        <v>1.027041792869568</v>
+        <v>-2.511966705322266</v>
       </c>
       <c r="D110" t="n">
-        <v>-2.543034553527832</v>
+        <v>-0.5795827507972717</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2.009439706802368</v>
+        <v>5.063865661621094</v>
       </c>
       <c r="C111" t="n">
-        <v>1.034697294235229</v>
+        <v>-2.482374668121338</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.383430004119873</v>
+        <v>-0.6973748207092285</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.005227565765381</v>
+        <v>5.381561756134033</v>
       </c>
       <c r="C112" t="n">
-        <v>1.118623852729797</v>
+        <v>-2.601343393325806</v>
       </c>
       <c r="D112" t="n">
-        <v>-2.539777517318726</v>
+        <v>-0.7895641326904297</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.141430377960205</v>
+        <v>5.169675827026367</v>
       </c>
       <c r="C113" t="n">
-        <v>1.070288896560669</v>
+        <v>-2.587202310562134</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.570507526397705</v>
+        <v>-0.576054573059082</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.002449035644531</v>
+        <v>5.727663516998291</v>
       </c>
       <c r="C114" t="n">
-        <v>1.118557453155518</v>
+        <v>-2.810858964920044</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.754291772842407</v>
+        <v>-0.6674309372901917</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.814708113670349</v>
+        <v>5.060842990875244</v>
       </c>
       <c r="C115" t="n">
-        <v>1.011052489280701</v>
+        <v>-2.461419820785522</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.144632816314697</v>
+        <v>-0.5964022278785706</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.763163924217224</v>
+        <v>4.592677116394043</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9203009605407715</v>
+        <v>-2.188742876052856</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.793602824211121</v>
+        <v>-0.478348433971405</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.721834301948547</v>
+        <v>4.374921798706055</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9250265955924988</v>
+        <v>-2.061646699905396</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.612243175506592</v>
+        <v>-0.4416301548480988</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.054939270019531</v>
+        <v>4.365022659301758</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9108251929283142</v>
+        <v>-2.098010301589966</v>
       </c>
       <c r="D118" t="n">
-        <v>-1.919845581054688</v>
+        <v>-0.4275504648685455</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.869104862213135</v>
+        <v>4.710553169250488</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9471160769462585</v>
+        <v>-2.241070032119751</v>
       </c>
       <c r="D119" t="n">
-        <v>-1.929675936698914</v>
+        <v>-0.524025022983551</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.648089647293091</v>
+        <v>5.361699104309082</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9829037189483643</v>
+        <v>-2.541017532348633</v>
       </c>
       <c r="D120" t="n">
-        <v>-2.02157998085022</v>
+        <v>-0.7086678743362427</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.715292453765869</v>
+        <v>6.156929016113281</v>
       </c>
       <c r="C121" t="n">
-        <v>1.076022386550903</v>
+        <v>-2.926734685897827</v>
       </c>
       <c r="D121" t="n">
-        <v>-2.486287355422974</v>
+        <v>-0.9660559892654419</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.67249596118927</v>
+        <v>6.002625465393066</v>
       </c>
       <c r="C122" t="n">
-        <v>1.156113982200623</v>
+        <v>-2.772039651870728</v>
       </c>
       <c r="D122" t="n">
-        <v>-2.458906650543213</v>
+        <v>-1.016964197158813</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.788426995277405</v>
+        <v>5.056071758270264</v>
       </c>
       <c r="C123" t="n">
-        <v>1.038306474685669</v>
+        <v>-2.34548544883728</v>
       </c>
       <c r="D123" t="n">
-        <v>-2.065443277359009</v>
+        <v>-0.5869439840316772</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.70542573928833</v>
+        <v>5.256978511810303</v>
       </c>
       <c r="C124" t="n">
-        <v>1.075285077095032</v>
+        <v>-2.422158718109131</v>
       </c>
       <c r="D124" t="n">
-        <v>-2.066783428192139</v>
+        <v>-0.6998563408851624</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.711860537528992</v>
+        <v>5.300091743469238</v>
       </c>
       <c r="C125" t="n">
-        <v>1.130982995033264</v>
+        <v>-2.355250597000122</v>
       </c>
       <c r="D125" t="n">
-        <v>-2.079183340072632</v>
+        <v>-0.6643757224082947</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.81755518913269</v>
+        <v>5.636656761169434</v>
       </c>
       <c r="C126" t="n">
-        <v>1.224267601966858</v>
+        <v>-2.486956119537354</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.426558971405029</v>
+        <v>-0.7498886585235596</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.994885921478271</v>
+        <v>5.369464874267578</v>
       </c>
       <c r="C127" t="n">
-        <v>1.218152284622192</v>
+        <v>-2.34607720375061</v>
       </c>
       <c r="D127" t="n">
-        <v>-2.421426057815552</v>
+        <v>-0.6646658778190613</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>2.057708978652954</v>
+        <v>5.012137889862061</v>
       </c>
       <c r="C128" t="n">
-        <v>1.195131421089172</v>
+        <v>-2.170691967010498</v>
       </c>
       <c r="D128" t="n">
-        <v>-2.319899797439575</v>
+        <v>-0.6059130430221558</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.065739631652832</v>
+        <v>4.635895252227783</v>
       </c>
       <c r="C129" t="n">
-        <v>1.150619626045227</v>
+        <v>-1.994901776313782</v>
       </c>
       <c r="D129" t="n">
-        <v>-2.138082265853882</v>
+        <v>-0.5234675407409668</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.921497225761414</v>
+        <v>4.285999298095703</v>
       </c>
       <c r="C130" t="n">
-        <v>1.034315228462219</v>
+        <v>-1.863614678382874</v>
       </c>
       <c r="D130" t="n">
-        <v>-1.768576502799988</v>
+        <v>-0.4920781850814819</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.936976909637451</v>
+        <v>5.079157829284668</v>
       </c>
       <c r="C131" t="n">
-        <v>1.220909357070923</v>
+        <v>-2.201547861099243</v>
       </c>
       <c r="D131" t="n">
-        <v>-2.26708722114563</v>
+        <v>-0.6477547883987427</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.883145689964294</v>
+        <v>6.055596351623535</v>
       </c>
       <c r="C132" t="n">
-        <v>1.377487301826477</v>
+        <v>-2.596997499465942</v>
       </c>
       <c r="D132" t="n">
-        <v>-2.761725187301636</v>
+        <v>-0.9179390668869019</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.818775057792664</v>
+        <v>6.510561466217041</v>
       </c>
       <c r="C133" t="n">
-        <v>1.481958866119385</v>
+        <v>-2.732298135757446</v>
       </c>
       <c r="D133" t="n">
-        <v>-2.894220590591431</v>
+        <v>-1.123766422271729</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.884631037712097</v>
+        <v>5.51617431640625</v>
       </c>
       <c r="C134" t="n">
-        <v>1.39021909236908</v>
+        <v>-2.271306037902832</v>
       </c>
       <c r="D134" t="n">
-        <v>-2.351880788803101</v>
+        <v>-0.8223555088043213</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.938766598701477</v>
+        <v>4.930993556976318</v>
       </c>
       <c r="C135" t="n">
-        <v>1.30851674079895</v>
+        <v>-2.035579204559326</v>
       </c>
       <c r="D135" t="n">
-        <v>-2.168631792068481</v>
+        <v>-0.6475827693939209</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.873388171195984</v>
+        <v>5.329577922821045</v>
       </c>
       <c r="C136" t="n">
-        <v>1.422027826309204</v>
+        <v>-2.155505418777466</v>
       </c>
       <c r="D136" t="n">
-        <v>-2.315573930740356</v>
+        <v>-0.7792180776596069</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.85751473903656</v>
+        <v>5.366524696350098</v>
       </c>
       <c r="C137" t="n">
-        <v>1.429834127426147</v>
+        <v>-2.177281618118286</v>
       </c>
       <c r="D137" t="n">
-        <v>-2.311437368392944</v>
+        <v>-0.773750901222229</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.662410497665405</v>
+        <v>5.811606884002686</v>
       </c>
       <c r="C138" t="n">
-        <v>1.451284408569336</v>
+        <v>-2.371751546859741</v>
       </c>
       <c r="D138" t="n">
-        <v>-2.344085931777954</v>
+        <v>-0.9281778335571289</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.759492039680481</v>
+        <v>5.282589912414551</v>
       </c>
       <c r="C139" t="n">
-        <v>1.376668930053711</v>
+        <v>-2.130563735961914</v>
       </c>
       <c r="D139" t="n">
-        <v>-2.149970054626465</v>
+        <v>-0.7533957958221436</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.817118406295776</v>
+        <v>4.731445789337158</v>
       </c>
       <c r="C140" t="n">
-        <v>1.335897445678711</v>
+        <v>-1.90948212146759</v>
       </c>
       <c r="D140" t="n">
-        <v>-1.967794299125671</v>
+        <v>-0.6365401744842529</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.976864695549011</v>
+        <v>4.47386646270752</v>
       </c>
       <c r="C141" t="n">
-        <v>1.300704002380371</v>
+        <v>-1.780750274658203</v>
       </c>
       <c r="D141" t="n">
-        <v>-1.991651892662048</v>
+        <v>-0.6508079171180725</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>2.124669075012207</v>
+        <v>4.399885177612305</v>
       </c>
       <c r="C142" t="n">
-        <v>1.246852874755859</v>
+        <v>-1.774256110191345</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.991430163383484</v>
+        <v>-0.6659790277481079</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.925591707229614</v>
+        <v>5.273176670074463</v>
       </c>
       <c r="C143" t="n">
-        <v>1.440162777900696</v>
+        <v>-2.140346527099609</v>
       </c>
       <c r="D143" t="n">
-        <v>-2.385297536849976</v>
+        <v>-0.8285148143768311</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.845173478126526</v>
+        <v>6.039427280426025</v>
       </c>
       <c r="C144" t="n">
-        <v>1.614192485809326</v>
+        <v>-2.417108774185181</v>
       </c>
       <c r="D144" t="n">
-        <v>-2.715505838394165</v>
+        <v>-1.107249140739441</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>2.19894003868103</v>
+        <v>7.431470394134521</v>
       </c>
       <c r="C145" t="n">
-        <v>2.201527118682861</v>
+        <v>-2.741542339324951</v>
       </c>
       <c r="D145" t="n">
-        <v>-3.504971265792847</v>
+        <v>-1.491747617721558</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2.78449273109436</v>
+        <v>7.241293907165527</v>
       </c>
       <c r="C146" t="n">
-        <v>2.219017505645752</v>
+        <v>-2.420734882354736</v>
       </c>
       <c r="D146" t="n">
-        <v>-3.378999710083008</v>
+        <v>-1.353659629821777</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.030651330947876</v>
+        <v>7.190965175628662</v>
       </c>
       <c r="C147" t="n">
-        <v>2.26765513420105</v>
+        <v>-2.228924989700317</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.549957990646362</v>
+        <v>-1.296379327774048</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.929403305053711</v>
+        <v>7.256569862365723</v>
       </c>
       <c r="C148" t="n">
-        <v>2.18199610710144</v>
+        <v>-2.314586877822876</v>
       </c>
       <c r="D148" t="n">
-        <v>-3.565536499023438</v>
+        <v>-1.302342176437378</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.814197063446045</v>
+        <v>7.166131496429443</v>
       </c>
       <c r="C149" t="n">
-        <v>2.115850687026978</v>
+        <v>-2.304471015930176</v>
       </c>
       <c r="D149" t="n">
-        <v>-3.490362405776978</v>
+        <v>-1.251746892929077</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.705564022064209</v>
+        <v>7.179858684539795</v>
       </c>
       <c r="C150" t="n">
-        <v>2.145619630813599</v>
+        <v>-2.369240283966064</v>
       </c>
       <c r="D150" t="n">
-        <v>-3.479825258255005</v>
+        <v>-1.272181987762451</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.60206151008606</v>
+        <v>6.718477725982666</v>
       </c>
       <c r="C151" t="n">
-        <v>2.084837198257446</v>
+        <v>-2.142367124557495</v>
       </c>
       <c r="D151" t="n">
-        <v>-3.136110067367554</v>
+        <v>-1.276713132858276</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.644456148147583</v>
+        <v>5.947559356689453</v>
       </c>
       <c r="C152" t="n">
-        <v>1.913917303085327</v>
+        <v>-1.864081621170044</v>
       </c>
       <c r="D152" t="n">
-        <v>-2.807422876358032</v>
+        <v>-1.131662607192993</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>2.677923440933228</v>
+        <v>5.610942840576172</v>
       </c>
       <c r="C153" t="n">
-        <v>1.873493671417236</v>
+        <v>-1.752530694007874</v>
       </c>
       <c r="D153" t="n">
-        <v>-2.68235969543457</v>
+        <v>-1.139334678649902</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.639910459518433</v>
+        <v>5.617409229278564</v>
       </c>
       <c r="C154" t="n">
-        <v>1.902062773704529</v>
+        <v>-1.783524394035339</v>
       </c>
       <c r="D154" t="n">
-        <v>-2.682885408401489</v>
+        <v>-1.218590259552002</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.612136840820312</v>
+        <v>6.074854850769043</v>
       </c>
       <c r="C155" t="n">
-        <v>1.954832434654236</v>
+        <v>-2.000760078430176</v>
       </c>
       <c r="D155" t="n">
-        <v>-2.955446004867554</v>
+        <v>-1.346036911010742</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2.364378452301025</v>
+        <v>6.620022296905518</v>
       </c>
       <c r="C156" t="n">
-        <v>2.083399295806885</v>
+        <v>-2.294916391372681</v>
       </c>
       <c r="D156" t="n">
-        <v>-3.134974718093872</v>
+        <v>-1.420130014419556</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.824548244476318</v>
+        <v>7.142142295837402</v>
       </c>
       <c r="C157" t="n">
-        <v>2.268880844116211</v>
+        <v>-2.644960880279541</v>
       </c>
       <c r="D157" t="n">
-        <v>-3.185675859451294</v>
+        <v>-1.955597639083862</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.6502840518951416</v>
+        <v>5.099658489227295</v>
       </c>
       <c r="C158" t="n">
-        <v>2.40877628326416</v>
+        <v>-1.545936703681946</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.168142795562744</v>
+        <v>-2.712211847305298</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.1791241466999054</v>
+        <v>4.383033752441406</v>
       </c>
       <c r="C159" t="n">
-        <v>2.405711889266968</v>
+        <v>-1.598573565483093</v>
       </c>
       <c r="D159" t="n">
-        <v>-1.56656539440155</v>
+        <v>-2.868392705917358</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.1200972497463226</v>
+        <v>5.132179260253906</v>
       </c>
       <c r="C160" t="n">
-        <v>2.709069967269897</v>
+        <v>-1.718055129051208</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.912321209907532</v>
+        <v>-3.34527063369751</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.01069620624184608</v>
+        <v>4.860956192016602</v>
       </c>
       <c r="C161" t="n">
-        <v>2.655628204345703</v>
+        <v>-1.626741051673889</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.725727438926697</v>
+        <v>-3.222789764404297</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.02855941280722618</v>
+        <v>5.313271999359131</v>
       </c>
       <c r="C162" t="n">
-        <v>2.785794019699097</v>
+        <v>-1.641797780990601</v>
       </c>
       <c r="D162" t="n">
-        <v>-1.964073300361633</v>
+        <v>-3.276343107223511</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.03337123617529869</v>
+        <v>5.172056198120117</v>
       </c>
       <c r="C163" t="n">
-        <v>2.781176567077637</v>
+        <v>-1.558848857879639</v>
       </c>
       <c r="D163" t="n">
-        <v>-1.849065184593201</v>
+        <v>-3.192996025085449</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.003378245979547501</v>
+        <v>4.40120267868042</v>
       </c>
       <c r="C164" t="n">
-        <v>2.472127914428711</v>
+        <v>-1.441616535186768</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.325298070907593</v>
+        <v>-2.900899171829224</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2502292692661285</v>
+        <v>4.065286636352539</v>
       </c>
       <c r="C165" t="n">
-        <v>2.40460991859436</v>
+        <v>-1.248897671699524</v>
       </c>
       <c r="D165" t="n">
-        <v>-1.277935862541199</v>
+        <v>-2.706934452056885</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2312422692775726</v>
+        <v>3.825263500213623</v>
       </c>
       <c r="C166" t="n">
-        <v>2.265246152877808</v>
+        <v>-1.265512228012085</v>
       </c>
       <c r="D166" t="n">
-        <v>-1.111976981163025</v>
+        <v>-2.589895486831665</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.216821163892746</v>
+        <v>4.552383422851562</v>
       </c>
       <c r="C167" t="n">
-        <v>2.556647062301636</v>
+        <v>-1.334547162055969</v>
       </c>
       <c r="D167" t="n">
-        <v>-1.553285121917725</v>
+        <v>-2.858665943145752</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3755507171154022</v>
+        <v>5.134702205657959</v>
       </c>
       <c r="C168" t="n">
-        <v>2.601048707962036</v>
+        <v>-1.497340321540833</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.035095930099487</v>
+        <v>-2.88676118850708</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.600007951259613</v>
+        <v>5.874794006347656</v>
       </c>
       <c r="C169" t="n">
-        <v>2.829755067825317</v>
+        <v>-1.537958741188049</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.248390913009644</v>
+        <v>-2.941012382507324</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0.8780194520950317</v>
+        <v>4.986473083496094</v>
       </c>
       <c r="C170" t="n">
-        <v>2.433106660842896</v>
+        <v>-1.387733817100525</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.026667833328247</v>
+        <v>-2.607769012451172</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1.049907803535461</v>
+        <v>4.594324111938477</v>
       </c>
       <c r="C171" t="n">
-        <v>2.222326278686523</v>
+        <v>-1.419393181800842</v>
       </c>
       <c r="D171" t="n">
-        <v>-1.794086337089539</v>
+        <v>-2.242380380630493</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1.183170199394226</v>
+        <v>4.936453819274902</v>
       </c>
       <c r="C172" t="n">
-        <v>2.291773796081543</v>
+        <v>-1.516462922096252</v>
       </c>
       <c r="D172" t="n">
-        <v>-1.960667014122009</v>
+        <v>-2.289703369140625</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1.282256007194519</v>
+        <v>4.684751033782959</v>
       </c>
       <c r="C173" t="n">
-        <v>2.126453161239624</v>
+        <v>-1.534605503082275</v>
       </c>
       <c r="D173" t="n">
-        <v>-1.679367423057556</v>
+        <v>-2.09814190864563</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1.33300244808197</v>
+        <v>5.182711124420166</v>
       </c>
       <c r="C174" t="n">
-        <v>2.264447927474976</v>
+        <v>-1.621158242225647</v>
       </c>
       <c r="D174" t="n">
-        <v>-1.757717251777649</v>
+        <v>-2.350620031356812</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1.645926952362061</v>
+        <v>4.844212055206299</v>
       </c>
       <c r="C175" t="n">
-        <v>2.283862352371216</v>
+        <v>-1.211869120597839</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.747001767158508</v>
+        <v>-1.77715003490448</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1.94308078289032</v>
+        <v>4.490045547485352</v>
       </c>
       <c r="C176" t="n">
-        <v>2.178854942321777</v>
+        <v>-1.147627830505371</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.66682243347168</v>
+        <v>-1.516194701194763</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1.901924729347229</v>
+        <v>4.372317790985107</v>
       </c>
       <c r="C177" t="n">
-        <v>2.012971878051758</v>
+        <v>-1.17799985408783</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.573314428329468</v>
+        <v>-1.573552012443542</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2.305151462554932</v>
+        <v>4.426418781280518</v>
       </c>
       <c r="C178" t="n">
-        <v>2.083543062210083</v>
+        <v>-1.189075350761414</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.773336291313171</v>
+        <v>-1.425250053405762</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1.971235632896423</v>
+        <v>5.003744602203369</v>
       </c>
       <c r="C179" t="n">
-        <v>2.213860750198364</v>
+        <v>-1.460050225257874</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.977415204048157</v>
+        <v>-1.757607460021973</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1.726312756538391</v>
+        <v>5.354779720306396</v>
       </c>
       <c r="C180" t="n">
-        <v>2.25493049621582</v>
+        <v>-1.607347726821899</v>
       </c>
       <c r="D180" t="n">
-        <v>-1.972131609916687</v>
+        <v>-2.034912824630737</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1.823233485221863</v>
+        <v>5.854671955108643</v>
       </c>
       <c r="C181" t="n">
-        <v>2.34116005897522</v>
+        <v>-1.726094484329224</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.254787445068359</v>
+        <v>-2.109820365905762</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2.08447003364563</v>
+        <v>5.445653438568115</v>
       </c>
       <c r="C182" t="n">
-        <v>2.265759468078613</v>
+        <v>-1.52155601978302</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.126639604568481</v>
+        <v>-1.818027138710022</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.174069166183472</v>
+        <v>5.256576061248779</v>
       </c>
       <c r="C183" t="n">
-        <v>2.284699678421021</v>
+        <v>-1.365200161933899</v>
       </c>
       <c r="D183" t="n">
-        <v>-2.000315189361572</v>
+        <v>-1.609379053115845</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.253197908401489</v>
+        <v>5.786448955535889</v>
       </c>
       <c r="C184" t="n">
-        <v>2.534703969955444</v>
+        <v>-1.464798808097839</v>
       </c>
       <c r="D184" t="n">
-        <v>-2.26460862159729</v>
+        <v>-1.806740641593933</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2.460413217544556</v>
+        <v>5.939824104309082</v>
       </c>
       <c r="C185" t="n">
-        <v>2.699748754501343</v>
+        <v>-1.396299242973328</v>
       </c>
       <c r="D185" t="n">
-        <v>-2.402253866195679</v>
+        <v>-1.588368892669678</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2.691025733947754</v>
+        <v>6.418580055236816</v>
       </c>
       <c r="C186" t="n">
-        <v>2.738230466842651</v>
+        <v>-1.56823468208313</v>
       </c>
       <c r="D186" t="n">
-        <v>-2.665934324264526</v>
+        <v>-1.653838396072388</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2.699038743972778</v>
+        <v>5.875868320465088</v>
       </c>
       <c r="C187" t="n">
-        <v>2.65067458152771</v>
+        <v>-1.398402690887451</v>
       </c>
       <c r="D187" t="n">
-        <v>-2.36790943145752</v>
+        <v>-1.376945495605469</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.591028213500977</v>
+        <v>5.40518856048584</v>
       </c>
       <c r="C188" t="n">
-        <v>2.587770462036133</v>
+        <v>-1.220687627792358</v>
       </c>
       <c r="D188" t="n">
-        <v>-2.115864515304565</v>
+        <v>-1.308247923851013</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2.573745250701904</v>
+        <v>5.293261051177979</v>
       </c>
       <c r="C189" t="n">
-        <v>2.646686315536499</v>
+        <v>-1.152450323104858</v>
       </c>
       <c r="D189" t="n">
-        <v>-2.073178768157959</v>
+        <v>-1.279008865356445</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1.999721527099609</v>
+        <v>4.671000957489014</v>
       </c>
       <c r="C190" t="n">
-        <v>2.365081071853638</v>
+        <v>-0.9978740811347961</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.649295210838318</v>
+        <v>-1.258654713630676</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1.98747706413269</v>
+        <v>5.143927574157715</v>
       </c>
       <c r="C191" t="n">
-        <v>2.58616304397583</v>
+        <v>-1.072588324546814</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.842320322990417</v>
+        <v>-1.381791234016418</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1.839378714561462</v>
+        <v>5.724611282348633</v>
       </c>
       <c r="C192" t="n">
-        <v>2.872571468353271</v>
+        <v>-1.15394926071167</v>
       </c>
       <c r="D192" t="n">
-        <v>-2.094649076461792</v>
+        <v>-1.576907753944397</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1.71076762676239</v>
+        <v>6.112408638000488</v>
       </c>
       <c r="C193" t="n">
-        <v>3.121121406555176</v>
+        <v>-1.199308395385742</v>
       </c>
       <c r="D193" t="n">
-        <v>-2.271302938461304</v>
+        <v>-1.745550513267517</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1.419646620750427</v>
+        <v>5.295321941375732</v>
       </c>
       <c r="C194" t="n">
-        <v>2.953046083450317</v>
+        <v>-0.8274742960929871</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.852096199989319</v>
+        <v>-1.461777687072754</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1.270861268043518</v>
+        <v>4.466684341430664</v>
       </c>
       <c r="C195" t="n">
-        <v>2.816863298416138</v>
+        <v>-0.6528869867324829</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.62975811958313</v>
+        <v>-1.177953481674194</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1.062898278236389</v>
+        <v>4.952346324920654</v>
       </c>
       <c r="C196" t="n">
-        <v>2.953090906143188</v>
+        <v>-0.6471376419067383</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.648714423179626</v>
+        <v>-1.200436353683472</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1.003441452980042</v>
+        <v>4.907393932342529</v>
       </c>
       <c r="C197" t="n">
-        <v>2.978215217590332</v>
+        <v>-0.6282995939254761</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.621989607810974</v>
+        <v>-1.18565833568573</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1.166639685630798</v>
+        <v>5.302431583404541</v>
       </c>
       <c r="C198" t="n">
-        <v>3.224308729171753</v>
+        <v>-0.7267850637435913</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.853071570396423</v>
+        <v>-1.149014949798584</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.9328395128250122</v>
+        <v>4.564882755279541</v>
       </c>
       <c r="C199" t="n">
-        <v>2.862056970596313</v>
+        <v>-0.548402726650238</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.471599221229553</v>
+        <v>-1.030028820037842</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.8356322050094604</v>
+        <v>4.297638416290283</v>
       </c>
       <c r="C200" t="n">
-        <v>2.651101112365723</v>
+        <v>-0.4366959929466248</v>
       </c>
       <c r="D200" t="n">
-        <v>-1.198142409324646</v>
+        <v>-0.8171942830085754</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.8856769800186157</v>
+        <v>4.245790958404541</v>
       </c>
       <c r="C201" t="n">
-        <v>2.69142484664917</v>
+        <v>-0.3927425742149353</v>
       </c>
       <c r="D201" t="n">
-        <v>-1.217085838317871</v>
+        <v>-0.7397616505622864</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.323330163955688</v>
+        <v>4.125995635986328</v>
       </c>
       <c r="C202" t="n">
-        <v>2.687249422073364</v>
+        <v>-0.4321607947349548</v>
       </c>
       <c r="D202" t="n">
-        <v>-1.353918433189392</v>
+        <v>-0.7822445631027222</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.9118704199790955</v>
+        <v>4.702334880828857</v>
       </c>
       <c r="C203" t="n">
-        <v>2.937445402145386</v>
+        <v>-0.4515893459320068</v>
       </c>
       <c r="D203" t="n">
-        <v>-1.404747843742371</v>
+        <v>-0.8506113886833191</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1.16332471370697</v>
+        <v>5.309389114379883</v>
       </c>
       <c r="C204" t="n">
-        <v>3.231126070022583</v>
+        <v>-0.6169207096099854</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.694085240364075</v>
+        <v>-1.126617074012756</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1.278020262718201</v>
+        <v>5.843454360961914</v>
       </c>
       <c r="C205" t="n">
-        <v>3.517178297042847</v>
+        <v>-0.7172973155975342</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.823632001876831</v>
+        <v>-1.426538705825806</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.519985795021057</v>
+        <v>5.085713863372803</v>
       </c>
       <c r="C206" t="n">
-        <v>3.004079818725586</v>
+        <v>-0.4644529223442078</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.64667272567749</v>
+        <v>-1.343291521072388</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.650451064109802</v>
+        <v>4.921223163604736</v>
       </c>
       <c r="C207" t="n">
-        <v>2.82743501663208</v>
+        <v>-0.3555790781974792</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.530751705169678</v>
+        <v>-1.347377419471741</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1.947956919670105</v>
+        <v>5.464834690093994</v>
       </c>
       <c r="C208" t="n">
-        <v>3.014446973800659</v>
+        <v>-0.5069133043289185</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.879465937614441</v>
+        <v>-1.663964152336121</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1.766550183296204</v>
+        <v>5.379164695739746</v>
       </c>
       <c r="C209" t="n">
-        <v>2.92750358581543</v>
+        <v>-0.5464908480644226</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.73684823513031</v>
+        <v>-1.637900829315186</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.502615213394165</v>
+        <v>5.512339115142822</v>
       </c>
       <c r="C210" t="n">
-        <v>3.073413133621216</v>
+        <v>-0.5302996039390564</v>
       </c>
       <c r="D210" t="n">
-        <v>-1.498900890350342</v>
+        <v>-1.712855815887451</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1.637123942375183</v>
+        <v>5.071966648101807</v>
       </c>
       <c r="C211" t="n">
-        <v>2.78944206237793</v>
+        <v>-0.4592410326004028</v>
       </c>
       <c r="D211" t="n">
-        <v>-1.407731890678406</v>
+        <v>-1.51901638507843</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1.795913815498352</v>
+        <v>5.031018257141113</v>
       </c>
       <c r="C212" t="n">
-        <v>2.757691383361816</v>
+        <v>-0.4223611354827881</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.511152863502502</v>
+        <v>-1.533081293106079</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1.732967019081116</v>
+        <v>4.785062789916992</v>
       </c>
       <c r="C213" t="n">
-        <v>2.644313097000122</v>
+        <v>-0.3976373076438904</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.408355951309204</v>
+        <v>-1.477388381958008</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1.866074323654175</v>
+        <v>4.58984899520874</v>
       </c>
       <c r="C214" t="n">
-        <v>2.556594133377075</v>
+        <v>-0.4344695210456848</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.430936932563782</v>
+        <v>-1.510225772857666</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1.980297923088074</v>
+        <v>5.446801662445068</v>
       </c>
       <c r="C215" t="n">
-        <v>3.11273455619812</v>
+        <v>-0.6212989091873169</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.8785240650177</v>
+        <v>-1.862930536270142</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1.858306765556335</v>
+        <v>5.543776988983154</v>
       </c>
       <c r="C216" t="n">
-        <v>3.180908203125</v>
+        <v>-0.6988849639892578</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.795353412628174</v>
+        <v>-1.971035718917847</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1.615363359451294</v>
+        <v>6.068701267242432</v>
       </c>
       <c r="C217" t="n">
-        <v>3.525417566299438</v>
+        <v>-0.6756263375282288</v>
       </c>
       <c r="D217" t="n">
-        <v>-1.768654704093933</v>
+        <v>-2.182495832443237</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1.710385799407959</v>
+        <v>5.18851375579834</v>
       </c>
       <c r="C218" t="n">
-        <v>3.020011425018311</v>
+        <v>-0.5547543168067932</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.516942501068115</v>
+        <v>-1.919958472251892</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1.887484669685364</v>
+        <v>5.134742259979248</v>
       </c>
       <c r="C219" t="n">
-        <v>2.968713283538818</v>
+        <v>-0.4846851229667664</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.51657509803772</v>
+        <v>-1.832906246185303</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.682933449745178</v>
+        <v>5.452881813049316</v>
       </c>
       <c r="C220" t="n">
-        <v>3.17692494392395</v>
+        <v>-0.5363733768463135</v>
       </c>
       <c r="D220" t="n">
-        <v>-1.622738718986511</v>
+        <v>-2.035117864608765</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1.76959216594696</v>
+        <v>4.984260082244873</v>
       </c>
       <c r="C221" t="n">
-        <v>2.970653533935547</v>
+        <v>-0.4549738764762878</v>
       </c>
       <c r="D221" t="n">
-        <v>-1.4833664894104</v>
+        <v>-1.991491079330444</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1.792546033859253</v>
+        <v>5.351504325866699</v>
       </c>
       <c r="C222" t="n">
-        <v>3.157074213027954</v>
+        <v>-0.5223426818847656</v>
       </c>
       <c r="D222" t="n">
-        <v>-1.61454164981842</v>
+        <v>-2.145437240600586</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.857517957687378</v>
+        <v>5.304343700408936</v>
       </c>
       <c r="C223" t="n">
-        <v>3.119726181030273</v>
+        <v>-0.4629747271537781</v>
       </c>
       <c r="D223" t="n">
-        <v>-1.679153800010681</v>
+        <v>-2.141225099563599</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2.16142725944519</v>
+        <v>4.883851051330566</v>
       </c>
       <c r="C224" t="n">
-        <v>3.002437353134155</v>
+        <v>-0.391797661781311</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.594025015830994</v>
+        <v>-1.982561588287354</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2.209047555923462</v>
+        <v>4.98604679107666</v>
       </c>
       <c r="C225" t="n">
-        <v>3.120459079742432</v>
+        <v>-0.3826841115951538</v>
       </c>
       <c r="D225" t="n">
-        <v>-1.648470640182495</v>
+        <v>-2.014922142028809</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2.062849521636963</v>
+        <v>4.500663280487061</v>
       </c>
       <c r="C226" t="n">
-        <v>2.762208938598633</v>
+        <v>-0.3103364109992981</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.222538828849792</v>
+        <v>-1.953972220420837</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2.039846181869507</v>
+        <v>5.161832809448242</v>
       </c>
       <c r="C227" t="n">
-        <v>2.998293161392212</v>
+        <v>-0.3270878195762634</v>
       </c>
       <c r="D227" t="n">
-        <v>-1.331745743751526</v>
+        <v>-2.122272491455078</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1.8196941614151</v>
+        <v>5.417313575744629</v>
       </c>
       <c r="C228" t="n">
-        <v>3.147716522216797</v>
+        <v>-0.2855352759361267</v>
       </c>
       <c r="D228" t="n">
-        <v>-1.218604445457458</v>
+        <v>-2.267635822296143</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1.617474794387817</v>
+        <v>6.319965839385986</v>
       </c>
       <c r="C229" t="n">
-        <v>3.654027223587036</v>
+        <v>-0.3360896706581116</v>
       </c>
       <c r="D229" t="n">
-        <v>-1.298422336578369</v>
+        <v>-2.678433656692505</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1.925501704216003</v>
+        <v>5.101963520050049</v>
       </c>
       <c r="C230" t="n">
-        <v>3.042233467102051</v>
+        <v>-0.2300581932067871</v>
       </c>
       <c r="D230" t="n">
-        <v>-1.065106511116028</v>
+        <v>-2.188575029373169</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2.036807060241699</v>
+        <v>4.696959018707275</v>
       </c>
       <c r="C231" t="n">
-        <v>2.840479135513306</v>
+        <v>-0.1885695457458496</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.971554160118103</v>
+        <v>-2.047921180725098</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.833886623382568</v>
+        <v>5.218649387359619</v>
       </c>
       <c r="C232" t="n">
-        <v>3.119466066360474</v>
+        <v>-0.1649835705757141</v>
       </c>
       <c r="D232" t="n">
-        <v>-1.062421441078186</v>
+        <v>-2.232345342636108</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1.801120162010193</v>
+        <v>5.043570518493652</v>
       </c>
       <c r="C233" t="n">
-        <v>3.040903091430664</v>
+        <v>-0.1457690596580505</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.9955471754074097</v>
+        <v>-2.190370321273804</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1.786136865615845</v>
+        <v>5.350347518920898</v>
       </c>
       <c r="C234" t="n">
-        <v>3.223419427871704</v>
+        <v>-0.17099928855896</v>
       </c>
       <c r="D234" t="n">
-        <v>-1.105258107185364</v>
+        <v>-2.338663578033447</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1.873826384544373</v>
+        <v>5.096114158630371</v>
       </c>
       <c r="C235" t="n">
-        <v>3.06924033164978</v>
+        <v>-0.1596221923828125</v>
       </c>
       <c r="D235" t="n">
-        <v>-1.032387375831604</v>
+        <v>-2.230192184448242</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1.851921677589417</v>
+        <v>4.682573795318604</v>
       </c>
       <c r="C236" t="n">
-        <v>2.894885778427124</v>
+        <v>-0.08375269174575806</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.8168039321899414</v>
+        <v>-2.010570764541626</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.790888667106628</v>
+        <v>4.752111434936523</v>
       </c>
       <c r="C237" t="n">
-        <v>2.966058492660522</v>
+        <v>-0.0404437817633152</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.7793862223625183</v>
+        <v>-1.988068103790283</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1.555265545845032</v>
+        <v>4.334274768829346</v>
       </c>
       <c r="C238" t="n">
-        <v>2.705284595489502</v>
+        <v>0.0357288084924221</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.573838472366333</v>
+        <v>-1.821974515914917</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1.683759212493896</v>
+        <v>4.878483295440674</v>
       </c>
       <c r="C239" t="n">
-        <v>2.993849039077759</v>
+        <v>-0.06071514263749123</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.8800362944602966</v>
+        <v>-2.102335214614868</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1.48030698299408</v>
+        <v>5.348870754241943</v>
       </c>
       <c r="C240" t="n">
-        <v>3.271390199661255</v>
+        <v>-0.08139234781265259</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.9158267378807068</v>
+        <v>-2.350196123123169</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1.395787596702576</v>
+        <v>6.017838478088379</v>
       </c>
       <c r="C241" t="n">
-        <v>3.705404043197632</v>
+        <v>-0.07780927419662476</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.925467312335968</v>
+        <v>-2.573927640914917</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1.592136144638062</v>
+        <v>4.97260570526123</v>
       </c>
       <c r="C242" t="n">
-        <v>3.135589838027954</v>
+        <v>0.0316312275826931</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.7197890281677246</v>
+        <v>-2.068673133850098</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1.57266628742218</v>
+        <v>4.568999290466309</v>
       </c>
       <c r="C243" t="n">
-        <v>2.86384129524231</v>
+        <v>0.03086840733885765</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.6190994381904602</v>
+        <v>-1.911720275878906</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1.413415551185608</v>
+        <v>4.958930969238281</v>
       </c>
       <c r="C244" t="n">
-        <v>3.146433591842651</v>
+        <v>0.04325836524367332</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.5442535877227783</v>
+        <v>-1.841467618942261</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1.427008271217346</v>
+        <v>4.627678394317627</v>
       </c>
       <c r="C245" t="n">
-        <v>3.065685272216797</v>
+        <v>0.1271352171897888</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3562174439430237</v>
+        <v>-1.6999751329422</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1.399335741996765</v>
+        <v>5.061567306518555</v>
       </c>
       <c r="C246" t="n">
-        <v>3.322019338607788</v>
+        <v>0.09983116388320923</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.3984097540378571</v>
+        <v>-1.719987630844116</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1.475089311599731</v>
+        <v>4.837116241455078</v>
       </c>
       <c r="C247" t="n">
-        <v>3.220256090164185</v>
+        <v>0.1167173981666565</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.3684132397174835</v>
+        <v>-1.452389478683472</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.557897210121155</v>
+        <v>4.458376884460449</v>
       </c>
       <c r="C248" t="n">
-        <v>3.03942608833313</v>
+        <v>0.1350796222686768</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.2834596633911133</v>
+        <v>-1.348903894424438</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1.495882987976074</v>
+        <v>4.746427059173584</v>
       </c>
       <c r="C249" t="n">
-        <v>3.149905920028687</v>
+        <v>0.07255715131759644</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.3175939321517944</v>
+        <v>-1.331905126571655</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1.638254404067993</v>
+        <v>4.408390998840332</v>
       </c>
       <c r="C250" t="n">
-        <v>2.981710910797119</v>
+        <v>0.004516955465078354</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.3133507966995239</v>
+        <v>-1.454047560691833</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1.611950039863586</v>
+        <v>4.768162727355957</v>
       </c>
       <c r="C251" t="n">
-        <v>3.107857465744019</v>
+        <v>-0.07482302188873291</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.3427340090274811</v>
+        <v>-1.553710222244263</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1.496153950691223</v>
+        <v>5.421185493469238</v>
       </c>
       <c r="C252" t="n">
-        <v>3.474185705184937</v>
+        <v>-0.1045377850532532</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.4119701981544495</v>
+        <v>-1.694914579391479</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1.343845725059509</v>
+        <v>6.250874996185303</v>
       </c>
       <c r="C253" t="n">
-        <v>3.952224016189575</v>
+        <v>-0.1208152174949646</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.6070468425750732</v>
+        <v>-2.201099872589111</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1.295635104179382</v>
+        <v>5.499979019165039</v>
       </c>
       <c r="C254" t="n">
-        <v>3.505253314971924</v>
+        <v>-0.0562710203230381</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.4615550935268402</v>
+        <v>-1.869249105453491</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1.423241376876831</v>
+        <v>4.873424530029297</v>
       </c>
       <c r="C255" t="n">
-        <v>3.113232612609863</v>
+        <v>0.1302527785301208</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.5176566243171692</v>
+        <v>-1.984075784683228</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.9196779727935791</v>
+        <v>4.747563362121582</v>
       </c>
       <c r="C256" t="n">
-        <v>3.470694065093994</v>
+        <v>0.2726326584815979</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.08855661749839783</v>
+        <v>-1.922195672988892</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.9877921342849731</v>
+        <v>4.688516616821289</v>
       </c>
       <c r="C257" t="n">
-        <v>3.44807767868042</v>
+        <v>0.300383985042572</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.1207446753978729</v>
+        <v>-1.912705779075623</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.9078296422958374</v>
+        <v>5.065670013427734</v>
       </c>
       <c r="C258" t="n">
-        <v>3.672220945358276</v>
+        <v>0.2456676363945007</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.138862669467926</v>
+        <v>-2.085399389266968</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.9627889394760132</v>
+        <v>4.561089992523193</v>
       </c>
       <c r="C259" t="n">
-        <v>3.482267141342163</v>
+        <v>0.3673785924911499</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.04259588941931725</v>
+        <v>-1.771049380302429</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1.092780113220215</v>
+        <v>4.355942726135254</v>
       </c>
       <c r="C260" t="n">
-        <v>3.398364305496216</v>
+        <v>0.4113900065422058</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.03392287716269493</v>
+        <v>-1.644824385643005</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.8900002837181091</v>
+        <v>4.513572216033936</v>
       </c>
       <c r="C261" t="n">
-        <v>3.427446126937866</v>
+        <v>0.3470491170883179</v>
       </c>
       <c r="D261" t="n">
-        <v>0.008063200861215591</v>
+        <v>-1.751215219497681</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.9836122989654541</v>
+        <v>3.870758295059204</v>
       </c>
       <c r="C262" t="n">
-        <v>3.25281810760498</v>
+        <v>0.4706354737281799</v>
       </c>
       <c r="D262" t="n">
-        <v>0.0758422315120697</v>
+        <v>-1.423707365989685</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1.103332757949829</v>
+        <v>4.491934776306152</v>
       </c>
       <c r="C263" t="n">
-        <v>3.766820669174194</v>
+        <v>0.5845543742179871</v>
       </c>
       <c r="D263" t="n">
-        <v>0.01767489686608315</v>
+        <v>-1.528194546699524</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1.111483216285706</v>
+        <v>4.919507026672363</v>
       </c>
       <c r="C264" t="n">
-        <v>3.949570894241333</v>
+        <v>0.5142367482185364</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.09558665752410889</v>
+        <v>-1.669364929199219</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1.202991127967834</v>
+        <v>5.210729598999023</v>
       </c>
       <c r="C265" t="n">
-        <v>4.373762130737305</v>
+        <v>0.5891038775444031</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.2081176936626434</v>
+        <v>-1.868051528930664</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1.093012094497681</v>
+        <v>4.493160724639893</v>
       </c>
       <c r="C266" t="n">
-        <v>3.995919942855835</v>
+        <v>0.6535578966140747</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.01331400498747826</v>
+        <v>-1.479316711425781</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.239632964134216</v>
+        <v>4.056793212890625</v>
       </c>
       <c r="C267" t="n">
-        <v>3.862514734268188</v>
+        <v>0.7549198269844055</v>
       </c>
       <c r="D267" t="n">
-        <v>0.1074584424495697</v>
+        <v>-1.20368504524231</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1.216241478919983</v>
+        <v>4.588839054107666</v>
       </c>
       <c r="C268" t="n">
-        <v>4.076975345611572</v>
+        <v>0.63460373878479</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.01551946625113487</v>
+        <v>-1.363491773605347</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.324114799499512</v>
+        <v>4.082627296447754</v>
       </c>
       <c r="C269" t="n">
-        <v>4.053634643554688</v>
+        <v>0.8061836361885071</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1087751686573029</v>
+        <v>-1.002195119857788</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1.356308341026306</v>
+        <v>4.156857490539551</v>
       </c>
       <c r="C270" t="n">
-        <v>4.478706359863281</v>
+        <v>0.9657560586929321</v>
       </c>
       <c r="D270" t="n">
-        <v>0.1365894079208374</v>
+        <v>-0.8969777226448059</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1.469265818595886</v>
+        <v>3.821414709091187</v>
       </c>
       <c r="C271" t="n">
-        <v>4.444155693054199</v>
+        <v>1.040870547294617</v>
       </c>
       <c r="D271" t="n">
-        <v>0.2777249813079834</v>
+        <v>-0.5464180111885071</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1.492787480354309</v>
+        <v>3.748486280441284</v>
       </c>
       <c r="C272" t="n">
-        <v>4.337597846984863</v>
+        <v>1.040706515312195</v>
       </c>
       <c r="D272" t="n">
-        <v>0.2218917906284332</v>
+        <v>-0.7794039845466614</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1.272626280784607</v>
+        <v>3.593654870986938</v>
       </c>
       <c r="C273" t="n">
-        <v>4.217145919799805</v>
+        <v>1.061567783355713</v>
       </c>
       <c r="D273" t="n">
-        <v>0.2316827476024628</v>
+        <v>-0.9758517742156982</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8793596029281616</v>
+        <v>3.675653696060181</v>
       </c>
       <c r="C274" t="n">
-        <v>3.871769666671753</v>
+        <v>0.8424683809280396</v>
       </c>
       <c r="D274" t="n">
-        <v>0.1288323104381561</v>
+        <v>-1.240757822990417</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.2598104178905487</v>
+        <v>5.170550346374512</v>
       </c>
       <c r="C275" t="n">
-        <v>3.992499113082886</v>
+        <v>0.2266349196434021</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.5469282865524292</v>
+        <v>-2.448020458221436</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0.05378172174096107</v>
+        <v>5.376341819763184</v>
       </c>
       <c r="C276" t="n">
-        <v>4.009710311889648</v>
+        <v>0.1062785387039185</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.6613366603851318</v>
+        <v>-2.729963064193726</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>0.05992564931511879</v>
+        <v>6.230885982513428</v>
       </c>
       <c r="C277" t="n">
-        <v>4.48635721206665</v>
+        <v>0.04008322581648827</v>
       </c>
       <c r="D277" t="n">
-        <v>-1.014119386672974</v>
+        <v>-3.089772462844849</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.2783147394657135</v>
+        <v>5.559171676635742</v>
       </c>
       <c r="C278" t="n">
-        <v>4.046375751495361</v>
+        <v>0.1287676095962524</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.6305583715438843</v>
+        <v>-2.988508939743042</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.1209994852542877</v>
+        <v>5.155404567718506</v>
       </c>
       <c r="C279" t="n">
-        <v>3.73443865776062</v>
+        <v>0.07174849510192871</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.5215125679969788</v>
+        <v>-2.676576375961304</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.1123957931995392</v>
+        <v>5.489191055297852</v>
       </c>
       <c r="C280" t="n">
-        <v>3.981863498687744</v>
+        <v>0.07630854845046997</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.6855915784835815</v>
+        <v>-2.892599821090698</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.05724802240729332</v>
+        <v>5.196798324584961</v>
       </c>
       <c r="C281" t="n">
-        <v>3.852303028106689</v>
+        <v>0.1666703820228577</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.479523628950119</v>
+        <v>-2.722883939743042</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.2195309102535248</v>
+        <v>5.311405181884766</v>
       </c>
       <c r="C282" t="n">
-        <v>3.952205896377563</v>
+        <v>0.3310167789459229</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.4436604678630829</v>
+        <v>-2.620193004608154</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.4297257959842682</v>
+        <v>5.059999465942383</v>
       </c>
       <c r="C283" t="n">
-        <v>3.654820680618286</v>
+        <v>0.3644838333129883</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.3716345727443695</v>
+        <v>-2.436463594436646</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>0.3366279304027557</v>
+        <v>4.81561279296875</v>
       </c>
       <c r="C284" t="n">
-        <v>3.550386190414429</v>
+        <v>0.345812201499939</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.3243896663188934</v>
+        <v>-2.398504495620728</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2658897340297699</v>
+        <v>4.770970821380615</v>
       </c>
       <c r="C285" t="n">
-        <v>3.630714654922485</v>
+        <v>0.3805532455444336</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.2721163034439087</v>
+        <v>-2.325947999954224</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.3288931548595428</v>
+        <v>4.543130397796631</v>
       </c>
       <c r="C286" t="n">
-        <v>3.45676064491272</v>
+        <v>0.4172137975692749</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.19512078166008</v>
+        <v>-2.162450313568115</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>0.3635348379611969</v>
+        <v>4.701512336730957</v>
       </c>
       <c r="C287" t="n">
-        <v>3.691951274871826</v>
+        <v>0.5284410119056702</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.06735493242740631</v>
+        <v>-2.210067510604858</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.4931538999080658</v>
+        <v>5.049351692199707</v>
       </c>
       <c r="C288" t="n">
-        <v>3.876780271530151</v>
+        <v>0.4758872389793396</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.2310561090707779</v>
+        <v>-2.344203233718872</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.539142370223999</v>
+        <v>5.577496528625488</v>
       </c>
       <c r="C289" t="n">
-        <v>4.42135763168335</v>
+        <v>0.4842049479484558</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.4597720205783844</v>
+        <v>-2.541443824768066</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.1670943200588226</v>
+        <v>4.838847160339355</v>
       </c>
       <c r="C290" t="n">
-        <v>4.00518798828125</v>
+        <v>0.5593469142913818</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.1221792101860046</v>
+        <v>-2.208008050918579</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.378023236989975</v>
+        <v>4.438461303710938</v>
       </c>
       <c r="C291" t="n">
-        <v>3.805351734161377</v>
+        <v>0.6299022436141968</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.05889527127146721</v>
+        <v>-1.963606834411621</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3429678976535797</v>
+        <v>4.847070693969727</v>
       </c>
       <c r="C292" t="n">
-        <v>4.022342681884766</v>
+        <v>0.6630458831787109</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.07026296854019165</v>
+        <v>-2.166856527328491</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.4073669612407684</v>
+        <v>4.687060832977295</v>
       </c>
       <c r="C293" t="n">
-        <v>4.033419132232666</v>
+        <v>0.7181761860847473</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.02632513269782066</v>
+        <v>-2.040030717849731</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>0.2933342158794403</v>
+        <v>5.117684364318848</v>
       </c>
       <c r="C294" t="n">
-        <v>4.051482200622559</v>
+        <v>0.5370483994483948</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.2010012567043304</v>
+        <v>-2.411091089248657</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3529607951641083</v>
+        <v>5.155198097229004</v>
       </c>
       <c r="C295" t="n">
-        <v>4.010195732116699</v>
+        <v>0.5044993162155151</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.2863031923770905</v>
+        <v>-2.449886083602905</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0.31800577044487</v>
+        <v>4.810882091522217</v>
       </c>
       <c r="C296" t="n">
-        <v>3.89604663848877</v>
+        <v>0.5692828297615051</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.1600401252508163</v>
+        <v>-2.250479698181152</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0.175410121679306</v>
+        <v>4.854121208190918</v>
       </c>
       <c r="C297" t="n">
-        <v>3.943461418151855</v>
+        <v>0.5270788669586182</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.1796227246522903</v>
+        <v>-2.294028043746948</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>0.1937459409236908</v>
+        <v>4.232666015625</v>
       </c>
       <c r="C298" t="n">
-        <v>3.911705732345581</v>
+        <v>0.7026472091674805</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.01128874346613884</v>
+        <v>-1.83621883392334</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>0.416630893945694</v>
+        <v>4.871924877166748</v>
       </c>
       <c r="C299" t="n">
-        <v>4.101725578308105</v>
+        <v>0.647922158241272</v>
       </c>
       <c r="D299" t="n">
-        <v>0.01629576459527016</v>
+        <v>-2.10606050491333</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0.6267043352127075</v>
+        <v>5.363678932189941</v>
       </c>
       <c r="C300" t="n">
-        <v>4.218149185180664</v>
+        <v>0.574790894985199</v>
       </c>
       <c r="D300" t="n">
-        <v>0.06405618786811829</v>
+        <v>-2.397699594497681</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>0.7380934953689575</v>
+        <v>5.883649826049805</v>
       </c>
       <c r="C301" t="n">
-        <v>4.686572551727295</v>
+        <v>0.5886743664741516</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.2578174769878387</v>
+        <v>-2.525539398193359</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3592012822628021</v>
+        <v>4.909456253051758</v>
       </c>
       <c r="C302" t="n">
-        <v>4.314164638519287</v>
+        <v>0.801447868347168</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.0131770633161068</v>
+        <v>-2.045625925064087</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>0.6716975569725037</v>
+        <v>4.412593841552734</v>
       </c>
       <c r="C303" t="n">
-        <v>4.142433166503906</v>
+        <v>0.8816149830818176</v>
       </c>
       <c r="D303" t="n">
-        <v>0.1539222002029419</v>
+        <v>-1.72131335735321</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>0.7191015481948853</v>
+        <v>4.773514270782471</v>
       </c>
       <c r="C304" t="n">
-        <v>4.412853717803955</v>
+        <v>0.9618545174598694</v>
       </c>
       <c r="D304" t="n">
-        <v>0.1736792623996735</v>
+        <v>-1.830331087112427</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>0.8637272715568542</v>
+        <v>4.456608772277832</v>
       </c>
       <c r="C305" t="n">
-        <v>4.354403972625732</v>
+        <v>1.088885307312012</v>
       </c>
       <c r="D305" t="n">
-        <v>0.2705057859420776</v>
+        <v>-1.639782547950745</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8064648509025574</v>
+        <v>4.970659255981445</v>
       </c>
       <c r="C306" t="n">
-        <v>4.450029850006104</v>
+        <v>0.9141486287117004</v>
       </c>
       <c r="D306" t="n">
-        <v>0.142259806394577</v>
+        <v>-1.975821733474731</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>0.7614005208015442</v>
+        <v>4.752768516540527</v>
       </c>
       <c r="C307" t="n">
-        <v>4.335147857666016</v>
+        <v>0.8480799198150635</v>
       </c>
       <c r="D307" t="n">
-        <v>0.1312075257301331</v>
+        <v>-1.865261197090149</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>0.8341580629348755</v>
+        <v>4.345934867858887</v>
       </c>
       <c r="C308" t="n">
-        <v>4.183346271514893</v>
+        <v>0.9190665483474731</v>
       </c>
       <c r="D308" t="n">
-        <v>0.1806591153144836</v>
+        <v>-1.649317145347595</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6471496820449829</v>
+        <v>4.683812618255615</v>
       </c>
       <c r="C309" t="n">
-        <v>4.339677333831787</v>
+        <v>0.8143702745437622</v>
       </c>
       <c r="D309" t="n">
-        <v>0.05804095044732094</v>
+        <v>-1.836794495582581</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0.5175545215606689</v>
+        <v>4.562295436859131</v>
       </c>
       <c r="C310" t="n">
-        <v>3.922494173049927</v>
+        <v>0.6708402037620544</v>
       </c>
       <c r="D310" t="n">
-        <v>0.1640487760305405</v>
+        <v>-1.965826869010925</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.6269934177398682</v>
+        <v>5.01075267791748</v>
       </c>
       <c r="C311" t="n">
-        <v>4.284389972686768</v>
+        <v>0.7709832787513733</v>
       </c>
       <c r="D311" t="n">
-        <v>0.158648356795311</v>
+        <v>-2.146305799484253</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>0.7485565543174744</v>
+        <v>5.147027492523193</v>
       </c>
       <c r="C312" t="n">
-        <v>4.589757919311523</v>
+        <v>0.8446822166442871</v>
       </c>
       <c r="D312" t="n">
-        <v>0.01148814335465431</v>
+        <v>-2.068154096603394</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0.7094748020172119</v>
+        <v>5.70184850692749</v>
       </c>
       <c r="C313" t="n">
-        <v>5.039476871490479</v>
+        <v>0.7949547171592712</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.1879531443119049</v>
+        <v>-2.374599695205688</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3627171218395233</v>
+        <v>5.124082088470459</v>
       </c>
       <c r="C314" t="n">
-        <v>4.631879806518555</v>
+        <v>0.9127443432807922</v>
       </c>
       <c r="D314" t="n">
-        <v>0.0518772192299366</v>
+        <v>-2.179413557052612</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0.5738281011581421</v>
+        <v>4.994267463684082</v>
       </c>
       <c r="C315" t="n">
-        <v>4.597750663757324</v>
+        <v>0.9985488057136536</v>
       </c>
       <c r="D315" t="n">
-        <v>0.2607968151569366</v>
+        <v>-2.070392847061157</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0.4014657437801361</v>
+        <v>5.018549919128418</v>
       </c>
       <c r="C316" t="n">
-        <v>4.604532241821289</v>
+        <v>1.002150774002075</v>
       </c>
       <c r="D316" t="n">
-        <v>0.1941598504781723</v>
+        <v>-2.129565715789795</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.5512011051177979</v>
+        <v>4.902636528015137</v>
       </c>
       <c r="C317" t="n">
-        <v>4.45944356918335</v>
+        <v>0.9823998808860779</v>
       </c>
       <c r="D317" t="n">
-        <v>0.3194219768047333</v>
+        <v>-2.069756507873535</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3942842781543732</v>
+        <v>5.184858798980713</v>
       </c>
       <c r="C318" t="n">
-        <v>4.281190395355225</v>
+        <v>0.7230228781700134</v>
       </c>
       <c r="D318" t="n">
-        <v>0.09999367594718933</v>
+        <v>-2.374430179595947</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.4084680378437042</v>
+        <v>5.012939929962158</v>
       </c>
       <c r="C319" t="n">
-        <v>4.109321594238281</v>
+        <v>0.7119016647338867</v>
       </c>
       <c r="D319" t="n">
-        <v>0.1643197387456894</v>
+        <v>-2.351117610931396</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.442571610212326</v>
+        <v>4.832529067993164</v>
       </c>
       <c r="C320" t="n">
-        <v>4.005116939544678</v>
+        <v>0.7820203900337219</v>
       </c>
       <c r="D320" t="n">
-        <v>0.3662529289722443</v>
+        <v>-2.264990329742432</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.422148734331131</v>
+        <v>4.783588409423828</v>
       </c>
       <c r="C321" t="n">
-        <v>4.08587646484375</v>
+        <v>0.8679782152175903</v>
       </c>
       <c r="D321" t="n">
-        <v>0.3162508010864258</v>
+        <v>-2.168505430221558</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.361938863992691</v>
+        <v>4.268255233764648</v>
       </c>
       <c r="C322" t="n">
-        <v>3.902938365936279</v>
+        <v>0.8836799263954163</v>
       </c>
       <c r="D322" t="n">
-        <v>0.2298848330974579</v>
+        <v>-1.869109511375427</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.4023559391498566</v>
+        <v>5.222550392150879</v>
       </c>
       <c r="C323" t="n">
-        <v>4.333549022674561</v>
+        <v>0.7896108627319336</v>
       </c>
       <c r="D323" t="n">
-        <v>0.2965090572834015</v>
+        <v>-2.434100389480591</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.468663364648819</v>
+        <v>5.387435913085938</v>
       </c>
       <c r="C324" t="n">
-        <v>4.400749206542969</v>
+        <v>0.804514467716217</v>
       </c>
       <c r="D324" t="n">
-        <v>0.3334590792655945</v>
+        <v>-2.51117992401123</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.359981507062912</v>
+        <v>5.826111316680908</v>
       </c>
       <c r="C325" t="n">
-        <v>4.831425666809082</v>
+        <v>0.8202539086341858</v>
       </c>
       <c r="D325" t="n">
-        <v>0.16621333360672</v>
+        <v>-2.708384275436401</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3671707808971405</v>
+        <v>5.151993274688721</v>
       </c>
       <c r="C326" t="n">
-        <v>4.503796100616455</v>
+        <v>1.005468368530273</v>
       </c>
       <c r="D326" t="n">
-        <v>0.3728104829788208</v>
+        <v>-2.320346593856812</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.4788471758365631</v>
+        <v>4.791189193725586</v>
       </c>
       <c r="C327" t="n">
-        <v>4.196548461914062</v>
+        <v>0.9631850719451904</v>
       </c>
       <c r="D327" t="n">
-        <v>0.501512348651886</v>
+        <v>-2.200062036514282</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.4489811360836029</v>
+        <v>5.010558605194092</v>
       </c>
       <c r="C328" t="n">
-        <v>4.392074584960938</v>
+        <v>1.013976216316223</v>
       </c>
       <c r="D328" t="n">
-        <v>0.510830819606781</v>
+        <v>-2.304661750793457</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.4169522225856781</v>
+        <v>4.920880794525146</v>
       </c>
       <c r="C329" t="n">
-        <v>4.246670246124268</v>
+        <v>0.949089527130127</v>
       </c>
       <c r="D329" t="n">
-        <v>0.5087152123451233</v>
+        <v>-2.308716058731079</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.3963524997234344</v>
+        <v>5.462642669677734</v>
       </c>
       <c r="C330" t="n">
-        <v>4.434875965118408</v>
+        <v>0.8703199625015259</v>
       </c>
       <c r="D330" t="n">
-        <v>0.4415802359580994</v>
+        <v>-2.589326143264771</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.5082293152809143</v>
+        <v>4.924901485443115</v>
       </c>
       <c r="C331" t="n">
-        <v>4.185842037200928</v>
+        <v>0.9596816301345825</v>
       </c>
       <c r="D331" t="n">
-        <v>0.4498237371444702</v>
+        <v>-2.299850702285767</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.5660791397094727</v>
+        <v>4.86317253112793</v>
       </c>
       <c r="C332" t="n">
-        <v>4.317960739135742</v>
+        <v>1.044179201126099</v>
       </c>
       <c r="D332" t="n">
-        <v>0.4141878187656403</v>
+        <v>-2.136614084243774</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.5655616521835327</v>
+        <v>4.664392948150635</v>
       </c>
       <c r="C333" t="n">
-        <v>4.369365692138672</v>
+        <v>1.127856135368347</v>
       </c>
       <c r="D333" t="n">
-        <v>0.4881291091442108</v>
+        <v>-2.023240566253662</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.6315886378288269</v>
+        <v>4.412342548370361</v>
       </c>
       <c r="C334" t="n">
-        <v>3.99472188949585</v>
+        <v>1.074977993965149</v>
       </c>
       <c r="D334" t="n">
-        <v>0.5647308230400085</v>
+        <v>-1.978255987167358</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.4736529886722565</v>
+        <v>5.168798446655273</v>
       </c>
       <c r="C335" t="n">
-        <v>4.354616641998291</v>
+        <v>0.9970290064811707</v>
       </c>
       <c r="D335" t="n">
-        <v>0.5227676630020142</v>
+        <v>-2.394527673721313</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.402153342962265</v>
+        <v>5.298942089080811</v>
       </c>
       <c r="C336" t="n">
-        <v>4.458117485046387</v>
+        <v>0.9610463380813599</v>
       </c>
       <c r="D336" t="n">
-        <v>0.5340845584869385</v>
+        <v>-2.487219572067261</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3738848865032196</v>
+        <v>5.842082023620605</v>
       </c>
       <c r="C337" t="n">
-        <v>4.900933265686035</v>
+        <v>0.9580485224723816</v>
       </c>
       <c r="D337" t="n">
-        <v>0.4706490933895111</v>
+        <v>-2.705337762832642</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3836981356143951</v>
+        <v>5.075482845306396</v>
       </c>
       <c r="C338" t="n">
-        <v>4.447442531585693</v>
+        <v>1.044413685798645</v>
       </c>
       <c r="D338" t="n">
-        <v>0.5258324146270752</v>
+        <v>-2.353240013122559</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.4723884761333466</v>
+        <v>4.880149364471436</v>
       </c>
       <c r="C339" t="n">
-        <v>4.424861907958984</v>
+        <v>1.125837206840515</v>
       </c>
       <c r="D339" t="n">
-        <v>0.5892386436462402</v>
+        <v>-2.217299938201904</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.4379256665706635</v>
+        <v>5.039976596832275</v>
       </c>
       <c r="C340" t="n">
-        <v>4.522350788116455</v>
+        <v>1.111831545829773</v>
       </c>
       <c r="D340" t="n">
-        <v>0.584872305393219</v>
+        <v>-2.296372652053833</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.5596983432769775</v>
+        <v>4.708317756652832</v>
       </c>
       <c r="C341" t="n">
-        <v>4.290997982025146</v>
+        <v>1.117692828178406</v>
       </c>
       <c r="D341" t="n">
-        <v>0.5656101703643799</v>
+        <v>-2.111154794692993</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0.5484433174133301</v>
+        <v>4.963291645050049</v>
       </c>
       <c r="C342" t="n">
-        <v>4.532127857208252</v>
+        <v>1.161227583885193</v>
       </c>
       <c r="D342" t="n">
-        <v>0.5397377610206604</v>
+        <v>-2.187199831008911</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.6632340550422668</v>
+        <v>4.539216041564941</v>
       </c>
       <c r="C343" t="n">
-        <v>4.332114696502686</v>
+        <v>1.224500417709351</v>
       </c>
       <c r="D343" t="n">
-        <v>0.561335027217865</v>
+        <v>-1.95468544960022</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.5632758736610413</v>
+        <v>4.706196308135986</v>
       </c>
       <c r="C344" t="n">
-        <v>4.274450778961182</v>
+        <v>1.113278269767761</v>
       </c>
       <c r="D344" t="n">
-        <v>0.5665920972824097</v>
+        <v>-2.095885515213013</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.5553476214408875</v>
+        <v>4.471953392028809</v>
       </c>
       <c r="C345" t="n">
-        <v>4.168838500976562</v>
+        <v>1.134674906730652</v>
       </c>
       <c r="D345" t="n">
-        <v>0.6250960230827332</v>
+        <v>-2.020457983016968</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>0.505342960357666</v>
+        <v>4.433289527893066</v>
       </c>
       <c r="C346" t="n">
-        <v>4.01561450958252</v>
+        <v>1.065847754478455</v>
       </c>
       <c r="D346" t="n">
-        <v>0.6542644500732422</v>
+        <v>-2.059260606765747</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3059974610805511</v>
+        <v>5.264596939086914</v>
       </c>
       <c r="C347" t="n">
-        <v>4.358384609222412</v>
+        <v>0.928936243057251</v>
       </c>
       <c r="D347" t="n">
-        <v>0.5710994601249695</v>
+        <v>-2.574533939361572</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0.08692565560340881</v>
+        <v>5.113563537597656</v>
       </c>
       <c r="C348" t="n">
-        <v>4.155186653137207</v>
+        <v>0.8466065526008606</v>
       </c>
       <c r="D348" t="n">
-        <v>0.5964329838752747</v>
+        <v>-2.648888826370239</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>-0.3253084719181061</v>
+        <v>6.144752502441406</v>
       </c>
       <c r="C349" t="n">
-        <v>4.649065494537354</v>
+        <v>0.682330310344696</v>
       </c>
       <c r="D349" t="n">
-        <v>0.4488417506217957</v>
+        <v>-3.264543771743774</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>-0.4297427237033844</v>
+        <v>5.782545566558838</v>
       </c>
       <c r="C350" t="n">
-        <v>4.34825325012207</v>
+        <v>0.7051302194595337</v>
       </c>
       <c r="D350" t="n">
-        <v>0.498011440038681</v>
+        <v>-3.133445262908936</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.2084071338176727</v>
+        <v>5.058173656463623</v>
       </c>
       <c r="C351" t="n">
-        <v>3.983620643615723</v>
+        <v>0.7667115330696106</v>
       </c>
       <c r="D351" t="n">
-        <v>0.6789281368255615</v>
+        <v>-2.761126756668091</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.4045372307300568</v>
+        <v>5.84876823425293</v>
       </c>
       <c r="C352" t="n">
-        <v>4.415715217590332</v>
+        <v>0.773669421672821</v>
       </c>
       <c r="D352" t="n">
-        <v>0.571377158164978</v>
+        <v>-3.179478645324707</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.1105127036571503</v>
+        <v>5.308574199676514</v>
       </c>
       <c r="C353" t="n">
-        <v>4.184492111206055</v>
+        <v>0.8194639086723328</v>
       </c>
       <c r="D353" t="n">
-        <v>0.6207009553909302</v>
+        <v>-2.836499452590942</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.1581188142299652</v>
+        <v>5.551415920257568</v>
       </c>
       <c r="C354" t="n">
-        <v>4.2987961769104</v>
+        <v>0.7687451243400574</v>
       </c>
       <c r="D354" t="n">
-        <v>0.5780296921730042</v>
+        <v>-2.952196598052979</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.06734958291053772</v>
+        <v>5.345253467559814</v>
       </c>
       <c r="C355" t="n">
-        <v>4.148004055023193</v>
+        <v>0.7914158701896667</v>
       </c>
       <c r="D355" t="n">
-        <v>0.5534874796867371</v>
+        <v>-2.807705402374268</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.2076150476932526</v>
+        <v>5.237808227539062</v>
       </c>
       <c r="C356" t="n">
-        <v>3.935024976730347</v>
+        <v>0.7193439602851868</v>
       </c>
       <c r="D356" t="n">
-        <v>0.5696266293525696</v>
+        <v>-2.843183755874634</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.2967756688594818</v>
+        <v>5.141745090484619</v>
       </c>
       <c r="C357" t="n">
-        <v>3.934160470962524</v>
+        <v>0.7248625755310059</v>
       </c>
       <c r="D357" t="n">
-        <v>0.6383494138717651</v>
+        <v>-2.836778402328491</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.3067891895771027</v>
+        <v>4.938311100006104</v>
       </c>
       <c r="C358" t="n">
-        <v>3.785960912704468</v>
+        <v>0.7259637713432312</v>
       </c>
       <c r="D358" t="n">
-        <v>0.6584254503250122</v>
+        <v>-2.747058629989624</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.2905771434307098</v>
+        <v>5.336677074432373</v>
       </c>
       <c r="C359" t="n">
-        <v>4.09653902053833</v>
+        <v>0.7692996263504028</v>
       </c>
       <c r="D359" t="n">
-        <v>0.604952335357666</v>
+        <v>-2.899950265884399</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.326326459646225</v>
+        <v>5.534751892089844</v>
       </c>
       <c r="C360" t="n">
-        <v>4.200911521911621</v>
+        <v>0.7506771683692932</v>
       </c>
       <c r="D360" t="n">
-        <v>0.5821559429168701</v>
+        <v>-2.996595144271851</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.6413119435310364</v>
+        <v>6.201029300689697</v>
       </c>
       <c r="C361" t="n">
-        <v>4.595845699310303</v>
+        <v>0.6379894614219666</v>
       </c>
       <c r="D361" t="n">
-        <v>0.5308051705360413</v>
+        <v>-3.404842615127563</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.6236961483955383</v>
+        <v>5.631088733673096</v>
       </c>
       <c r="C362" t="n">
-        <v>4.144415378570557</v>
+        <v>0.7364643812179565</v>
       </c>
       <c r="D362" t="n">
-        <v>0.7462607026100159</v>
+        <v>-3.205189943313599</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.7235485911369324</v>
+        <v>5.546728610992432</v>
       </c>
       <c r="C363" t="n">
-        <v>4.17294454574585</v>
+        <v>0.7279770374298096</v>
       </c>
       <c r="D363" t="n">
-        <v>0.8587965369224548</v>
+        <v>-3.240195989608765</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.4929909408092499</v>
+        <v>5.744647026062012</v>
       </c>
       <c r="C364" t="n">
-        <v>4.330981254577637</v>
+        <v>0.8078230619430542</v>
       </c>
       <c r="D364" t="n">
-        <v>0.717058539390564</v>
+        <v>-3.189969301223755</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.2609731256961823</v>
+        <v>5.259556293487549</v>
       </c>
       <c r="C365" t="n">
-        <v>4.13016414642334</v>
+        <v>0.8688094615936279</v>
       </c>
       <c r="D365" t="n">
-        <v>0.7918833494186401</v>
+        <v>-2.917117834091187</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.2560588419437408</v>
+        <v>5.53221607208252</v>
       </c>
       <c r="C366" t="n">
-        <v>4.268661499023438</v>
+        <v>0.8625336289405823</v>
       </c>
       <c r="D366" t="n">
-        <v>0.7343404293060303</v>
+        <v>-3.034544706344604</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1590459644794464</v>
+        <v>5.276273727416992</v>
       </c>
       <c r="C367" t="n">
-        <v>4.091917037963867</v>
+        <v>0.8809311389923096</v>
       </c>
       <c r="D367" t="n">
-        <v>0.7288289070129395</v>
+        <v>-2.877393960952759</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.3045216500759125</v>
+        <v>5.099566459655762</v>
       </c>
       <c r="C368" t="n">
-        <v>3.947402000427246</v>
+        <v>0.8416496515274048</v>
       </c>
       <c r="D368" t="n">
-        <v>0.8267378211021423</v>
+        <v>-2.860577583312988</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.3361264765262604</v>
+        <v>5.244479179382324</v>
       </c>
       <c r="C369" t="n">
-        <v>4.105304718017578</v>
+        <v>0.8627203702926636</v>
       </c>
       <c r="D369" t="n">
-        <v>0.8348748683929443</v>
+        <v>-2.943372011184692</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.4271032512187958</v>
+        <v>4.844457626342773</v>
       </c>
       <c r="C370" t="n">
-        <v>3.941686391830444</v>
+        <v>0.7633205056190491</v>
       </c>
       <c r="D370" t="n">
-        <v>1.056348919868469</v>
+        <v>-2.953802585601807</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.1519452035427094</v>
+        <v>5.256463050842285</v>
       </c>
       <c r="C371" t="n">
-        <v>4.282773494720459</v>
+        <v>0.9783850312232971</v>
       </c>
       <c r="D371" t="n">
-        <v>0.8878027200698853</v>
+        <v>-2.8618004322052</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.233180969953537</v>
+        <v>5.500792503356934</v>
       </c>
       <c r="C372" t="n">
-        <v>4.439906597137451</v>
+        <v>0.9626079797744751</v>
       </c>
       <c r="D372" t="n">
-        <v>0.8370609283447266</v>
+        <v>-3.019631624221802</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.4200097024440765</v>
+        <v>5.911679744720459</v>
       </c>
       <c r="C373" t="n">
-        <v>4.73139476776123</v>
+        <v>0.9673990607261658</v>
       </c>
       <c r="D373" t="n">
-        <v>0.9180390238761902</v>
+        <v>-3.352692127227783</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.374917060136795</v>
+        <v>5.643478870391846</v>
       </c>
       <c r="C374" t="n">
-        <v>4.55217456817627</v>
+        <v>1.036734461784363</v>
       </c>
       <c r="D374" t="n">
-        <v>1.131293773651123</v>
+        <v>-3.255526065826416</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.08196195960044861</v>
+        <v>5.146598815917969</v>
       </c>
       <c r="C375" t="n">
-        <v>4.293095588684082</v>
+        <v>1.061992526054382</v>
       </c>
       <c r="D375" t="n">
-        <v>1.104947209358215</v>
+        <v>-2.869604587554932</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.1585827171802521</v>
+        <v>5.381705284118652</v>
       </c>
       <c r="C376" t="n">
-        <v>4.469695091247559</v>
+        <v>1.072432518005371</v>
       </c>
       <c r="D376" t="n">
-        <v>1.075928568840027</v>
+        <v>-2.973733425140381</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.03883412107825279</v>
+        <v>5.057911396026611</v>
       </c>
       <c r="C377" t="n">
-        <v>4.249650955200195</v>
+        <v>1.068691849708557</v>
       </c>
       <c r="D377" t="n">
-        <v>1.119088768959045</v>
+        <v>-2.803141117095947</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>-0.1873290836811066</v>
+        <v>5.567600250244141</v>
       </c>
       <c r="C378" t="n">
-        <v>4.555559158325195</v>
+        <v>1.065245270729065</v>
       </c>
       <c r="D378" t="n">
-        <v>1.059048295021057</v>
+        <v>-3.098782777786255</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.07212260365486145</v>
+        <v>5.109628677368164</v>
       </c>
       <c r="C379" t="n">
-        <v>4.233296394348145</v>
+        <v>1.052902102470398</v>
       </c>
       <c r="D379" t="n">
-        <v>1.076440930366516</v>
+        <v>-2.824939966201782</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.05056056007742882</v>
+        <v>4.941720008850098</v>
       </c>
       <c r="C380" t="n">
-        <v>4.151390075683594</v>
+        <v>1.038583993911743</v>
       </c>
       <c r="D380" t="n">
-        <v>1.187297582626343</v>
+        <v>-2.796239614486694</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.2965074479579926</v>
+        <v>5.082329750061035</v>
       </c>
       <c r="C381" t="n">
-        <v>4.252000331878662</v>
+        <v>0.9869157671928406</v>
       </c>
       <c r="D381" t="n">
-        <v>1.211096525192261</v>
+        <v>-2.985662937164307</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.09533849358558655</v>
+        <v>4.948328495025635</v>
       </c>
       <c r="C382" t="n">
-        <v>4.164609909057617</v>
+        <v>1.047439694404602</v>
       </c>
       <c r="D382" t="n">
-        <v>1.193054556846619</v>
+        <v>-2.811950922012329</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.05972203984856606</v>
+        <v>5.097498893737793</v>
       </c>
       <c r="C383" t="n">
-        <v>4.334952354431152</v>
+        <v>1.15118396282196</v>
       </c>
       <c r="D383" t="n">
-        <v>1.188223958015442</v>
+        <v>-2.752093076705933</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.04619965329766273</v>
+        <v>5.432100296020508</v>
       </c>
       <c r="C384" t="n">
-        <v>4.609158039093018</v>
+        <v>1.175101041793823</v>
       </c>
       <c r="D384" t="n">
-        <v>1.090375542640686</v>
+        <v>-2.923729419708252</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.186125785112381</v>
+        <v>5.838414192199707</v>
       </c>
       <c r="C385" t="n">
-        <v>4.917951583862305</v>
+        <v>1.18260395526886</v>
       </c>
       <c r="D385" t="n">
-        <v>1.21450936794281</v>
+        <v>-3.278925657272339</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.2751213610172272</v>
+        <v>6.13385009765625</v>
       </c>
       <c r="C386" t="n">
-        <v>5.087001800537109</v>
+        <v>1.243687033653259</v>
       </c>
       <c r="D386" t="n">
-        <v>1.344063878059387</v>
+        <v>-3.477099180221558</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.04657682403922081</v>
+        <v>5.145112037658691</v>
       </c>
       <c r="C387" t="n">
-        <v>4.411712646484375</v>
+        <v>1.174503445625305</v>
       </c>
       <c r="D387" t="n">
-        <v>1.387656927108765</v>
+        <v>-2.957488298416138</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.09193286299705505</v>
+        <v>5.350805759429932</v>
       </c>
       <c r="C388" t="n">
-        <v>4.623269081115723</v>
+        <v>1.256003499031067</v>
       </c>
       <c r="D388" t="n">
-        <v>1.230589866638184</v>
+        <v>-2.900229215621948</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.1435518562793732</v>
+        <v>5.098281860351562</v>
       </c>
       <c r="C389" t="n">
-        <v>4.49644660949707</v>
+        <v>1.238536715507507</v>
       </c>
       <c r="D389" t="n">
-        <v>1.286105275154114</v>
+        <v>-2.796065330505371</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.1106760203838348</v>
+        <v>5.373003005981445</v>
       </c>
       <c r="C390" t="n">
-        <v>4.658229351043701</v>
+        <v>1.264693140983582</v>
       </c>
       <c r="D390" t="n">
-        <v>1.218599438667297</v>
+        <v>-2.904964685440063</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.2554043829441071</v>
+        <v>4.97694730758667</v>
       </c>
       <c r="C391" t="n">
-        <v>4.479443550109863</v>
+        <v>1.270601272583008</v>
       </c>
       <c r="D391" t="n">
-        <v>1.233021259307861</v>
+        <v>-2.665892124176025</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>0.07077512145042419</v>
+        <v>5.15367603302002</v>
       </c>
       <c r="C392" t="n">
-        <v>4.468925476074219</v>
+        <v>1.202285289764404</v>
       </c>
       <c r="D392" t="n">
-        <v>1.290470480918884</v>
+        <v>-2.880083084106445</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.06168362125754356</v>
+        <v>5.080018520355225</v>
       </c>
       <c r="C393" t="n">
-        <v>4.470103740692139</v>
+        <v>1.179040431976318</v>
       </c>
       <c r="D393" t="n">
-        <v>1.396754860877991</v>
+        <v>-2.944374561309814</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.1640327274799347</v>
+        <v>4.708827495574951</v>
       </c>
       <c r="C394" t="n">
-        <v>4.343245506286621</v>
+        <v>1.212722182273865</v>
       </c>
       <c r="D394" t="n">
-        <v>1.482332587242126</v>
+        <v>-2.671560525894165</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.08438774943351746</v>
+        <v>5.419925689697266</v>
       </c>
       <c r="C395" t="n">
-        <v>4.705647945404053</v>
+        <v>1.29239821434021</v>
       </c>
       <c r="D395" t="n">
-        <v>1.286496758460999</v>
+        <v>-2.898587942123413</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.01384863629937172</v>
+        <v>5.404413223266602</v>
       </c>
       <c r="C396" t="n">
-        <v>4.639843940734863</v>
+        <v>1.244087338447571</v>
       </c>
       <c r="D396" t="n">
-        <v>1.252374410629272</v>
+        <v>-2.909653186798096</v>
       </c>
     </row>
   </sheetData>

--- a/programs/autoencoder/data/real_enc.xlsx
+++ b/programs/autoencoder/data/real_enc.xlsx
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.147706508636475</v>
+        <v>-1.879470348358154</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.603872776031494</v>
+        <v>-1.264570116996765</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.06031321734189987</v>
+        <v>-0.9155412316322327</v>
       </c>
     </row>
     <row r="3">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.121557474136353</v>
+        <v>-1.876649379730225</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.475371360778809</v>
+        <v>-1.24114453792572</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1711244285106659</v>
+        <v>-0.9225494861602783</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.135507106781006</v>
+        <v>-2.009359121322632</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.613218784332275</v>
+        <v>-1.546045660972595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15240877866745</v>
+        <v>-0.8402519226074219</v>
       </c>
     </row>
     <row r="5">
@@ -491,13 +491,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2.950749635696411</v>
+        <v>-1.890004873275757</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.335679531097412</v>
+        <v>-1.488529682159424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1491695046424866</v>
+        <v>-0.7761034965515137</v>
       </c>
     </row>
     <row r="6">
@@ -505,13 +505,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.887741804122925</v>
+        <v>-1.907224178314209</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.241409778594971</v>
+        <v>-1.589450716972351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09477823227643967</v>
+        <v>-0.6775860786437988</v>
       </c>
     </row>
     <row r="7">
@@ -519,13 +519,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.474230051040649</v>
+        <v>-1.590573310852051</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.62239408493042</v>
+        <v>-1.441262483596802</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03603599220514297</v>
+        <v>-0.4281763434410095</v>
       </c>
     </row>
     <row r="8">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.348654270172119</v>
+        <v>-1.409350872039795</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.421137571334839</v>
+        <v>-1.231255412101746</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04366200417280197</v>
+        <v>-0.4799404740333557</v>
       </c>
     </row>
     <row r="9">
@@ -547,13 +547,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.122882843017578</v>
+        <v>-1.186355710029602</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.072709798812866</v>
+        <v>-1.06520676612854</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01710767298936844</v>
+        <v>-0.3802762627601624</v>
       </c>
     </row>
     <row r="10">
@@ -561,13 +561,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.971092820167542</v>
+        <v>-1.035549163818359</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.825829744338989</v>
+        <v>-0.9636884331703186</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.06130382418632507</v>
+        <v>-0.2614341676235199</v>
       </c>
     </row>
     <row r="11">
@@ -575,13 +575,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.104092836380005</v>
+        <v>-1.261157751083374</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.563862800598145</v>
+        <v>-1.087727069854736</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3851172924041748</v>
+        <v>-0.07548917084932327</v>
       </c>
     </row>
     <row r="12">
@@ -589,13 +589,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.690444946289062</v>
+        <v>-1.654312491416931</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.085448265075684</v>
+        <v>-1.329614400863647</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1819713711738586</v>
+        <v>-0.375713437795639</v>
       </c>
     </row>
     <row r="13">
@@ -603,13 +603,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.14408802986145</v>
+        <v>-2.280071020126343</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.006759643554688</v>
+        <v>-1.920978546142578</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2347276210784912</v>
+        <v>-0.4691841006278992</v>
       </c>
     </row>
     <row r="14">
@@ -617,13 +617,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.423821926116943</v>
+        <v>-1.740972280502319</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.263257503509521</v>
+        <v>-1.533054351806641</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.6564164161682129</v>
+        <v>-0.08238429576158524</v>
       </c>
     </row>
     <row r="15">
@@ -631,13 +631,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.54426646232605</v>
+        <v>-1.973549008369446</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.67503833770752</v>
+        <v>-1.654531359672546</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.8459214568138123</v>
+        <v>-0.07879298180341721</v>
       </c>
     </row>
     <row r="16">
@@ -645,13 +645,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.702072858810425</v>
+        <v>-1.987980961799622</v>
       </c>
       <c r="C16" t="n">
-        <v>-4.459207534790039</v>
+        <v>-1.863294005393982</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2710489928722382</v>
+        <v>-0.1682756096124649</v>
       </c>
     </row>
     <row r="17">
@@ -659,13 +659,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.722656488418579</v>
+        <v>-1.951448678970337</v>
       </c>
       <c r="C17" t="n">
-        <v>-4.356210708618164</v>
+        <v>-1.837803721427917</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1656821966171265</v>
+        <v>-0.2719810307025909</v>
       </c>
     </row>
     <row r="18">
@@ -673,13 +673,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.71439003944397</v>
+        <v>-1.893099069595337</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.154525279998779</v>
+        <v>-1.815007090568542</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03461793810129166</v>
+        <v>-0.4228693842887878</v>
       </c>
     </row>
     <row r="19">
@@ -687,13 +687,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.656933307647705</v>
+        <v>-1.686673164367676</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.720965623855591</v>
+        <v>-1.647968769073486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07081481069326401</v>
+        <v>-0.4386711120605469</v>
       </c>
     </row>
     <row r="20">
@@ -701,13 +701,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.345881938934326</v>
+        <v>-1.382084369659424</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.240196704864502</v>
+        <v>-1.34097945690155</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02514637261629105</v>
+        <v>-0.2870647013187408</v>
       </c>
     </row>
     <row r="21">
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.377525091171265</v>
+        <v>-1.247394204139709</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.211501836776733</v>
+        <v>-1.00602114200592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2437267005443573</v>
+        <v>-0.6862236857414246</v>
       </c>
     </row>
     <row r="22">
@@ -729,13 +729,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.314000606536865</v>
+        <v>-1.185566544532776</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.100349187850952</v>
+        <v>-0.9476857781410217</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2451559901237488</v>
+        <v>-0.7010404467582703</v>
       </c>
     </row>
     <row r="23">
@@ -743,13 +743,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.562902212142944</v>
+        <v>-1.316123008728027</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.31208348274231</v>
+        <v>-1.004689931869507</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2391917705535889</v>
+        <v>-0.9003103971481323</v>
       </c>
     </row>
     <row r="24">
@@ -757,13 +757,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.152296781539917</v>
+        <v>-1.924839735031128</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.233171463012695</v>
+        <v>-1.447181344032288</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1885700523853302</v>
+        <v>-1.047196984291077</v>
       </c>
     </row>
     <row r="25">
@@ -771,13 +771,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.72235894203186</v>
+        <v>-2.326910495758057</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.91300630569458</v>
+        <v>-1.753474473953247</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1704998314380646</v>
+        <v>-1.28804612159729</v>
       </c>
     </row>
     <row r="26">
@@ -785,13 +785,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.836699962615967</v>
+        <v>-2.264845132827759</v>
       </c>
       <c r="C26" t="n">
-        <v>-4.90348482131958</v>
+        <v>-1.494942784309387</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1060822829604149</v>
+        <v>-1.702691674232483</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.728066921234131</v>
+        <v>-1.995923280715942</v>
       </c>
       <c r="C27" t="n">
-        <v>-4.470280170440674</v>
+        <v>-1.44083833694458</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2312619388103485</v>
+        <v>-1.699733257293701</v>
       </c>
     </row>
     <row r="28">
@@ -813,13 +813,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.548831939697266</v>
+        <v>-2.504200220108032</v>
       </c>
       <c r="C28" t="n">
-        <v>-5.24314022064209</v>
+        <v>-2.07252025604248</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2054015100002289</v>
+        <v>-1.630942821502686</v>
       </c>
     </row>
     <row r="29">
@@ -827,13 +827,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.996370792388916</v>
+        <v>-2.080451965332031</v>
       </c>
       <c r="C29" t="n">
-        <v>-4.493866443634033</v>
+        <v>-1.82547652721405</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2905821800231934</v>
+        <v>-1.392756462097168</v>
       </c>
     </row>
     <row r="30">
@@ -841,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.984200716018677</v>
+        <v>-2.211763620376587</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.239328861236572</v>
+        <v>-2.016627073287964</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3322066068649292</v>
+        <v>-1.182827949523926</v>
       </c>
     </row>
     <row r="31">
@@ -855,13 +855,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.910208940505981</v>
+        <v>-2.029351472854614</v>
       </c>
       <c r="C31" t="n">
-        <v>-4.209585189819336</v>
+        <v>-1.865158915519714</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3352434039115906</v>
+        <v>-1.220460891723633</v>
       </c>
     </row>
     <row r="32">
@@ -869,13 +869,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.638012647628784</v>
+        <v>-1.657088756561279</v>
       </c>
       <c r="C32" t="n">
-        <v>-3.921275854110718</v>
+        <v>-1.557401776313782</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3537932336330414</v>
+        <v>-1.276591300964355</v>
       </c>
     </row>
     <row r="33">
@@ -883,13 +883,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.33430027961731</v>
+        <v>-1.590765953063965</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.530188322067261</v>
+        <v>-1.576979279518127</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3903954029083252</v>
+        <v>-1.113913297653198</v>
       </c>
     </row>
     <row r="34">
@@ -897,13 +897,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.829377889633179</v>
+        <v>-1.323686957359314</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.00391697883606</v>
+        <v>-1.419641971588135</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3852825164794922</v>
+        <v>-0.8278654813766479</v>
       </c>
     </row>
     <row r="35">
@@ -911,13 +911,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.096951246261597</v>
+        <v>-1.555094480514526</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.271857023239136</v>
+        <v>-1.670400857925415</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4083998799324036</v>
+        <v>-0.8309952020645142</v>
       </c>
     </row>
     <row r="36">
@@ -925,13 +925,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.887383699417114</v>
+        <v>-2.05155873298645</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.083470344543457</v>
+        <v>-2.031875610351562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4004167914390564</v>
+        <v>-1.137538909912109</v>
       </c>
     </row>
     <row r="37">
@@ -939,13 +939,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.8572998046875</v>
+        <v>-2.804775476455688</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.028815746307373</v>
+        <v>-2.563892364501953</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3591353893280029</v>
+        <v>-1.373091459274292</v>
       </c>
     </row>
     <row r="38">
@@ -953,13 +953,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.631610870361328</v>
+        <v>-2.220815896987915</v>
       </c>
       <c r="C38" t="n">
-        <v>-4.093243598937988</v>
+        <v>-2.467964172363281</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4709399938583374</v>
+        <v>-1.103433847427368</v>
       </c>
     </row>
     <row r="39">
@@ -967,13 +967,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.367865562438965</v>
+        <v>-2.201688051223755</v>
       </c>
       <c r="C39" t="n">
-        <v>-4.016154766082764</v>
+        <v>-2.396499395370483</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3948523998260498</v>
+        <v>-1.024032354354858</v>
       </c>
     </row>
     <row r="40">
@@ -981,13 +981,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.509082794189453</v>
+        <v>-2.434524774551392</v>
       </c>
       <c r="C40" t="n">
-        <v>-4.386340618133545</v>
+        <v>-2.504156351089478</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5699848532676697</v>
+        <v>-0.7455609440803528</v>
       </c>
     </row>
     <row r="41">
@@ -995,13 +995,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.269436359405518</v>
+        <v>-2.240579843521118</v>
       </c>
       <c r="C41" t="n">
-        <v>-4.140896320343018</v>
+        <v>-2.312700510025024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.545403778553009</v>
+        <v>-0.7141952514648438</v>
       </c>
     </row>
     <row r="42">
@@ -1009,13 +1009,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.643914222717285</v>
+        <v>-2.432157278060913</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.482358932495117</v>
+        <v>-2.51740837097168</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5425185561180115</v>
+        <v>-0.8657516241073608</v>
       </c>
     </row>
     <row r="43">
@@ -1023,13 +1023,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.313583374023438</v>
+        <v>-2.290689468383789</v>
       </c>
       <c r="C43" t="n">
-        <v>-4.175436496734619</v>
+        <v>-2.389772176742554</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5355095863342285</v>
+        <v>-0.7188664078712463</v>
       </c>
     </row>
     <row r="44">
@@ -1037,13 +1037,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.759830474853516</v>
+        <v>-1.943742990493774</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.515786647796631</v>
+        <v>-2.157347917556763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4819523394107819</v>
+        <v>-0.5695344209671021</v>
       </c>
     </row>
     <row r="45">
@@ -1051,13 +1051,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.593552589416504</v>
+        <v>-1.810991525650024</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.371465682983398</v>
+        <v>-2.042619943618774</v>
       </c>
       <c r="D45" t="n">
-        <v>0.498339056968689</v>
+        <v>-0.5929667353630066</v>
       </c>
     </row>
     <row r="46">
@@ -1065,13 +1065,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.423671960830688</v>
+        <v>-1.571571469306946</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.139830589294434</v>
+        <v>-1.78915536403656</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4704945981502533</v>
+        <v>-0.6121196746826172</v>
       </c>
     </row>
     <row r="47">
@@ -1079,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.926132917404175</v>
+        <v>-1.81768012046814</v>
       </c>
       <c r="C47" t="n">
-        <v>-3.60718035697937</v>
+        <v>-2.014997720718384</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4918540716171265</v>
+        <v>-0.8178687691688538</v>
       </c>
     </row>
     <row r="48">
@@ -1093,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.325619697570801</v>
+        <v>-2.212251901626587</v>
       </c>
       <c r="C48" t="n">
-        <v>-4.004153251647949</v>
+        <v>-2.444328784942627</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4467136263847351</v>
+        <v>-0.7613366842269897</v>
       </c>
     </row>
     <row r="49">
@@ -1107,13 +1107,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.647868156433105</v>
+        <v>-2.470672369003296</v>
       </c>
       <c r="C49" t="n">
-        <v>-4.334277629852295</v>
+        <v>-2.817852020263672</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3633791208267212</v>
+        <v>-0.704876184463501</v>
       </c>
     </row>
     <row r="50">
@@ -1121,13 +1121,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.620447158813477</v>
+        <v>-2.144102573394775</v>
       </c>
       <c r="C50" t="n">
-        <v>-3.872306108474731</v>
+        <v>-2.677512168884277</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3883152902126312</v>
+        <v>-0.8619296550750732</v>
       </c>
     </row>
     <row r="51">
@@ -1135,13 +1135,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.757699012756348</v>
+        <v>-2.23183798789978</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.944848299026489</v>
+        <v>-2.813788175582886</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3197968006134033</v>
+        <v>-0.829551100730896</v>
       </c>
     </row>
     <row r="52">
@@ -1149,13 +1149,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.958064556121826</v>
+        <v>-2.151856184005737</v>
       </c>
       <c r="C52" t="n">
-        <v>-4.125340938568115</v>
+        <v>-2.752686262130737</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4747710525989532</v>
+        <v>-1.20474898815155</v>
       </c>
     </row>
     <row r="53">
@@ -1163,13 +1163,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5.093647956848145</v>
+        <v>-2.047945499420166</v>
       </c>
       <c r="C53" t="n">
-        <v>-4.194613933563232</v>
+        <v>-2.584862232208252</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4615312814712524</v>
+        <v>-1.362169504165649</v>
       </c>
     </row>
     <row r="54">
@@ -1177,13 +1177,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5.472908020019531</v>
+        <v>-2.244884729385376</v>
       </c>
       <c r="C54" t="n">
-        <v>-4.539282321929932</v>
+        <v>-2.756694555282593</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4861047565937042</v>
+        <v>-1.454620122909546</v>
       </c>
     </row>
     <row r="55">
@@ -1191,13 +1191,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5.474499225616455</v>
+        <v>-2.005384922027588</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.519580841064453</v>
+        <v>-2.406547546386719</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4945939481258392</v>
+        <v>-1.506624817848206</v>
       </c>
     </row>
     <row r="56">
@@ -1205,13 +1205,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.515267372131348</v>
+        <v>-1.705866932868958</v>
       </c>
       <c r="C56" t="n">
-        <v>-4.534965991973877</v>
+        <v>-1.858101367950439</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5004094243049622</v>
+        <v>-1.757507085800171</v>
       </c>
     </row>
     <row r="57">
@@ -1219,13 +1219,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.273197174072266</v>
+        <v>-1.608922719955444</v>
       </c>
       <c r="C57" t="n">
-        <v>-4.340461254119873</v>
+        <v>-1.78199827671051</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5111182332038879</v>
+        <v>-1.667985200881958</v>
       </c>
     </row>
     <row r="58">
@@ -1233,13 +1233,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.76198673248291</v>
+        <v>-1.437723636627197</v>
       </c>
       <c r="C58" t="n">
-        <v>-3.898280620574951</v>
+        <v>-1.664963245391846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4908295571804047</v>
+        <v>-1.454418182373047</v>
       </c>
     </row>
     <row r="59">
@@ -1247,13 +1247,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5.238216400146484</v>
+        <v>-1.655732750892639</v>
       </c>
       <c r="C59" t="n">
-        <v>-4.323461532592773</v>
+        <v>-1.79189121723175</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5226828455924988</v>
+        <v>-1.710441589355469</v>
       </c>
     </row>
     <row r="60">
@@ -1261,13 +1261,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5.680439949035645</v>
+        <v>-2.13426947593689</v>
       </c>
       <c r="C60" t="n">
-        <v>-4.852516651153564</v>
+        <v>-2.269232749938965</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5766989588737488</v>
+        <v>-1.795939803123474</v>
       </c>
     </row>
     <row r="61">
@@ -1275,13 +1275,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.102163314819336</v>
+        <v>-2.35136890411377</v>
       </c>
       <c r="C61" t="n">
-        <v>-5.259454727172852</v>
+        <v>-2.452876806259155</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6207291483879089</v>
+        <v>-1.947313547134399</v>
       </c>
     </row>
     <row r="62">
@@ -1289,13 +1289,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.539768218994141</v>
+        <v>-2.225045442581177</v>
       </c>
       <c r="C62" t="n">
-        <v>-5.490238189697266</v>
+        <v>-2.614285469055176</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6700232028961182</v>
+        <v>-2.356156349182129</v>
       </c>
     </row>
     <row r="63">
@@ -1303,13 +1303,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.373807907104492</v>
+        <v>-1.867886543273926</v>
       </c>
       <c r="C63" t="n">
-        <v>-5.172229290008545</v>
+        <v>-2.313934326171875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6151086688041687</v>
+        <v>-2.307241916656494</v>
       </c>
     </row>
     <row r="64">
@@ -1317,13 +1317,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.71127986907959</v>
+        <v>-2.123600006103516</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.588605403900146</v>
+        <v>-2.356204271316528</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6456814408302307</v>
+        <v>-2.404961585998535</v>
       </c>
     </row>
     <row r="65">
@@ -1331,13 +1331,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.388776779174805</v>
+        <v>-2.114983081817627</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.296590328216553</v>
+        <v>-2.416267395019531</v>
       </c>
       <c r="D65" t="n">
-        <v>0.6214526891708374</v>
+        <v>-2.165685653686523</v>
       </c>
     </row>
     <row r="66">
@@ -1345,13 +1345,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.10563850402832</v>
+        <v>-2.22626781463623</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.120019912719727</v>
+        <v>-2.633498907089233</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6368192434310913</v>
+        <v>-1.9227374792099</v>
       </c>
     </row>
     <row r="67">
@@ -1359,13 +1359,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5.836528301239014</v>
+        <v>-2.018522500991821</v>
       </c>
       <c r="C67" t="n">
-        <v>-4.796921253204346</v>
+        <v>-2.490106105804443</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5960639715194702</v>
+        <v>-1.765933394432068</v>
       </c>
     </row>
     <row r="68">
@@ -1373,13 +1373,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5.684260368347168</v>
+        <v>-1.862949371337891</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.427348613739014</v>
+        <v>-2.576278209686279</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5284062027931213</v>
+        <v>-1.583892107009888</v>
       </c>
     </row>
     <row r="69">
@@ -1387,13 +1387,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.663570880889893</v>
+        <v>-1.645546913146973</v>
       </c>
       <c r="C69" t="n">
-        <v>-4.317715167999268</v>
+        <v>-2.355747938156128</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4867342710494995</v>
+        <v>-1.669093132019043</v>
       </c>
     </row>
     <row r="70">
@@ -1401,13 +1401,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5.313949584960938</v>
+        <v>-1.456820964813232</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.011268615722656</v>
+        <v>-2.202054738998413</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4755460917949677</v>
+        <v>-1.544625759124756</v>
       </c>
     </row>
     <row r="71">
@@ -1415,13 +1415,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5.62650203704834</v>
+        <v>-1.732285022735596</v>
       </c>
       <c r="C71" t="n">
-        <v>-4.21345329284668</v>
+        <v>-2.563127994537354</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4401498138904572</v>
+        <v>-1.618029594421387</v>
       </c>
     </row>
     <row r="72">
@@ -1429,13 +1429,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.301506996154785</v>
+        <v>-2.041366338729858</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.460352897644043</v>
+        <v>-2.920451164245605</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2814925611019135</v>
+        <v>-1.703919410705566</v>
       </c>
     </row>
     <row r="73">
@@ -1443,13 +1443,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.68726634979248</v>
+        <v>-2.281699419021606</v>
       </c>
       <c r="C73" t="n">
-        <v>-4.574832916259766</v>
+        <v>-3.226134777069092</v>
       </c>
       <c r="D73" t="n">
-        <v>0.1668471992015839</v>
+        <v>-1.766433954238892</v>
       </c>
     </row>
     <row r="74">
@@ -1457,13 +1457,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5.931079864501953</v>
+        <v>-1.909726500511169</v>
       </c>
       <c r="C74" t="n">
-        <v>-3.887560606002808</v>
+        <v>-3.033472061157227</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0004249140620231628</v>
+        <v>-1.545057058334351</v>
       </c>
     </row>
     <row r="75">
@@ -1471,13 +1471,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.575915336608887</v>
+        <v>-1.875802159309387</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.714001893997192</v>
+        <v>-2.896413326263428</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03302615135908127</v>
+        <v>-1.266035079956055</v>
       </c>
     </row>
     <row r="76">
@@ -1485,13 +1485,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5.550135135650635</v>
+        <v>-1.943277597427368</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.731164693832397</v>
+        <v>-2.87607741355896</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04141052812337875</v>
+        <v>-1.18930447101593</v>
       </c>
     </row>
     <row r="77">
@@ -1499,13 +1499,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5.504717826843262</v>
+        <v>-1.899317979812622</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.709185361862183</v>
+        <v>-2.831628561019897</v>
       </c>
       <c r="D77" t="n">
-        <v>0.06289946287870407</v>
+        <v>-1.196792125701904</v>
       </c>
     </row>
     <row r="78">
@@ -1513,13 +1513,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.771428108215332</v>
+        <v>-1.929872989654541</v>
       </c>
       <c r="C78" t="n">
-        <v>-3.679190397262573</v>
+        <v>-2.917692422866821</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.06362027674913406</v>
+        <v>-1.332036375999451</v>
       </c>
     </row>
     <row r="79">
@@ -1527,13 +1527,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>5.565049648284912</v>
+        <v>-1.872381448745728</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.5555579662323</v>
+        <v>-2.835835695266724</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.06522030383348465</v>
+        <v>-1.23112154006958</v>
       </c>
     </row>
     <row r="80">
@@ -1541,13 +1541,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.946017265319824</v>
+        <v>-1.58102560043335</v>
       </c>
       <c r="C80" t="n">
-        <v>-3.303722620010376</v>
+        <v>-2.464715719223022</v>
       </c>
       <c r="D80" t="n">
-        <v>0.04320772737264633</v>
+        <v>-1.113905668258667</v>
       </c>
     </row>
     <row r="81">
@@ -1555,13 +1555,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.526237964630127</v>
+        <v>-1.510568618774414</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.116855382919312</v>
+        <v>-2.331012487411499</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08905451744794846</v>
+        <v>-0.8785436153411865</v>
       </c>
     </row>
     <row r="82">
@@ -1569,13 +1569,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.230927467346191</v>
+        <v>-1.415600538253784</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.952277183532715</v>
+        <v>-2.162965297698975</v>
       </c>
       <c r="D82" t="n">
-        <v>0.1389851868152618</v>
+        <v>-0.7544063329696655</v>
       </c>
     </row>
     <row r="83">
@@ -1583,13 +1583,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.790840148925781</v>
+        <v>-1.738891243934631</v>
       </c>
       <c r="C83" t="n">
-        <v>-3.213566303253174</v>
+        <v>-2.54753303527832</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.0458776131272316</v>
+        <v>-0.7752983570098877</v>
       </c>
     </row>
     <row r="84">
@@ -1597,13 +1597,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.197571754455566</v>
+        <v>-2.150757312774658</v>
       </c>
       <c r="C84" t="n">
-        <v>-3.429219961166382</v>
+        <v>-2.938744783401489</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.2760493159294128</v>
+        <v>-0.5450650453567505</v>
       </c>
     </row>
     <row r="85">
@@ -1611,13 +1611,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>5.63517951965332</v>
+        <v>-2.343080520629883</v>
       </c>
       <c r="C85" t="n">
-        <v>-3.53489089012146</v>
+        <v>-3.184482097625732</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4594061076641083</v>
+        <v>-0.5828520655632019</v>
       </c>
     </row>
     <row r="86">
@@ -1625,13 +1625,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>5.173342704772949</v>
+        <v>-1.871528625488281</v>
       </c>
       <c r="C86" t="n">
-        <v>-3.156453847885132</v>
+        <v>-2.887612342834473</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.4449786841869354</v>
+        <v>-0.6912882328033447</v>
       </c>
     </row>
     <row r="87">
@@ -1639,13 +1639,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>5.034965515136719</v>
+        <v>-1.859744548797607</v>
       </c>
       <c r="C87" t="n">
-        <v>-3.157159566879272</v>
+        <v>-2.858631134033203</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.4287212193012238</v>
+        <v>-0.6923739314079285</v>
       </c>
     </row>
     <row r="88">
@@ -1653,13 +1653,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>5.139083862304688</v>
+        <v>-1.809424877166748</v>
       </c>
       <c r="C88" t="n">
-        <v>-3.203649520874023</v>
+        <v>-2.900103569030762</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3767482042312622</v>
+        <v>-0.8317095041275024</v>
       </c>
     </row>
     <row r="89">
@@ -1667,13 +1667,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>5.153566360473633</v>
+        <v>-1.84317421913147</v>
       </c>
       <c r="C89" t="n">
-        <v>-3.213996648788452</v>
+        <v>-2.947255849838257</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.3230153024196625</v>
+        <v>-0.8191969394683838</v>
       </c>
     </row>
     <row r="90">
@@ -1681,13 +1681,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.930598258972168</v>
+        <v>-1.793211221694946</v>
       </c>
       <c r="C90" t="n">
-        <v>-3.092352628707886</v>
+        <v>-2.835013866424561</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.2970433831214905</v>
+        <v>-0.7036970853805542</v>
       </c>
     </row>
     <row r="91">
@@ -1695,13 +1695,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.811951637268066</v>
+        <v>-1.657501459121704</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.977781057357788</v>
+        <v>-2.696175336837769</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.2193354070186615</v>
+        <v>-0.7525355815887451</v>
       </c>
     </row>
     <row r="92">
@@ -1709,13 +1709,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.423514366149902</v>
+        <v>-1.521537780761719</v>
       </c>
       <c r="C92" t="n">
-        <v>-2.768720388412476</v>
+        <v>-2.4312744140625</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.1867621839046478</v>
+        <v>-0.6138161420822144</v>
       </c>
     </row>
     <row r="93">
@@ -1723,13 +1723,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.226188659667969</v>
+        <v>-1.356740117073059</v>
       </c>
       <c r="C93" t="n">
-        <v>-2.606816530227661</v>
+        <v>-2.245884656906128</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.1582605242729187</v>
+        <v>-0.6314629316329956</v>
       </c>
     </row>
     <row r="94">
@@ -1737,13 +1737,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.898501396179199</v>
+        <v>-1.147249817848206</v>
       </c>
       <c r="C94" t="n">
-        <v>-2.374083757400513</v>
+        <v>-1.99639356136322</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.0777423158288002</v>
+        <v>-0.6538697481155396</v>
       </c>
     </row>
     <row r="95">
@@ -1751,13 +1751,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.556039333343506</v>
+        <v>-1.223743796348572</v>
       </c>
       <c r="C95" t="n">
-        <v>-2.661668300628662</v>
+        <v>-2.302521944046021</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.247549444437027</v>
+        <v>-0.9783339500427246</v>
       </c>
     </row>
     <row r="96">
@@ -1765,13 +1765,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>5.598237991333008</v>
+        <v>-1.545060515403748</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.013552188873291</v>
+        <v>-2.846061706542969</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5425996780395508</v>
+        <v>-1.215333938598633</v>
       </c>
     </row>
     <row r="97">
@@ -1779,13 +1779,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.203776359558105</v>
+        <v>-1.682107448577881</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.169216394424438</v>
+        <v>-3.197179555892944</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.7797495126724243</v>
+        <v>-1.474828004837036</v>
       </c>
     </row>
     <row r="98">
@@ -1793,13 +1793,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>5.57684326171875</v>
+        <v>-1.306485772132874</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.91800856590271</v>
+        <v>-2.834942102432251</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5758618712425232</v>
+        <v>-1.452869057655334</v>
       </c>
     </row>
     <row r="99">
@@ -1807,13 +1807,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>5.057243347167969</v>
+        <v>-0.9899476766586304</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.709270238876343</v>
+        <v>-2.382055044174194</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.2892265319824219</v>
+        <v>-1.470827579498291</v>
       </c>
     </row>
     <row r="100">
@@ -1821,13 +1821,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>5.577958106994629</v>
+        <v>-1.229661464691162</v>
       </c>
       <c r="C100" t="n">
-        <v>-2.938085794448853</v>
+        <v>-2.77154541015625</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.4532176852226257</v>
+        <v>-1.553762912750244</v>
       </c>
     </row>
     <row r="101">
@@ -1835,13 +1835,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.216755867004395</v>
+        <v>-1.134281754493713</v>
       </c>
       <c r="C101" t="n">
-        <v>-2.733161687850952</v>
+        <v>-2.587792158126831</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5106350183486938</v>
+        <v>-1.385637283325195</v>
       </c>
     </row>
     <row r="102">
@@ -1849,13 +1849,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>5.463545322418213</v>
+        <v>-1.259601712226868</v>
       </c>
       <c r="C102" t="n">
-        <v>-2.81733775138855</v>
+        <v>-2.74767017364502</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.606415331363678</v>
+        <v>-1.388505458831787</v>
       </c>
     </row>
     <row r="103">
@@ -1863,13 +1863,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>5.348780632019043</v>
+        <v>-1.269052267074585</v>
       </c>
       <c r="C103" t="n">
-        <v>-2.815644264221191</v>
+        <v>-2.648100137710571</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.5303090810775757</v>
+        <v>-1.362241744995117</v>
       </c>
     </row>
     <row r="104">
@@ -1877,13 +1877,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.930773735046387</v>
+        <v>-0.9758046865463257</v>
       </c>
       <c r="C104" t="n">
-        <v>-2.642966032028198</v>
+        <v>-2.30196475982666</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.356792688369751</v>
+        <v>-1.571184158325195</v>
       </c>
     </row>
     <row r="105">
@@ -1891,13 +1891,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.848994255065918</v>
+        <v>-0.8470933437347412</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.585862398147583</v>
+        <v>-2.088890314102173</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.3255934715270996</v>
+        <v>-1.648924946784973</v>
       </c>
     </row>
     <row r="106">
@@ -1905,13 +1905,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.412832260131836</v>
+        <v>-0.7991652488708496</v>
       </c>
       <c r="C106" t="n">
-        <v>-2.359029054641724</v>
+        <v>-1.922825217247009</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.3159151077270508</v>
+        <v>-1.372393608093262</v>
       </c>
     </row>
     <row r="107">
@@ -1919,13 +1919,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.809630870819092</v>
+        <v>-1.096082210540771</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.590857267379761</v>
+        <v>-2.328509330749512</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.429974228143692</v>
+        <v>-1.249003887176514</v>
       </c>
     </row>
     <row r="108">
@@ -1933,13 +1933,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>5.815292835235596</v>
+        <v>-1.54278826713562</v>
       </c>
       <c r="C108" t="n">
-        <v>-3.011654615402222</v>
+        <v>-2.971843719482422</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.6530061960220337</v>
+        <v>-1.379429697990417</v>
       </c>
     </row>
     <row r="109">
@@ -1947,13 +1947,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6.247417449951172</v>
+        <v>-1.79213547706604</v>
       </c>
       <c r="C109" t="n">
-        <v>-3.142303228378296</v>
+        <v>-3.29246973991394</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.8159834742546082</v>
+        <v>-1.297084450721741</v>
       </c>
     </row>
     <row r="110">
@@ -1961,13 +1961,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>5.014326095581055</v>
+        <v>-1.165303945541382</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.511966705322266</v>
+        <v>-2.611778259277344</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.5795827507972717</v>
+        <v>-1.163916230201721</v>
       </c>
     </row>
     <row r="111">
@@ -1975,13 +1975,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>5.063865661621094</v>
+        <v>-1.227369546890259</v>
       </c>
       <c r="C111" t="n">
-        <v>-2.482374668121338</v>
+        <v>-2.661420822143555</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.6973748207092285</v>
+        <v>-1.018469333648682</v>
       </c>
     </row>
     <row r="112">
@@ -1989,13 +1989,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.381561756134033</v>
+        <v>-1.346970796585083</v>
       </c>
       <c r="C112" t="n">
-        <v>-2.601343393325806</v>
+        <v>-2.862827777862549</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.7895641326904297</v>
+        <v>-1.063045620918274</v>
       </c>
     </row>
     <row r="113">
@@ -2003,13 +2003,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5.169675827026367</v>
+        <v>-1.255223631858826</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.587202310562134</v>
+        <v>-2.725985765457153</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.576054573059082</v>
+        <v>-1.129538774490356</v>
       </c>
     </row>
     <row r="114">
@@ -2017,13 +2017,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5.727663516998291</v>
+        <v>-1.51981520652771</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.810858964920044</v>
+        <v>-3.073700428009033</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.6674309372901917</v>
+        <v>-1.140068292617798</v>
       </c>
     </row>
     <row r="115">
@@ -2031,13 +2031,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>5.060842990875244</v>
+        <v>-1.328848600387573</v>
       </c>
       <c r="C115" t="n">
-        <v>-2.461419820785522</v>
+        <v>-2.679316520690918</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.5964022278785706</v>
+        <v>-0.8076496124267578</v>
       </c>
     </row>
     <row r="116">
@@ -2045,13 +2045,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.592677116394043</v>
+        <v>-1.237609386444092</v>
       </c>
       <c r="C116" t="n">
-        <v>-2.188742876052856</v>
+        <v>-2.411307811737061</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.478348433971405</v>
+        <v>-0.5430339574813843</v>
       </c>
     </row>
     <row r="117">
@@ -2059,13 +2059,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.374921798706055</v>
+        <v>-1.147822022438049</v>
       </c>
       <c r="C117" t="n">
-        <v>-2.061646699905396</v>
+        <v>-2.240745306015015</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.4416301548480988</v>
+        <v>-0.4216839373111725</v>
       </c>
     </row>
     <row r="118">
@@ -2073,13 +2073,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.365022659301758</v>
+        <v>-0.9535437822341919</v>
       </c>
       <c r="C118" t="n">
-        <v>-2.098010301589966</v>
+        <v>-2.163076400756836</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.4275504648685455</v>
+        <v>-0.7568786144256592</v>
       </c>
     </row>
     <row r="119">
@@ -2087,13 +2087,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.710553169250488</v>
+        <v>-1.214233636856079</v>
       </c>
       <c r="C119" t="n">
-        <v>-2.241070032119751</v>
+        <v>-2.44911527633667</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.524025022983551</v>
+        <v>-0.6558253169059753</v>
       </c>
     </row>
     <row r="120">
@@ -2101,13 +2101,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>5.361699104309082</v>
+        <v>-1.591252565383911</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.541017532348633</v>
+        <v>-2.908643245697021</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.7086678743362427</v>
+        <v>-0.6392113566398621</v>
       </c>
     </row>
     <row r="121">
@@ -2115,13 +2115,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6.156929016113281</v>
+        <v>-1.858344793319702</v>
       </c>
       <c r="C121" t="n">
-        <v>-2.926734685897827</v>
+        <v>-3.374756813049316</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.9660559892654419</v>
+        <v>-0.8696680068969727</v>
       </c>
     </row>
     <row r="122">
@@ -2129,13 +2129,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6.002625465393066</v>
+        <v>-1.663467645645142</v>
       </c>
       <c r="C122" t="n">
-        <v>-2.772039651870728</v>
+        <v>-3.269023418426514</v>
       </c>
       <c r="D122" t="n">
-        <v>-1.016964197158813</v>
+        <v>-0.8655459880828857</v>
       </c>
     </row>
     <row r="123">
@@ -2143,13 +2143,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.056071758270264</v>
+        <v>-1.290540933609009</v>
       </c>
       <c r="C123" t="n">
-        <v>-2.34548544883728</v>
+        <v>-2.726467370986938</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.5869439840316772</v>
+        <v>-0.7849001884460449</v>
       </c>
     </row>
     <row r="124">
@@ -2157,13 +2157,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.256978511810303</v>
+        <v>-1.393545150756836</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.422158718109131</v>
+        <v>-2.859262228012085</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.6998563408851624</v>
+        <v>-0.7283512949943542</v>
       </c>
     </row>
     <row r="125">
@@ -2171,13 +2171,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.300091743469238</v>
+        <v>-1.288731217384338</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.355250597000122</v>
+        <v>-2.79400110244751</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.6643757224082947</v>
+        <v>-0.7460150718688965</v>
       </c>
     </row>
     <row r="126">
@@ -2185,13 +2185,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.636656761169434</v>
+        <v>-1.300649881362915</v>
       </c>
       <c r="C126" t="n">
-        <v>-2.486956119537354</v>
+        <v>-2.981841802597046</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.7498886585235596</v>
+        <v>-0.9745098352432251</v>
       </c>
     </row>
     <row r="127">
@@ -2199,13 +2199,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.369464874267578</v>
+        <v>-1.071569561958313</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.34607720375061</v>
+        <v>-2.751855373382568</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.6646658778190613</v>
+        <v>-1.079795241355896</v>
       </c>
     </row>
     <row r="128">
@@ -2213,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.012137889862061</v>
+        <v>-0.8879215717315674</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.170691967010498</v>
+        <v>-2.487381219863892</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.6059130430221558</v>
+        <v>-1.048837184906006</v>
       </c>
     </row>
     <row r="129">
@@ -2227,13 +2227,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.635895252227783</v>
+        <v>-0.7461574673652649</v>
       </c>
       <c r="C129" t="n">
-        <v>-1.994901776313782</v>
+        <v>-2.264161109924316</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.5234675407409668</v>
+        <v>-0.9518784880638123</v>
       </c>
     </row>
     <row r="130">
@@ -2241,13 +2241,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.285999298095703</v>
+        <v>-0.7793551683425903</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.863614678382874</v>
+        <v>-2.075939178466797</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.4920781850814819</v>
+        <v>-0.6604005694389343</v>
       </c>
     </row>
     <row r="131">
@@ -2255,13 +2255,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.079157829284668</v>
+        <v>-0.9724626541137695</v>
       </c>
       <c r="C131" t="n">
-        <v>-2.201547861099243</v>
+        <v>-2.591018199920654</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.6477547883987427</v>
+        <v>-0.9739977717399597</v>
       </c>
     </row>
     <row r="132">
@@ -2269,13 +2269,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6.055596351623535</v>
+        <v>-1.243930697441101</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.596997499465942</v>
+        <v>-3.142595291137695</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.9179390668869019</v>
+        <v>-1.154835820198059</v>
       </c>
     </row>
     <row r="133">
@@ -2283,13 +2283,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6.510561466217041</v>
+        <v>-1.311645030975342</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.732298135757446</v>
+        <v>-3.356603145599365</v>
       </c>
       <c r="D133" t="n">
-        <v>-1.123766422271729</v>
+        <v>-1.117403030395508</v>
       </c>
     </row>
     <row r="134">
@@ -2297,13 +2297,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.51617431640625</v>
+        <v>-0.9339816570281982</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.271306037902832</v>
+        <v>-2.752228260040283</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.8223555088043213</v>
+        <v>-0.9921550154685974</v>
       </c>
     </row>
     <row r="135">
@@ -2311,13 +2311,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.930993556976318</v>
+        <v>-0.6558321714401245</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.035579204559326</v>
+        <v>-2.364099979400635</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.6475827693939209</v>
+        <v>-0.9961310029029846</v>
       </c>
     </row>
     <row r="136">
@@ -2325,13 +2325,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.329577922821045</v>
+        <v>-0.7252665758132935</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.155505418777466</v>
+        <v>-2.579268932342529</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.7792180776596069</v>
+        <v>-0.9630406498908997</v>
       </c>
     </row>
     <row r="137">
@@ -2339,13 +2339,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.366524696350098</v>
+        <v>-0.7105611562728882</v>
       </c>
       <c r="C137" t="n">
-        <v>-2.177281618118286</v>
+        <v>-2.580037117004395</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.773750901222229</v>
+        <v>-0.970716118812561</v>
       </c>
     </row>
     <row r="138">
@@ -2353,13 +2353,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.811606884002686</v>
+        <v>-0.9495836496353149</v>
       </c>
       <c r="C138" t="n">
-        <v>-2.371751546859741</v>
+        <v>-2.892767190933228</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.9281778335571289</v>
+        <v>-0.9215207099914551</v>
       </c>
     </row>
     <row r="139">
@@ -2367,13 +2367,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.282589912414551</v>
+        <v>-0.7512243390083313</v>
       </c>
       <c r="C139" t="n">
-        <v>-2.130563735961914</v>
+        <v>-2.582208156585693</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.7533957958221436</v>
+        <v>-0.920677661895752</v>
       </c>
     </row>
     <row r="140">
@@ -2381,13 +2381,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.731445789337158</v>
+        <v>-0.5311728119850159</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.90948212146759</v>
+        <v>-2.257141590118408</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.6365401744842529</v>
+        <v>-0.8385704755783081</v>
       </c>
     </row>
     <row r="141">
@@ -2395,13 +2395,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.47386646270752</v>
+        <v>-0.3841105997562408</v>
       </c>
       <c r="C141" t="n">
-        <v>-1.780750274658203</v>
+        <v>-2.051961421966553</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.6508079171180725</v>
+        <v>-0.8701126575469971</v>
       </c>
     </row>
     <row r="142">
@@ -2409,13 +2409,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.399885177612305</v>
+        <v>-0.3743488490581512</v>
       </c>
       <c r="C142" t="n">
-        <v>-1.774256110191345</v>
+        <v>-1.97868549823761</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.6659790277481079</v>
+        <v>-0.9432852268218994</v>
       </c>
     </row>
     <row r="143">
@@ -2423,13 +2423,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.273176670074463</v>
+        <v>-0.718920111656189</v>
       </c>
       <c r="C143" t="n">
-        <v>-2.140346527099609</v>
+        <v>-2.588253498077393</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.8285148143768311</v>
+        <v>-1.023576974868774</v>
       </c>
     </row>
     <row r="144">
@@ -2437,13 +2437,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.039427280426025</v>
+        <v>-0.8528809547424316</v>
       </c>
       <c r="C144" t="n">
-        <v>-2.417108774185181</v>
+        <v>-2.94971227645874</v>
       </c>
       <c r="D144" t="n">
-        <v>-1.107249140739441</v>
+        <v>-1.184038877487183</v>
       </c>
     </row>
     <row r="145">
@@ -2451,13 +2451,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7.431470394134521</v>
+        <v>-0.5152818560600281</v>
       </c>
       <c r="C145" t="n">
-        <v>-2.741542339324951</v>
+        <v>-3.140458345413208</v>
       </c>
       <c r="D145" t="n">
-        <v>-1.491747617721558</v>
+        <v>-1.757756233215332</v>
       </c>
     </row>
     <row r="146">
@@ -2465,13 +2465,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7.241293907165527</v>
+        <v>0.3392338156700134</v>
       </c>
       <c r="C146" t="n">
-        <v>-2.420734882354736</v>
+        <v>-2.323607683181763</v>
       </c>
       <c r="D146" t="n">
-        <v>-1.353659629821777</v>
+        <v>-2.325855493545532</v>
       </c>
     </row>
     <row r="147">
@@ -2479,13 +2479,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7.190965175628662</v>
+        <v>0.4336751997470856</v>
       </c>
       <c r="C147" t="n">
-        <v>-2.228924989700317</v>
+        <v>-2.194479942321777</v>
       </c>
       <c r="D147" t="n">
-        <v>-1.296379327774048</v>
+        <v>-2.40228533744812</v>
       </c>
     </row>
     <row r="148">
@@ -2493,13 +2493,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7.256569862365723</v>
+        <v>0.3375580310821533</v>
       </c>
       <c r="C148" t="n">
-        <v>-2.314586877822876</v>
+        <v>-2.313852787017822</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.302342176437378</v>
+        <v>-2.478079557418823</v>
       </c>
     </row>
     <row r="149">
@@ -2507,13 +2507,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7.166131496429443</v>
+        <v>0.2396864145994186</v>
       </c>
       <c r="C149" t="n">
-        <v>-2.304471015930176</v>
+        <v>-2.394577264785767</v>
       </c>
       <c r="D149" t="n">
-        <v>-1.251746892929077</v>
+        <v>-2.384281396865845</v>
       </c>
     </row>
     <row r="150">
@@ -2521,13 +2521,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7.179858684539795</v>
+        <v>0.121087059378624</v>
       </c>
       <c r="C150" t="n">
-        <v>-2.369240283966064</v>
+        <v>-2.554002046585083</v>
       </c>
       <c r="D150" t="n">
-        <v>-1.272181987762451</v>
+        <v>-2.30681037902832</v>
       </c>
     </row>
     <row r="151">
@@ -2535,13 +2535,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6.718477725982666</v>
+        <v>0.2805565297603607</v>
       </c>
       <c r="C151" t="n">
-        <v>-2.142367124557495</v>
+        <v>-2.23204779624939</v>
       </c>
       <c r="D151" t="n">
-        <v>-1.276713132858276</v>
+        <v>-2.125537633895874</v>
       </c>
     </row>
     <row r="152">
@@ -2549,13 +2549,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.947559356689453</v>
+        <v>0.3518373668193817</v>
       </c>
       <c r="C152" t="n">
-        <v>-1.864081621170044</v>
+        <v>-1.845550179481506</v>
       </c>
       <c r="D152" t="n">
-        <v>-1.131662607192993</v>
+        <v>-1.925534725189209</v>
       </c>
     </row>
     <row r="153">
@@ -2563,13 +2563,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.610942840576172</v>
+        <v>0.3283479511737823</v>
       </c>
       <c r="C153" t="n">
-        <v>-1.752530694007874</v>
+        <v>-1.717824816703796</v>
       </c>
       <c r="D153" t="n">
-        <v>-1.139334678649902</v>
+        <v>-1.808684945106506</v>
       </c>
     </row>
     <row r="154">
@@ -2577,13 +2577,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.617409229278564</v>
+        <v>0.2917871475219727</v>
       </c>
       <c r="C154" t="n">
-        <v>-1.783524394035339</v>
+        <v>-1.747419238090515</v>
       </c>
       <c r="D154" t="n">
-        <v>-1.218590259552002</v>
+        <v>-1.696856498718262</v>
       </c>
     </row>
     <row r="155">
@@ -2591,13 +2591,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6.074854850769043</v>
+        <v>0.07468967884778976</v>
       </c>
       <c r="C155" t="n">
-        <v>-2.000760078430176</v>
+        <v>-2.114147663116455</v>
       </c>
       <c r="D155" t="n">
-        <v>-1.346036911010742</v>
+        <v>-1.791021585464478</v>
       </c>
     </row>
     <row r="156">
@@ -2605,13 +2605,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6.620022296905518</v>
+        <v>-0.1633589118719101</v>
       </c>
       <c r="C156" t="n">
-        <v>-2.294916391372681</v>
+        <v>-2.588774919509888</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.420130014419556</v>
+        <v>-1.783454060554504</v>
       </c>
     </row>
     <row r="157">
@@ -2619,13 +2619,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7.142142295837402</v>
+        <v>-0.9730292558670044</v>
       </c>
       <c r="C157" t="n">
-        <v>-2.644960880279541</v>
+        <v>-3.350550889968872</v>
       </c>
       <c r="D157" t="n">
-        <v>-1.955597639083862</v>
+        <v>-1.130353569984436</v>
       </c>
     </row>
     <row r="158">
@@ -2633,13 +2633,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.099658489227295</v>
+        <v>-0.8156531453132629</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.545936703681946</v>
+        <v>-2.505191802978516</v>
       </c>
       <c r="D158" t="n">
-        <v>-2.712211847305298</v>
+        <v>0.1345653980970383</v>
       </c>
     </row>
     <row r="159">
@@ -2647,13 +2647,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.383033752441406</v>
+        <v>-0.4681845605373383</v>
       </c>
       <c r="C159" t="n">
-        <v>-1.598573565483093</v>
+        <v>-2.009485006332397</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.868392705917358</v>
+        <v>0.3947047889232635</v>
       </c>
     </row>
     <row r="160">
@@ -2661,13 +2661,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.132179260253906</v>
+        <v>-0.6200252771377563</v>
       </c>
       <c r="C160" t="n">
-        <v>-1.718055129051208</v>
+        <v>-2.333517551422119</v>
       </c>
       <c r="D160" t="n">
-        <v>-3.34527063369751</v>
+        <v>0.4606686532497406</v>
       </c>
     </row>
     <row r="161">
@@ -2675,13 +2675,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.860956192016602</v>
+        <v>-0.5681464076042175</v>
       </c>
       <c r="C161" t="n">
-        <v>-1.626741051673889</v>
+        <v>-2.201945304870605</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.222789764404297</v>
+        <v>0.4668156206607819</v>
       </c>
     </row>
     <row r="162">
@@ -2689,13 +2689,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.313271999359131</v>
+        <v>-0.7808894515037537</v>
       </c>
       <c r="C162" t="n">
-        <v>-1.641797780990601</v>
+        <v>-2.523237466812134</v>
       </c>
       <c r="D162" t="n">
-        <v>-3.276343107223511</v>
+        <v>0.4207202792167664</v>
       </c>
     </row>
     <row r="163">
@@ -2703,13 +2703,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.172056198120117</v>
+        <v>-0.7254557609558105</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.558848857879639</v>
+        <v>-2.442780017852783</v>
       </c>
       <c r="D163" t="n">
-        <v>-3.192996025085449</v>
+        <v>0.4773083627223969</v>
       </c>
     </row>
     <row r="164">
@@ -2717,13 +2717,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.40120267868042</v>
+        <v>-0.3948965668678284</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.441616535186768</v>
+        <v>-1.918110847473145</v>
       </c>
       <c r="D164" t="n">
-        <v>-2.900899171829224</v>
+        <v>0.5545167922973633</v>
       </c>
     </row>
     <row r="165">
@@ -2731,13 +2731,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.065286636352539</v>
+        <v>-0.2394578456878662</v>
       </c>
       <c r="C165" t="n">
-        <v>-1.248897671699524</v>
+        <v>-1.658149838447571</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.706934452056885</v>
+        <v>0.5043386220932007</v>
       </c>
     </row>
     <row r="166">
@@ -2745,13 +2745,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.825263500213623</v>
+        <v>-0.1689086854457855</v>
       </c>
       <c r="C166" t="n">
-        <v>-1.265512228012085</v>
+        <v>-1.538934111595154</v>
       </c>
       <c r="D166" t="n">
-        <v>-2.589895486831665</v>
+        <v>0.4975989162921906</v>
       </c>
     </row>
     <row r="167">
@@ -2759,13 +2759,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.552383422851562</v>
+        <v>-0.4578591883182526</v>
       </c>
       <c r="C167" t="n">
-        <v>-1.334547162055969</v>
+        <v>-1.992860078811646</v>
       </c>
       <c r="D167" t="n">
-        <v>-2.858665943145752</v>
+        <v>0.4365273416042328</v>
       </c>
     </row>
     <row r="168">
@@ -2773,13 +2773,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.134702205657959</v>
+        <v>-0.7654390931129456</v>
       </c>
       <c r="C168" t="n">
-        <v>-1.497340321540833</v>
+        <v>-2.450628757476807</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.88676118850708</v>
+        <v>0.3054293990135193</v>
       </c>
     </row>
     <row r="169">
@@ -2787,13 +2787,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.874794006347656</v>
+        <v>-1.02946138381958</v>
       </c>
       <c r="C169" t="n">
-        <v>-1.537958741188049</v>
+        <v>-2.925786972045898</v>
       </c>
       <c r="D169" t="n">
-        <v>-2.941012382507324</v>
+        <v>0.2669906318187714</v>
       </c>
     </row>
     <row r="170">
@@ -2801,13 +2801,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.986473083496094</v>
+        <v>-0.8541668057441711</v>
       </c>
       <c r="C170" t="n">
-        <v>-1.387733817100525</v>
+        <v>-2.51738429069519</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.607769012451172</v>
+        <v>0.08076085895299911</v>
       </c>
     </row>
     <row r="171">
@@ -2815,13 +2815,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.594324111938477</v>
+        <v>-0.6826015710830688</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.419393181800842</v>
+        <v>-2.260478973388672</v>
       </c>
       <c r="D171" t="n">
-        <v>-2.242380380630493</v>
+        <v>0.01138620637357235</v>
       </c>
     </row>
     <row r="172">
@@ -2829,13 +2829,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.936453819274902</v>
+        <v>-0.7768791913986206</v>
       </c>
       <c r="C172" t="n">
-        <v>-1.516462922096252</v>
+        <v>-2.499096870422363</v>
       </c>
       <c r="D172" t="n">
-        <v>-2.289703369140625</v>
+        <v>-0.05353707820177078</v>
       </c>
     </row>
     <row r="173">
@@ -2843,13 +2843,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.684751033782959</v>
+        <v>-0.8144464492797852</v>
       </c>
       <c r="C173" t="n">
-        <v>-1.534605503082275</v>
+        <v>-2.460620403289795</v>
       </c>
       <c r="D173" t="n">
-        <v>-2.09814190864563</v>
+        <v>-0.1381290107965469</v>
       </c>
     </row>
     <row r="174">
@@ -2857,13 +2857,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.182711124420166</v>
+        <v>-0.8211251497268677</v>
       </c>
       <c r="C174" t="n">
-        <v>-1.621158242225647</v>
+        <v>-2.700075626373291</v>
       </c>
       <c r="D174" t="n">
-        <v>-2.350620031356812</v>
+        <v>-0.09584406763315201</v>
       </c>
     </row>
     <row r="175">
@@ -2871,13 +2871,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.844212055206299</v>
+        <v>-0.5173970460891724</v>
       </c>
       <c r="C175" t="n">
-        <v>-1.211869120597839</v>
+        <v>-2.381556510925293</v>
       </c>
       <c r="D175" t="n">
-        <v>-1.77715003490448</v>
+        <v>-0.248316690325737</v>
       </c>
     </row>
     <row r="176">
@@ -2885,13 +2885,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.490045547485352</v>
+        <v>-0.2230499982833862</v>
       </c>
       <c r="C176" t="n">
-        <v>-1.147627830505371</v>
+        <v>-2.05531120300293</v>
       </c>
       <c r="D176" t="n">
-        <v>-1.516194701194763</v>
+        <v>-0.4477705657482147</v>
       </c>
     </row>
     <row r="177">
@@ -2899,13 +2899,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.372317790985107</v>
+        <v>-0.2945409715175629</v>
       </c>
       <c r="C177" t="n">
-        <v>-1.17799985408783</v>
+        <v>-2.072987079620361</v>
       </c>
       <c r="D177" t="n">
-        <v>-1.573552012443542</v>
+        <v>-0.4230387806892395</v>
       </c>
     </row>
     <row r="178">
@@ -2913,13 +2913,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.426418781280518</v>
+        <v>-0.1861930936574936</v>
       </c>
       <c r="C178" t="n">
-        <v>-1.189075350761414</v>
+        <v>-1.973273396492004</v>
       </c>
       <c r="D178" t="n">
-        <v>-1.425250053405762</v>
+        <v>-0.5888862609863281</v>
       </c>
     </row>
     <row r="179">
@@ -2927,13 +2927,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5.003744602203369</v>
+        <v>-0.5668272972106934</v>
       </c>
       <c r="C179" t="n">
-        <v>-1.460050225257874</v>
+        <v>-2.543475866317749</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.757607460021973</v>
+        <v>-0.5774334073066711</v>
       </c>
     </row>
     <row r="180">
@@ -2941,13 +2941,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5.354779720306396</v>
+        <v>-0.730469286441803</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.607347726821899</v>
+        <v>-2.79344916343689</v>
       </c>
       <c r="D180" t="n">
-        <v>-2.034912824630737</v>
+        <v>-0.5594870448112488</v>
       </c>
     </row>
     <row r="181">
@@ -2955,13 +2955,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5.854671955108643</v>
+        <v>-0.7441703081130981</v>
       </c>
       <c r="C181" t="n">
-        <v>-1.726094484329224</v>
+        <v>-2.974890232086182</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.109820365905762</v>
+        <v>-0.7043075561523438</v>
       </c>
     </row>
     <row r="182">
@@ -2969,13 +2969,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5.445653438568115</v>
+        <v>-0.3387739956378937</v>
       </c>
       <c r="C182" t="n">
-        <v>-1.52155601978302</v>
+        <v>-2.602746725082397</v>
       </c>
       <c r="D182" t="n">
-        <v>-1.818027138710022</v>
+        <v>-0.8494477272033691</v>
       </c>
     </row>
     <row r="183">
@@ -2983,13 +2983,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5.256576061248779</v>
+        <v>-0.1164732947945595</v>
       </c>
       <c r="C183" t="n">
-        <v>-1.365200161933899</v>
+        <v>-2.350538730621338</v>
       </c>
       <c r="D183" t="n">
-        <v>-1.609379053115845</v>
+        <v>-0.850319504737854</v>
       </c>
     </row>
     <row r="184">
@@ -2997,13 +2997,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5.786448955535889</v>
+        <v>-0.1211389005184174</v>
       </c>
       <c r="C184" t="n">
-        <v>-1.464798808097839</v>
+        <v>-2.599469900131226</v>
       </c>
       <c r="D184" t="n">
-        <v>-1.806740641593933</v>
+        <v>-1.026998996734619</v>
       </c>
     </row>
     <row r="185">
@@ -3011,13 +3011,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5.939824104309082</v>
+        <v>0.1940098255872726</v>
       </c>
       <c r="C185" t="n">
-        <v>-1.396299242973328</v>
+        <v>-2.504674673080444</v>
       </c>
       <c r="D185" t="n">
-        <v>-1.588368892669678</v>
+        <v>-1.255190253257751</v>
       </c>
     </row>
     <row r="186">
@@ -3025,13 +3025,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6.418580055236816</v>
+        <v>0.1989138126373291</v>
       </c>
       <c r="C186" t="n">
-        <v>-1.56823468208313</v>
+        <v>-2.718293428421021</v>
       </c>
       <c r="D186" t="n">
-        <v>-1.653838396072388</v>
+        <v>-1.517685651779175</v>
       </c>
     </row>
     <row r="187">
@@ -3039,13 +3039,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5.875868320465088</v>
+        <v>0.4637820720672607</v>
       </c>
       <c r="C187" t="n">
-        <v>-1.398402690887451</v>
+        <v>-2.294200658798218</v>
       </c>
       <c r="D187" t="n">
-        <v>-1.376945495605469</v>
+        <v>-1.464743852615356</v>
       </c>
     </row>
     <row r="188">
@@ -3053,13 +3053,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5.40518856048584</v>
+        <v>0.5836523771286011</v>
       </c>
       <c r="C188" t="n">
-        <v>-1.220687627792358</v>
+        <v>-2.043738126754761</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.308247923851013</v>
+        <v>-1.301475882530212</v>
       </c>
     </row>
     <row r="189">
@@ -3067,13 +3067,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5.293261051177979</v>
+        <v>0.6466789245605469</v>
       </c>
       <c r="C189" t="n">
-        <v>-1.152450323104858</v>
+        <v>-1.977404117584229</v>
       </c>
       <c r="D189" t="n">
-        <v>-1.279008865356445</v>
+        <v>-1.193714737892151</v>
       </c>
     </row>
     <row r="190">
@@ -3081,13 +3081,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.671000957489014</v>
+        <v>0.5546519756317139</v>
       </c>
       <c r="C190" t="n">
-        <v>-0.9978740811347961</v>
+        <v>-1.85226309299469</v>
       </c>
       <c r="D190" t="n">
-        <v>-1.258654713630676</v>
+        <v>-0.9330296516418457</v>
       </c>
     </row>
     <row r="191">
@@ -3095,13 +3095,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5.143927574157715</v>
+        <v>0.4902923405170441</v>
       </c>
       <c r="C191" t="n">
-        <v>-1.072588324546814</v>
+        <v>-2.127488374710083</v>
       </c>
       <c r="D191" t="n">
-        <v>-1.381791234016418</v>
+        <v>-1.021308898925781</v>
       </c>
     </row>
     <row r="192">
@@ -3109,13 +3109,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5.724611282348633</v>
+        <v>0.3685319423675537</v>
       </c>
       <c r="C192" t="n">
-        <v>-1.15394926071167</v>
+        <v>-2.536617517471313</v>
       </c>
       <c r="D192" t="n">
-        <v>-1.576907753944397</v>
+        <v>-1.091609597206116</v>
       </c>
     </row>
     <row r="193">
@@ -3123,13 +3123,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>6.112408638000488</v>
+        <v>0.3555973172187805</v>
       </c>
       <c r="C193" t="n">
-        <v>-1.199308395385742</v>
+        <v>-2.857108592987061</v>
       </c>
       <c r="D193" t="n">
-        <v>-1.745550513267517</v>
+        <v>-1.252737283706665</v>
       </c>
     </row>
     <row r="194">
@@ -3137,13 +3137,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5.295321941375732</v>
+        <v>0.871023416519165</v>
       </c>
       <c r="C194" t="n">
-        <v>-0.8274742960929871</v>
+        <v>-2.30274224281311</v>
       </c>
       <c r="D194" t="n">
-        <v>-1.461777687072754</v>
+        <v>-1.080643534660339</v>
       </c>
     </row>
     <row r="195">
@@ -3151,13 +3151,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.466684341430664</v>
+        <v>1.252618074417114</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.6528869867324829</v>
+        <v>-1.825752258300781</v>
       </c>
       <c r="D195" t="n">
-        <v>-1.177953481674194</v>
+        <v>-0.8976678848266602</v>
       </c>
     </row>
     <row r="196">
@@ -3165,13 +3165,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.952346324920654</v>
+        <v>1.171302080154419</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.6471376419067383</v>
+        <v>-2.081299781799316</v>
       </c>
       <c r="D196" t="n">
-        <v>-1.200436353683472</v>
+        <v>-0.9719043970108032</v>
       </c>
     </row>
     <row r="197">
@@ -3179,13 +3179,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4.907393932342529</v>
+        <v>1.252644658088684</v>
       </c>
       <c r="C197" t="n">
-        <v>-0.6282995939254761</v>
+        <v>-1.990844964981079</v>
       </c>
       <c r="D197" t="n">
-        <v>-1.18565833568573</v>
+        <v>-0.9300467371940613</v>
       </c>
     </row>
     <row r="198">
@@ -3193,13 +3193,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5.302431583404541</v>
+        <v>1.136121034622192</v>
       </c>
       <c r="C198" t="n">
-        <v>-0.7267850637435913</v>
+        <v>-2.238304376602173</v>
       </c>
       <c r="D198" t="n">
-        <v>-1.149014949798584</v>
+        <v>-1.001444935798645</v>
       </c>
     </row>
     <row r="199">
@@ -3207,13 +3207,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.564882755279541</v>
+        <v>1.321803450584412</v>
       </c>
       <c r="C199" t="n">
-        <v>-0.548402726650238</v>
+        <v>-1.776885867118835</v>
       </c>
       <c r="D199" t="n">
-        <v>-1.030028820037842</v>
+        <v>-0.7706997394561768</v>
       </c>
     </row>
     <row r="200">
@@ -3221,13 +3221,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.297638416290283</v>
+        <v>1.309508800506592</v>
       </c>
       <c r="C200" t="n">
-        <v>-0.4366959929466248</v>
+        <v>-1.62851619720459</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.8171942830085754</v>
+        <v>-0.6881555914878845</v>
       </c>
     </row>
     <row r="201">
@@ -3235,13 +3235,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.245790958404541</v>
+        <v>1.334946155548096</v>
       </c>
       <c r="C201" t="n">
-        <v>-0.3927425742149353</v>
+        <v>-1.598922371864319</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.7397616505622864</v>
+        <v>-0.7075948119163513</v>
       </c>
     </row>
     <row r="202">
@@ -3249,13 +3249,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.125995635986328</v>
+        <v>1.308264255523682</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.4321607947349548</v>
+        <v>-1.56639575958252</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.7822445631027222</v>
+        <v>-0.6993367671966553</v>
       </c>
     </row>
     <row r="203">
@@ -3263,13 +3263,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.702334880828857</v>
+        <v>1.300213932991028</v>
       </c>
       <c r="C203" t="n">
-        <v>-0.4515893459320068</v>
+        <v>-1.804023385047913</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.8506113886833191</v>
+        <v>-0.7648760676383972</v>
       </c>
     </row>
     <row r="204">
@@ -3277,13 +3277,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5.309389114379883</v>
+        <v>1.04067075252533</v>
       </c>
       <c r="C204" t="n">
-        <v>-0.6169207096099854</v>
+        <v>-2.179561614990234</v>
       </c>
       <c r="D204" t="n">
-        <v>-1.126617074012756</v>
+        <v>-0.7789598703384399</v>
       </c>
     </row>
     <row r="205">
@@ -3291,13 +3291,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5.843454360961914</v>
+        <v>0.7884309887886047</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.7172973155975342</v>
+        <v>-2.508974075317383</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.426538705825806</v>
+        <v>-0.791083812713623</v>
       </c>
     </row>
     <row r="206">
@@ -3305,13 +3305,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5.085713863372803</v>
+        <v>0.8664441108703613</v>
       </c>
       <c r="C206" t="n">
-        <v>-0.4644529223442078</v>
+        <v>-2.003534555435181</v>
       </c>
       <c r="D206" t="n">
-        <v>-1.343291521072388</v>
+        <v>-0.6587048172950745</v>
       </c>
     </row>
     <row r="207">
@@ -3319,13 +3319,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.921223163604736</v>
+        <v>0.8654603958129883</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.3555790781974792</v>
+        <v>-1.820897221565247</v>
       </c>
       <c r="D207" t="n">
-        <v>-1.347377419471741</v>
+        <v>-0.6536128520965576</v>
       </c>
     </row>
     <row r="208">
@@ -3333,13 +3333,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5.464834690093994</v>
+        <v>0.6848355531692505</v>
       </c>
       <c r="C208" t="n">
-        <v>-0.5069133043289185</v>
+        <v>-2.071804523468018</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.663964152336121</v>
+        <v>-0.7894316911697388</v>
       </c>
     </row>
     <row r="209">
@@ -3347,13 +3347,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5.379164695739746</v>
+        <v>0.6309187412261963</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.5464908480644226</v>
+        <v>-2.116760969161987</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.637900829315186</v>
+        <v>-0.793092668056488</v>
       </c>
     </row>
     <row r="210">
@@ -3361,13 +3361,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5.512339115142822</v>
+        <v>0.5306676626205444</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.5302996039390564</v>
+        <v>-2.300738334655762</v>
       </c>
       <c r="D210" t="n">
-        <v>-1.712855815887451</v>
+        <v>-0.6899056434631348</v>
       </c>
     </row>
     <row r="211">
@@ -3375,13 +3375,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5.071966648101807</v>
+        <v>0.6496125459671021</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.4592410326004028</v>
+        <v>-1.992925643920898</v>
       </c>
       <c r="D211" t="n">
-        <v>-1.51901638507843</v>
+        <v>-0.6550407409667969</v>
       </c>
     </row>
     <row r="212">
@@ -3389,13 +3389,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5.031018257141113</v>
+        <v>0.6443473100662231</v>
       </c>
       <c r="C212" t="n">
-        <v>-0.4223611354827881</v>
+        <v>-1.935036778450012</v>
       </c>
       <c r="D212" t="n">
-        <v>-1.533081293106079</v>
+        <v>-0.6638052463531494</v>
       </c>
     </row>
     <row r="213">
@@ -3403,13 +3403,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.785062789916992</v>
+        <v>0.6622653007507324</v>
       </c>
       <c r="C213" t="n">
-        <v>-0.3976373076438904</v>
+        <v>-1.84142279624939</v>
       </c>
       <c r="D213" t="n">
-        <v>-1.477388381958008</v>
+        <v>-0.6147578954696655</v>
       </c>
     </row>
     <row r="214">
@@ -3417,13 +3417,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>4.58984899520874</v>
+        <v>0.6608396768569946</v>
       </c>
       <c r="C214" t="n">
-        <v>-0.4344695210456848</v>
+        <v>-1.770615220069885</v>
       </c>
       <c r="D214" t="n">
-        <v>-1.510225772857666</v>
+        <v>-0.5922069549560547</v>
       </c>
     </row>
     <row r="215">
@@ -3431,13 +3431,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5.446801662445068</v>
+        <v>0.610461950302124</v>
       </c>
       <c r="C215" t="n">
-        <v>-0.6212989091873169</v>
+        <v>-2.230298519134521</v>
       </c>
       <c r="D215" t="n">
-        <v>-1.862930536270142</v>
+        <v>-0.7799329161643982</v>
       </c>
     </row>
     <row r="216">
@@ -3445,13 +3445,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5.543776988983154</v>
+        <v>0.5305686593055725</v>
       </c>
       <c r="C216" t="n">
-        <v>-0.6988849639892578</v>
+        <v>-2.359827518463135</v>
       </c>
       <c r="D216" t="n">
-        <v>-1.971035718917847</v>
+        <v>-0.7864125370979309</v>
       </c>
     </row>
     <row r="217">
@@ -3459,13 +3459,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6.068701267242432</v>
+        <v>0.4370739758014679</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.6756263375282288</v>
+        <v>-2.673975467681885</v>
       </c>
       <c r="D217" t="n">
-        <v>-2.182495832443237</v>
+        <v>-0.7653197050094604</v>
       </c>
     </row>
     <row r="218">
@@ -3473,13 +3473,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5.18851375579834</v>
+        <v>0.6031783819198608</v>
       </c>
       <c r="C218" t="n">
-        <v>-0.5547543168067932</v>
+        <v>-2.152450323104858</v>
       </c>
       <c r="D218" t="n">
-        <v>-1.919958472251892</v>
+        <v>-0.6168733239173889</v>
       </c>
     </row>
     <row r="219">
@@ -3487,13 +3487,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5.134742259979248</v>
+        <v>0.5471940040588379</v>
       </c>
       <c r="C219" t="n">
-        <v>-0.4846851229667664</v>
+        <v>-2.084158658981323</v>
       </c>
       <c r="D219" t="n">
-        <v>-1.832906246185303</v>
+        <v>-0.6139169931411743</v>
       </c>
     </row>
     <row r="220">
@@ -3501,13 +3501,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5.452881813049316</v>
+        <v>0.518720805644989</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.5363733768463135</v>
+        <v>-2.273022890090942</v>
       </c>
       <c r="D220" t="n">
-        <v>-2.035117864608765</v>
+        <v>-0.5896738767623901</v>
       </c>
     </row>
     <row r="221">
@@ -3515,13 +3515,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>4.984260082244873</v>
+        <v>0.6744789481163025</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.4549738764762878</v>
+        <v>-1.957359671592712</v>
       </c>
       <c r="D221" t="n">
-        <v>-1.991491079330444</v>
+        <v>-0.5107481479644775</v>
       </c>
     </row>
     <row r="222">
@@ -3529,13 +3529,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5.351504325866699</v>
+        <v>0.5983384847640991</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.5223426818847656</v>
+        <v>-2.13922381401062</v>
       </c>
       <c r="D222" t="n">
-        <v>-2.145437240600586</v>
+        <v>-0.5333812236785889</v>
       </c>
     </row>
     <row r="223">
@@ -3543,13 +3543,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5.304343700408936</v>
+        <v>0.6015933156013489</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.4629747271537781</v>
+        <v>-2.081844806671143</v>
       </c>
       <c r="D223" t="n">
-        <v>-2.141225099563599</v>
+        <v>-0.5408740043640137</v>
       </c>
     </row>
     <row r="224">
@@ -3557,13 +3557,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4.883851051330566</v>
+        <v>0.6505435109138489</v>
       </c>
       <c r="C224" t="n">
-        <v>-0.391797661781311</v>
+        <v>-1.812926530838013</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.982561588287354</v>
+        <v>-0.4482347369194031</v>
       </c>
     </row>
     <row r="225">
@@ -3571,13 +3571,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4.98604679107666</v>
+        <v>0.6880406737327576</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.3826841115951538</v>
+        <v>-1.813311696052551</v>
       </c>
       <c r="D225" t="n">
-        <v>-2.014922142028809</v>
+        <v>-0.4813795983791351</v>
       </c>
     </row>
     <row r="226">
@@ -3585,13 +3585,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4.500663280487061</v>
+        <v>0.6173368692398071</v>
       </c>
       <c r="C226" t="n">
-        <v>-0.3103364109992981</v>
+        <v>-1.634815812110901</v>
       </c>
       <c r="D226" t="n">
-        <v>-1.953972220420837</v>
+        <v>-0.2119103521108627</v>
       </c>
     </row>
     <row r="227">
@@ -3599,13 +3599,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>5.161832809448242</v>
+        <v>0.3509150743484497</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.3270878195762634</v>
+        <v>-2.099344730377197</v>
       </c>
       <c r="D227" t="n">
-        <v>-2.122272491455078</v>
+        <v>-0.2890269160270691</v>
       </c>
     </row>
     <row r="228">
@@ -3613,13 +3613,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.417313575744629</v>
+        <v>0.1380323171615601</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.2855352759361267</v>
+        <v>-2.429013252258301</v>
       </c>
       <c r="D228" t="n">
-        <v>-2.267635822296143</v>
+        <v>-0.2253689467906952</v>
       </c>
     </row>
     <row r="229">
@@ -3627,13 +3627,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6.319965839385986</v>
+        <v>-0.2644612789154053</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.3360896706581116</v>
+        <v>-3.104518175125122</v>
       </c>
       <c r="D229" t="n">
-        <v>-2.678433656692505</v>
+        <v>-0.2213606536388397</v>
       </c>
     </row>
     <row r="230">
@@ -3641,13 +3641,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>5.101963520050049</v>
+        <v>0.1755641847848892</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.2300581932067871</v>
+        <v>-2.257516622543335</v>
       </c>
       <c r="D230" t="n">
-        <v>-2.188575029373169</v>
+        <v>-0.1130837425589561</v>
       </c>
     </row>
     <row r="231">
@@ -3655,13 +3655,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4.696959018707275</v>
+        <v>0.3658699989318848</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.1885695457458496</v>
+        <v>-1.952458262443542</v>
       </c>
       <c r="D231" t="n">
-        <v>-2.047921180725098</v>
+        <v>-0.04486227780580521</v>
       </c>
     </row>
     <row r="232">
@@ -3669,13 +3669,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>5.218649387359619</v>
+        <v>0.1159240901470184</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.1649835705757141</v>
+        <v>-2.355804204940796</v>
       </c>
       <c r="D232" t="n">
-        <v>-2.232345342636108</v>
+        <v>-0.03778789192438126</v>
       </c>
     </row>
     <row r="233">
@@ -3683,13 +3683,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>5.043570518493652</v>
+        <v>0.1711824834346771</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.1457690596580505</v>
+        <v>-2.260501623153687</v>
       </c>
       <c r="D233" t="n">
-        <v>-2.190370321273804</v>
+        <v>-0.003831515088677406</v>
       </c>
     </row>
     <row r="234">
@@ -3697,13 +3697,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>5.350347518920898</v>
+        <v>0.05533845722675323</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.17099928855896</v>
+        <v>-2.408786296844482</v>
       </c>
       <c r="D234" t="n">
-        <v>-2.338663578033447</v>
+        <v>-0.002876827493309975</v>
       </c>
     </row>
     <row r="235">
@@ -3711,13 +3711,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>5.096114158630371</v>
+        <v>0.1588755249977112</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.1596221923828125</v>
+        <v>-2.243073225021362</v>
       </c>
       <c r="D235" t="n">
-        <v>-2.230192184448242</v>
+        <v>0.0009839740814641118</v>
       </c>
     </row>
     <row r="236">
@@ -3725,13 +3725,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>4.682573795318604</v>
+        <v>0.4248498678207397</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.08375269174575806</v>
+        <v>-2.019135236740112</v>
       </c>
       <c r="D236" t="n">
-        <v>-2.010570764541626</v>
+        <v>-8.76131234690547e-05</v>
       </c>
     </row>
     <row r="237">
@@ -3739,13 +3739,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4.752111434936523</v>
+        <v>0.4829601943492889</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.0404437817633152</v>
+        <v>-2.047850370407104</v>
       </c>
       <c r="D237" t="n">
-        <v>-1.988068103790283</v>
+        <v>-0.01243245042860508</v>
       </c>
     </row>
     <row r="238">
@@ -3753,13 +3753,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4.334274768829346</v>
+        <v>0.5502334833145142</v>
       </c>
       <c r="C238" t="n">
-        <v>0.0357288084924221</v>
+        <v>-1.889902949333191</v>
       </c>
       <c r="D238" t="n">
-        <v>-1.821974515914917</v>
+        <v>0.07945593446493149</v>
       </c>
     </row>
     <row r="239">
@@ -3767,13 +3767,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4.878483295440674</v>
+        <v>0.2858042418956757</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.06071514263749123</v>
+        <v>-2.178689956665039</v>
       </c>
       <c r="D239" t="n">
-        <v>-2.102335214614868</v>
+        <v>0.07471639662981033</v>
       </c>
     </row>
     <row r="240">
@@ -3781,13 +3781,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>5.348870754241943</v>
+        <v>0.08476406335830688</v>
       </c>
       <c r="C240" t="n">
-        <v>-0.08139234781265259</v>
+        <v>-2.469159126281738</v>
       </c>
       <c r="D240" t="n">
-        <v>-2.350196123123169</v>
+        <v>0.1969222575426102</v>
       </c>
     </row>
     <row r="241">
@@ -3795,13 +3795,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>6.017838478088379</v>
+        <v>-0.1177665367722511</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.07780927419662476</v>
+        <v>-2.932857036590576</v>
       </c>
       <c r="D241" t="n">
-        <v>-2.573927640914917</v>
+        <v>0.2058099657297134</v>
       </c>
     </row>
     <row r="242">
@@ -3809,13 +3809,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4.97260570526123</v>
+        <v>0.2856790721416473</v>
       </c>
       <c r="C242" t="n">
-        <v>0.0316312275826931</v>
+        <v>-2.257028579711914</v>
       </c>
       <c r="D242" t="n">
-        <v>-2.068673133850098</v>
+        <v>0.1454453319311142</v>
       </c>
     </row>
     <row r="243">
@@ -3823,13 +3823,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>4.568999290466309</v>
+        <v>0.4046228528022766</v>
       </c>
       <c r="C243" t="n">
-        <v>0.03086840733885765</v>
+        <v>-2.006414413452148</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.911720275878906</v>
+        <v>0.1316124200820923</v>
       </c>
     </row>
     <row r="244">
@@ -3837,13 +3837,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>4.958930969238281</v>
+        <v>0.4359797239303589</v>
       </c>
       <c r="C244" t="n">
-        <v>0.04325836524367332</v>
+        <v>-2.396562814712524</v>
       </c>
       <c r="D244" t="n">
-        <v>-1.841467618942261</v>
+        <v>0.030183469876647</v>
       </c>
     </row>
     <row r="245">
@@ -3851,13 +3851,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>4.627678394317627</v>
+        <v>0.5453147888183594</v>
       </c>
       <c r="C245" t="n">
-        <v>0.1271352171897888</v>
+        <v>-2.238340139389038</v>
       </c>
       <c r="D245" t="n">
-        <v>-1.6999751329422</v>
+        <v>0.04017103463411331</v>
       </c>
     </row>
     <row r="246">
@@ -3865,13 +3865,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>5.061567306518555</v>
+        <v>0.443724125623703</v>
       </c>
       <c r="C246" t="n">
-        <v>0.09983116388320923</v>
+        <v>-2.627778768539429</v>
       </c>
       <c r="D246" t="n">
-        <v>-1.719987630844116</v>
+        <v>-0.04524876922369003</v>
       </c>
     </row>
     <row r="247">
@@ -3879,13 +3879,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4.837116241455078</v>
+        <v>0.7196608781814575</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1167173981666565</v>
+        <v>-2.415467023849487</v>
       </c>
       <c r="D247" t="n">
-        <v>-1.452389478683472</v>
+        <v>-0.1447845548391342</v>
       </c>
     </row>
     <row r="248">
@@ -3893,13 +3893,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4.458376884460449</v>
+        <v>0.8219488859176636</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1350796222686768</v>
+        <v>-2.128451108932495</v>
       </c>
       <c r="D248" t="n">
-        <v>-1.348903894424438</v>
+        <v>-0.1047555580735207</v>
       </c>
     </row>
     <row r="249">
@@ -3907,13 +3907,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4.746427059173584</v>
+        <v>0.8314599394798279</v>
       </c>
       <c r="C249" t="n">
-        <v>0.07255715131759644</v>
+        <v>-2.32701849937439</v>
       </c>
       <c r="D249" t="n">
-        <v>-1.331905126571655</v>
+        <v>-0.2016403675079346</v>
       </c>
     </row>
     <row r="250">
@@ -3921,13 +3921,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4.408390998840332</v>
+        <v>0.856043815612793</v>
       </c>
       <c r="C250" t="n">
-        <v>0.004516955465078354</v>
+        <v>-1.956286549568176</v>
       </c>
       <c r="D250" t="n">
-        <v>-1.454047560691833</v>
+        <v>-0.09073092043399811</v>
       </c>
     </row>
     <row r="251">
@@ -3935,13 +3935,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4.768162727355957</v>
+        <v>0.7442919015884399</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.07482302188873291</v>
+        <v>-2.254842519760132</v>
       </c>
       <c r="D251" t="n">
-        <v>-1.553710222244263</v>
+        <v>-0.1585981845855713</v>
       </c>
     </row>
     <row r="252">
@@ -3949,13 +3949,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>5.421185493469238</v>
+        <v>0.541716992855072</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.1045377850532532</v>
+        <v>-2.768332004547119</v>
       </c>
       <c r="D252" t="n">
-        <v>-1.694914579391479</v>
+        <v>-0.2503936886787415</v>
       </c>
     </row>
     <row r="253">
@@ -3963,13 +3963,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>6.250874996185303</v>
+        <v>0.1783289611339569</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.1208152174949646</v>
+        <v>-3.362282752990723</v>
       </c>
       <c r="D253" t="n">
-        <v>-2.201099872589111</v>
+        <v>-0.3093896508216858</v>
       </c>
     </row>
     <row r="254">
@@ -3977,13 +3977,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>5.499979019165039</v>
+        <v>0.4238841235637665</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.0562710203230381</v>
+        <v>-2.798963069915771</v>
       </c>
       <c r="D254" t="n">
-        <v>-1.869249105453491</v>
+        <v>-0.2268976122140884</v>
       </c>
     </row>
     <row r="255">
@@ -3991,13 +3991,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4.873424530029297</v>
+        <v>0.2034274935722351</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1302527785301208</v>
+        <v>-2.331184387207031</v>
       </c>
       <c r="D255" t="n">
-        <v>-1.984075784683228</v>
+        <v>0.2293092161417007</v>
       </c>
     </row>
     <row r="256">
@@ -4005,13 +4005,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4.747563362121582</v>
+        <v>0.3301325738430023</v>
       </c>
       <c r="C256" t="n">
-        <v>0.2726326584815979</v>
+        <v>-2.196249961853027</v>
       </c>
       <c r="D256" t="n">
-        <v>-1.922195672988892</v>
+        <v>0.4300343990325928</v>
       </c>
     </row>
     <row r="257">
@@ -4019,13 +4019,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4.688516616821289</v>
+        <v>0.3590540885925293</v>
       </c>
       <c r="C257" t="n">
-        <v>0.300383985042572</v>
+        <v>-2.128371715545654</v>
       </c>
       <c r="D257" t="n">
-        <v>-1.912705779075623</v>
+        <v>0.4504217505455017</v>
       </c>
     </row>
     <row r="258">
@@ -4033,13 +4033,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>5.065670013427734</v>
+        <v>0.2786467969417572</v>
       </c>
       <c r="C258" t="n">
-        <v>0.2456676363945007</v>
+        <v>-2.328616857528687</v>
       </c>
       <c r="D258" t="n">
-        <v>-2.085399389266968</v>
+        <v>0.5189909934997559</v>
       </c>
     </row>
     <row r="259">
@@ -4047,13 +4047,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4.561089992523193</v>
+        <v>0.4563979506492615</v>
       </c>
       <c r="C259" t="n">
-        <v>0.3673785924911499</v>
+        <v>-2.087532997131348</v>
       </c>
       <c r="D259" t="n">
-        <v>-1.771049380302429</v>
+        <v>0.4550273418426514</v>
       </c>
     </row>
     <row r="260">
@@ -4061,13 +4061,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>4.355942726135254</v>
+        <v>0.4806005656719208</v>
       </c>
       <c r="C260" t="n">
-        <v>0.4113900065422058</v>
+        <v>-1.988215088844299</v>
       </c>
       <c r="D260" t="n">
-        <v>-1.644824385643005</v>
+        <v>0.4166118800640106</v>
       </c>
     </row>
     <row r="261">
@@ -4075,13 +4075,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>4.513572216033936</v>
+        <v>0.4371654689311981</v>
       </c>
       <c r="C261" t="n">
-        <v>0.3470491170883179</v>
+        <v>-2.030930995941162</v>
       </c>
       <c r="D261" t="n">
-        <v>-1.751215219497681</v>
+        <v>0.4957692325115204</v>
       </c>
     </row>
     <row r="262">
@@ -4089,13 +4089,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>3.870758295059204</v>
+        <v>0.6370932459831238</v>
       </c>
       <c r="C262" t="n">
-        <v>0.4706354737281799</v>
+        <v>-1.682000756263733</v>
       </c>
       <c r="D262" t="n">
-        <v>-1.423707365989685</v>
+        <v>0.4251302778720856</v>
       </c>
     </row>
     <row r="263">
@@ -4103,13 +4103,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>4.491934776306152</v>
+        <v>0.5274380445480347</v>
       </c>
       <c r="C263" t="n">
-        <v>0.5845543742179871</v>
+        <v>-2.202566623687744</v>
       </c>
       <c r="D263" t="n">
-        <v>-1.528194546699524</v>
+        <v>0.4630027115345001</v>
       </c>
     </row>
     <row r="264">
@@ -4117,13 +4117,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>4.919507026672363</v>
+        <v>0.4468561112880707</v>
       </c>
       <c r="C264" t="n">
-        <v>0.5142367482185364</v>
+        <v>-2.509254455566406</v>
       </c>
       <c r="D264" t="n">
-        <v>-1.669364929199219</v>
+        <v>0.4540130198001862</v>
       </c>
     </row>
     <row r="265">
@@ -4131,13 +4131,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5.210729598999023</v>
+        <v>0.3992308080196381</v>
       </c>
       <c r="C265" t="n">
-        <v>0.5891038775444031</v>
+        <v>-2.741905212402344</v>
       </c>
       <c r="D265" t="n">
-        <v>-1.868051528930664</v>
+        <v>0.4357647597789764</v>
       </c>
     </row>
     <row r="266">
@@ -4145,13 +4145,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>4.493160724639893</v>
+        <v>0.6730526089668274</v>
       </c>
       <c r="C266" t="n">
-        <v>0.6535578966140747</v>
+        <v>-2.283076286315918</v>
       </c>
       <c r="D266" t="n">
-        <v>-1.479316711425781</v>
+        <v>0.3830046355724335</v>
       </c>
     </row>
     <row r="267">
@@ -4159,13 +4159,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>4.056793212890625</v>
+        <v>0.774005651473999</v>
       </c>
       <c r="C267" t="n">
-        <v>0.7549198269844055</v>
+        <v>-2.079294919967651</v>
       </c>
       <c r="D267" t="n">
-        <v>-1.20368504524231</v>
+        <v>0.3456130027770996</v>
       </c>
     </row>
     <row r="268">
@@ -4173,13 +4173,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>4.588839054107666</v>
+        <v>0.6764640212059021</v>
       </c>
       <c r="C268" t="n">
-        <v>0.63460373878479</v>
+        <v>-2.380510330200195</v>
       </c>
       <c r="D268" t="n">
-        <v>-1.363491773605347</v>
+        <v>0.3344114720821381</v>
       </c>
     </row>
     <row r="269">
@@ -4187,13 +4187,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>4.082627296447754</v>
+        <v>0.8110523223876953</v>
       </c>
       <c r="C269" t="n">
-        <v>0.8061836361885071</v>
+        <v>-2.183337211608887</v>
       </c>
       <c r="D269" t="n">
-        <v>-1.002195119857788</v>
+        <v>0.2954463064670563</v>
       </c>
     </row>
     <row r="270">
@@ -4201,13 +4201,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>4.156857490539551</v>
+        <v>0.8329533934593201</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9657560586929321</v>
+        <v>-2.400707721710205</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.8969777226448059</v>
+        <v>0.2953368127346039</v>
       </c>
     </row>
     <row r="271">
@@ -4215,13 +4215,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3.821414709091187</v>
+        <v>0.8965299129486084</v>
       </c>
       <c r="C271" t="n">
-        <v>1.040870547294617</v>
+        <v>-2.278414011001587</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.5464180111885071</v>
+        <v>0.2688548862934113</v>
       </c>
     </row>
     <row r="272">
@@ -4229,13 +4229,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3.748486280441284</v>
+        <v>0.9110782146453857</v>
       </c>
       <c r="C272" t="n">
-        <v>1.040706515312195</v>
+        <v>-2.166800975799561</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.7794039845466614</v>
+        <v>0.3003970086574554</v>
       </c>
     </row>
     <row r="273">
@@ -4243,13 +4243,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>3.593654870986938</v>
+        <v>1.011059045791626</v>
       </c>
       <c r="C273" t="n">
-        <v>1.061567783355713</v>
+        <v>-2.013813018798828</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.9758517742156982</v>
+        <v>0.3146005868911743</v>
       </c>
     </row>
     <row r="274">
@@ -4257,13 +4257,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>3.675653696060181</v>
+        <v>1.066266536712646</v>
       </c>
       <c r="C274" t="n">
-        <v>0.8424683809280396</v>
+        <v>-1.817085981369019</v>
       </c>
       <c r="D274" t="n">
-        <v>-1.240757822990417</v>
+        <v>0.2656160593032837</v>
       </c>
     </row>
     <row r="275">
@@ -4271,13 +4271,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>5.170550346374512</v>
+        <v>1.404508113861084</v>
       </c>
       <c r="C275" t="n">
-        <v>0.2266349196434021</v>
+        <v>-1.94547963142395</v>
       </c>
       <c r="D275" t="n">
-        <v>-2.448020458221436</v>
+        <v>0.01558165811002254</v>
       </c>
     </row>
     <row r="276">
@@ -4285,13 +4285,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>5.376341819763184</v>
+        <v>1.605460643768311</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1062785387039185</v>
+        <v>-1.876405835151672</v>
       </c>
       <c r="D276" t="n">
-        <v>-2.729963064193726</v>
+        <v>-0.08132733404636383</v>
       </c>
     </row>
     <row r="277">
@@ -4299,13 +4299,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6.230885982513428</v>
+        <v>1.671749234199524</v>
       </c>
       <c r="C277" t="n">
-        <v>0.04008322581648827</v>
+        <v>-2.222360610961914</v>
       </c>
       <c r="D277" t="n">
-        <v>-3.089772462844849</v>
+        <v>-0.2298423796892166</v>
       </c>
     </row>
     <row r="278">
@@ -4313,13 +4313,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>5.559171676635742</v>
+        <v>1.689062595367432</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1287676095962524</v>
+        <v>-1.850900053977966</v>
       </c>
       <c r="D278" t="n">
-        <v>-2.988508939743042</v>
+        <v>-0.1290646493434906</v>
       </c>
     </row>
     <row r="279">
@@ -4327,13 +4327,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>5.155404567718506</v>
+        <v>1.696919441223145</v>
       </c>
       <c r="C279" t="n">
-        <v>0.07174849510192871</v>
+        <v>-1.538614630699158</v>
       </c>
       <c r="D279" t="n">
-        <v>-2.676576375961304</v>
+        <v>-0.06983599066734314</v>
       </c>
     </row>
     <row r="280">
@@ -4341,13 +4341,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>5.489191055297852</v>
+        <v>1.739186644554138</v>
       </c>
       <c r="C280" t="n">
-        <v>0.07630854845046997</v>
+        <v>-1.687836289405823</v>
       </c>
       <c r="D280" t="n">
-        <v>-2.892599821090698</v>
+        <v>-0.1156852021813393</v>
       </c>
     </row>
     <row r="281">
@@ -4355,13 +4355,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>5.196798324584961</v>
+        <v>1.70754599571228</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1666703820228577</v>
+        <v>-1.627721905708313</v>
       </c>
       <c r="D281" t="n">
-        <v>-2.722883939743042</v>
+        <v>-0.02528985030949116</v>
       </c>
     </row>
     <row r="282">
@@ -4369,13 +4369,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>5.311405181884766</v>
+        <v>1.638553619384766</v>
       </c>
       <c r="C282" t="n">
-        <v>0.3310167789459229</v>
+        <v>-1.86573052406311</v>
       </c>
       <c r="D282" t="n">
-        <v>-2.620193004608154</v>
+        <v>0.0138487946242094</v>
       </c>
     </row>
     <row r="283">
@@ -4383,13 +4383,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>5.059999465942383</v>
+        <v>1.624605417251587</v>
       </c>
       <c r="C283" t="n">
-        <v>0.3644838333129883</v>
+        <v>-1.789669632911682</v>
       </c>
       <c r="D283" t="n">
-        <v>-2.436463594436646</v>
+        <v>0.0157028567045927</v>
       </c>
     </row>
     <row r="284">
@@ -4397,13 +4397,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4.81561279296875</v>
+        <v>1.626772165298462</v>
       </c>
       <c r="C284" t="n">
-        <v>0.345812201499939</v>
+        <v>-1.573238968849182</v>
       </c>
       <c r="D284" t="n">
-        <v>-2.398504495620728</v>
+        <v>0.03049212880432606</v>
       </c>
     </row>
     <row r="285">
@@ -4411,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4.770970821380615</v>
+        <v>1.61116361618042</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3805532455444336</v>
+        <v>-1.601695656776428</v>
       </c>
       <c r="D285" t="n">
-        <v>-2.325947999954224</v>
+        <v>0.05998773127794266</v>
       </c>
     </row>
     <row r="286">
@@ -4425,13 +4425,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4.543130397796631</v>
+        <v>1.605324625968933</v>
       </c>
       <c r="C286" t="n">
-        <v>0.4172137975692749</v>
+        <v>-1.521358609199524</v>
       </c>
       <c r="D286" t="n">
-        <v>-2.162450313568115</v>
+        <v>0.07700604945421219</v>
       </c>
     </row>
     <row r="287">
@@ -4439,13 +4439,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4.701512336730957</v>
+        <v>1.604767799377441</v>
       </c>
       <c r="C287" t="n">
-        <v>0.5284410119056702</v>
+        <v>-1.699808716773987</v>
       </c>
       <c r="D287" t="n">
-        <v>-2.210067510604858</v>
+        <v>0.1194772571325302</v>
       </c>
     </row>
     <row r="288">
@@ -4453,13 +4453,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>5.049351692199707</v>
+        <v>1.545408725738525</v>
       </c>
       <c r="C288" t="n">
-        <v>0.4758872389793396</v>
+        <v>-1.895986795425415</v>
       </c>
       <c r="D288" t="n">
-        <v>-2.344203233718872</v>
+        <v>0.08593081682920456</v>
       </c>
     </row>
     <row r="289">
@@ -4467,13 +4467,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>5.577496528625488</v>
+        <v>1.4912269115448</v>
       </c>
       <c r="C289" t="n">
-        <v>0.4842049479484558</v>
+        <v>-2.227081537246704</v>
       </c>
       <c r="D289" t="n">
-        <v>-2.541443824768066</v>
+        <v>0.0444515198469162</v>
       </c>
     </row>
     <row r="290">
@@ -4481,13 +4481,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>4.838847160339355</v>
+        <v>1.403535842895508</v>
       </c>
       <c r="C290" t="n">
-        <v>0.5593469142913818</v>
+        <v>-1.817420363426208</v>
       </c>
       <c r="D290" t="n">
-        <v>-2.208008050918579</v>
+        <v>0.2132729142904282</v>
       </c>
     </row>
     <row r="291">
@@ -4495,13 +4495,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>4.438461303710938</v>
+        <v>1.520095825195312</v>
       </c>
       <c r="C291" t="n">
-        <v>0.6299022436141968</v>
+        <v>-1.650458931922913</v>
       </c>
       <c r="D291" t="n">
-        <v>-1.963606834411621</v>
+        <v>0.1540612727403641</v>
       </c>
     </row>
     <row r="292">
@@ -4509,13 +4509,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>4.847070693969727</v>
+        <v>1.534494161605835</v>
       </c>
       <c r="C292" t="n">
-        <v>0.6630458831787109</v>
+        <v>-1.85771906375885</v>
       </c>
       <c r="D292" t="n">
-        <v>-2.166856527328491</v>
+        <v>0.1873217970132828</v>
       </c>
     </row>
     <row r="293">
@@ -4523,13 +4523,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>4.687060832977295</v>
+        <v>1.508174657821655</v>
       </c>
       <c r="C293" t="n">
-        <v>0.7181761860847473</v>
+        <v>-1.824346899986267</v>
       </c>
       <c r="D293" t="n">
-        <v>-2.040030717849731</v>
+        <v>0.1850871294736862</v>
       </c>
     </row>
     <row r="294">
@@ -4537,13 +4537,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5.117684364318848</v>
+        <v>1.57362699508667</v>
       </c>
       <c r="C294" t="n">
-        <v>0.5370483994483948</v>
+        <v>-1.902574062347412</v>
       </c>
       <c r="D294" t="n">
-        <v>-2.411091089248657</v>
+        <v>0.1407130062580109</v>
       </c>
     </row>
     <row r="295">
@@ -4551,13 +4551,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5.155198097229004</v>
+        <v>1.651799201965332</v>
       </c>
       <c r="C295" t="n">
-        <v>0.5044993162155151</v>
+        <v>-1.880715727806091</v>
       </c>
       <c r="D295" t="n">
-        <v>-2.449886083602905</v>
+        <v>0.09134469926357269</v>
       </c>
     </row>
     <row r="296">
@@ -4565,13 +4565,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>4.810882091522217</v>
+        <v>1.590477466583252</v>
       </c>
       <c r="C296" t="n">
-        <v>0.5692828297615051</v>
+        <v>-1.723452925682068</v>
       </c>
       <c r="D296" t="n">
-        <v>-2.250479698181152</v>
+        <v>0.1426243036985397</v>
       </c>
     </row>
     <row r="297">
@@ -4579,13 +4579,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>4.854121208190918</v>
+        <v>1.56432056427002</v>
       </c>
       <c r="C297" t="n">
-        <v>0.5270788669586182</v>
+        <v>-1.711589455604553</v>
       </c>
       <c r="D297" t="n">
-        <v>-2.294028043746948</v>
+        <v>0.1595123559236526</v>
       </c>
     </row>
     <row r="298">
@@ -4593,13 +4593,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>4.232666015625</v>
+        <v>1.545802235603333</v>
       </c>
       <c r="C298" t="n">
-        <v>0.7026472091674805</v>
+        <v>-1.443579316139221</v>
       </c>
       <c r="D298" t="n">
-        <v>-1.83621883392334</v>
+        <v>0.3040506541728973</v>
       </c>
     </row>
     <row r="299">
@@ -4607,13 +4607,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>4.871924877166748</v>
+        <v>1.505867481231689</v>
       </c>
       <c r="C299" t="n">
-        <v>0.647922158241272</v>
+        <v>-1.867758870124817</v>
       </c>
       <c r="D299" t="n">
-        <v>-2.10606050491333</v>
+        <v>0.2746059596538544</v>
       </c>
     </row>
     <row r="300">
@@ -4621,13 +4621,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>5.363678932189941</v>
+        <v>1.468011021614075</v>
       </c>
       <c r="C300" t="n">
-        <v>0.574790894985199</v>
+        <v>-2.168719530105591</v>
       </c>
       <c r="D300" t="n">
-        <v>-2.397699594497681</v>
+        <v>0.2246963977813721</v>
       </c>
     </row>
     <row r="301">
@@ -4635,13 +4635,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>5.883649826049805</v>
+        <v>1.06303334236145</v>
       </c>
       <c r="C301" t="n">
-        <v>0.5886743664741516</v>
+        <v>-2.539316654205322</v>
       </c>
       <c r="D301" t="n">
-        <v>-2.525539398193359</v>
+        <v>0.6244599223136902</v>
       </c>
     </row>
     <row r="302">
@@ -4649,13 +4649,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4.909456253051758</v>
+        <v>1.276140332221985</v>
       </c>
       <c r="C302" t="n">
-        <v>0.801447868347168</v>
+        <v>-1.982711315155029</v>
       </c>
       <c r="D302" t="n">
-        <v>-2.045625925064087</v>
+        <v>0.4686422646045685</v>
       </c>
     </row>
     <row r="303">
@@ -4663,13 +4663,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>4.412593841552734</v>
+        <v>1.403156042098999</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8816149830818176</v>
+        <v>-1.80110490322113</v>
       </c>
       <c r="D303" t="n">
-        <v>-1.72131335735321</v>
+        <v>0.3520995080471039</v>
       </c>
     </row>
     <row r="304">
@@ -4677,13 +4677,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>4.773514270782471</v>
+        <v>1.395158767700195</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9618545174598694</v>
+        <v>-2.120674848556519</v>
       </c>
       <c r="D304" t="n">
-        <v>-1.830331087112427</v>
+        <v>0.3525908291339874</v>
       </c>
     </row>
     <row r="305">
@@ -4691,13 +4691,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>4.456608772277832</v>
+        <v>1.426477909088135</v>
       </c>
       <c r="C305" t="n">
-        <v>1.088885307312012</v>
+        <v>-2.065804481506348</v>
       </c>
       <c r="D305" t="n">
-        <v>-1.639782547950745</v>
+        <v>0.3544462025165558</v>
       </c>
     </row>
     <row r="306">
@@ -4705,13 +4705,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>4.970659255981445</v>
+        <v>1.385870218276978</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9141486287117004</v>
+        <v>-2.234896659851074</v>
       </c>
       <c r="D306" t="n">
-        <v>-1.975821733474731</v>
+        <v>0.3143063485622406</v>
       </c>
     </row>
     <row r="307">
@@ -4719,13 +4719,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>4.752768516540527</v>
+        <v>1.389540672302246</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8480799198150635</v>
+        <v>-2.039910554885864</v>
       </c>
       <c r="D307" t="n">
-        <v>-1.865261197090149</v>
+        <v>0.2719524204730988</v>
       </c>
     </row>
     <row r="308">
@@ -4733,13 +4733,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>4.345934867858887</v>
+        <v>1.327019691467285</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9190665483474731</v>
+        <v>-1.843501329421997</v>
       </c>
       <c r="D308" t="n">
-        <v>-1.649317145347595</v>
+        <v>0.3597842752933502</v>
       </c>
     </row>
     <row r="309">
@@ -4747,13 +4747,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>4.683812618255615</v>
+        <v>1.410384893417358</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8143702745437622</v>
+        <v>-1.93178379535675</v>
       </c>
       <c r="D309" t="n">
-        <v>-1.836794495582581</v>
+        <v>0.2887597382068634</v>
       </c>
     </row>
     <row r="310">
@@ -4761,13 +4761,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>4.562295436859131</v>
+        <v>1.53836989402771</v>
       </c>
       <c r="C310" t="n">
-        <v>0.6708402037620544</v>
+        <v>-1.674709677696228</v>
       </c>
       <c r="D310" t="n">
-        <v>-1.965826869010925</v>
+        <v>0.2713811993598938</v>
       </c>
     </row>
     <row r="311">
@@ -4775,13 +4775,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>5.01075267791748</v>
+        <v>1.534540891647339</v>
       </c>
       <c r="C311" t="n">
-        <v>0.7709832787513733</v>
+        <v>-2.038467884063721</v>
       </c>
       <c r="D311" t="n">
-        <v>-2.146305799484253</v>
+        <v>0.2710740864276886</v>
       </c>
     </row>
     <row r="312">
@@ -4789,13 +4789,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>5.147027492523193</v>
+        <v>1.463789463043213</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8446822166442871</v>
+        <v>-2.236284017562866</v>
       </c>
       <c r="D312" t="n">
-        <v>-2.068154096603394</v>
+        <v>0.2559794485569</v>
       </c>
     </row>
     <row r="313">
@@ -4803,13 +4803,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>5.70184850692749</v>
+        <v>1.40776538848877</v>
       </c>
       <c r="C313" t="n">
-        <v>0.7949547171592712</v>
+        <v>-2.505563259124756</v>
       </c>
       <c r="D313" t="n">
-        <v>-2.374599695205688</v>
+        <v>0.2358975559473038</v>
       </c>
     </row>
     <row r="314">
@@ -4817,13 +4817,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>5.124082088470459</v>
+        <v>1.373701810836792</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9127443432807922</v>
+        <v>-2.169332027435303</v>
       </c>
       <c r="D314" t="n">
-        <v>-2.179413557052612</v>
+        <v>0.443167120218277</v>
       </c>
     </row>
     <row r="315">
@@ -4831,13 +4831,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>4.994267463684082</v>
+        <v>1.417917013168335</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9985488057136536</v>
+        <v>-2.139773607254028</v>
       </c>
       <c r="D315" t="n">
-        <v>-2.070392847061157</v>
+        <v>0.4747178852558136</v>
       </c>
     </row>
     <row r="316">
@@ -4845,13 +4845,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>5.018549919128418</v>
+        <v>1.430644035339355</v>
       </c>
       <c r="C316" t="n">
-        <v>1.002150774002075</v>
+        <v>-2.122888565063477</v>
       </c>
       <c r="D316" t="n">
-        <v>-2.129565715789795</v>
+        <v>0.4941310286521912</v>
       </c>
     </row>
     <row r="317">
@@ -4859,13 +4859,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>4.902636528015137</v>
+        <v>1.528881072998047</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9823998808860779</v>
+        <v>-2.077811479568481</v>
       </c>
       <c r="D317" t="n">
-        <v>-2.069756507873535</v>
+        <v>0.3951508104801178</v>
       </c>
     </row>
     <row r="318">
@@ -4873,13 +4873,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>5.184858798980713</v>
+        <v>1.552038669586182</v>
       </c>
       <c r="C318" t="n">
-        <v>0.7230228781700134</v>
+        <v>-1.975648880004883</v>
       </c>
       <c r="D318" t="n">
-        <v>-2.374430179595947</v>
+        <v>0.3480114042758942</v>
       </c>
     </row>
     <row r="319">
@@ -4887,13 +4887,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>5.012939929962158</v>
+        <v>1.59151554107666</v>
       </c>
       <c r="C319" t="n">
-        <v>0.7119016647338867</v>
+        <v>-1.867166042327881</v>
       </c>
       <c r="D319" t="n">
-        <v>-2.351117610931396</v>
+        <v>0.3553391098976135</v>
       </c>
     </row>
     <row r="320">
@@ -4901,13 +4901,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>4.832529067993164</v>
+        <v>1.603170871734619</v>
       </c>
       <c r="C320" t="n">
-        <v>0.7820203900337219</v>
+        <v>-1.794316172599792</v>
       </c>
       <c r="D320" t="n">
-        <v>-2.264990329742432</v>
+        <v>0.4654041826725006</v>
       </c>
     </row>
     <row r="321">
@@ -4915,13 +4915,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>4.783588409423828</v>
+        <v>1.52328634262085</v>
       </c>
       <c r="C321" t="n">
-        <v>0.8679782152175903</v>
+        <v>-1.803719997406006</v>
       </c>
       <c r="D321" t="n">
-        <v>-2.168505430221558</v>
+        <v>0.4979375600814819</v>
       </c>
     </row>
     <row r="322">
@@ -4929,13 +4929,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>4.268255233764648</v>
+        <v>1.546220541000366</v>
       </c>
       <c r="C322" t="n">
-        <v>0.8836799263954163</v>
+        <v>-1.476459383964539</v>
       </c>
       <c r="D322" t="n">
-        <v>-1.869109511375427</v>
+        <v>0.4490231871604919</v>
       </c>
     </row>
     <row r="323">
@@ -4943,13 +4943,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>5.222550392150879</v>
+        <v>1.505958080291748</v>
       </c>
       <c r="C323" t="n">
-        <v>0.7896108627319336</v>
+        <v>-2.039756059646606</v>
       </c>
       <c r="D323" t="n">
-        <v>-2.434100389480591</v>
+        <v>0.5514615774154663</v>
       </c>
     </row>
     <row r="324">
@@ -4957,13 +4957,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>5.387435913085938</v>
+        <v>1.42572033405304</v>
       </c>
       <c r="C324" t="n">
-        <v>0.804514467716217</v>
+        <v>-2.150890827178955</v>
       </c>
       <c r="D324" t="n">
-        <v>-2.51117992401123</v>
+        <v>0.6590718626976013</v>
       </c>
     </row>
     <row r="325">
@@ -4971,13 +4971,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>5.826111316680908</v>
+        <v>1.234047412872314</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8202539086341858</v>
+        <v>-2.422076225280762</v>
       </c>
       <c r="D325" t="n">
-        <v>-2.708384275436401</v>
+        <v>0.7384520769119263</v>
       </c>
     </row>
     <row r="326">
@@ -4985,13 +4985,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>5.151993274688721</v>
+        <v>1.534237384796143</v>
       </c>
       <c r="C326" t="n">
-        <v>1.005468368530273</v>
+        <v>-2.095557451248169</v>
       </c>
       <c r="D326" t="n">
-        <v>-2.320346593856812</v>
+        <v>0.5338888764381409</v>
       </c>
     </row>
     <row r="327">
@@ -4999,13 +4999,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>4.791189193725586</v>
+        <v>1.697386860847473</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9631850719451904</v>
+        <v>-1.807262778282166</v>
       </c>
       <c r="D327" t="n">
-        <v>-2.200062036514282</v>
+        <v>0.4752708375453949</v>
       </c>
     </row>
     <row r="328">
@@ -5013,13 +5013,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>5.010558605194092</v>
+        <v>1.705971240997314</v>
       </c>
       <c r="C328" t="n">
-        <v>1.013976216316223</v>
+        <v>-1.935800671577454</v>
       </c>
       <c r="D328" t="n">
-        <v>-2.304661750793457</v>
+        <v>0.5628910660743713</v>
       </c>
     </row>
     <row r="329">
@@ -5027,13 +5027,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>4.920880794525146</v>
+        <v>1.737006187438965</v>
       </c>
       <c r="C329" t="n">
-        <v>0.949089527130127</v>
+        <v>-1.830875635147095</v>
       </c>
       <c r="D329" t="n">
-        <v>-2.308716058731079</v>
+        <v>0.5132411122322083</v>
       </c>
     </row>
     <row r="330">
@@ -5041,13 +5041,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>5.462642669677734</v>
+        <v>1.62972354888916</v>
       </c>
       <c r="C330" t="n">
-        <v>0.8703199625015259</v>
+        <v>-2.109710931777954</v>
       </c>
       <c r="D330" t="n">
-        <v>-2.589326143264771</v>
+        <v>0.6119681596755981</v>
       </c>
     </row>
     <row r="331">
@@ -5055,13 +5055,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>4.924901485443115</v>
+        <v>1.819691777229309</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9596816301345825</v>
+        <v>-1.864333629608154</v>
       </c>
       <c r="D331" t="n">
-        <v>-2.299850702285767</v>
+        <v>0.4539330303668976</v>
       </c>
     </row>
     <row r="332">
@@ -5069,13 +5069,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>4.86317253112793</v>
+        <v>1.856136560440063</v>
       </c>
       <c r="C332" t="n">
-        <v>1.044179201126099</v>
+        <v>-1.884500026702881</v>
       </c>
       <c r="D332" t="n">
-        <v>-2.136614084243774</v>
+        <v>0.3446413278579712</v>
       </c>
     </row>
     <row r="333">
@@ -5083,13 +5083,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>4.664392948150635</v>
+        <v>1.814150452613831</v>
       </c>
       <c r="C333" t="n">
-        <v>1.127856135368347</v>
+        <v>-1.816852211952209</v>
       </c>
       <c r="D333" t="n">
-        <v>-2.023240566253662</v>
+        <v>0.4182268083095551</v>
       </c>
     </row>
     <row r="334">
@@ -5097,13 +5097,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>4.412342548370361</v>
+        <v>1.846411228179932</v>
       </c>
       <c r="C334" t="n">
-        <v>1.074977993965149</v>
+        <v>-1.626662135124207</v>
       </c>
       <c r="D334" t="n">
-        <v>-1.978255987167358</v>
+        <v>0.4324832260608673</v>
       </c>
     </row>
     <row r="335">
@@ -5111,13 +5111,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>5.168798446655273</v>
+        <v>1.696531772613525</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9970290064811707</v>
+        <v>-2.054013252258301</v>
       </c>
       <c r="D335" t="n">
-        <v>-2.394527673721313</v>
+        <v>0.6171537041664124</v>
       </c>
     </row>
     <row r="336">
@@ -5125,13 +5125,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>5.298942089080811</v>
+        <v>1.654413938522339</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9610463380813599</v>
+        <v>-2.07146692276001</v>
       </c>
       <c r="D336" t="n">
-        <v>-2.487219572067261</v>
+        <v>0.6248944401741028</v>
       </c>
     </row>
     <row r="337">
@@ -5139,13 +5139,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>5.842082023620605</v>
+        <v>1.481297254562378</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9580485224723816</v>
+        <v>-2.43668794631958</v>
       </c>
       <c r="D337" t="n">
-        <v>-2.705337762832642</v>
+        <v>0.7028228044509888</v>
       </c>
     </row>
     <row r="338">
@@ -5153,13 +5153,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>5.075482845306396</v>
+        <v>1.677037239074707</v>
       </c>
       <c r="C338" t="n">
-        <v>1.044413685798645</v>
+        <v>-1.974993824958801</v>
       </c>
       <c r="D338" t="n">
-        <v>-2.353240013122559</v>
+        <v>0.556223452091217</v>
       </c>
     </row>
     <row r="339">
@@ -5167,13 +5167,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>4.880149364471436</v>
+        <v>1.7814040184021</v>
       </c>
       <c r="C339" t="n">
-        <v>1.125837206840515</v>
+        <v>-1.893572926521301</v>
       </c>
       <c r="D339" t="n">
-        <v>-2.217299938201904</v>
+        <v>0.5263339877128601</v>
       </c>
     </row>
     <row r="340">
@@ -5181,13 +5181,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>5.039976596832275</v>
+        <v>1.762108325958252</v>
       </c>
       <c r="C340" t="n">
-        <v>1.111831545829773</v>
+        <v>-1.957762002944946</v>
       </c>
       <c r="D340" t="n">
-        <v>-2.296372652053833</v>
+        <v>0.5598262548446655</v>
       </c>
     </row>
     <row r="341">
@@ -5195,13 +5195,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>4.708317756652832</v>
+        <v>1.820337057113647</v>
       </c>
       <c r="C341" t="n">
-        <v>1.117692828178406</v>
+        <v>-1.830464005470276</v>
       </c>
       <c r="D341" t="n">
-        <v>-2.111154794692993</v>
+        <v>0.4785879850387573</v>
       </c>
     </row>
     <row r="342">
@@ -5209,13 +5209,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>4.963291645050049</v>
+        <v>1.779419898986816</v>
       </c>
       <c r="C342" t="n">
-        <v>1.161227583885193</v>
+        <v>-2.045955896377563</v>
       </c>
       <c r="D342" t="n">
-        <v>-2.187199831008911</v>
+        <v>0.490134060382843</v>
       </c>
     </row>
     <row r="343">
@@ -5223,13 +5223,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>4.539216041564941</v>
+        <v>1.877440690994263</v>
       </c>
       <c r="C343" t="n">
-        <v>1.224500417709351</v>
+        <v>-1.863789916038513</v>
       </c>
       <c r="D343" t="n">
-        <v>-1.95468544960022</v>
+        <v>0.4224428832530975</v>
       </c>
     </row>
     <row r="344">
@@ -5237,13 +5237,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>4.706196308135986</v>
+        <v>1.823271751403809</v>
       </c>
       <c r="C344" t="n">
-        <v>1.113278269767761</v>
+        <v>-1.845848202705383</v>
       </c>
       <c r="D344" t="n">
-        <v>-2.095885515213013</v>
+        <v>0.4514318406581879</v>
       </c>
     </row>
     <row r="345">
@@ -5251,13 +5251,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>4.471953392028809</v>
+        <v>1.854942083358765</v>
       </c>
       <c r="C345" t="n">
-        <v>1.134674906730652</v>
+        <v>-1.67749035358429</v>
       </c>
       <c r="D345" t="n">
-        <v>-2.020457983016968</v>
+        <v>0.455558180809021</v>
       </c>
     </row>
     <row r="346">
@@ -5265,13 +5265,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>4.433289527893066</v>
+        <v>1.832291603088379</v>
       </c>
       <c r="C346" t="n">
-        <v>1.065847754478455</v>
+        <v>-1.571034789085388</v>
       </c>
       <c r="D346" t="n">
-        <v>-2.059260606765747</v>
+        <v>0.4840466380119324</v>
       </c>
     </row>
     <row r="347">
@@ -5279,13 +5279,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>5.264596939086914</v>
+        <v>1.730077743530273</v>
       </c>
       <c r="C347" t="n">
-        <v>0.928936243057251</v>
+        <v>-1.96449339389801</v>
       </c>
       <c r="D347" t="n">
-        <v>-2.574533939361572</v>
+        <v>0.6499139666557312</v>
       </c>
     </row>
     <row r="348">
@@ -5293,13 +5293,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>5.113563537597656</v>
+        <v>1.717960000038147</v>
       </c>
       <c r="C348" t="n">
-        <v>0.8466065526008606</v>
+        <v>-1.714520812034607</v>
       </c>
       <c r="D348" t="n">
-        <v>-2.648888826370239</v>
+        <v>0.6979594826698303</v>
       </c>
     </row>
     <row r="349">
@@ -5307,13 +5307,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>6.144752502441406</v>
+        <v>1.383672118186951</v>
       </c>
       <c r="C349" t="n">
-        <v>0.682330310344696</v>
+        <v>-2.068481206893921</v>
       </c>
       <c r="D349" t="n">
-        <v>-3.264543771743774</v>
+        <v>1.080355167388916</v>
       </c>
     </row>
     <row r="350">
@@ -5321,13 +5321,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>5.782545566558838</v>
+        <v>1.419936299324036</v>
       </c>
       <c r="C350" t="n">
-        <v>0.7051302194595337</v>
+        <v>-1.811408877372742</v>
       </c>
       <c r="D350" t="n">
-        <v>-3.133445262908936</v>
+        <v>1.023420333862305</v>
       </c>
     </row>
     <row r="351">
@@ -5335,13 +5335,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>5.058173656463623</v>
+        <v>1.621613502502441</v>
       </c>
       <c r="C351" t="n">
-        <v>0.7667115330696106</v>
+        <v>-1.499299883842468</v>
       </c>
       <c r="D351" t="n">
-        <v>-2.761126756668091</v>
+        <v>0.8749415278434753</v>
       </c>
     </row>
     <row r="352">
@@ -5349,13 +5349,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>5.84876823425293</v>
+        <v>1.470003366470337</v>
       </c>
       <c r="C352" t="n">
-        <v>0.773669421672821</v>
+        <v>-1.902060627937317</v>
       </c>
       <c r="D352" t="n">
-        <v>-3.179478645324707</v>
+        <v>1.075727820396423</v>
       </c>
     </row>
     <row r="353">
@@ -5363,13 +5363,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>5.308574199676514</v>
+        <v>1.629774332046509</v>
       </c>
       <c r="C353" t="n">
-        <v>0.8194639086723328</v>
+        <v>-1.723506093025208</v>
       </c>
       <c r="D353" t="n">
-        <v>-2.836499452590942</v>
+        <v>0.8504655361175537</v>
       </c>
     </row>
     <row r="354">
@@ -5377,13 +5377,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>5.551415920257568</v>
+        <v>1.535795211791992</v>
       </c>
       <c r="C354" t="n">
-        <v>0.7687451243400574</v>
+        <v>-1.789767384529114</v>
       </c>
       <c r="D354" t="n">
-        <v>-2.952196598052979</v>
+        <v>0.9155740737915039</v>
       </c>
     </row>
     <row r="355">
@@ -5391,13 +5391,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>5.345253467559814</v>
+        <v>1.698776483535767</v>
       </c>
       <c r="C355" t="n">
-        <v>0.7914158701896667</v>
+        <v>-1.744681715965271</v>
       </c>
       <c r="D355" t="n">
-        <v>-2.807705402374268</v>
+        <v>0.7677340507507324</v>
       </c>
     </row>
     <row r="356">
@@ -5405,13 +5405,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>5.237808227539062</v>
+        <v>1.690412521362305</v>
       </c>
       <c r="C356" t="n">
-        <v>0.7193439602851868</v>
+        <v>-1.614949345588684</v>
       </c>
       <c r="D356" t="n">
-        <v>-2.843183755874634</v>
+        <v>0.7930477857589722</v>
       </c>
     </row>
     <row r="357">
@@ -5419,13 +5419,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>5.141745090484619</v>
+        <v>1.790302634239197</v>
       </c>
       <c r="C357" t="n">
-        <v>0.7248625755310059</v>
+        <v>-1.459383726119995</v>
       </c>
       <c r="D357" t="n">
-        <v>-2.836778402328491</v>
+        <v>0.7862656712532043</v>
       </c>
     </row>
     <row r="358">
@@ -5433,13 +5433,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4.938311100006104</v>
+        <v>1.833107709884644</v>
       </c>
       <c r="C358" t="n">
-        <v>0.7259637713432312</v>
+        <v>-1.408914685249329</v>
       </c>
       <c r="D358" t="n">
-        <v>-2.747058629989624</v>
+        <v>0.7374975681304932</v>
       </c>
     </row>
     <row r="359">
@@ -5447,13 +5447,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>5.336677074432373</v>
+        <v>1.755134224891663</v>
       </c>
       <c r="C359" t="n">
-        <v>0.7692996263504028</v>
+        <v>-1.632963061332703</v>
       </c>
       <c r="D359" t="n">
-        <v>-2.899950265884399</v>
+        <v>0.8347977995872498</v>
       </c>
     </row>
     <row r="360">
@@ -5461,13 +5461,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>5.534751892089844</v>
+        <v>1.683102607727051</v>
       </c>
       <c r="C360" t="n">
-        <v>0.7506771683692932</v>
+        <v>-1.715721607208252</v>
       </c>
       <c r="D360" t="n">
-        <v>-2.996595144271851</v>
+        <v>0.9237849116325378</v>
       </c>
     </row>
     <row r="361">
@@ -5475,13 +5475,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>6.201029300689697</v>
+        <v>1.500027656555176</v>
       </c>
       <c r="C361" t="n">
-        <v>0.6379894614219666</v>
+        <v>-1.839897036552429</v>
       </c>
       <c r="D361" t="n">
-        <v>-3.404842615127563</v>
+        <v>1.171863555908203</v>
       </c>
     </row>
     <row r="362">
@@ -5489,13 +5489,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>5.631088733673096</v>
+        <v>1.701598405838013</v>
       </c>
       <c r="C362" t="n">
-        <v>0.7364643812179565</v>
+        <v>-1.534442543983459</v>
       </c>
       <c r="D362" t="n">
-        <v>-3.205189943313599</v>
+        <v>1.079846858978271</v>
       </c>
     </row>
     <row r="363">
@@ -5503,13 +5503,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>5.546728610992432</v>
+        <v>1.777414083480835</v>
       </c>
       <c r="C363" t="n">
-        <v>0.7279770374298096</v>
+        <v>-1.338543653488159</v>
       </c>
       <c r="D363" t="n">
-        <v>-3.240195989608765</v>
+        <v>1.186788201332092</v>
       </c>
     </row>
     <row r="364">
@@ -5517,13 +5517,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>5.744647026062012</v>
+        <v>1.798028826713562</v>
       </c>
       <c r="C364" t="n">
-        <v>0.8078230619430542</v>
+        <v>-1.66689133644104</v>
       </c>
       <c r="D364" t="n">
-        <v>-3.189969301223755</v>
+        <v>1.016555309295654</v>
       </c>
     </row>
     <row r="365">
@@ -5531,13 +5531,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>5.259556293487549</v>
+        <v>1.842971086502075</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8688094615936279</v>
+        <v>-1.515535473823547</v>
       </c>
       <c r="D365" t="n">
-        <v>-2.917117834091187</v>
+        <v>0.889096736907959</v>
       </c>
     </row>
     <row r="366">
@@ -5545,13 +5545,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>5.53221607208252</v>
+        <v>1.861990690231323</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8625336289405823</v>
+        <v>-1.664957642555237</v>
       </c>
       <c r="D366" t="n">
-        <v>-3.034544706344604</v>
+        <v>0.883566677570343</v>
       </c>
     </row>
     <row r="367">
@@ -5559,13 +5559,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5.276273727416992</v>
+        <v>1.923034429550171</v>
       </c>
       <c r="C367" t="n">
-        <v>0.8809311389923096</v>
+        <v>-1.623220324516296</v>
       </c>
       <c r="D367" t="n">
-        <v>-2.877393960952759</v>
+        <v>0.7733054757118225</v>
       </c>
     </row>
     <row r="368">
@@ -5573,13 +5573,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5.099566459655762</v>
+        <v>1.847036600112915</v>
       </c>
       <c r="C368" t="n">
-        <v>0.8416496515274048</v>
+        <v>-1.457976937294006</v>
       </c>
       <c r="D368" t="n">
-        <v>-2.860577583312988</v>
+        <v>0.8548814654350281</v>
       </c>
     </row>
     <row r="369">
@@ -5587,13 +5587,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>5.244479179382324</v>
+        <v>1.827683925628662</v>
       </c>
       <c r="C369" t="n">
-        <v>0.8627203702926636</v>
+        <v>-1.490832209587097</v>
       </c>
       <c r="D369" t="n">
-        <v>-2.943372011184692</v>
+        <v>0.906970202922821</v>
       </c>
     </row>
     <row r="370">
@@ -5601,13 +5601,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>4.844457626342773</v>
+        <v>2.071104288101196</v>
       </c>
       <c r="C370" t="n">
-        <v>0.7633205056190491</v>
+        <v>-0.9630569815635681</v>
       </c>
       <c r="D370" t="n">
-        <v>-2.953802585601807</v>
+        <v>1.028840184211731</v>
       </c>
     </row>
     <row r="371">
@@ -5615,13 +5615,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>5.256463050842285</v>
+        <v>1.974607467651367</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9783850312232971</v>
+        <v>-1.57513153553009</v>
       </c>
       <c r="D371" t="n">
-        <v>-2.8618004322052</v>
+        <v>0.8458470702171326</v>
       </c>
     </row>
     <row r="372">
@@ -5629,13 +5629,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5.500792503356934</v>
+        <v>2.013474702835083</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9626079797744751</v>
+        <v>-1.638996720314026</v>
       </c>
       <c r="D372" t="n">
-        <v>-3.019631624221802</v>
+        <v>0.8685084581375122</v>
       </c>
     </row>
     <row r="373">
@@ -5643,13 +5643,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5.911679744720459</v>
+        <v>1.945374965667725</v>
       </c>
       <c r="C373" t="n">
-        <v>0.9673990607261658</v>
+        <v>-1.673240542411804</v>
       </c>
       <c r="D373" t="n">
-        <v>-3.352692127227783</v>
+        <v>1.065988779067993</v>
       </c>
     </row>
     <row r="374">
@@ -5657,13 +5657,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5.643478870391846</v>
+        <v>2.144388198852539</v>
       </c>
       <c r="C374" t="n">
-        <v>1.036734461784363</v>
+        <v>-1.377024531364441</v>
       </c>
       <c r="D374" t="n">
-        <v>-3.255526065826416</v>
+        <v>1.140955567359924</v>
       </c>
     </row>
     <row r="375">
@@ -5671,13 +5671,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5.146598815917969</v>
+        <v>2.247138261795044</v>
       </c>
       <c r="C375" t="n">
-        <v>1.061992526054382</v>
+        <v>-1.371178030967712</v>
       </c>
       <c r="D375" t="n">
-        <v>-2.869604587554932</v>
+        <v>0.8201861381530762</v>
       </c>
     </row>
     <row r="376">
@@ -5685,13 +5685,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5.381705284118652</v>
+        <v>2.155287981033325</v>
       </c>
       <c r="C376" t="n">
-        <v>1.072432518005371</v>
+        <v>-1.508416295051575</v>
       </c>
       <c r="D376" t="n">
-        <v>-2.973733425140381</v>
+        <v>0.9015392661094666</v>
       </c>
     </row>
     <row r="377">
@@ -5699,13 +5699,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5.057911396026611</v>
+        <v>2.22325587272644</v>
       </c>
       <c r="C377" t="n">
-        <v>1.068691849708557</v>
+        <v>-1.39723813533783</v>
       </c>
       <c r="D377" t="n">
-        <v>-2.803141117095947</v>
+        <v>0.8154707551002502</v>
       </c>
     </row>
     <row r="378">
@@ -5713,13 +5713,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>5.567600250244141</v>
+        <v>2.075477361679077</v>
       </c>
       <c r="C378" t="n">
-        <v>1.065245270729065</v>
+        <v>-1.617844820022583</v>
       </c>
       <c r="D378" t="n">
-        <v>-3.098782777786255</v>
+        <v>0.9631166458129883</v>
       </c>
     </row>
     <row r="379">
@@ -5727,13 +5727,13 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>5.109628677368164</v>
+        <v>2.198134899139404</v>
       </c>
       <c r="C379" t="n">
-        <v>1.052902102470398</v>
+        <v>-1.448129653930664</v>
       </c>
       <c r="D379" t="n">
-        <v>-2.824939966201782</v>
+        <v>0.8053476810455322</v>
       </c>
     </row>
     <row r="380">
@@ -5741,13 +5741,13 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>4.941720008850098</v>
+        <v>2.313722372055054</v>
       </c>
       <c r="C380" t="n">
-        <v>1.038583993911743</v>
+        <v>-1.230120539665222</v>
       </c>
       <c r="D380" t="n">
-        <v>-2.796239614486694</v>
+        <v>0.8223904371261597</v>
       </c>
     </row>
     <row r="381">
@@ -5755,13 +5755,13 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>5.082329750061035</v>
+        <v>2.322052717208862</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9869157671928406</v>
+        <v>-1.090768933296204</v>
       </c>
       <c r="D381" t="n">
-        <v>-2.985662937164307</v>
+        <v>0.9991875290870667</v>
       </c>
     </row>
     <row r="382">
@@ -5769,13 +5769,13 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>4.948328495025635</v>
+        <v>2.331741094589233</v>
       </c>
       <c r="C382" t="n">
-        <v>1.047439694404602</v>
+        <v>-1.214862823486328</v>
       </c>
       <c r="D382" t="n">
-        <v>-2.811950922012329</v>
+        <v>0.8189165592193604</v>
       </c>
     </row>
     <row r="383">
@@ -5783,13 +5783,13 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>5.097498893737793</v>
+        <v>2.286528348922729</v>
       </c>
       <c r="C383" t="n">
-        <v>1.15118396282196</v>
+        <v>-1.467530846595764</v>
       </c>
       <c r="D383" t="n">
-        <v>-2.752093076705933</v>
+        <v>0.7959381341934204</v>
       </c>
     </row>
     <row r="384">
@@ -5797,13 +5797,13 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>5.432100296020508</v>
+        <v>2.201488256454468</v>
       </c>
       <c r="C384" t="n">
-        <v>1.175101041793823</v>
+        <v>-1.717554450035095</v>
       </c>
       <c r="D384" t="n">
-        <v>-2.923729419708252</v>
+        <v>0.8614134788513184</v>
       </c>
     </row>
     <row r="385">
@@ -5811,13 +5811,13 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>5.838414192199707</v>
+        <v>2.272424936294556</v>
       </c>
       <c r="C385" t="n">
-        <v>1.18260395526886</v>
+        <v>-1.610362887382507</v>
       </c>
       <c r="D385" t="n">
-        <v>-3.278925657272339</v>
+        <v>1.182396531105042</v>
       </c>
     </row>
     <row r="386">
@@ -5825,13 +5825,13 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>6.13385009765625</v>
+        <v>2.422848463058472</v>
       </c>
       <c r="C386" t="n">
-        <v>1.243687033653259</v>
+        <v>-1.56955349445343</v>
       </c>
       <c r="D386" t="n">
-        <v>-3.477099180221558</v>
+        <v>1.335057020187378</v>
       </c>
     </row>
     <row r="387">
@@ -5839,13 +5839,13 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>5.145112037658691</v>
+        <v>2.679060220718384</v>
       </c>
       <c r="C387" t="n">
-        <v>1.174503445625305</v>
+        <v>-1.067306160926819</v>
       </c>
       <c r="D387" t="n">
-        <v>-2.957488298416138</v>
+        <v>1.098363995552063</v>
       </c>
     </row>
     <row r="388">
@@ -5853,13 +5853,13 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>5.350805759429932</v>
+        <v>2.424784421920776</v>
       </c>
       <c r="C388" t="n">
-        <v>1.256003499031067</v>
+        <v>-1.598242402076721</v>
       </c>
       <c r="D388" t="n">
-        <v>-2.900229215621948</v>
+        <v>0.843389630317688</v>
       </c>
     </row>
     <row r="389">
@@ -5867,13 +5867,13 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>5.098281860351562</v>
+        <v>2.601821660995483</v>
       </c>
       <c r="C389" t="n">
-        <v>1.238536715507507</v>
+        <v>-1.363280534744263</v>
       </c>
       <c r="D389" t="n">
-        <v>-2.796065330505371</v>
+        <v>0.8290301561355591</v>
       </c>
     </row>
     <row r="390">
@@ -5881,13 +5881,13 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>5.373003005981445</v>
+        <v>2.453259944915771</v>
       </c>
       <c r="C390" t="n">
-        <v>1.264693140983582</v>
+        <v>-1.639070153236389</v>
       </c>
       <c r="D390" t="n">
-        <v>-2.904964685440063</v>
+        <v>0.7926569581031799</v>
       </c>
     </row>
     <row r="391">
@@ -5895,13 +5895,13 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>4.97694730758667</v>
+        <v>2.608448266983032</v>
       </c>
       <c r="C391" t="n">
-        <v>1.270601272583008</v>
+        <v>-1.489024877548218</v>
       </c>
       <c r="D391" t="n">
-        <v>-2.665892124176025</v>
+        <v>0.6474619507789612</v>
       </c>
     </row>
     <row r="392">
@@ -5909,13 +5909,13 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>5.15367603302002</v>
+        <v>2.644793033599854</v>
       </c>
       <c r="C392" t="n">
-        <v>1.202285289764404</v>
+        <v>-1.335626125335693</v>
       </c>
       <c r="D392" t="n">
-        <v>-2.880083084106445</v>
+        <v>0.8293123245239258</v>
       </c>
     </row>
     <row r="393">
@@ -5923,13 +5923,13 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>5.080018520355225</v>
+        <v>2.79107403755188</v>
       </c>
       <c r="C393" t="n">
-        <v>1.179040431976318</v>
+        <v>-1.021091103553772</v>
       </c>
       <c r="D393" t="n">
-        <v>-2.944374561309814</v>
+        <v>1.0169837474823</v>
       </c>
     </row>
     <row r="394">
@@ -5937,13 +5937,13 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>4.708827495574951</v>
+        <v>2.898977518081665</v>
       </c>
       <c r="C394" t="n">
-        <v>1.212722182273865</v>
+        <v>-0.9311556220054626</v>
       </c>
       <c r="D394" t="n">
-        <v>-2.671560525894165</v>
+        <v>0.8545039892196655</v>
       </c>
     </row>
     <row r="395">
@@ -5951,13 +5951,13 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>5.419925689697266</v>
+        <v>2.490761518478394</v>
       </c>
       <c r="C395" t="n">
-        <v>1.29239821434021</v>
+        <v>-1.641623377799988</v>
       </c>
       <c r="D395" t="n">
-        <v>-2.898587942123413</v>
+        <v>0.8095900416374207</v>
       </c>
     </row>
     <row r="396">
@@ -5965,13 +5965,13 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>5.404413223266602</v>
+        <v>2.382164239883423</v>
       </c>
       <c r="C396" t="n">
-        <v>1.244087338447571</v>
+        <v>-1.649162173271179</v>
       </c>
       <c r="D396" t="n">
-        <v>-2.909653186798096</v>
+        <v>0.8539727330207825</v>
       </c>
     </row>
   </sheetData>
